--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4262F1-F336-4552-8E59-99F9477F4D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F5D99-AB56-4993-9B66-87363BD83EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1065" windowWidth="21270" windowHeight="15135" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -921,10 +921,10 @@
   <dimension ref="A1:FL93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F5D99-AB56-4993-9B66-87363BD83EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E3D7B-DA1C-4B33-9E9B-A2A1013B3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="2805" yWindow="870" windowWidth="20505" windowHeight="13845" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -921,10 +921,10 @@
   <dimension ref="A1:FL93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E1F24-DD14-4AD3-978C-8EBFCAC15B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102A6D1-BAA9-460A-8333-F3EE4D0B68FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1695" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -975,12 +975,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -996,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>298</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,7 +1024,7 @@
       </c>
       <c r="F4" s="1">
         <f>F3*F2</f>
-        <v>959844.88800000004</v>
+        <v>1175648.94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,13 +1063,13 @@
       </c>
       <c r="F7" s="1">
         <f>F4+F6-F5</f>
-        <v>942788.88800000004</v>
+        <v>1158592.94</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8" s="10">
         <f>F2/model!P19</f>
-        <v>64.585424795644172</v>
+        <v>79.106308893993699</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,10 +1105,10 @@
   <dimension ref="A1:FP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB138" sqref="AB138"/>
+      <selection pane="bottomRight" activeCell="AC135" sqref="AC135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,23 +1267,23 @@
       </c>
       <c r="U2" s="1">
         <f t="shared" si="6"/>
-        <v>325452.47005715931</v>
+        <v>291550.75898349611</v>
       </c>
       <c r="V2" s="1">
         <f t="shared" ref="V2:Y2" si="7">(V46*V52)/1000000</f>
-        <v>383977.1788409971</v>
+        <v>333344.97335248115</v>
       </c>
       <c r="W2" s="1">
         <f t="shared" si="7"/>
-        <v>458591.21788818378</v>
+        <v>388007.30453001201</v>
       </c>
       <c r="X2" s="1">
         <f t="shared" si="7"/>
-        <v>555960.9896010732</v>
+        <v>461694.55482659745</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" si="7"/>
-        <v>686106.48210667691</v>
+        <v>563842.71940094559</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1484,23 +1486,23 @@
       </c>
       <c r="U5" s="3">
         <f t="shared" ref="U5:Y5" si="23">SUM(U2:U4)</f>
-        <v>420650.63163220894</v>
+        <v>386748.92055854574</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="23"/>
-        <v>505073.63555441867</v>
+        <v>454441.43006590271</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="23"/>
-        <v>612716.78148129454</v>
+        <v>542132.86812312272</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" si="23"/>
-        <v>752232.43290553882</v>
+        <v>657965.99813106307</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="23"/>
-        <v>936185.5395879253</v>
+        <v>813921.77688219398</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1548,23 +1550,23 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="24"/>
-        <v>195262.9332090925</v>
+        <v>174922.797078345</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" ref="V6:Y6" si="25">V2*(1-V22)</f>
-        <v>228840.21160456908</v>
+        <v>198664.76041507014</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="25"/>
-        <v>271455.36916725693</v>
+        <v>229674.40714590397</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="25"/>
-        <v>326823.07796580985</v>
+        <v>271408.31517109676</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="25"/>
-        <v>400501.66539468069</v>
+        <v>329132.50935535325</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1767,23 +1769,23 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" ref="U9:Y9" si="33">SUM(U6:U8)</f>
-        <v>269701.09189414472</v>
+        <v>249360.95576339721</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="33"/>
-        <v>323791.6256478047</v>
+        <v>293616.17445830576</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="33"/>
-        <v>392648.10175424779</v>
+        <v>350867.13973289484</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" si="33"/>
-        <v>481604.03028243815</v>
+        <v>426189.26748772501</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="33"/>
-        <v>598298.99449625693</v>
+        <v>526929.83845692943</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1860,23 +1862,23 @@
       </c>
       <c r="U10" s="3">
         <f t="shared" ref="U10:Y10" si="39">U5-U9</f>
-        <v>150949.53973806422</v>
+        <v>137387.96479514852</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="39"/>
-        <v>181282.00990661397</v>
+        <v>160825.25560759695</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" si="39"/>
-        <v>220068.67972704675</v>
+        <v>191265.72839022789</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" si="39"/>
-        <v>270628.40262310067</v>
+        <v>231776.73064333806</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" si="39"/>
-        <v>337886.54509166838</v>
+        <v>286991.93842526455</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1923,23 +1925,23 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="40"/>
-        <v>19549.123427272272</v>
+        <v>17973.590944168263</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ref="V11:Y11" si="41">U11*(1+V30)</f>
-        <v>23472.559171021196</v>
+        <v>21119.501407505355</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="41"/>
-        <v>28475.117083888599</v>
+        <v>25194.832851663192</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="41"/>
-        <v>34958.90311588849</v>
+        <v>30578.008307042954</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="41"/>
-        <v>43507.85494655728</v>
+        <v>37825.825233341799</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1986,23 +1988,23 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="42"/>
-        <v>22175.767764416785</v>
+        <v>20388.544793494835</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" ref="V12:Y12" si="43">U12*(1+V30)</f>
-        <v>26626.361174176025</v>
+        <v>23957.14366710409</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="43"/>
-        <v>32301.068938772307</v>
+        <v>28580.041670939521</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="43"/>
-        <v>39656.024459653236</v>
+        <v>34686.507220544314</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="43"/>
-        <v>49353.624003253295</v>
+        <v>42908.149769099167</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -2079,23 +2081,23 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="52"/>
-        <v>41724.891191689057</v>
+        <v>38362.135737663099</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" ref="V13:Y13" si="53">SUM(V11:V12)</f>
-        <v>50098.920345197221</v>
+        <v>45076.645074609449</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="53"/>
-        <v>60776.186022660906</v>
+        <v>53774.874522602709</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="53"/>
-        <v>74614.927575541718</v>
+        <v>65264.515527587268</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="53"/>
-        <v>92861.478949810582</v>
+        <v>80733.975002440973</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -2172,23 +2174,23 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" ref="U14:Y14" si="59">U10-U13</f>
-        <v>109224.64854637516</v>
+        <v>99025.829057485418</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="59"/>
-        <v>131183.08956141674</v>
+        <v>115748.6105329875</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="59"/>
-        <v>159292.49370438585</v>
+        <v>137490.85386762518</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="59"/>
-        <v>196013.47504755895</v>
+        <v>166512.21511575079</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="59"/>
-        <v>245025.06614185779</v>
+        <v>206257.96342282358</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
@@ -2251,19 +2253,19 @@
       </c>
       <c r="V15" s="1">
         <f t="shared" si="60"/>
-        <v>17946.511458773901</v>
+        <v>17463.087415000526</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="60"/>
-        <v>25015.254547130939</v>
+        <v>23777.321897735157</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" si="60"/>
-        <v>33751.44181425283</v>
+        <v>31421.433429013236</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="60"/>
-        <v>44642.29887350271</v>
+        <v>40803.488370035055</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2340,23 +2342,23 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" ref="U16:Y16" si="66">U14+U15</f>
-        <v>121416.0397223115</v>
+        <v>111217.22023342176</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="66"/>
-        <v>149129.60102019063</v>
+        <v>133211.69794798802</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="66"/>
-        <v>184307.74825151678</v>
+        <v>161268.17576536033</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="66"/>
-        <v>229764.91686181177</v>
+        <v>197933.64854476403</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="66"/>
-        <v>289667.36501536053</v>
+        <v>247061.45179285863</v>
       </c>
     </row>
     <row r="17" spans="2:172" x14ac:dyDescent="0.2">
@@ -2403,23 +2405,23 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="67"/>
-        <v>25497.368341685415</v>
+        <v>23355.616249018567</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ref="V17:Y17" si="68">V16*V32</f>
-        <v>31317.21621424003</v>
+        <v>27974.456569077483</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="68"/>
-        <v>38704.627132818525</v>
+        <v>33866.316910725669</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="68"/>
-        <v>48250.63254098047</v>
+        <v>41566.066194400446</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="68"/>
-        <v>60830.146653225711</v>
+        <v>51882.90487650031</v>
       </c>
     </row>
     <row r="18" spans="2:172" ht="15" x14ac:dyDescent="0.25">
@@ -2497,611 +2499,611 @@
       </c>
       <c r="U18" s="3">
         <f t="shared" si="78"/>
-        <v>95918.671380626081</v>
+        <v>87861.603984403191</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ref="V18:Y18" si="79">V16-V17</f>
-        <v>117812.3848059506</v>
+        <v>105237.24137891055</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" si="79"/>
-        <v>145603.12111869827</v>
+        <v>127401.85885463466</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" si="79"/>
-        <v>181514.2843208313</v>
+        <v>156367.58235036358</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="79"/>
-        <v>228837.21836213482</v>
+        <v>195178.54691635832</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ref="Z18:BE18" si="80">Y18*(1+$AB$132)</f>
-        <v>231125.59054575616</v>
+        <v>197130.33238552191</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="80"/>
-        <v>233436.84645121373</v>
+        <v>199101.63570937712</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="80"/>
-        <v>235771.21491572587</v>
+        <v>201092.65206647091</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="80"/>
-        <v>238128.92706488312</v>
+        <v>203103.57858713562</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" si="80"/>
-        <v>240510.21633553194</v>
+        <v>205134.61437300697</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="80"/>
-        <v>242915.31849888727</v>
+        <v>207185.96051673705</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" si="80"/>
-        <v>245344.47168387615</v>
+        <v>209257.82012190443</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" si="80"/>
-        <v>247797.91640071492</v>
+        <v>211350.39832312346</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="80"/>
-        <v>250275.89556472207</v>
+        <v>213463.90230635469</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="80"/>
-        <v>252778.65452036928</v>
+        <v>215598.54132941825</v>
       </c>
       <c r="AJ18" s="3">
         <f t="shared" si="80"/>
-        <v>255306.44106557299</v>
+        <v>217754.52674271245</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" si="80"/>
-        <v>257859.50547622872</v>
+        <v>219932.07201013959</v>
       </c>
       <c r="AL18" s="3">
         <f t="shared" si="80"/>
-        <v>260438.10053099101</v>
+        <v>222131.39273024097</v>
       </c>
       <c r="AM18" s="3">
         <f t="shared" si="80"/>
-        <v>263042.48153630091</v>
+        <v>224352.70665754337</v>
       </c>
       <c r="AN18" s="3">
         <f t="shared" si="80"/>
-        <v>265672.90635166393</v>
+        <v>226596.23372411879</v>
       </c>
       <c r="AO18" s="3">
         <f t="shared" si="80"/>
-        <v>268329.63541518059</v>
+        <v>228862.19606135998</v>
       </c>
       <c r="AP18" s="3">
         <f t="shared" si="80"/>
-        <v>271012.93176933238</v>
+        <v>231150.8180219736</v>
       </c>
       <c r="AQ18" s="3">
         <f t="shared" si="80"/>
-        <v>273723.06108702574</v>
+        <v>233462.32620219333</v>
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="80"/>
-        <v>276460.29169789597</v>
+        <v>235796.94946421526</v>
       </c>
       <c r="AS18" s="3">
         <f t="shared" si="80"/>
-        <v>279224.89461487491</v>
+        <v>238154.91895885742</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="80"/>
-        <v>282017.14356102364</v>
+        <v>240536.468148446</v>
       </c>
       <c r="AU18" s="3">
         <f t="shared" si="80"/>
-        <v>284837.31499663385</v>
+        <v>242941.83282993047</v>
       </c>
       <c r="AV18" s="3">
         <f t="shared" si="80"/>
-        <v>287685.68814660021</v>
+        <v>245371.25115822977</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" si="80"/>
-        <v>290562.5450280662</v>
+        <v>247824.96366981207</v>
       </c>
       <c r="AX18" s="3">
         <f t="shared" si="80"/>
-        <v>293468.17047834687</v>
+        <v>250303.21330651021</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" si="80"/>
-        <v>296402.85218313034</v>
+        <v>252806.24543957532</v>
       </c>
       <c r="AZ18" s="3">
         <f t="shared" si="80"/>
-        <v>299366.88070496166</v>
+        <v>255334.30789397107</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" si="80"/>
-        <v>302360.54951201129</v>
+        <v>257887.65097291078</v>
       </c>
       <c r="BB18" s="3">
         <f t="shared" si="80"/>
-        <v>305384.1550071314</v>
+        <v>260466.52748263988</v>
       </c>
       <c r="BC18" s="3">
         <f t="shared" si="80"/>
-        <v>308437.99655720271</v>
+        <v>263071.19275746628</v>
       </c>
       <c r="BD18" s="3">
         <f t="shared" si="80"/>
-        <v>311522.37652277475</v>
+        <v>265701.90468504094</v>
       </c>
       <c r="BE18" s="3">
         <f t="shared" si="80"/>
-        <v>314637.60028800252</v>
+        <v>268358.92373189132</v>
       </c>
       <c r="BF18" s="3">
         <f t="shared" ref="BF18:CK18" si="81">BE18*(1+$AB$132)</f>
-        <v>317783.97629088257</v>
+        <v>271042.51296921022</v>
       </c>
       <c r="BG18" s="3">
         <f t="shared" si="81"/>
-        <v>320961.81605379138</v>
+        <v>273752.93809890235</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" si="81"/>
-        <v>324171.43421432929</v>
+        <v>276490.46747989138</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" si="81"/>
-        <v>327413.14855647256</v>
+        <v>279255.37215469027</v>
       </c>
       <c r="BJ18" s="3">
         <f t="shared" si="81"/>
-        <v>330687.28004203731</v>
+        <v>282047.92587623716</v>
       </c>
       <c r="BK18" s="3">
         <f t="shared" si="81"/>
-        <v>333994.1528424577</v>
+        <v>284868.40513499954</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" si="81"/>
-        <v>337334.09437088226</v>
+        <v>287717.08918634953</v>
       </c>
       <c r="BM18" s="3">
         <f t="shared" si="81"/>
-        <v>340707.4353145911</v>
+        <v>290594.26007821306</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" si="81"/>
-        <v>344114.509667737</v>
+        <v>293500.20267899521</v>
       </c>
       <c r="BO18" s="3">
         <f t="shared" si="81"/>
-        <v>347555.65476441436</v>
+        <v>296435.20470578515</v>
       </c>
       <c r="BP18" s="3">
         <f t="shared" si="81"/>
-        <v>351031.2113120585</v>
+        <v>299399.55675284303</v>
       </c>
       <c r="BQ18" s="3">
         <f t="shared" si="81"/>
-        <v>354541.52342517907</v>
+        <v>302393.55232037144</v>
       </c>
       <c r="BR18" s="3">
         <f t="shared" si="81"/>
-        <v>358086.93865943089</v>
+        <v>305417.48784357513</v>
       </c>
       <c r="BS18" s="3">
         <f t="shared" si="81"/>
-        <v>361667.80804602522</v>
+        <v>308471.66272201086</v>
       </c>
       <c r="BT18" s="3">
         <f t="shared" si="81"/>
-        <v>365284.48612648546</v>
+        <v>311556.37934923096</v>
       </c>
       <c r="BU18" s="3">
         <f t="shared" si="81"/>
-        <v>368937.33098775032</v>
+        <v>314671.94314272329</v>
       </c>
       <c r="BV18" s="3">
         <f t="shared" si="81"/>
-        <v>372626.70429762785</v>
+        <v>317818.66257415054</v>
       </c>
       <c r="BW18" s="3">
         <f t="shared" si="81"/>
-        <v>376352.97134060413</v>
+        <v>320996.84919989202</v>
       </c>
       <c r="BX18" s="3">
         <f t="shared" si="81"/>
-        <v>380116.50105401018</v>
+        <v>324206.81769189093</v>
       </c>
       <c r="BY18" s="3">
         <f t="shared" si="81"/>
-        <v>383917.66606455029</v>
+        <v>327448.88586880983</v>
       </c>
       <c r="BZ18" s="3">
         <f t="shared" si="81"/>
-        <v>387756.84272519581</v>
+        <v>330723.37472749793</v>
       </c>
       <c r="CA18" s="3">
         <f t="shared" si="81"/>
-        <v>391634.41115244775</v>
+        <v>334030.60847477289</v>
       </c>
       <c r="CB18" s="3">
         <f t="shared" si="81"/>
-        <v>395550.75526397221</v>
+        <v>337370.91455952061</v>
       </c>
       <c r="CC18" s="3">
         <f t="shared" si="81"/>
-        <v>399506.26281661191</v>
+        <v>340744.62370511581</v>
       </c>
       <c r="CD18" s="3">
         <f t="shared" si="81"/>
-        <v>403501.32544477802</v>
+        <v>344152.06994216697</v>
       </c>
       <c r="CE18" s="3">
         <f t="shared" si="81"/>
-        <v>407536.3386992258</v>
+        <v>347593.59064158867</v>
       </c>
       <c r="CF18" s="3">
         <f t="shared" si="81"/>
-        <v>411611.70208621805</v>
+        <v>351069.52654800453</v>
       </c>
       <c r="CG18" s="3">
         <f t="shared" si="81"/>
-        <v>415727.81910708023</v>
+        <v>354580.22181348456</v>
       </c>
       <c r="CH18" s="3">
         <f t="shared" si="81"/>
-        <v>419885.09729815106</v>
+        <v>358126.02403161942</v>
       </c>
       <c r="CI18" s="3">
         <f t="shared" si="81"/>
-        <v>424083.9482711326</v>
+        <v>361707.28427193564</v>
       </c>
       <c r="CJ18" s="3">
         <f t="shared" si="81"/>
-        <v>428324.78775384394</v>
+        <v>365324.35711465502</v>
       </c>
       <c r="CK18" s="3">
         <f t="shared" si="81"/>
-        <v>432608.03563138237</v>
+        <v>368977.60068580159</v>
       </c>
       <c r="CL18" s="3">
         <f t="shared" ref="CL18:DQ18" si="82">CK18*(1+$AB$132)</f>
-        <v>436934.11598769622</v>
+        <v>372667.37669265963</v>
       </c>
       <c r="CM18" s="3">
         <f t="shared" si="82"/>
-        <v>441303.45714757318</v>
+        <v>376394.0504595862</v>
       </c>
       <c r="CN18" s="3">
         <f t="shared" si="82"/>
-        <v>445716.49171904894</v>
+        <v>380157.99096418207</v>
       </c>
       <c r="CO18" s="3">
         <f t="shared" si="82"/>
-        <v>450173.65663623944</v>
+        <v>383959.57087382389</v>
       </c>
       <c r="CP18" s="3">
         <f t="shared" si="82"/>
-        <v>454675.39320260182</v>
+        <v>387799.16658256215</v>
       </c>
       <c r="CQ18" s="3">
         <f t="shared" si="82"/>
-        <v>459222.14713462786</v>
+        <v>391677.15824838774</v>
       </c>
       <c r="CR18" s="3">
         <f t="shared" si="82"/>
-        <v>463814.36860597413</v>
+        <v>395593.92983087164</v>
       </c>
       <c r="CS18" s="3">
         <f t="shared" si="82"/>
-        <v>468452.51229203388</v>
+        <v>399549.86912918038</v>
       </c>
       <c r="CT18" s="3">
         <f t="shared" si="82"/>
-        <v>473137.03741495422</v>
+        <v>403545.36782047217</v>
       </c>
       <c r="CU18" s="3">
         <f t="shared" si="82"/>
-        <v>477868.40778910375</v>
+        <v>407580.8214986769</v>
       </c>
       <c r="CV18" s="3">
         <f t="shared" si="82"/>
-        <v>482647.0918669948</v>
+        <v>411656.62971366366</v>
       </c>
       <c r="CW18" s="3">
         <f t="shared" si="82"/>
-        <v>487473.56278566475</v>
+        <v>415773.19601080031</v>
       </c>
       <c r="CX18" s="3">
         <f t="shared" si="82"/>
-        <v>492348.29841352138</v>
+        <v>419930.92797090829</v>
       </c>
       <c r="CY18" s="3">
         <f t="shared" si="82"/>
-        <v>497271.7813976566</v>
+        <v>424130.23725061736</v>
       </c>
       <c r="CZ18" s="3">
         <f t="shared" si="82"/>
-        <v>502244.49921163317</v>
+        <v>428371.53962312354</v>
       </c>
       <c r="DA18" s="3">
         <f t="shared" si="82"/>
-        <v>507266.94420374953</v>
+        <v>432655.25501935475</v>
       </c>
       <c r="DB18" s="3">
         <f t="shared" si="82"/>
-        <v>512339.61364578706</v>
+        <v>436981.80756954831</v>
       </c>
       <c r="DC18" s="3">
         <f t="shared" si="82"/>
-        <v>517463.00978224492</v>
+        <v>441351.6256452438</v>
       </c>
       <c r="DD18" s="3">
         <f t="shared" si="82"/>
-        <v>522637.63988006738</v>
+        <v>445765.14190169622</v>
       </c>
       <c r="DE18" s="3">
         <f t="shared" si="82"/>
-        <v>527864.01627886808</v>
+        <v>450222.79332071316</v>
       </c>
       <c r="DF18" s="3">
         <f t="shared" si="82"/>
-        <v>533142.65644165676</v>
+        <v>454725.02125392028</v>
       </c>
       <c r="DG18" s="3">
         <f t="shared" si="82"/>
-        <v>538474.08300607337</v>
+        <v>459272.2714664595</v>
       </c>
       <c r="DH18" s="3">
         <f t="shared" si="82"/>
-        <v>543858.82383613416</v>
+        <v>463864.99418112409</v>
       </c>
       <c r="DI18" s="3">
         <f t="shared" si="82"/>
-        <v>549297.41207449546</v>
+        <v>468503.64412293531</v>
       </c>
       <c r="DJ18" s="3">
         <f t="shared" si="82"/>
-        <v>554790.38619524043</v>
+        <v>473188.68056416465</v>
       </c>
       <c r="DK18" s="3">
         <f t="shared" si="82"/>
-        <v>560338.29005719279</v>
+        <v>477920.56736980629</v>
       </c>
       <c r="DL18" s="3">
         <f t="shared" si="82"/>
-        <v>565941.67295776471</v>
+        <v>482699.77304350433</v>
       </c>
       <c r="DM18" s="3">
         <f t="shared" si="82"/>
-        <v>571601.08968734241</v>
+        <v>487526.77077393938</v>
       </c>
       <c r="DN18" s="3">
         <f t="shared" si="82"/>
-        <v>577317.10058421583</v>
+        <v>492402.03848167876</v>
       </c>
       <c r="DO18" s="3">
         <f t="shared" si="82"/>
-        <v>583090.27159005799</v>
+        <v>497326.05886649556</v>
       </c>
       <c r="DP18" s="3">
         <f t="shared" si="82"/>
-        <v>588921.17430595856</v>
+        <v>502299.31945516053</v>
       </c>
       <c r="DQ18" s="3">
         <f t="shared" si="82"/>
-        <v>594810.38604901813</v>
+        <v>507322.31264971214</v>
       </c>
       <c r="DR18" s="3">
         <f t="shared" ref="DR18:EW18" si="83">DQ18*(1+$AB$132)</f>
-        <v>600758.48990950827</v>
+        <v>512395.53577620926</v>
       </c>
       <c r="DS18" s="3">
         <f t="shared" si="83"/>
-        <v>606766.07480860339</v>
+        <v>517519.49113397137</v>
       </c>
       <c r="DT18" s="3">
         <f t="shared" si="83"/>
-        <v>612833.73555668944</v>
+        <v>522694.6860453111</v>
       </c>
       <c r="DU18" s="3">
         <f t="shared" si="83"/>
-        <v>618962.07291225635</v>
+        <v>527921.63290576427</v>
       </c>
       <c r="DV18" s="3">
         <f t="shared" si="83"/>
-        <v>625151.69364137889</v>
+        <v>533200.84923482197</v>
       </c>
       <c r="DW18" s="3">
         <f t="shared" si="83"/>
-        <v>631403.21057779272</v>
+        <v>538532.85772717022</v>
       </c>
       <c r="DX18" s="3">
         <f t="shared" si="83"/>
-        <v>637717.2426835706</v>
+        <v>543918.18630444189</v>
       </c>
       <c r="DY18" s="3">
         <f t="shared" si="83"/>
-        <v>644094.41511040635</v>
+        <v>549357.36816748627</v>
       </c>
       <c r="DZ18" s="3">
         <f t="shared" si="83"/>
-        <v>650535.35926151043</v>
+        <v>554850.94184916117</v>
       </c>
       <c r="EA18" s="3">
         <f t="shared" si="83"/>
-        <v>657040.71285412554</v>
+        <v>560399.4512676528</v>
       </c>
       <c r="EB18" s="3">
         <f t="shared" si="83"/>
-        <v>663611.1199826668</v>
+        <v>566003.44578032929</v>
       </c>
       <c r="EC18" s="3">
         <f t="shared" si="83"/>
-        <v>670247.2311824935</v>
+        <v>571663.48023813264</v>
       </c>
       <c r="ED18" s="3">
         <f t="shared" si="83"/>
-        <v>676949.70349431841</v>
+        <v>577380.11504051392</v>
       </c>
       <c r="EE18" s="3">
         <f t="shared" si="83"/>
-        <v>683719.20052926161</v>
+        <v>583153.91619091912</v>
       </c>
       <c r="EF18" s="3">
         <f t="shared" si="83"/>
-        <v>690556.39253455424</v>
+        <v>588985.45535282826</v>
       </c>
       <c r="EG18" s="3">
         <f t="shared" si="83"/>
-        <v>697461.95645989978</v>
+        <v>594875.3099063565</v>
       </c>
       <c r="EH18" s="3">
         <f t="shared" si="83"/>
-        <v>704436.57602449879</v>
+        <v>600824.06300542003</v>
       </c>
       <c r="EI18" s="3">
         <f t="shared" si="83"/>
-        <v>711480.9417847438</v>
+        <v>606832.30363547418</v>
       </c>
       <c r="EJ18" s="3">
         <f t="shared" si="83"/>
-        <v>718595.75120259123</v>
+        <v>612900.62667182891</v>
       </c>
       <c r="EK18" s="3">
         <f t="shared" si="83"/>
-        <v>725781.70871461718</v>
+        <v>619029.63293854718</v>
       </c>
       <c r="EL18" s="3">
         <f t="shared" si="83"/>
-        <v>733039.5258017634</v>
+        <v>625219.92926793266</v>
       </c>
       <c r="EM18" s="3">
         <f t="shared" si="83"/>
-        <v>740369.92105978099</v>
+        <v>631472.12856061198</v>
       </c>
       <c r="EN18" s="3">
         <f t="shared" si="83"/>
-        <v>747773.62027037877</v>
+        <v>637786.84984621813</v>
       </c>
       <c r="EO18" s="3">
         <f t="shared" si="83"/>
-        <v>755251.35647308256</v>
+        <v>644164.71834468027</v>
       </c>
       <c r="EP18" s="3">
         <f t="shared" si="83"/>
-        <v>762803.87003781344</v>
+        <v>650606.36552812706</v>
       </c>
       <c r="EQ18" s="3">
         <f t="shared" si="83"/>
-        <v>770431.90873819159</v>
+        <v>657112.42918340839</v>
       </c>
       <c r="ER18" s="3">
         <f t="shared" si="83"/>
-        <v>778136.22782557353</v>
+        <v>663683.55347524246</v>
       </c>
       <c r="ES18" s="3">
         <f t="shared" si="83"/>
-        <v>785917.59010382928</v>
+        <v>670320.38900999492</v>
       </c>
       <c r="ET18" s="3">
         <f t="shared" si="83"/>
-        <v>793776.76600486762</v>
+        <v>677023.59290009493</v>
       </c>
       <c r="EU18" s="3">
         <f t="shared" si="83"/>
-        <v>801714.53366491629</v>
+        <v>683793.82882909593</v>
       </c>
       <c r="EV18" s="3">
         <f t="shared" si="83"/>
-        <v>809731.67900156544</v>
+        <v>690631.76711738692</v>
       </c>
       <c r="EW18" s="3">
         <f t="shared" si="83"/>
-        <v>817828.99579158111</v>
+        <v>697538.08478856075</v>
       </c>
       <c r="EX18" s="3">
         <f t="shared" ref="EX18:FP18" si="84">EW18*(1+$AB$132)</f>
-        <v>826007.28574949689</v>
+        <v>704513.46563644637</v>
       </c>
       <c r="EY18" s="3">
         <f t="shared" si="84"/>
-        <v>834267.35860699182</v>
+        <v>711558.60029281082</v>
       </c>
       <c r="EZ18" s="3">
         <f t="shared" si="84"/>
-        <v>842610.03219306178</v>
+        <v>718674.18629573891</v>
       </c>
       <c r="FA18" s="3">
         <f t="shared" si="84"/>
-        <v>851036.13251499238</v>
+        <v>725860.92815869628</v>
       </c>
       <c r="FB18" s="3">
         <f t="shared" si="84"/>
-        <v>859546.49384014227</v>
+        <v>733119.53744028322</v>
       </c>
       <c r="FC18" s="3">
         <f t="shared" si="84"/>
-        <v>868141.95877854375</v>
+        <v>740450.73281468602</v>
       </c>
       <c r="FD18" s="3">
         <f t="shared" si="84"/>
-        <v>876823.37836632924</v>
+        <v>747855.24014283286</v>
       </c>
       <c r="FE18" s="3">
         <f t="shared" si="84"/>
-        <v>885591.61214999249</v>
+        <v>755333.7925442612</v>
       </c>
       <c r="FF18" s="3">
         <f t="shared" si="84"/>
-        <v>894447.52827149245</v>
+        <v>762887.13046970381</v>
       </c>
       <c r="FG18" s="3">
         <f t="shared" si="84"/>
-        <v>903392.00355420739</v>
+        <v>770516.00177440082</v>
       </c>
       <c r="FH18" s="3">
         <f t="shared" si="84"/>
-        <v>912425.92358974949</v>
+        <v>778221.16179214488</v>
       </c>
       <c r="FI18" s="3">
         <f t="shared" si="84"/>
-        <v>921550.18282564695</v>
+        <v>786003.37341006636</v>
       </c>
       <c r="FJ18" s="3">
         <f t="shared" si="84"/>
-        <v>930765.68465390347</v>
+        <v>793863.40714416699</v>
       </c>
       <c r="FK18" s="3">
         <f t="shared" si="84"/>
-        <v>940073.34150044248</v>
+        <v>801802.04121560871</v>
       </c>
       <c r="FL18" s="3">
         <f t="shared" si="84"/>
-        <v>949474.07491544692</v>
+        <v>809820.06162776484</v>
       </c>
       <c r="FM18" s="3">
         <f t="shared" si="84"/>
-        <v>958968.8156646014</v>
+        <v>817918.26224404247</v>
       </c>
       <c r="FN18" s="3">
         <f t="shared" si="84"/>
-        <v>968558.50382124737</v>
+        <v>826097.44486648287</v>
       </c>
       <c r="FO18" s="3">
         <f t="shared" si="84"/>
-        <v>978244.08885945985</v>
+        <v>834358.41931514768</v>
       </c>
       <c r="FP18" s="3">
         <f t="shared" si="84"/>
-        <v>988026.52974805445</v>
+        <v>842702.00350829912</v>
       </c>
     </row>
     <row r="19" spans="2:172" x14ac:dyDescent="0.2">
@@ -3178,23 +3180,23 @@
       </c>
       <c r="U19" s="4">
         <f>U18/main!$F$3</f>
-        <v>29.779565874425504</v>
+        <v>27.278113698045917</v>
       </c>
       <c r="V19" s="4">
         <f>V18/main!$F$3</f>
-        <v>36.576837686062959</v>
+        <v>32.672672765138842</v>
       </c>
       <c r="W19" s="4">
         <f>W18/main!$F$3</f>
-        <v>45.204939502029291</v>
+        <v>39.554051298631414</v>
       </c>
       <c r="X19" s="4">
         <f>X18/main!$F$3</f>
-        <v>56.35416451538962</v>
+        <v>48.546947660993681</v>
       </c>
       <c r="Y19" s="4">
         <f>Y18/main!$F$3</f>
-        <v>71.046365849808197</v>
+        <v>60.596464812421623</v>
       </c>
     </row>
     <row r="20" spans="2:172" x14ac:dyDescent="0.2">
@@ -3582,23 +3584,23 @@
       </c>
       <c r="U26" s="5">
         <f t="shared" si="95"/>
-        <v>0.55969198596092662</v>
+        <v>0.55096021097026604</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" ref="V26:Y26" si="96">V5/V9-1</f>
-        <v>0.55987244742332654</v>
+        <v>0.54773976911968303</v>
       </c>
       <c r="W26" s="5">
         <f t="shared" si="96"/>
-        <v>0.56047305142655257</v>
+        <v>0.54512294464461108</v>
       </c>
       <c r="X26" s="5">
         <f t="shared" si="96"/>
-        <v>0.56193134942078826</v>
+        <v>0.54383521201648666</v>
       </c>
       <c r="Y26" s="5">
         <f t="shared" si="96"/>
-        <v>0.56474529992508993</v>
+        <v>0.54464924450985119</v>
       </c>
     </row>
     <row r="27" spans="2:172" x14ac:dyDescent="0.2">
@@ -3675,23 +3677,23 @@
       </c>
       <c r="U27" s="5">
         <f t="shared" si="98"/>
-        <v>0.25965644725781484</v>
+        <v>0.25604681433750753</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" ref="V27:Y27" si="99">V14/V5</f>
-        <v>0.25973062208526732</v>
+        <v>0.25470523344713913</v>
       </c>
       <c r="W27" s="5">
         <f t="shared" si="99"/>
-        <v>0.25997736396134408</v>
+        <v>0.25361099086949274</v>
       </c>
       <c r="X27" s="5">
         <f t="shared" si="99"/>
-        <v>0.26057567644410945</v>
+        <v>0.25307115502734917</v>
       </c>
       <c r="Y27" s="5">
         <f t="shared" si="99"/>
-        <v>0.26172703570032591</v>
+        <v>0.25341251368517825</v>
       </c>
     </row>
     <row r="28" spans="2:172" x14ac:dyDescent="0.2">
@@ -3768,15 +3770,15 @@
       </c>
       <c r="U28" s="5">
         <f t="shared" si="100"/>
-        <v>9.9191319479987702E-2</v>
+        <v>9.9191319479987716E-2</v>
       </c>
       <c r="V28" s="5">
         <f t="shared" ref="V28:Y28" si="101">V13/V5</f>
-        <v>9.9191319479987702E-2</v>
+        <v>9.9191319479987716E-2</v>
       </c>
       <c r="W28" s="5">
         <f t="shared" si="101"/>
-        <v>9.9191319479987716E-2</v>
+        <v>9.9191319479987702E-2</v>
       </c>
       <c r="X28" s="5">
         <f t="shared" si="101"/>
@@ -3784,7 +3786,7 @@
       </c>
       <c r="Y28" s="5">
         <f t="shared" si="101"/>
-        <v>9.9191319479987716E-2</v>
+        <v>9.9191319479987702E-2</v>
       </c>
     </row>
     <row r="29" spans="2:172" x14ac:dyDescent="0.2">
@@ -3863,23 +3865,23 @@
       </c>
       <c r="U30" s="7">
         <f t="shared" si="103"/>
-        <v>0.26141699113578598</v>
+        <v>0.15975496768663233</v>
       </c>
       <c r="V30" s="7">
         <f t="shared" ref="V30:Y30" si="104">V5/U5-1</f>
-        <v>0.20069624903362571</v>
+        <v>0.1750296016588615</v>
       </c>
       <c r="W30" s="7">
         <f t="shared" si="104"/>
-        <v>0.2131236682126878</v>
+        <v>0.19296532458429927</v>
       </c>
       <c r="X30" s="7">
         <f t="shared" si="104"/>
-        <v>0.22770006574155421</v>
+        <v>0.21366188404875253</v>
       </c>
       <c r="Y30" s="7">
         <f t="shared" si="104"/>
-        <v>0.24454290806347911</v>
+        <v>0.23702710959855011</v>
       </c>
     </row>
     <row r="31" spans="2:172" ht="15" x14ac:dyDescent="0.25">
@@ -4068,23 +4070,23 @@
       </c>
       <c r="U34" s="5">
         <f t="shared" si="108"/>
-        <v>0.25854372103237422</v>
+        <v>0.12744382310712887</v>
       </c>
       <c r="V34" s="5">
         <f t="shared" ref="V34:V36" si="109">V2/U2-1</f>
-        <v>0.17982567092994883</v>
+        <v>0.14335141679857832</v>
       </c>
       <c r="W34" s="5">
         <f t="shared" ref="W34:W36" si="110">W2/V2-1</f>
-        <v>0.19431894174649367</v>
+        <v>0.16398126729731888</v>
       </c>
       <c r="X34" s="5">
         <f t="shared" ref="X34:X36" si="111">X2/W2-1</f>
-        <v>0.21232367283716869</v>
+        <v>0.18991201824368176</v>
       </c>
       <c r="Y34" s="5">
         <f t="shared" ref="Y34:Y36" si="112">Y2/X2-1</f>
-        <v>0.23409105124262197</v>
+        <v>0.22124619731049844</v>
       </c>
     </row>
     <row r="35" spans="2:171" x14ac:dyDescent="0.2">
@@ -4280,607 +4282,607 @@
       </c>
       <c r="U38" s="1">
         <f t="shared" si="117"/>
-        <v>70020.63010785704</v>
+        <v>64138.970908614327</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ref="V38:Y38" si="118">V18*0.73</f>
-        <v>86003.04090834393</v>
+        <v>76823.186206604703</v>
       </c>
       <c r="W38" s="1">
         <f t="shared" si="118"/>
-        <v>106290.27841664973</v>
+        <v>93003.3569638833</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" si="118"/>
-        <v>132505.42755420684</v>
+        <v>114148.33511576541</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="118"/>
-        <v>167051.16940435843</v>
+        <v>142480.33924894157</v>
       </c>
       <c r="Z38" s="11">
         <f t="shared" ref="Z38:BE38" si="119">Y38*(1+$AB$132)</f>
-        <v>168721.68109840201</v>
+        <v>143905.14264143098</v>
       </c>
       <c r="AA38" s="11">
         <f t="shared" si="119"/>
-        <v>170408.89790938603</v>
+        <v>145344.1940678453</v>
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="119"/>
-        <v>172112.98688847988</v>
+        <v>146797.63600852375</v>
       </c>
       <c r="AC38" s="11">
         <f t="shared" si="119"/>
-        <v>173834.11675736468</v>
+        <v>148265.612368609</v>
       </c>
       <c r="AD38" s="11">
         <f t="shared" si="119"/>
-        <v>175572.45792493832</v>
+        <v>149748.26849229509</v>
       </c>
       <c r="AE38" s="11">
         <f t="shared" si="119"/>
-        <v>177328.18250418772</v>
+        <v>151245.75117721804</v>
       </c>
       <c r="AF38" s="11">
         <f t="shared" si="119"/>
-        <v>179101.46432922961</v>
+        <v>152758.20868899021</v>
       </c>
       <c r="AG38" s="11">
         <f t="shared" si="119"/>
-        <v>180892.4789725219</v>
+        <v>154285.79077588013</v>
       </c>
       <c r="AH38" s="11">
         <f t="shared" si="119"/>
-        <v>182701.40376224712</v>
+        <v>155828.64868363892</v>
       </c>
       <c r="AI38" s="11">
         <f t="shared" si="119"/>
-        <v>184528.41779986958</v>
+        <v>157386.93517047531</v>
       </c>
       <c r="AJ38" s="11">
         <f t="shared" si="119"/>
-        <v>186373.70197786827</v>
+        <v>158960.80452218006</v>
       </c>
       <c r="AK38" s="11">
         <f t="shared" si="119"/>
-        <v>188237.43899764697</v>
+        <v>160550.41256740186</v>
       </c>
       <c r="AL38" s="11">
         <f t="shared" si="119"/>
-        <v>190119.81338762344</v>
+        <v>162155.91669307588</v>
       </c>
       <c r="AM38" s="11">
         <f t="shared" si="119"/>
-        <v>192021.01152149966</v>
+        <v>163777.47586000664</v>
       </c>
       <c r="AN38" s="11">
         <f t="shared" si="119"/>
-        <v>193941.22163671465</v>
+        <v>165415.25061860672</v>
       </c>
       <c r="AO38" s="11">
         <f t="shared" si="119"/>
-        <v>195880.63385308179</v>
+        <v>167069.40312479279</v>
       </c>
       <c r="AP38" s="11">
         <f t="shared" si="119"/>
-        <v>197839.44019161261</v>
+        <v>168740.09715604072</v>
       </c>
       <c r="AQ38" s="11">
         <f t="shared" si="119"/>
-        <v>199817.83459352874</v>
+        <v>170427.49812760114</v>
       </c>
       <c r="AR38" s="11">
         <f t="shared" si="119"/>
-        <v>201816.01293946404</v>
+        <v>172131.77310887715</v>
       </c>
       <c r="AS38" s="11">
         <f t="shared" si="119"/>
-        <v>203834.17306885868</v>
+        <v>173853.09083996594</v>
       </c>
       <c r="AT38" s="11">
         <f t="shared" si="119"/>
-        <v>205872.51479954727</v>
+        <v>175591.62174836561</v>
       </c>
       <c r="AU38" s="11">
         <f t="shared" si="119"/>
-        <v>207931.23994754275</v>
+        <v>177347.53796584927</v>
       </c>
       <c r="AV38" s="11">
         <f t="shared" si="119"/>
-        <v>210010.55234701818</v>
+        <v>179121.01334550776</v>
       </c>
       <c r="AW38" s="11">
         <f t="shared" si="119"/>
-        <v>212110.65787048836</v>
+        <v>180912.22347896284</v>
       </c>
       <c r="AX38" s="11">
         <f t="shared" si="119"/>
-        <v>214231.76444919323</v>
+        <v>182721.34571375247</v>
       </c>
       <c r="AY38" s="11">
         <f t="shared" si="119"/>
-        <v>216374.08209368517</v>
+        <v>184548.55917088999</v>
       </c>
       <c r="AZ38" s="11">
         <f t="shared" si="119"/>
-        <v>218537.82291462203</v>
+        <v>186394.0447625989</v>
       </c>
       <c r="BA38" s="11">
         <f t="shared" si="119"/>
-        <v>220723.20114376824</v>
+        <v>188257.9852102249</v>
       </c>
       <c r="BB38" s="11">
         <f t="shared" si="119"/>
-        <v>222930.43315520592</v>
+        <v>190140.56506232714</v>
       </c>
       <c r="BC38" s="11">
         <f t="shared" si="119"/>
-        <v>225159.73748675798</v>
+        <v>192041.97071295039</v>
       </c>
       <c r="BD38" s="11">
         <f t="shared" si="119"/>
-        <v>227411.33486162557</v>
+        <v>193962.3904200799</v>
       </c>
       <c r="BE38" s="11">
         <f t="shared" si="119"/>
-        <v>229685.44821024183</v>
+        <v>195902.0143242807</v>
       </c>
       <c r="BF38" s="11">
         <f t="shared" ref="BF38:CK38" si="120">BE38*(1+$AB$132)</f>
-        <v>231982.30269234424</v>
+        <v>197861.03446752351</v>
       </c>
       <c r="BG38" s="11">
         <f t="shared" si="120"/>
-        <v>234302.12571926767</v>
+        <v>199839.64481219873</v>
       </c>
       <c r="BH38" s="11">
         <f t="shared" si="120"/>
-        <v>236645.14697646035</v>
+        <v>201838.04126032072</v>
       </c>
       <c r="BI38" s="11">
         <f t="shared" si="120"/>
-        <v>239011.59844622496</v>
+        <v>203856.42167292393</v>
       </c>
       <c r="BJ38" s="11">
         <f t="shared" si="120"/>
-        <v>241401.71443068722</v>
+        <v>205894.98588965318</v>
       </c>
       <c r="BK38" s="11">
         <f t="shared" si="120"/>
-        <v>243815.7315749941</v>
+        <v>207953.9357485497</v>
       </c>
       <c r="BL38" s="11">
         <f t="shared" si="120"/>
-        <v>246253.88889074404</v>
+        <v>210033.47510603521</v>
       </c>
       <c r="BM38" s="11">
         <f t="shared" si="120"/>
-        <v>248716.42777965148</v>
+        <v>212133.80985709556</v>
       </c>
       <c r="BN38" s="11">
         <f t="shared" si="120"/>
-        <v>251203.592057448</v>
+        <v>214255.14795566653</v>
       </c>
       <c r="BO38" s="11">
         <f t="shared" si="120"/>
-        <v>253715.62797802247</v>
+        <v>216397.69943522318</v>
       </c>
       <c r="BP38" s="11">
         <f t="shared" si="120"/>
-        <v>256252.7842578027</v>
+        <v>218561.67642957543</v>
       </c>
       <c r="BQ38" s="11">
         <f t="shared" si="120"/>
-        <v>258815.31210038075</v>
+        <v>220747.29319387118</v>
       </c>
       <c r="BR38" s="11">
         <f t="shared" si="120"/>
-        <v>261403.46522138457</v>
+        <v>222954.7661258099</v>
       </c>
       <c r="BS38" s="11">
         <f t="shared" si="120"/>
-        <v>264017.4998735984</v>
+        <v>225184.31378706801</v>
       </c>
       <c r="BT38" s="11">
         <f t="shared" si="120"/>
-        <v>266657.67487233441</v>
+        <v>227436.1569249387</v>
       </c>
       <c r="BU38" s="11">
         <f t="shared" si="120"/>
-        <v>269324.25162105775</v>
+        <v>229710.51849418809</v>
       </c>
       <c r="BV38" s="11">
         <f t="shared" si="120"/>
-        <v>272017.49413726834</v>
+        <v>232007.62367912996</v>
       </c>
       <c r="BW38" s="11">
         <f t="shared" si="120"/>
-        <v>274737.66907864105</v>
+        <v>234327.69991592126</v>
       </c>
       <c r="BX38" s="11">
         <f t="shared" si="120"/>
-        <v>277485.04576942744</v>
+        <v>236670.97691508048</v>
       </c>
       <c r="BY38" s="11">
         <f t="shared" si="120"/>
-        <v>280259.8962271217</v>
+        <v>239037.68668423127</v>
       </c>
       <c r="BZ38" s="11">
         <f t="shared" si="120"/>
-        <v>283062.49518939294</v>
+        <v>241428.0635510736</v>
       </c>
       <c r="CA38" s="11">
         <f t="shared" si="120"/>
-        <v>285893.12014128687</v>
+        <v>243842.34418658435</v>
       </c>
       <c r="CB38" s="11">
         <f t="shared" si="120"/>
-        <v>288752.05134269973</v>
+        <v>246280.76762845021</v>
       </c>
       <c r="CC38" s="11">
         <f t="shared" si="120"/>
-        <v>291639.57185612671</v>
+        <v>248743.57530473472</v>
       </c>
       <c r="CD38" s="11">
         <f t="shared" si="120"/>
-        <v>294555.96757468797</v>
+        <v>251231.01105778207</v>
       </c>
       <c r="CE38" s="11">
         <f t="shared" si="120"/>
-        <v>297501.52725043485</v>
+        <v>253743.32116835989</v>
       </c>
       <c r="CF38" s="11">
         <f t="shared" si="120"/>
-        <v>300476.54252293921</v>
+        <v>256280.75438004348</v>
       </c>
       <c r="CG38" s="11">
         <f t="shared" si="120"/>
-        <v>303481.3079481686</v>
+        <v>258843.56192384392</v>
       </c>
       <c r="CH38" s="11">
         <f t="shared" si="120"/>
-        <v>306516.12102765031</v>
+        <v>261431.99754308237</v>
       </c>
       <c r="CI38" s="11">
         <f t="shared" si="120"/>
-        <v>309581.28223792679</v>
+        <v>264046.31751851318</v>
       </c>
       <c r="CJ38" s="11">
         <f t="shared" si="120"/>
-        <v>312677.09506030608</v>
+        <v>266686.78069369833</v>
       </c>
       <c r="CK38" s="11">
         <f t="shared" si="120"/>
-        <v>315803.86601090914</v>
+        <v>269353.64850063529</v>
       </c>
       <c r="CL38" s="11">
         <f t="shared" ref="CL38:DQ38" si="121">CK38*(1+$AB$132)</f>
-        <v>318961.90467101824</v>
+        <v>272047.18498564162</v>
       </c>
       <c r="CM38" s="11">
         <f t="shared" si="121"/>
-        <v>322151.52371772844</v>
+        <v>274767.65683549806</v>
       </c>
       <c r="CN38" s="11">
         <f t="shared" si="121"/>
-        <v>325373.03895490576</v>
+        <v>277515.33340385306</v>
       </c>
       <c r="CO38" s="11">
         <f t="shared" si="121"/>
-        <v>328626.76934445481</v>
+        <v>280290.48673789157</v>
       </c>
       <c r="CP38" s="11">
         <f t="shared" si="121"/>
-        <v>331913.03703789937</v>
+        <v>283093.3916052705</v>
       </c>
       <c r="CQ38" s="11">
         <f t="shared" si="121"/>
-        <v>335232.16740827839</v>
+        <v>285924.32552132319</v>
       </c>
       <c r="CR38" s="11">
         <f t="shared" si="121"/>
-        <v>338584.48908236116</v>
+        <v>288783.56877653644</v>
       </c>
       <c r="CS38" s="11">
         <f t="shared" si="121"/>
-        <v>341970.33397318475</v>
+        <v>291671.40446430183</v>
       </c>
       <c r="CT38" s="11">
         <f t="shared" si="121"/>
-        <v>345390.0373129166</v>
+        <v>294588.11850894487</v>
       </c>
       <c r="CU38" s="11">
         <f t="shared" si="121"/>
-        <v>348843.93768604577</v>
+        <v>297533.99969403434</v>
       </c>
       <c r="CV38" s="11">
         <f t="shared" si="121"/>
-        <v>352332.37706290622</v>
+        <v>300509.33969097468</v>
       </c>
       <c r="CW38" s="11">
         <f t="shared" si="121"/>
-        <v>355855.70083353529</v>
+        <v>303514.43308788445</v>
       </c>
       <c r="CX38" s="11">
         <f t="shared" si="121"/>
-        <v>359414.25784187065</v>
+        <v>306549.57741876331</v>
       </c>
       <c r="CY38" s="11">
         <f t="shared" si="121"/>
-        <v>363008.40042028937</v>
+        <v>309615.07319295092</v>
       </c>
       <c r="CZ38" s="11">
         <f t="shared" si="121"/>
-        <v>366638.48442449229</v>
+        <v>312711.22392488044</v>
       </c>
       <c r="DA38" s="11">
         <f t="shared" si="121"/>
-        <v>370304.86926873721</v>
+        <v>315838.33616412926</v>
       </c>
       <c r="DB38" s="11">
         <f t="shared" si="121"/>
-        <v>374007.91796142457</v>
+        <v>318996.71952577058</v>
       </c>
       <c r="DC38" s="11">
         <f t="shared" si="121"/>
-        <v>377747.99714103882</v>
+        <v>322186.68672102829</v>
       </c>
       <c r="DD38" s="11">
         <f t="shared" si="121"/>
-        <v>381525.47711244924</v>
+        <v>325408.5535882386</v>
       </c>
       <c r="DE38" s="11">
         <f t="shared" si="121"/>
-        <v>385340.73188357375</v>
+        <v>328662.63912412099</v>
       </c>
       <c r="DF38" s="11">
         <f t="shared" si="121"/>
-        <v>389194.13920240948</v>
+        <v>331949.2655153622</v>
       </c>
       <c r="DG38" s="11">
         <f t="shared" si="121"/>
-        <v>393086.08059443359</v>
+        <v>335268.75817051582</v>
       </c>
       <c r="DH38" s="11">
         <f t="shared" si="121"/>
-        <v>397016.94140037795</v>
+        <v>338621.44575222099</v>
       </c>
       <c r="DI38" s="11">
         <f t="shared" si="121"/>
-        <v>400987.11081438174</v>
+        <v>342007.66020974319</v>
       </c>
       <c r="DJ38" s="11">
         <f t="shared" si="121"/>
-        <v>404996.98192252556</v>
+        <v>345427.73681184062</v>
       </c>
       <c r="DK38" s="11">
         <f t="shared" si="121"/>
-        <v>409046.95174175082</v>
+        <v>348882.01417995902</v>
       </c>
       <c r="DL38" s="11">
         <f t="shared" si="121"/>
-        <v>413137.4212591683</v>
+        <v>352370.83432175859</v>
       </c>
       <c r="DM38" s="11">
         <f t="shared" si="121"/>
-        <v>417268.79547175998</v>
+        <v>355894.54266497621</v>
       </c>
       <c r="DN38" s="11">
         <f t="shared" si="121"/>
-        <v>421441.48342647759</v>
+        <v>359453.48809162597</v>
       </c>
       <c r="DO38" s="11">
         <f t="shared" si="121"/>
-        <v>425655.89826074237</v>
+        <v>363048.02297254221</v>
       </c>
       <c r="DP38" s="11">
         <f t="shared" si="121"/>
-        <v>429912.45724334981</v>
+        <v>366678.50320226763</v>
       </c>
       <c r="DQ38" s="11">
         <f t="shared" si="121"/>
-        <v>434211.58181578328</v>
+        <v>370345.28823429032</v>
       </c>
       <c r="DR38" s="11">
         <f t="shared" ref="DR38:EW38" si="122">DQ38*(1+$AB$132)</f>
-        <v>438553.69763394113</v>
+        <v>374048.74111663323</v>
       </c>
       <c r="DS38" s="11">
         <f t="shared" si="122"/>
-        <v>442939.23461028055</v>
+        <v>377789.22852779954</v>
       </c>
       <c r="DT38" s="11">
         <f t="shared" si="122"/>
-        <v>447368.62695638335</v>
+        <v>381567.12081307755</v>
       </c>
       <c r="DU38" s="11">
         <f t="shared" si="122"/>
-        <v>451842.3132259472</v>
+        <v>385382.79202120833</v>
       </c>
       <c r="DV38" s="11">
         <f t="shared" si="122"/>
-        <v>456360.73635820666</v>
+        <v>389236.61994142039</v>
       </c>
       <c r="DW38" s="11">
         <f t="shared" si="122"/>
-        <v>460924.34372178873</v>
+        <v>393128.98614083458</v>
       </c>
       <c r="DX38" s="11">
         <f t="shared" si="122"/>
-        <v>465533.58715900662</v>
+        <v>397060.27600224293</v>
       </c>
       <c r="DY38" s="11">
         <f t="shared" si="122"/>
-        <v>470188.92303059669</v>
+        <v>401030.87876226538</v>
       </c>
       <c r="DZ38" s="11">
         <f t="shared" si="122"/>
-        <v>474890.81226090266</v>
+        <v>405041.18754988804</v>
       </c>
       <c r="EA38" s="11">
         <f t="shared" si="122"/>
-        <v>479639.72038351168</v>
+        <v>409091.59942538693</v>
       </c>
       <c r="EB38" s="11">
         <f t="shared" si="122"/>
-        <v>484436.11758734682</v>
+        <v>413182.51541964081</v>
       </c>
       <c r="EC38" s="11">
         <f t="shared" si="122"/>
-        <v>489280.47876322031</v>
+        <v>417314.34057383722</v>
       </c>
       <c r="ED38" s="11">
         <f t="shared" si="122"/>
-        <v>494173.2835508525</v>
+        <v>421487.48397957563</v>
       </c>
       <c r="EE38" s="11">
         <f t="shared" si="122"/>
-        <v>499115.01638636104</v>
+        <v>425702.35881937138</v>
       </c>
       <c r="EF38" s="11">
         <f t="shared" si="122"/>
-        <v>504106.16655022465</v>
+        <v>429959.38240756508</v>
       </c>
       <c r="EG38" s="11">
         <f t="shared" si="122"/>
-        <v>509147.22821572691</v>
+        <v>434258.97623164073</v>
       </c>
       <c r="EH38" s="11">
         <f t="shared" si="122"/>
-        <v>514238.70049788419</v>
+        <v>438601.56599395716</v>
       </c>
       <c r="EI38" s="11">
         <f t="shared" si="122"/>
-        <v>519381.08750286303</v>
+        <v>442987.58165389672</v>
       </c>
       <c r="EJ38" s="11">
         <f t="shared" si="122"/>
-        <v>524574.89837789163</v>
+        <v>447417.45747043571</v>
       </c>
       <c r="EK38" s="11">
         <f t="shared" si="122"/>
-        <v>529820.6473616705</v>
+        <v>451891.63204514008</v>
       </c>
       <c r="EL38" s="11">
         <f t="shared" si="122"/>
-        <v>535118.85383528727</v>
+        <v>456410.5483655915</v>
       </c>
       <c r="EM38" s="11">
         <f t="shared" si="122"/>
-        <v>540470.04237364011</v>
+        <v>460974.65384924744</v>
       </c>
       <c r="EN38" s="11">
         <f t="shared" si="122"/>
-        <v>545874.74279737647</v>
+        <v>465584.40038773994</v>
       </c>
       <c r="EO38" s="11">
         <f t="shared" si="122"/>
-        <v>551333.49022535025</v>
+        <v>470240.24439161737</v>
       </c>
       <c r="EP38" s="11">
         <f t="shared" si="122"/>
-        <v>556846.82512760372</v>
+        <v>474942.64683553355</v>
       </c>
       <c r="EQ38" s="11">
         <f t="shared" si="122"/>
-        <v>562415.29337887978</v>
+        <v>479692.0733038889</v>
       </c>
       <c r="ER38" s="11">
         <f t="shared" si="122"/>
-        <v>568039.44631266862</v>
+        <v>484488.99403692782</v>
       </c>
       <c r="ES38" s="11">
         <f t="shared" si="122"/>
-        <v>573719.84077579528</v>
+        <v>489333.88397729711</v>
       </c>
       <c r="ET38" s="11">
         <f t="shared" si="122"/>
-        <v>579457.03918355319</v>
+        <v>494227.22281707008</v>
       </c>
       <c r="EU38" s="11">
         <f t="shared" si="122"/>
-        <v>585251.60957538872</v>
+        <v>499169.49504524079</v>
       </c>
       <c r="EV38" s="11">
         <f t="shared" si="122"/>
-        <v>591104.1256711426</v>
+        <v>504161.18999569322</v>
       </c>
       <c r="EW38" s="11">
         <f t="shared" si="122"/>
-        <v>597015.16692785406</v>
+        <v>509202.80189565016</v>
       </c>
       <c r="EX38" s="11">
         <f t="shared" ref="EX38:FO38" si="123">EW38*(1+$AB$132)</f>
-        <v>602985.31859713257</v>
+        <v>514294.82991460664</v>
       </c>
       <c r="EY38" s="11">
         <f t="shared" si="123"/>
-        <v>609015.17178310396</v>
+        <v>519437.77821375272</v>
       </c>
       <c r="EZ38" s="11">
         <f t="shared" si="123"/>
-        <v>615105.32350093499</v>
+        <v>524632.15599589027</v>
       </c>
       <c r="FA38" s="11">
         <f t="shared" si="123"/>
-        <v>621256.3767359443</v>
+        <v>529878.47755584912</v>
       </c>
       <c r="FB38" s="11">
         <f t="shared" si="123"/>
-        <v>627468.94050330378</v>
+        <v>535177.26233140763</v>
       </c>
       <c r="FC38" s="11">
         <f t="shared" si="123"/>
-        <v>633743.62990833679</v>
+        <v>540529.03495472169</v>
       </c>
       <c r="FD38" s="11">
         <f t="shared" si="123"/>
-        <v>640081.0662074202</v>
+        <v>545934.32530426886</v>
       </c>
       <c r="FE38" s="11">
         <f t="shared" si="123"/>
-        <v>646481.87686949444</v>
+        <v>551393.66855731152</v>
       </c>
       <c r="FF38" s="11">
         <f t="shared" si="123"/>
-        <v>652946.69563818944</v>
+        <v>556907.6052428846</v>
       </c>
       <c r="FG38" s="11">
         <f t="shared" si="123"/>
-        <v>659476.16259457136</v>
+        <v>562476.68129531341</v>
       </c>
       <c r="FH38" s="11">
         <f t="shared" si="123"/>
-        <v>666070.92422051704</v>
+        <v>568101.44810826657</v>
       </c>
       <c r="FI38" s="11">
         <f t="shared" si="123"/>
-        <v>672731.63346272218</v>
+        <v>573782.46258934925</v>
       </c>
       <c r="FJ38" s="11">
         <f t="shared" si="123"/>
-        <v>679458.9497973494</v>
+        <v>579520.28721524274</v>
       </c>
       <c r="FK38" s="11">
         <f t="shared" si="123"/>
-        <v>686253.53929532284</v>
+        <v>585315.49008739518</v>
       </c>
       <c r="FL38" s="11">
         <f t="shared" si="123"/>
-        <v>693116.07468827604</v>
+        <v>591168.6449882692</v>
       </c>
       <c r="FM38" s="11">
         <f t="shared" si="123"/>
-        <v>700047.23543515883</v>
+        <v>597080.33143815189</v>
       </c>
       <c r="FN38" s="11">
         <f t="shared" si="123"/>
-        <v>707047.70778951037</v>
+        <v>603051.1347525334</v>
       </c>
       <c r="FO38" s="11">
         <f t="shared" si="123"/>
-        <v>714118.18486740545</v>
+        <v>609081.64610005869</v>
       </c>
     </row>
     <row r="39" spans="2:171" x14ac:dyDescent="0.2">
@@ -4963,24 +4965,24 @@
         <v>4124390.4</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="124"/>
-        <v>4949268.4799999995</v>
+        <f>T42*1.05</f>
+        <v>4330609.92</v>
       </c>
       <c r="V42" s="1">
-        <f>U42*1.1</f>
-        <v>5444195.3279999997</v>
+        <f t="shared" ref="V42:Y42" si="125">U42*1.05</f>
+        <v>4547140.4160000002</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42:Y42" si="125">V42*1.1</f>
-        <v>5988614.8607999999</v>
+        <f t="shared" si="125"/>
+        <v>4774497.4368000003</v>
       </c>
       <c r="X42" s="1">
         <f t="shared" si="125"/>
-        <v>6587476.3468800001</v>
+        <v>5013222.3086400004</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="125"/>
-        <v>7246223.9815680003</v>
+        <v>5263883.4240720002</v>
       </c>
     </row>
     <row r="43" spans="2:171" x14ac:dyDescent="0.2">
@@ -5164,23 +5166,23 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" si="133"/>
-        <v>5939049.9799999995</v>
+        <v>5320391.42</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" ref="V46:Y46" si="134">SUM(V42:V45)</f>
-        <v>6802954.9780000001</v>
+        <v>5905900.0660000006</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" si="134"/>
-        <v>7888250.4758000001</v>
+        <v>6674133.0518000005</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" si="134"/>
-        <v>9284575.5233800001</v>
+        <v>7710321.4851400014</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="134"/>
-        <v>11124283.075718001</v>
+        <v>9141942.5182220004</v>
       </c>
     </row>
     <row r="47" spans="2:171" x14ac:dyDescent="0.2">
@@ -5409,23 +5411,23 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" si="143"/>
-        <v>5264049.9799999995</v>
+        <v>4645391.42</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" ref="V51:Y51" si="144">V45+V43+V42</f>
-        <v>5790454.9780000001</v>
+        <v>4893400.0660000006</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" si="144"/>
-        <v>6369500.4758000001</v>
+        <v>5155383.0518000005</v>
       </c>
       <c r="X51" s="1">
         <f t="shared" si="144"/>
-        <v>7006450.5233800001</v>
+        <v>5432196.4851400005</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="144"/>
-        <v>7707095.5757180005</v>
+        <v>5724755.0182220004</v>
       </c>
     </row>
     <row r="52" spans="2:149" x14ac:dyDescent="0.2">
@@ -5515,23 +5517,23 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="150"/>
-        <v>243497.94353720883</v>
+        <v>213060.70059505774</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" ref="V54:Y54" si="151">V42*(V47/1000000)</f>
-        <v>270526.21526983904</v>
+        <v>225950.87298105878</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="151"/>
-        <v>300554.62516479118</v>
+        <v>239620.90079641284</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" si="151"/>
-        <v>333916.18855808303</v>
+        <v>254117.96529459581</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="151"/>
-        <v>370980.88548803021</v>
+        <v>269492.10219491884</v>
       </c>
     </row>
     <row r="55" spans="2:149" x14ac:dyDescent="0.2">
@@ -6184,7 +6186,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3">
         <f>AB78</f>
-        <v>253838.58791747765</v>
+        <v>109673.42386645672</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -6214,7 +6216,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3">
         <f>AB71</f>
-        <v>161566.18990780727</v>
+        <v>138665.7261528903</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -6251,23 +6253,23 @@
       </c>
       <c r="U61" s="1">
         <f t="shared" si="162"/>
-        <v>26009.732049371123</v>
+        <v>23300.352025657336</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" ref="V61:Y61" si="163">(8000*SUM(V42:V45)*V66)/1000000</f>
-        <v>31282.812664223657</v>
+        <v>27157.781578119411</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" si="163"/>
-        <v>38087.124759018327</v>
+        <v>32224.957737084831</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" si="163"/>
-        <v>47070.504004314171</v>
+        <v>39089.424974455884</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" si="163"/>
-        <v>59217.235104528467</v>
+        <v>48664.759403265707</v>
       </c>
     </row>
     <row r="62" spans="2:149" x14ac:dyDescent="0.2">
@@ -6296,23 +6298,23 @@
       </c>
       <c r="U62" s="1">
         <f t="shared" si="164"/>
-        <v>237.74033135913982</v>
+        <v>209.79984986459132</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" ref="V62:Y62" si="165">((99*V51)/(1000000))*V67</f>
-        <v>274.5900827198065</v>
+        <v>232.05069964435646</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="165"/>
-        <v>317.15154554137655</v>
+        <v>256.69794812768737</v>
       </c>
       <c r="X62" s="1">
         <f t="shared" si="165"/>
-        <v>366.31003510028995</v>
+        <v>284.00515760487639</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="165"/>
-        <v>423.08809054083497</v>
+        <v>314.26568487156283</v>
       </c>
     </row>
     <row r="63" spans="2:149" x14ac:dyDescent="0.2">
@@ -6341,23 +6343,23 @@
       </c>
       <c r="U63" s="1">
         <f t="shared" ref="U63:Y63" si="167">SUM(U61:U62)</f>
-        <v>26247.472380730262</v>
+        <v>23510.151875521926</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" si="167"/>
-        <v>31557.402746943462</v>
+        <v>27389.83227776377</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" si="167"/>
-        <v>38404.276304559702</v>
+        <v>32481.655685212518</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" si="167"/>
-        <v>47436.814039414458</v>
+        <v>39373.430132060763</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" si="167"/>
-        <v>59640.323195069301</v>
+        <v>48979.02508813727</v>
       </c>
     </row>
     <row r="64" spans="2:149" x14ac:dyDescent="0.2">
@@ -6386,499 +6388,499 @@
       </c>
       <c r="U64" s="1">
         <f t="shared" si="168"/>
-        <v>20997.977904584212</v>
+        <v>18808.121500417543</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" ref="V64:Y64" si="169">V63*V68</f>
-        <v>25245.92219755477</v>
+        <v>21911.865822211017</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="169"/>
-        <v>30723.421043647762</v>
+        <v>25985.324548170014</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="169"/>
-        <v>37949.451231531566</v>
+        <v>31498.744105648613</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="169"/>
-        <v>47712.258556055443</v>
+        <v>39183.220070509815</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" ref="Z64:BE64" si="170">Y64*(1+$AB$69)</f>
-        <v>48189.381141615995</v>
+        <v>39575.05227121491</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="170"/>
-        <v>48671.274953032153</v>
+        <v>39970.802793927061</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="170"/>
-        <v>49157.987702562474</v>
+        <v>40370.51082186633</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="170"/>
-        <v>49649.567579588096</v>
+        <v>40774.215930084996</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" si="170"/>
-        <v>50146.063255383975</v>
+        <v>41181.958089385844</v>
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="170"/>
-        <v>50647.523887937816</v>
+        <v>41593.777670279705</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="170"/>
-        <v>51153.999126817194</v>
+        <v>42009.715446982504</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="170"/>
-        <v>51665.539118085369</v>
+        <v>42429.81260145233</v>
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="170"/>
-        <v>52182.194509266221</v>
+        <v>42854.110727466854</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" si="170"/>
-        <v>52704.016454358883</v>
+        <v>43282.651834741526</v>
       </c>
       <c r="AJ64" s="1">
         <f t="shared" si="170"/>
-        <v>53231.056618902476</v>
+        <v>43715.47835308894</v>
       </c>
       <c r="AK64" s="1">
         <f t="shared" si="170"/>
-        <v>53763.367185091498</v>
+        <v>44152.633136619828</v>
       </c>
       <c r="AL64" s="1">
         <f t="shared" si="170"/>
-        <v>54301.00085694241</v>
+        <v>44594.159467986028</v>
       </c>
       <c r="AM64" s="1">
         <f t="shared" si="170"/>
-        <v>54844.010865511831</v>
+        <v>45040.10106266589</v>
       </c>
       <c r="AN64" s="1">
         <f t="shared" si="170"/>
-        <v>55392.450974166946</v>
+        <v>45490.502073292548</v>
       </c>
       <c r="AO64" s="1">
         <f t="shared" si="170"/>
-        <v>55946.375483908618</v>
+        <v>45945.407094025475</v>
       </c>
       <c r="AP64" s="1">
         <f t="shared" si="170"/>
-        <v>56505.839238747707</v>
+        <v>46404.861164965732</v>
       </c>
       <c r="AQ64" s="1">
         <f t="shared" si="170"/>
-        <v>57070.897631135187</v>
+        <v>46868.909776615394</v>
       </c>
       <c r="AR64" s="1">
         <f t="shared" si="170"/>
-        <v>57641.606607446542</v>
+        <v>47337.598874381547</v>
       </c>
       <c r="AS64" s="1">
         <f t="shared" si="170"/>
-        <v>58218.022673521009</v>
+        <v>47810.974863125361</v>
       </c>
       <c r="AT64" s="1">
         <f t="shared" si="170"/>
-        <v>58800.202900256219</v>
+        <v>48289.084611756618</v>
       </c>
       <c r="AU64" s="1">
         <f t="shared" si="170"/>
-        <v>59388.204929258784</v>
+        <v>48771.975457874185</v>
       </c>
       <c r="AV64" s="1">
         <f t="shared" si="170"/>
-        <v>59982.086978551371</v>
+        <v>49259.695212452927</v>
       </c>
       <c r="AW64" s="1">
         <f t="shared" si="170"/>
-        <v>60581.907848336887</v>
+        <v>49752.292164577455</v>
       </c>
       <c r="AX64" s="1">
         <f t="shared" si="170"/>
-        <v>61187.726926820258</v>
+        <v>50249.815086223229</v>
       </c>
       <c r="AY64" s="1">
         <f t="shared" si="170"/>
-        <v>61799.604196088461</v>
+        <v>50752.313237085458</v>
       </c>
       <c r="AZ64" s="1">
         <f t="shared" si="170"/>
-        <v>62417.600238049345</v>
+        <v>51259.836369456316</v>
       </c>
       <c r="BA64" s="1">
         <f t="shared" si="170"/>
-        <v>63041.776240429841</v>
+        <v>51772.434733150876</v>
       </c>
       <c r="BB64" s="1">
         <f t="shared" si="170"/>
-        <v>63672.194002834141</v>
+        <v>52290.159080482386</v>
       </c>
       <c r="BC64" s="1">
         <f t="shared" si="170"/>
-        <v>64308.915942862484</v>
+        <v>52813.06067128721</v>
       </c>
       <c r="BD64" s="1">
         <f t="shared" si="170"/>
-        <v>64952.005102291107</v>
+        <v>53341.191278000086</v>
       </c>
       <c r="BE64" s="1">
         <f t="shared" si="170"/>
-        <v>65601.525153314025</v>
+        <v>53874.603190780086</v>
       </c>
       <c r="BF64" s="1">
         <f t="shared" ref="BF64:CK64" si="171">BE64*(1+$AB$69)</f>
-        <v>66257.540404847168</v>
+        <v>54413.349222687888</v>
       </c>
       <c r="BG64" s="1">
         <f t="shared" si="171"/>
-        <v>66920.115808895644</v>
+        <v>54957.482714914768</v>
       </c>
       <c r="BH64" s="1">
         <f t="shared" si="171"/>
-        <v>67589.316966984596</v>
+        <v>55507.057542063914</v>
       </c>
       <c r="BI64" s="1">
         <f t="shared" si="171"/>
-        <v>68265.210136654438</v>
+        <v>56062.128117484557</v>
       </c>
       <c r="BJ64" s="1">
         <f t="shared" si="171"/>
-        <v>68947.862238020985</v>
+        <v>56622.749398659405</v>
       </c>
       <c r="BK64" s="1">
         <f t="shared" si="171"/>
-        <v>69637.340860401193</v>
+        <v>57188.976892646002</v>
       </c>
       <c r="BL64" s="1">
         <f t="shared" si="171"/>
-        <v>70333.714269005199</v>
+        <v>57760.866661572465</v>
       </c>
       <c r="BM64" s="1">
         <f t="shared" si="171"/>
-        <v>71037.051411695255</v>
+        <v>58338.475328188193</v>
       </c>
       <c r="BN64" s="1">
         <f t="shared" si="171"/>
-        <v>71747.421925812203</v>
+        <v>58921.860081470077</v>
       </c>
       <c r="BO64" s="1">
         <f t="shared" si="171"/>
-        <v>72464.896145070321</v>
+        <v>59511.07868228478</v>
       </c>
       <c r="BP64" s="1">
         <f t="shared" si="171"/>
-        <v>73189.545106521022</v>
+        <v>60106.18946910763</v>
       </c>
       <c r="BQ64" s="1">
         <f t="shared" si="171"/>
-        <v>73921.440557586233</v>
+        <v>60707.251363798707</v>
       </c>
       <c r="BR64" s="1">
         <f t="shared" si="171"/>
-        <v>74660.654963162102</v>
+        <v>61314.323877436691</v>
       </c>
       <c r="BS64" s="1">
         <f t="shared" si="171"/>
-        <v>75407.261512793717</v>
+        <v>61927.467116211061</v>
       </c>
       <c r="BT64" s="1">
         <f t="shared" si="171"/>
-        <v>76161.334127921655</v>
+        <v>62546.741787373168</v>
       </c>
       <c r="BU64" s="1">
         <f t="shared" si="171"/>
-        <v>76922.947469200866</v>
+        <v>63172.209205246902</v>
       </c>
       <c r="BV64" s="1">
         <f t="shared" si="171"/>
-        <v>77692.176943892875</v>
+        <v>63803.931297299372</v>
       </c>
       <c r="BW64" s="1">
         <f t="shared" si="171"/>
-        <v>78469.098713331798</v>
+        <v>64441.970610272365</v>
       </c>
       <c r="BX64" s="1">
         <f t="shared" si="171"/>
-        <v>79253.789700465117</v>
+        <v>65086.390316375087</v>
       </c>
       <c r="BY64" s="1">
         <f t="shared" si="171"/>
-        <v>80046.327597469775</v>
+        <v>65737.254219538838</v>
       </c>
       <c r="BZ64" s="1">
         <f t="shared" si="171"/>
-        <v>80846.790873444479</v>
+        <v>66394.626761734224</v>
       </c>
       <c r="CA64" s="1">
         <f t="shared" si="171"/>
-        <v>81655.25878217892</v>
+        <v>67058.573029351566</v>
       </c>
       <c r="CB64" s="1">
         <f t="shared" si="171"/>
-        <v>82471.811370000709</v>
+        <v>67729.158759645085</v>
       </c>
       <c r="CC64" s="1">
         <f t="shared" si="171"/>
-        <v>83296.52948370071</v>
+        <v>68406.450347241538</v>
       </c>
       <c r="CD64" s="1">
         <f t="shared" si="171"/>
-        <v>84129.494778537715</v>
+        <v>69090.514850713953</v>
       </c>
       <c r="CE64" s="1">
         <f t="shared" si="171"/>
-        <v>84970.789726323099</v>
+        <v>69781.419999221092</v>
       </c>
       <c r="CF64" s="1">
         <f t="shared" si="171"/>
-        <v>85820.497623586329</v>
+        <v>70479.234199213301</v>
       </c>
       <c r="CG64" s="1">
         <f t="shared" si="171"/>
-        <v>86678.702599822194</v>
+        <v>71184.026541205429</v>
       </c>
       <c r="CH64" s="1">
         <f t="shared" si="171"/>
-        <v>87545.48962582041</v>
+        <v>71895.866806617487</v>
       </c>
       <c r="CI64" s="1">
         <f t="shared" si="171"/>
-        <v>88420.944522078615</v>
+        <v>72614.825474683661</v>
       </c>
       <c r="CJ64" s="1">
         <f t="shared" si="171"/>
-        <v>89305.153967299397</v>
+        <v>73340.973729430494</v>
       </c>
       <c r="CK64" s="1">
         <f t="shared" si="171"/>
-        <v>90198.205506972387</v>
+        <v>74074.383466724801</v>
       </c>
       <c r="CL64" s="1">
         <f t="shared" ref="CL64:DQ64" si="172">CK64*(1+$AB$69)</f>
-        <v>91100.187562042105</v>
+        <v>74815.127301392044</v>
       </c>
       <c r="CM64" s="1">
         <f t="shared" si="172"/>
-        <v>92011.189437662528</v>
+        <v>75563.278574405966</v>
       </c>
       <c r="CN64" s="1">
         <f t="shared" si="172"/>
-        <v>92931.301332039147</v>
+        <v>76318.911360150028</v>
       </c>
       <c r="CO64" s="1">
         <f t="shared" si="172"/>
-        <v>93860.614345359543</v>
+        <v>77082.100473751532</v>
       </c>
       <c r="CP64" s="1">
         <f t="shared" si="172"/>
-        <v>94799.220488813138</v>
+        <v>77852.92147848905</v>
       </c>
       <c r="CQ64" s="1">
         <f t="shared" si="172"/>
-        <v>95747.212693701265</v>
+        <v>78631.450693273946</v>
       </c>
       <c r="CR64" s="1">
         <f t="shared" si="172"/>
-        <v>96704.684820638286</v>
+        <v>79417.76520020669</v>
       </c>
       <c r="CS64" s="1">
         <f t="shared" si="172"/>
-        <v>97671.731668844674</v>
+        <v>80211.942852208755</v>
       </c>
       <c r="CT64" s="1">
         <f t="shared" si="172"/>
-        <v>98648.448985533119</v>
+        <v>81014.062280730839</v>
       </c>
       <c r="CU64" s="1">
         <f t="shared" si="172"/>
-        <v>99634.933475388447</v>
+        <v>81824.202903538142</v>
       </c>
       <c r="CV64" s="1">
         <f t="shared" si="172"/>
-        <v>100631.28281014234</v>
+        <v>82642.444932573519</v>
       </c>
       <c r="CW64" s="1">
         <f t="shared" si="172"/>
-        <v>101637.59563824376</v>
+        <v>83468.869381899261</v>
       </c>
       <c r="CX64" s="1">
         <f t="shared" si="172"/>
-        <v>102653.9715946262</v>
+        <v>84303.558075718262</v>
       </c>
       <c r="CY64" s="1">
         <f t="shared" si="172"/>
-        <v>103680.51131057246</v>
+        <v>85146.593656475452</v>
       </c>
       <c r="CZ64" s="1">
         <f t="shared" si="172"/>
-        <v>104717.31642367819</v>
+        <v>85998.059593040205</v>
       </c>
       <c r="DA64" s="1">
         <f t="shared" si="172"/>
-        <v>105764.48958791497</v>
+        <v>86858.040188970612</v>
       </c>
       <c r="DB64" s="1">
         <f t="shared" si="172"/>
-        <v>106822.13448379411</v>
+        <v>87726.620590860315</v>
       </c>
       <c r="DC64" s="1">
         <f t="shared" si="172"/>
-        <v>107890.35582863206</v>
+        <v>88603.886796768915</v>
       </c>
       <c r="DD64" s="1">
         <f t="shared" si="172"/>
-        <v>108969.25938691838</v>
+        <v>89489.925664736598</v>
       </c>
       <c r="DE64" s="1">
         <f t="shared" si="172"/>
-        <v>110058.95198078756</v>
+        <v>90384.824921383959</v>
       </c>
       <c r="DF64" s="1">
         <f t="shared" si="172"/>
-        <v>111159.54150059544</v>
+        <v>91288.673170597802</v>
       </c>
       <c r="DG64" s="1">
         <f t="shared" si="172"/>
-        <v>112271.1369156014</v>
+        <v>92201.559902303779</v>
       </c>
       <c r="DH64" s="1">
         <f t="shared" si="172"/>
-        <v>113393.84828475741</v>
+        <v>93123.575501326821</v>
       </c>
       <c r="DI64" s="1">
         <f t="shared" si="172"/>
-        <v>114527.78676760498</v>
+        <v>94054.811256340094</v>
       </c>
       <c r="DJ64" s="1">
         <f t="shared" si="172"/>
-        <v>115673.06463528103</v>
+        <v>94995.35936890349</v>
       </c>
       <c r="DK64" s="1">
         <f t="shared" si="172"/>
-        <v>116829.79528163384</v>
+        <v>95945.312962592521</v>
       </c>
       <c r="DL64" s="1">
         <f t="shared" si="172"/>
-        <v>117998.09323445018</v>
+        <v>96904.766092218444</v>
       </c>
       <c r="DM64" s="1">
         <f t="shared" si="172"/>
-        <v>119178.07416679469</v>
+        <v>97873.813753140625</v>
       </c>
       <c r="DN64" s="1">
         <f t="shared" si="172"/>
-        <v>120369.85490846263</v>
+        <v>98852.551890672024</v>
       </c>
       <c r="DO64" s="1">
         <f t="shared" si="172"/>
-        <v>121573.55345754726</v>
+        <v>99841.077409578749</v>
       </c>
       <c r="DP64" s="1">
         <f t="shared" si="172"/>
-        <v>122789.28899212273</v>
+        <v>100839.48818367453</v>
       </c>
       <c r="DQ64" s="1">
         <f t="shared" si="172"/>
-        <v>124017.18188204397</v>
+        <v>101847.88306551128</v>
       </c>
       <c r="DR64" s="1">
         <f t="shared" ref="DR64:EN64" si="173">DQ64*(1+$AB$69)</f>
-        <v>125257.35370086441</v>
+        <v>102866.3618961664</v>
       </c>
       <c r="DS64" s="1">
         <f t="shared" si="173"/>
-        <v>126509.92723787305</v>
+        <v>103895.02551512807</v>
       </c>
       <c r="DT64" s="1">
         <f t="shared" si="173"/>
-        <v>127775.02651025179</v>
+        <v>104933.97577027936</v>
       </c>
       <c r="DU64" s="1">
         <f t="shared" si="173"/>
-        <v>129052.7767753543</v>
+        <v>105983.31552798215</v>
       </c>
       <c r="DV64" s="1">
         <f t="shared" si="173"/>
-        <v>130343.30454310785</v>
+        <v>107043.14868326197</v>
       </c>
       <c r="DW64" s="1">
         <f t="shared" si="173"/>
-        <v>131646.73758853893</v>
+        <v>108113.58017009459</v>
       </c>
       <c r="DX64" s="1">
         <f t="shared" si="173"/>
-        <v>132963.20496442434</v>
+        <v>109194.71597179554</v>
       </c>
       <c r="DY64" s="1">
         <f t="shared" si="173"/>
-        <v>134292.83701406859</v>
+        <v>110286.66313151349</v>
       </c>
       <c r="DZ64" s="1">
         <f t="shared" si="173"/>
-        <v>135635.76538420928</v>
+        <v>111389.52976282862</v>
       </c>
       <c r="EA64" s="1">
         <f t="shared" si="173"/>
-        <v>136992.12303805139</v>
+        <v>112503.42506045691</v>
       </c>
       <c r="EB64" s="1">
         <f t="shared" si="173"/>
-        <v>138362.0442684319</v>
+        <v>113628.45931106148</v>
       </c>
       <c r="EC64" s="1">
         <f t="shared" si="173"/>
-        <v>139745.66471111623</v>
+        <v>114764.74390417209</v>
       </c>
       <c r="ED64" s="1">
         <f t="shared" si="173"/>
-        <v>141143.12135822739</v>
+        <v>115912.39134321382</v>
       </c>
       <c r="EE64" s="1">
         <f t="shared" si="173"/>
-        <v>142554.55257180968</v>
+        <v>117071.51525664596</v>
       </c>
       <c r="EF64" s="1">
         <f t="shared" si="173"/>
-        <v>143980.09809752778</v>
+        <v>118242.23040921243</v>
       </c>
       <c r="EG64" s="1">
         <f t="shared" si="173"/>
-        <v>145419.89907850305</v>
+        <v>119424.65271330455</v>
       </c>
       <c r="EH64" s="1">
         <f t="shared" si="173"/>
-        <v>146874.09806928807</v>
+        <v>120618.89924043759</v>
       </c>
       <c r="EI64" s="1">
         <f t="shared" si="173"/>
-        <v>148342.83904998095</v>
+        <v>121825.08823284197</v>
       </c>
       <c r="EJ64" s="1">
         <f t="shared" si="173"/>
-        <v>149826.26744048076</v>
+        <v>123043.33911517038</v>
       </c>
       <c r="EK64" s="1">
         <f t="shared" si="173"/>
-        <v>151324.53011488557</v>
+        <v>124273.77250632209</v>
       </c>
       <c r="EL64" s="1">
         <f t="shared" si="173"/>
-        <v>152837.77541603442</v>
+        <v>125516.51023138531</v>
       </c>
       <c r="EM64" s="1">
         <f t="shared" si="173"/>
-        <v>154366.15317019477</v>
+        <v>126771.67533369917</v>
       </c>
       <c r="EN64" s="1">
         <f t="shared" si="173"/>
-        <v>155909.81470189671</v>
+        <v>128039.39208703616</v>
       </c>
     </row>
     <row r="66" spans="2:145" x14ac:dyDescent="0.2">
@@ -7069,47 +7071,44 @@
         <v>30000</v>
       </c>
       <c r="Q71" s="1">
-        <f>P71*1.02</f>
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71:Y71" si="179">Q71*1.02</f>
-        <v>31212</v>
+        <v>25000</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="179"/>
-        <v>31836.240000000002</v>
+        <f t="shared" ref="R71:Y71" si="179">R71*1</f>
+        <v>25000</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="179"/>
-        <v>32472.964800000002</v>
+        <v>20000</v>
       </c>
       <c r="U71" s="1">
         <f t="shared" si="179"/>
-        <v>33122.424096000002</v>
+        <v>20000</v>
       </c>
       <c r="V71" s="1">
         <f t="shared" si="179"/>
-        <v>33784.872577920003</v>
+        <v>20000</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="179"/>
-        <v>34460.570029478404</v>
+        <v>20000</v>
       </c>
       <c r="X71" s="1">
         <f t="shared" si="179"/>
-        <v>35149.781430067975</v>
+        <v>20000</v>
       </c>
       <c r="Y71" s="1">
         <f t="shared" si="179"/>
-        <v>35852.777058669337</v>
+        <v>20000</v>
       </c>
       <c r="AA71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AB71" s="3">
         <f>NPV(AB70,P64:EN64)</f>
-        <v>161566.18990780727</v>
+        <v>138665.7261528903</v>
       </c>
     </row>
     <row r="72" spans="2:145" x14ac:dyDescent="0.2">
@@ -7166,519 +7165,519 @@
       </c>
       <c r="Q73" s="1">
         <f t="shared" ref="Q73:U73" si="185">(Q71-Q72)*Q70/1000000</f>
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="R73" s="1">
         <f t="shared" si="185"/>
-        <v>2160.8000000000002</v>
+        <v>1539.6</v>
       </c>
       <c r="S73" s="1">
         <f t="shared" si="185"/>
-        <v>4484.8639999999996</v>
+        <v>3117.616</v>
       </c>
       <c r="T73" s="1">
         <f t="shared" si="185"/>
-        <v>9299.7132799999999</v>
+        <v>4310.52736</v>
       </c>
       <c r="U73" s="1">
         <f t="shared" si="185"/>
-        <v>19266.572902400003</v>
+        <v>8768.6336255999995</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" ref="V73:Y73" si="186">(V71-V72)*V70/1000000</f>
-        <v>39882.318030848008</v>
+        <v>17826.521906176</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" si="186"/>
-        <v>82493.807030435855</v>
+        <v>36219.982936104956</v>
       </c>
       <c r="X73" s="1">
         <f t="shared" si="186"/>
-        <v>170509.76770720078</v>
+        <v>73551.166554765718</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" si="186"/>
-        <v>352195.83279830834</v>
+        <v>149280.28644734083</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" ref="Z73:BE73" si="187">Y73*(1+$AB$76)</f>
-        <v>355717.79112629144</v>
+        <v>150773.08931181423</v>
       </c>
       <c r="AA73" s="1">
         <f t="shared" si="187"/>
-        <v>359274.96903755434</v>
+        <v>152280.82020493236</v>
       </c>
       <c r="AB73" s="1">
         <f t="shared" si="187"/>
-        <v>362867.71872792987</v>
+        <v>153803.62840698168</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="187"/>
-        <v>366496.39591520914</v>
+        <v>155341.6646910515</v>
       </c>
       <c r="AD73" s="1">
         <f t="shared" si="187"/>
-        <v>370161.35987436125</v>
+        <v>156895.08133796201</v>
       </c>
       <c r="AE73" s="1">
         <f t="shared" si="187"/>
-        <v>373862.97347310488</v>
+        <v>158464.03215134164</v>
       </c>
       <c r="AF73" s="1">
         <f t="shared" si="187"/>
-        <v>377601.60320783593</v>
+        <v>160048.67247285505</v>
       </c>
       <c r="AG73" s="1">
         <f t="shared" si="187"/>
-        <v>381377.61923991429</v>
+        <v>161649.15919758359</v>
       </c>
       <c r="AH73" s="1">
         <f t="shared" si="187"/>
-        <v>385191.39543231344</v>
+        <v>163265.65078955944</v>
       </c>
       <c r="AI73" s="1">
         <f t="shared" si="187"/>
-        <v>389043.3093866366</v>
+        <v>164898.30729745503</v>
       </c>
       <c r="AJ73" s="1">
         <f t="shared" si="187"/>
-        <v>392933.74248050299</v>
+        <v>166547.29037042957</v>
       </c>
       <c r="AK73" s="1">
         <f t="shared" si="187"/>
-        <v>396863.07990530803</v>
+        <v>168212.76327413387</v>
       </c>
       <c r="AL73" s="1">
         <f t="shared" si="187"/>
-        <v>400831.71070436109</v>
+        <v>169894.89090687523</v>
       </c>
       <c r="AM73" s="1">
         <f t="shared" si="187"/>
-        <v>404840.02781140473</v>
+        <v>171593.83981594397</v>
       </c>
       <c r="AN73" s="1">
         <f t="shared" si="187"/>
-        <v>408888.4280895188</v>
+        <v>173309.7782141034</v>
       </c>
       <c r="AO73" s="1">
         <f t="shared" si="187"/>
-        <v>412977.31237041397</v>
+        <v>175042.87599624443</v>
       </c>
       <c r="AP73" s="1">
         <f t="shared" si="187"/>
-        <v>417107.0854941181</v>
+        <v>176793.30475620687</v>
       </c>
       <c r="AQ73" s="1">
         <f t="shared" si="187"/>
-        <v>421278.15634905931</v>
+        <v>178561.23780376895</v>
       </c>
       <c r="AR73" s="1">
         <f t="shared" si="187"/>
-        <v>425490.93791254988</v>
+        <v>180346.85018180663</v>
       </c>
       <c r="AS73" s="1">
         <f t="shared" si="187"/>
-        <v>429745.8472916754</v>
+        <v>182150.3186836247</v>
       </c>
       <c r="AT73" s="1">
         <f t="shared" si="187"/>
-        <v>434043.30576459214</v>
+        <v>183971.82187046096</v>
       </c>
       <c r="AU73" s="1">
         <f t="shared" si="187"/>
-        <v>438383.73882223805</v>
+        <v>185811.54008916556</v>
       </c>
       <c r="AV73" s="1">
         <f t="shared" si="187"/>
-        <v>442767.57621046045</v>
+        <v>187669.65549005722</v>
       </c>
       <c r="AW73" s="1">
         <f t="shared" si="187"/>
-        <v>447195.25197256508</v>
+        <v>189546.35204495781</v>
       </c>
       <c r="AX73" s="1">
         <f t="shared" si="187"/>
-        <v>451667.20449229074</v>
+        <v>191441.81556540739</v>
       </c>
       <c r="AY73" s="1">
         <f t="shared" si="187"/>
-        <v>456183.87653721363</v>
+        <v>193356.23372106146</v>
       </c>
       <c r="AZ73" s="1">
         <f t="shared" si="187"/>
-        <v>460745.71530258574</v>
+        <v>195289.79605827207</v>
       </c>
       <c r="BA73" s="1">
         <f t="shared" si="187"/>
-        <v>465353.17245561158</v>
+        <v>197242.69401885479</v>
       </c>
       <c r="BB73" s="1">
         <f t="shared" si="187"/>
-        <v>470006.7041801677</v>
+        <v>199215.12095904333</v>
       </c>
       <c r="BC73" s="1">
         <f t="shared" si="187"/>
-        <v>474706.77122196939</v>
+        <v>201207.27216863376</v>
       </c>
       <c r="BD73" s="1">
         <f t="shared" si="187"/>
-        <v>479453.83893418912</v>
+        <v>203219.34489032009</v>
       </c>
       <c r="BE73" s="1">
         <f t="shared" si="187"/>
-        <v>484248.37732353102</v>
+        <v>205251.53833922331</v>
       </c>
       <c r="BF73" s="1">
         <f t="shared" ref="BF73:CK73" si="188">BE73*(1+$AB$76)</f>
-        <v>489090.86109676631</v>
+        <v>207304.05372261553</v>
       </c>
       <c r="BG73" s="1">
         <f t="shared" si="188"/>
-        <v>493981.769707734</v>
+        <v>209377.09425984169</v>
       </c>
       <c r="BH73" s="1">
         <f t="shared" si="188"/>
-        <v>498921.58740481135</v>
+        <v>211470.86520244009</v>
       </c>
       <c r="BI73" s="1">
         <f t="shared" si="188"/>
-        <v>503910.80327885947</v>
+        <v>213585.57385446448</v>
       </c>
       <c r="BJ73" s="1">
         <f t="shared" si="188"/>
-        <v>508949.91131164809</v>
+        <v>215721.42959300912</v>
       </c>
       <c r="BK73" s="1">
         <f t="shared" si="188"/>
-        <v>514039.41042476456</v>
+        <v>217878.6438889392</v>
       </c>
       <c r="BL73" s="1">
         <f t="shared" si="188"/>
-        <v>519179.80452901218</v>
+        <v>220057.4303278286</v>
       </c>
       <c r="BM73" s="1">
         <f t="shared" si="188"/>
-        <v>524371.60257430235</v>
+        <v>222258.00463110689</v>
       </c>
       <c r="BN73" s="1">
         <f t="shared" si="188"/>
-        <v>529615.3186000454</v>
+        <v>224480.58467741797</v>
       </c>
       <c r="BO73" s="1">
         <f t="shared" si="188"/>
-        <v>534911.47178604582</v>
+        <v>226725.39052419216</v>
       </c>
       <c r="BP73" s="1">
         <f t="shared" si="188"/>
-        <v>540260.58650390629</v>
+        <v>228992.64442943409</v>
       </c>
       <c r="BQ73" s="1">
         <f t="shared" si="188"/>
-        <v>545663.19236894534</v>
+        <v>231282.57087372843</v>
       </c>
       <c r="BR73" s="1">
         <f t="shared" si="188"/>
-        <v>551119.82429263485</v>
+        <v>233595.39658246571</v>
       </c>
       <c r="BS73" s="1">
         <f t="shared" si="188"/>
-        <v>556631.02253556123</v>
+        <v>235931.35054829036</v>
       </c>
       <c r="BT73" s="1">
         <f t="shared" si="188"/>
-        <v>562197.33276091691</v>
+        <v>238290.66405377327</v>
       </c>
       <c r="BU73" s="1">
         <f t="shared" si="188"/>
-        <v>567819.30608852603</v>
+        <v>240673.570694311</v>
       </c>
       <c r="BV73" s="1">
         <f t="shared" si="188"/>
-        <v>573497.49914941133</v>
+        <v>243080.30640125411</v>
       </c>
       <c r="BW73" s="1">
         <f t="shared" si="188"/>
-        <v>579232.47414090543</v>
+        <v>245511.10946526667</v>
       </c>
       <c r="BX73" s="1">
         <f t="shared" si="188"/>
-        <v>585024.79888231447</v>
+        <v>247966.22055991934</v>
       </c>
       <c r="BY73" s="1">
         <f t="shared" si="188"/>
-        <v>590875.04687113757</v>
+        <v>250445.88276551853</v>
       </c>
       <c r="BZ73" s="1">
         <f t="shared" si="188"/>
-        <v>596783.79733984894</v>
+        <v>252950.34159317371</v>
       </c>
       <c r="CA73" s="1">
         <f t="shared" si="188"/>
-        <v>602751.63531324745</v>
+        <v>255479.84500910545</v>
       </c>
       <c r="CB73" s="1">
         <f t="shared" si="188"/>
-        <v>608779.15166637988</v>
+        <v>258034.64345919652</v>
       </c>
       <c r="CC73" s="1">
         <f t="shared" si="188"/>
-        <v>614866.94318304374</v>
+        <v>260614.9898937885</v>
       </c>
       <c r="CD73" s="1">
         <f t="shared" si="188"/>
-        <v>621015.61261487415</v>
+        <v>263221.13979272638</v>
       </c>
       <c r="CE73" s="1">
         <f t="shared" si="188"/>
-        <v>627225.76874102291</v>
+        <v>265853.35119065363</v>
       </c>
       <c r="CF73" s="1">
         <f t="shared" si="188"/>
-        <v>633498.02642843314</v>
+        <v>268511.88470256014</v>
       </c>
       <c r="CG73" s="1">
         <f t="shared" si="188"/>
-        <v>639833.00669271743</v>
+        <v>271197.00354958576</v>
       </c>
       <c r="CH73" s="1">
         <f t="shared" si="188"/>
-        <v>646231.33675964456</v>
+        <v>273908.97358508164</v>
       </c>
       <c r="CI73" s="1">
         <f t="shared" si="188"/>
-        <v>652693.65012724104</v>
+        <v>276648.06332093244</v>
       </c>
       <c r="CJ73" s="1">
         <f t="shared" si="188"/>
-        <v>659220.58662851341</v>
+        <v>279414.54395414179</v>
       </c>
       <c r="CK73" s="1">
         <f t="shared" si="188"/>
-        <v>665812.79249479854</v>
+        <v>282208.68939368322</v>
       </c>
       <c r="CL73" s="1">
         <f t="shared" ref="CL73:DQ73" si="189">CK73*(1+$AB$76)</f>
-        <v>672470.92041974654</v>
+        <v>285030.77628762007</v>
       </c>
       <c r="CM73" s="1">
         <f t="shared" si="189"/>
-        <v>679195.62962394406</v>
+        <v>287881.08405049628</v>
       </c>
       <c r="CN73" s="1">
         <f t="shared" si="189"/>
-        <v>685987.58592018345</v>
+        <v>290759.89489100123</v>
       </c>
       <c r="CO73" s="1">
         <f t="shared" si="189"/>
-        <v>692847.46177938534</v>
+        <v>293667.49383991124</v>
       </c>
       <c r="CP73" s="1">
         <f t="shared" si="189"/>
-        <v>699775.93639717915</v>
+        <v>296604.16877831036</v>
       </c>
       <c r="CQ73" s="1">
         <f t="shared" si="189"/>
-        <v>706773.69576115091</v>
+        <v>299570.21046609344</v>
       </c>
       <c r="CR73" s="1">
         <f t="shared" si="189"/>
-        <v>713841.43271876243</v>
+        <v>302565.91257075436</v>
       </c>
       <c r="CS73" s="1">
         <f t="shared" si="189"/>
-        <v>720979.84704595001</v>
+        <v>305591.57169646188</v>
       </c>
       <c r="CT73" s="1">
         <f t="shared" si="189"/>
-        <v>728189.64551640954</v>
+        <v>308647.48741342651</v>
       </c>
       <c r="CU73" s="1">
         <f t="shared" si="189"/>
-        <v>735471.54197157361</v>
+        <v>311733.9622875608</v>
       </c>
       <c r="CV73" s="1">
         <f t="shared" si="189"/>
-        <v>742826.25739128934</v>
+        <v>314851.30191043642</v>
       </c>
       <c r="CW73" s="1">
         <f t="shared" si="189"/>
-        <v>750254.5199652022</v>
+        <v>317999.81492954079</v>
       </c>
       <c r="CX73" s="1">
         <f t="shared" si="189"/>
-        <v>757757.06516485428</v>
+        <v>321179.81307883619</v>
       </c>
       <c r="CY73" s="1">
         <f t="shared" si="189"/>
-        <v>765334.63581650285</v>
+        <v>324391.61120962456</v>
       </c>
       <c r="CZ73" s="1">
         <f t="shared" si="189"/>
-        <v>772987.98217466788</v>
+        <v>327635.52732172079</v>
       </c>
       <c r="DA73" s="1">
         <f t="shared" si="189"/>
-        <v>780717.86199641461</v>
+        <v>330911.88259493798</v>
       </c>
       <c r="DB73" s="1">
         <f t="shared" si="189"/>
-        <v>788525.04061637877</v>
+        <v>334221.00142088736</v>
       </c>
       <c r="DC73" s="1">
         <f t="shared" si="189"/>
-        <v>796410.29102254251</v>
+        <v>337563.21143509622</v>
       </c>
       <c r="DD73" s="1">
         <f t="shared" si="189"/>
-        <v>804374.39393276791</v>
+        <v>340938.84354944719</v>
       </c>
       <c r="DE73" s="1">
         <f t="shared" si="189"/>
-        <v>812418.13787209557</v>
+        <v>344348.2319849417</v>
       </c>
       <c r="DF73" s="1">
         <f t="shared" si="189"/>
-        <v>820542.31925081648</v>
+        <v>347791.71430479112</v>
       </c>
       <c r="DG73" s="1">
         <f t="shared" si="189"/>
-        <v>828747.74244332465</v>
+        <v>351269.63144783903</v>
       </c>
       <c r="DH73" s="1">
         <f t="shared" si="189"/>
-        <v>837035.21986775787</v>
+        <v>354782.32776231744</v>
       </c>
       <c r="DI73" s="1">
         <f t="shared" si="189"/>
-        <v>845405.57206643547</v>
+        <v>358330.1510399406</v>
       </c>
       <c r="DJ73" s="1">
         <f t="shared" si="189"/>
-        <v>853859.6277870998</v>
+        <v>361913.45255033998</v>
       </c>
       <c r="DK73" s="1">
         <f t="shared" si="189"/>
-        <v>862398.22406497085</v>
+        <v>365532.58707584336</v>
       </c>
       <c r="DL73" s="1">
         <f t="shared" si="189"/>
-        <v>871022.20630562061</v>
+        <v>369187.91294660181</v>
       </c>
       <c r="DM73" s="1">
         <f t="shared" si="189"/>
-        <v>879732.4283686768</v>
+        <v>372879.79207606782</v>
       </c>
       <c r="DN73" s="1">
         <f t="shared" si="189"/>
-        <v>888529.75265236362</v>
+        <v>376608.58999682852</v>
       </c>
       <c r="DO73" s="1">
         <f t="shared" si="189"/>
-        <v>897415.05017888721</v>
+        <v>380374.67589679681</v>
       </c>
       <c r="DP73" s="1">
         <f t="shared" si="189"/>
-        <v>906389.20068067603</v>
+        <v>384178.42265576479</v>
       </c>
       <c r="DQ73" s="1">
         <f t="shared" si="189"/>
-        <v>915453.09268748283</v>
+        <v>388020.20688232244</v>
       </c>
       <c r="DR73" s="1">
         <f t="shared" ref="DR73:EO73" si="190">DQ73*(1+$AB$76)</f>
-        <v>924607.62361435767</v>
+        <v>391900.40895114566</v>
       </c>
       <c r="DS73" s="1">
         <f t="shared" si="190"/>
-        <v>933853.69985050126</v>
+        <v>395819.41304065712</v>
       </c>
       <c r="DT73" s="1">
         <f t="shared" si="190"/>
-        <v>943192.23684900627</v>
+        <v>399777.60717106372</v>
       </c>
       <c r="DU73" s="1">
         <f t="shared" si="190"/>
-        <v>952624.15921749629</v>
+        <v>403775.38324277435</v>
       </c>
       <c r="DV73" s="1">
         <f t="shared" si="190"/>
-        <v>962150.40080967126</v>
+        <v>407813.13707520207</v>
       </c>
       <c r="DW73" s="1">
         <f t="shared" si="190"/>
-        <v>971771.90481776802</v>
+        <v>411891.26844595408</v>
       </c>
       <c r="DX73" s="1">
         <f t="shared" si="190"/>
-        <v>981489.62386594573</v>
+        <v>416010.18113041361</v>
       </c>
       <c r="DY73" s="1">
         <f t="shared" si="190"/>
-        <v>991304.52010460524</v>
+        <v>420170.28294171777</v>
       </c>
       <c r="DZ73" s="1">
         <f t="shared" si="190"/>
-        <v>1001217.5653056513</v>
+        <v>424371.98577113496</v>
       </c>
       <c r="EA73" s="1">
         <f t="shared" si="190"/>
-        <v>1011229.7409587078</v>
+        <v>428615.70562884631</v>
       </c>
       <c r="EB73" s="1">
         <f t="shared" si="190"/>
-        <v>1021342.0383682948</v>
+        <v>432901.86268513475</v>
       </c>
       <c r="EC73" s="1">
         <f t="shared" si="190"/>
-        <v>1031555.4587519778</v>
+        <v>437230.88131198613</v>
       </c>
       <c r="ED73" s="1">
         <f t="shared" si="190"/>
-        <v>1041871.0133394976</v>
+        <v>441603.19012510602</v>
       </c>
       <c r="EE73" s="1">
         <f t="shared" si="190"/>
-        <v>1052289.7234728925</v>
+        <v>446019.22202635708</v>
       </c>
       <c r="EF73" s="1">
         <f t="shared" si="190"/>
-        <v>1062812.6207076216</v>
+        <v>450479.41424662067</v>
       </c>
       <c r="EG73" s="1">
         <f t="shared" si="190"/>
-        <v>1073440.7469146978</v>
+        <v>454984.20838908688</v>
       </c>
       <c r="EH73" s="1">
         <f t="shared" si="190"/>
-        <v>1084175.1543838447</v>
+        <v>459534.05047297775</v>
       </c>
       <c r="EI73" s="1">
         <f t="shared" si="190"/>
-        <v>1095016.9059276832</v>
+        <v>464129.39097770752</v>
       </c>
       <c r="EJ73" s="1">
         <f t="shared" si="190"/>
-        <v>1105967.07498696</v>
+        <v>468770.68488748459</v>
       </c>
       <c r="EK73" s="1">
         <f t="shared" si="190"/>
-        <v>1117026.7457368297</v>
+        <v>473458.39173635945</v>
       </c>
       <c r="EL73" s="1">
         <f t="shared" si="190"/>
-        <v>1128197.013194198</v>
+        <v>478192.97565372306</v>
       </c>
       <c r="EM73" s="1">
         <f t="shared" si="190"/>
-        <v>1139478.9833261401</v>
+        <v>482974.90541026031</v>
       </c>
       <c r="EN73" s="1">
         <f t="shared" si="190"/>
-        <v>1150873.7731594015</v>
+        <v>487804.65446436295</v>
       </c>
       <c r="EO73" s="1">
         <f t="shared" si="190"/>
-        <v>1162382.5108909956</v>
+        <v>492682.70100900659</v>
       </c>
     </row>
     <row r="75" spans="2:145" x14ac:dyDescent="0.2">
@@ -7691,39 +7690,39 @@
       </c>
       <c r="Q75" s="5">
         <f>Q71/Q72-1</f>
-        <v>2.1224489795918369</v>
+        <v>2.0612244897959182</v>
       </c>
       <c r="R75" s="5">
         <f>R71/R72-1</f>
-        <v>2.2498958767180341</v>
+        <v>1.603082049146189</v>
       </c>
       <c r="S75" s="5">
         <f>S71/S72-1</f>
-        <v>2.382544688012648</v>
+        <v>1.6562061725981523</v>
       </c>
       <c r="T75" s="5">
         <f>T71/T72-1</f>
-        <v>2.52060773650296</v>
+        <v>1.1683315694678793</v>
       </c>
       <c r="U75" s="5">
         <f t="shared" ref="U75:Y75" si="191">U71/U72-1</f>
-        <v>2.6643060114622643</v>
+        <v>1.2125832341508973</v>
       </c>
       <c r="V75" s="5">
         <f t="shared" si="191"/>
-        <v>2.8138695221341941</v>
+        <v>1.2577379940315279</v>
       </c>
       <c r="W75" s="5">
         <f t="shared" si="191"/>
-        <v>2.969537665894773</v>
+        <v>1.3038142796240075</v>
       </c>
       <c r="X75" s="5">
         <f t="shared" si="191"/>
-        <v>3.1315596114414985</v>
+        <v>1.3508308975755181</v>
       </c>
       <c r="Y75" s="5">
         <f t="shared" si="191"/>
-        <v>3.3001946976227847</v>
+        <v>1.3988070383423654</v>
       </c>
     </row>
     <row r="76" spans="2:145" x14ac:dyDescent="0.2">
@@ -7830,7 +7829,7 @@
       </c>
       <c r="AB78" s="3">
         <f>NPV(AB77,P73:EO73)</f>
-        <v>253838.58791747765</v>
+        <v>109673.42386645672</v>
       </c>
     </row>
     <row r="79" spans="2:145" x14ac:dyDescent="0.2">
@@ -8060,23 +8059,23 @@
       </c>
       <c r="U85" s="5">
         <f t="shared" si="228"/>
-        <v>1.0232254267036833</v>
+        <v>1.1422067419994453</v>
       </c>
       <c r="V85" s="5">
         <f t="shared" ref="V85:Y85" si="229">V83/V46</f>
-        <v>0.99907467666325078</v>
+        <v>1.1508254404994198</v>
       </c>
       <c r="W85" s="5">
         <f t="shared" si="229"/>
-        <v>0.96481410584622085</v>
+        <v>1.1403271811381426</v>
       </c>
       <c r="X85" s="5">
         <f t="shared" si="229"/>
-        <v>0.91905203172321304</v>
+        <v>1.1066993788644941</v>
       </c>
       <c r="Y85" s="5">
         <f t="shared" si="229"/>
-        <v>0.86116116394104725</v>
+        <v>1.0478955148099274</v>
       </c>
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.2">
@@ -8175,23 +8174,23 @@
       </c>
       <c r="U88" s="1">
         <f t="shared" si="235"/>
-        <v>299108.52431289834</v>
+        <v>291051.45691667544</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" ref="V88:Y88" si="236">+U88+V18</f>
-        <v>416920.90911884897</v>
+        <v>396288.69829558599</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="236"/>
-        <v>562524.03023754724</v>
+        <v>523690.55715022061</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" si="236"/>
-        <v>744038.31455837854</v>
+        <v>680058.13950058422</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" si="236"/>
-        <v>972875.5329205133</v>
+        <v>875236.68641694251</v>
       </c>
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.2">
@@ -8838,23 +8837,23 @@
       </c>
       <c r="U119" s="1">
         <f t="shared" si="257"/>
-        <v>95918.671380626081</v>
+        <v>87861.603984403191</v>
       </c>
       <c r="V119" s="1">
         <f t="shared" ref="V119:Y119" si="258">V18</f>
-        <v>117812.3848059506</v>
+        <v>105237.24137891055</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" si="258"/>
-        <v>145603.12111869827</v>
+        <v>127401.85885463466</v>
       </c>
       <c r="X119" s="1">
         <f t="shared" si="258"/>
-        <v>181514.2843208313</v>
+        <v>156367.58235036358</v>
       </c>
       <c r="Y119" s="1">
         <f t="shared" si="258"/>
-        <v>228837.21836213482</v>
+        <v>195178.54691635832</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
@@ -8998,23 +8997,23 @@
       </c>
       <c r="U123" s="1">
         <f t="shared" si="261"/>
-        <v>1442.5013982678881</v>
+        <v>1326.2451467613148</v>
       </c>
       <c r="V123" s="1">
         <f t="shared" ref="V123:Y123" si="262">U123*(1+V30)</f>
-        <v>1732.0060181260135</v>
+        <v>1558.3773065009461</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" si="262"/>
-        <v>2101.1374940754804</v>
+        <v>1859.0900892747072</v>
       </c>
       <c r="X123" s="1">
         <f t="shared" si="262"/>
-        <v>2579.5666396085117</v>
+        <v>2256.3067803655049</v>
       </c>
       <c r="Y123" s="1">
         <f t="shared" si="262"/>
-        <v>3210.3813672019137</v>
+        <v>2791.1126548831512</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
@@ -9058,23 +9057,23 @@
       </c>
       <c r="U124" s="1">
         <f t="shared" si="263"/>
-        <v>-314.33612559270398</v>
+        <v>-289.00267377186856</v>
       </c>
       <c r="V124" s="1">
         <f t="shared" ref="V124:Y124" si="264">U124*(1+V30)</f>
-        <v>-377.42220693492237</v>
+        <v>-339.58669664050461</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="264"/>
-        <v>-457.85981214182118</v>
+        <v>-405.11515378224954</v>
       </c>
       <c r="X124" s="1">
         <f t="shared" si="264"/>
-        <v>-562.11452146692955</v>
+        <v>-491.67282079606508</v>
       </c>
       <c r="Y124" s="1">
         <f t="shared" si="264"/>
-        <v>-699.57564121116343</v>
+        <v>-608.21260837752232</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
@@ -9118,23 +9117,23 @@
       </c>
       <c r="U125" s="1">
         <f t="shared" si="265"/>
-        <v>2053.9497521605454</v>
+        <v>1888.4147313586482</v>
       </c>
       <c r="V125" s="1">
         <f t="shared" ref="V125:Y125" si="266">U125*(1+V30)</f>
-        <v>2466.1697631227121</v>
+        <v>2218.9432095550783</v>
       </c>
       <c r="W125" s="1">
         <f t="shared" si="266"/>
-        <v>2991.7689094746397</v>
+        <v>2647.1223062210006</v>
       </c>
       <c r="X125" s="1">
         <f t="shared" si="266"/>
-        <v>3672.9948868455531</v>
+        <v>3212.7114454756584</v>
       </c>
       <c r="Y125" s="1">
         <f t="shared" si="266"/>
-        <v>4571.199737777054</v>
+        <v>3974.2111533709335</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.2">
@@ -9178,23 +9177,23 @@
       </c>
       <c r="U126" s="1">
         <f t="shared" si="267"/>
-        <v>740.62758358828887</v>
+        <v>680.9378066953617</v>
       </c>
       <c r="V126" s="1">
         <f t="shared" ref="V126:Y126" si="268">U126*(1+V30)</f>
-        <v>889.26876154529657</v>
+        <v>800.12207975570971</v>
       </c>
       <c r="W126" s="1">
         <f t="shared" si="268"/>
-        <v>1078.792982032784</v>
+        <v>954.51789658283485</v>
       </c>
       <c r="X126" s="1">
         <f t="shared" si="268"/>
-        <v>1324.4342149631764</v>
+        <v>1158.4619887249758</v>
       </c>
       <c r="Y126" s="1">
         <f t="shared" si="268"/>
-        <v>1648.3152094290426</v>
+        <v>1433.0488854922448</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.2">
@@ -9288,23 +9287,23 @@
       </c>
       <c r="U128" s="1">
         <f t="shared" si="269"/>
-        <v>-4663.3701920123067</v>
+        <v>-4287.5328177388174</v>
       </c>
       <c r="V128" s="1">
         <f t="shared" ref="V128:Y128" si="270">U128*(1+V30)</f>
-        <v>-5599.2910974043953</v>
+        <v>-5037.9779789269387</v>
       </c>
       <c r="W128" s="1">
         <f t="shared" si="270"/>
-        <v>-6792.632555473866</v>
+        <v>-6010.1330348791271</v>
       </c>
       <c r="X128" s="1">
         <f t="shared" si="270"/>
-        <v>-8339.3154349134875</v>
+        <v>-7294.2693824950484</v>
       </c>
       <c r="Y128" s="1">
         <f t="shared" si="270"/>
-        <v>-10378.635882625889</v>
+        <v>-9023.2089708610511</v>
       </c>
       <c r="AA128" s="11" t="s">
         <v>137</v>
@@ -9351,30 +9350,30 @@
       </c>
       <c r="U129" s="1">
         <f t="shared" si="271"/>
-        <v>4034.697940826899</v>
+        <v>3709.5274701950802</v>
       </c>
       <c r="V129" s="1">
         <f t="shared" ref="V129:Y129" si="272">U129*(1+V30)</f>
-        <v>4844.4466835345511</v>
+        <v>4358.8045856459294</v>
       </c>
       <c r="W129" s="1">
         <f t="shared" si="272"/>
-        <v>5876.9129311902243</v>
+        <v>5199.9027273146285</v>
       </c>
       <c r="X129" s="1">
         <f t="shared" si="272"/>
-        <v>7215.0863919796284</v>
+        <v>6310.9237409029183</v>
       </c>
       <c r="Y129" s="1">
         <f t="shared" si="272"/>
-        <v>8979.4846002035611</v>
+        <v>7806.7837541060062</v>
       </c>
       <c r="AA129" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AB129" s="3">
         <f>AB78+AB49+AB71</f>
-        <v>721292.9095774513</v>
+        <v>554227.2817715134</v>
       </c>
     </row>
     <row r="130" spans="1:130" x14ac:dyDescent="0.2">
@@ -9418,23 +9417,23 @@
       </c>
       <c r="U130" s="1">
         <f t="shared" si="273"/>
-        <v>-2540.5248506807579</v>
+        <v>-2335.7750345945542</v>
       </c>
       <c r="V130" s="1">
         <f t="shared" ref="V130:Y130" si="274">U130*(1+V30)</f>
-        <v>-3050.3986587890981</v>
+        <v>-2744.6048084643526</v>
       </c>
       <c r="W130" s="1">
         <f t="shared" si="274"/>
-        <v>-3700.5108104612937</v>
+        <v>-3274.2183661853051</v>
       </c>
       <c r="X130" s="1">
         <f t="shared" si="274"/>
-        <v>-4543.1173652806619</v>
+        <v>-3973.7940310914855</v>
       </c>
       <c r="Y130" s="1">
         <f t="shared" si="274"/>
-        <v>-5654.1044974600863</v>
+        <v>-4915.6909444210714</v>
       </c>
     </row>
     <row r="131" spans="1:130" x14ac:dyDescent="0.2">
@@ -9478,23 +9477,23 @@
       </c>
       <c r="U131" s="1">
         <f t="shared" si="275"/>
-        <v>-14093.453959793427</v>
+        <v>-12957.613030894876</v>
       </c>
       <c r="V131" s="1">
         <f t="shared" ref="V131:Y131" si="276">U131*(1+V30)</f>
-        <v>-16921.957305452066</v>
+        <v>-15225.57887814208</v>
       </c>
       <c r="W131" s="1">
         <f t="shared" si="276"/>
-        <v>-20528.426919728499</v>
+        <v>-18163.587648346616</v>
       </c>
       <c r="X131" s="1">
         <f t="shared" si="276"/>
-        <v>-25202.75107892137</v>
+        <v>-22044.454006377004</v>
       </c>
       <c r="Y131" s="1">
         <f t="shared" si="276"/>
-        <v>-31365.905118960789</v>
+        <v>-27269.587222186721</v>
       </c>
       <c r="AA131" s="1" t="s">
         <v>78</v>
@@ -9544,23 +9543,23 @@
       </c>
       <c r="U132" s="1">
         <f t="shared" si="277"/>
-        <v>15449.835871597559</v>
+        <v>14204.679362924171</v>
       </c>
       <c r="V132" s="1">
         <f t="shared" ref="V132:Y132" si="278">U132*(1+V30)</f>
-        <v>18550.559979212347</v>
+        <v>16690.918733508639</v>
       </c>
       <c r="W132" s="1">
         <f t="shared" si="278"/>
-        <v>22504.123369381563</v>
+        <v>19911.687284530293</v>
       </c>
       <c r="X132" s="1">
         <f t="shared" si="278"/>
-        <v>27628.313740045793</v>
+        <v>24166.055904332625</v>
       </c>
       <c r="Y132" s="1">
         <f t="shared" si="278"/>
-        <v>34384.621926926768</v>
+        <v>29894.066285733563</v>
       </c>
       <c r="AA132" s="1" t="s">
         <v>16</v>
@@ -9610,29 +9609,29 @@
       </c>
       <c r="U133" s="1">
         <f t="shared" si="279"/>
-        <v>2161.5991102402381</v>
+        <v>1987.3882497736715</v>
       </c>
       <c r="V133" s="1">
         <f t="shared" ref="V133:Y133" si="280">U133*(1+V30)</f>
-        <v>2595.4239435798768</v>
+        <v>2335.2400234730594</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" si="280"/>
-        <v>3148.57021500266</v>
+        <v>2785.8603725847852</v>
       </c>
       <c r="X133" s="1">
         <f t="shared" si="280"/>
-        <v>3865.4998599506653</v>
+        <v>3381.0925484880099</v>
       </c>
       <c r="Y133" s="1">
         <f t="shared" si="280"/>
-        <v>4810.7804368219722</v>
+        <v>4182.503142541319</v>
       </c>
       <c r="AA133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AB133" s="6">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="134" spans="1:130" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9710,30 +9709,30 @@
       </c>
       <c r="U134" s="3">
         <f t="shared" si="285"/>
-        <v>105910.47234122831</v>
+        <v>97509.147627111321</v>
       </c>
       <c r="V134" s="3">
         <f t="shared" ref="V134:Y134" si="286">SUM(V121:V133,V119)</f>
-        <v>129519.50628329092</v>
+        <v>116430.21455197604</v>
       </c>
       <c r="W134" s="3">
         <f t="shared" si="286"/>
-        <v>159390.05985837014</v>
+        <v>140472.0482642696</v>
       </c>
       <c r="X134" s="3">
         <f t="shared" si="286"/>
-        <v>197852.70403041018</v>
+        <v>171748.76689466165</v>
       </c>
       <c r="Y134" s="3">
         <f t="shared" si="286"/>
-        <v>248348.57623352041</v>
+        <v>213448.36877992237</v>
       </c>
       <c r="AA134" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AB134" s="3">
         <f>NPV(AB133,P141:DZ141)+main!F5-main!F6+AB129</f>
-        <v>1777976.4582763999</v>
+        <v>1552852.3007451114</v>
       </c>
     </row>
     <row r="135" spans="1:130" x14ac:dyDescent="0.2">
@@ -9760,7 +9759,7 @@
       </c>
       <c r="AB135" s="1">
         <f>AB134/main!F3</f>
-        <v>552.00271542871121</v>
+        <v>482.1091318059332</v>
       </c>
     </row>
     <row r="136" spans="1:130" x14ac:dyDescent="0.2">
@@ -9775,7 +9774,7 @@
       </c>
       <c r="AB136" s="5">
         <f>AB135/main!F2-1</f>
-        <v>0.85235810546547386</v>
+        <v>0.3208469364546116</v>
       </c>
     </row>
     <row r="137" spans="1:130" x14ac:dyDescent="0.2">
@@ -9903,23 +9902,23 @@
       </c>
       <c r="U140" s="3">
         <f t="shared" si="289"/>
-        <v>-37858.556846898806</v>
+        <v>-34807.402850269114</v>
       </c>
       <c r="V140" s="3">
         <f t="shared" ref="V140:Y140" si="290">V5*-0.09</f>
-        <v>-45456.627199897681</v>
+        <v>-40899.728705931244</v>
       </c>
       <c r="W140" s="3">
         <f t="shared" si="290"/>
-        <v>-55144.51033331651</v>
+        <v>-48791.958131081046</v>
       </c>
       <c r="X140" s="3">
         <f t="shared" si="290"/>
-        <v>-67700.918961498493</v>
+        <v>-59216.939831795673</v>
       </c>
       <c r="Y140" s="3">
         <f t="shared" si="290"/>
-        <v>-84256.698562913269</v>
+        <v>-73252.959919397457</v>
       </c>
     </row>
     <row r="141" spans="1:130" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9997,443 +9996,443 @@
       </c>
       <c r="U141" s="3">
         <f t="shared" si="292"/>
-        <v>68051.9154943295</v>
+        <v>62701.744776842206</v>
       </c>
       <c r="V141" s="3">
         <f t="shared" ref="V141" si="293">V134+V140</f>
-        <v>84062.879083393229</v>
+        <v>75530.485846044787</v>
       </c>
       <c r="W141" s="3">
         <f t="shared" ref="W141" si="294">W134+W140</f>
-        <v>104245.54952505362</v>
+        <v>91680.090133188554</v>
       </c>
       <c r="X141" s="3">
         <f t="shared" ref="X141" si="295">X134+X140</f>
-        <v>130151.78506891169</v>
+        <v>112531.82706286598</v>
       </c>
       <c r="Y141" s="3">
         <f t="shared" ref="Y141" si="296">Y134+Y140</f>
-        <v>164091.87767060712</v>
+        <v>140195.40886052491</v>
       </c>
       <c r="Z141" s="3">
         <f t="shared" ref="Z141:BE141" si="297">Y141*(1+$AB$132)</f>
-        <v>165732.79644731319</v>
+        <v>141597.36294913015</v>
       </c>
       <c r="AA141" s="3">
         <f t="shared" si="297"/>
-        <v>167390.12441178632</v>
+        <v>143013.33657862147</v>
       </c>
       <c r="AB141" s="3">
         <f t="shared" si="297"/>
-        <v>169064.0256559042</v>
+        <v>144443.4699444077</v>
       </c>
       <c r="AC141" s="3">
         <f t="shared" si="297"/>
-        <v>170754.66591246324</v>
+        <v>145887.90464385177</v>
       </c>
       <c r="AD141" s="3">
         <f t="shared" si="297"/>
-        <v>172462.21257158788</v>
+        <v>147346.78369029029</v>
       </c>
       <c r="AE141" s="3">
         <f t="shared" si="297"/>
-        <v>174186.83469730377</v>
+        <v>148820.25152719321</v>
       </c>
       <c r="AF141" s="3">
         <f t="shared" si="297"/>
-        <v>175928.7030442768</v>
+        <v>150308.45404246513</v>
       </c>
       <c r="AG141" s="3">
         <f t="shared" si="297"/>
-        <v>177687.99007471956</v>
+        <v>151811.5385828898</v>
       </c>
       <c r="AH141" s="3">
         <f t="shared" si="297"/>
-        <v>179464.86997546678</v>
+        <v>153329.65396871869</v>
       </c>
       <c r="AI141" s="3">
         <f t="shared" si="297"/>
-        <v>181259.51867522145</v>
+        <v>154862.95050840589</v>
       </c>
       <c r="AJ141" s="3">
         <f t="shared" si="297"/>
-        <v>183072.11386197366</v>
+        <v>156411.58001348996</v>
       </c>
       <c r="AK141" s="3">
         <f t="shared" si="297"/>
-        <v>184902.83500059339</v>
+        <v>157975.69581362486</v>
       </c>
       <c r="AL141" s="3">
         <f t="shared" si="297"/>
-        <v>186751.86335059933</v>
+        <v>159555.45277176111</v>
       </c>
       <c r="AM141" s="3">
         <f t="shared" si="297"/>
-        <v>188619.38198410533</v>
+        <v>161151.00729947872</v>
       </c>
       <c r="AN141" s="3">
         <f t="shared" si="297"/>
-        <v>190505.57580394638</v>
+        <v>162762.51737247352</v>
       </c>
       <c r="AO141" s="3">
         <f t="shared" si="297"/>
-        <v>192410.63156198585</v>
+        <v>164390.14254619824</v>
       </c>
       <c r="AP141" s="3">
         <f t="shared" si="297"/>
-        <v>194334.73787760572</v>
+        <v>166034.04397166023</v>
       </c>
       <c r="AQ141" s="3">
         <f t="shared" si="297"/>
-        <v>196278.08525638178</v>
+        <v>167694.38441137684</v>
       </c>
       <c r="AR141" s="3">
         <f t="shared" si="297"/>
-        <v>198240.8661089456</v>
+        <v>169371.3282554906</v>
       </c>
       <c r="AS141" s="3">
         <f t="shared" si="297"/>
-        <v>200223.27477003506</v>
+        <v>171065.04153804551</v>
       </c>
       <c r="AT141" s="3">
         <f t="shared" si="297"/>
-        <v>202225.50751773542</v>
+        <v>172775.69195342597</v>
       </c>
       <c r="AU141" s="3">
         <f t="shared" si="297"/>
-        <v>204247.76259291277</v>
+        <v>174503.44887296023</v>
       </c>
       <c r="AV141" s="3">
         <f t="shared" si="297"/>
-        <v>206290.24021884191</v>
+        <v>176248.48336168984</v>
       </c>
       <c r="AW141" s="3">
         <f t="shared" si="297"/>
-        <v>208353.14262103033</v>
+        <v>178010.96819530675</v>
       </c>
       <c r="AX141" s="3">
         <f t="shared" si="297"/>
-        <v>210436.67404724064</v>
+        <v>179791.07787725981</v>
       </c>
       <c r="AY141" s="3">
         <f t="shared" si="297"/>
-        <v>212541.04078771305</v>
+        <v>181588.98865603242</v>
       </c>
       <c r="AZ141" s="3">
         <f t="shared" si="297"/>
-        <v>214666.45119559017</v>
+        <v>183404.87854259275</v>
       </c>
       <c r="BA141" s="3">
         <f t="shared" si="297"/>
-        <v>216813.11570754607</v>
+        <v>185238.92732801868</v>
       </c>
       <c r="BB141" s="3">
         <f t="shared" si="297"/>
-        <v>218981.24686462153</v>
+        <v>187091.31660129887</v>
       </c>
       <c r="BC141" s="3">
         <f t="shared" si="297"/>
-        <v>221171.05933326774</v>
+        <v>188962.22976731186</v>
       </c>
       <c r="BD141" s="3">
         <f t="shared" si="297"/>
-        <v>223382.76992660042</v>
+        <v>190851.85206498497</v>
       </c>
       <c r="BE141" s="3">
         <f t="shared" si="297"/>
-        <v>225616.59762586642</v>
+        <v>192760.37058563481</v>
       </c>
       <c r="BF141" s="3">
         <f t="shared" ref="BF141:CK141" si="298">BE141*(1+$AB$132)</f>
-        <v>227872.76360212508</v>
+        <v>194687.97429149115</v>
       </c>
       <c r="BG141" s="3">
         <f t="shared" si="298"/>
-        <v>230151.49123814632</v>
+        <v>196634.85403440607</v>
       </c>
       <c r="BH141" s="3">
         <f t="shared" si="298"/>
-        <v>232453.0061505278</v>
+        <v>198601.20257475015</v>
       </c>
       <c r="BI141" s="3">
         <f t="shared" si="298"/>
-        <v>234777.53621203307</v>
+        <v>200587.21460049765</v>
       </c>
       <c r="BJ141" s="3">
         <f t="shared" si="298"/>
-        <v>237125.3115741534</v>
+        <v>202593.08674650264</v>
       </c>
       <c r="BK141" s="3">
         <f t="shared" si="298"/>
-        <v>239496.56468989493</v>
+        <v>204619.01761396768</v>
       </c>
       <c r="BL141" s="3">
         <f t="shared" si="298"/>
-        <v>241891.53033679389</v>
+        <v>206665.20779010735</v>
       </c>
       <c r="BM141" s="3">
         <f t="shared" si="298"/>
-        <v>244310.44564016184</v>
+        <v>208731.85986800844</v>
       </c>
       <c r="BN141" s="3">
         <f t="shared" si="298"/>
-        <v>246753.55009656347</v>
+        <v>210819.17846668852</v>
       </c>
       <c r="BO141" s="3">
         <f t="shared" si="298"/>
-        <v>249221.08559752911</v>
+        <v>212927.3702513554</v>
       </c>
       <c r="BP141" s="3">
         <f t="shared" si="298"/>
-        <v>251713.29645350439</v>
+        <v>215056.64395386894</v>
       </c>
       <c r="BQ141" s="3">
         <f t="shared" si="298"/>
-        <v>254230.42941803942</v>
+        <v>217207.21039340764</v>
       </c>
       <c r="BR141" s="3">
         <f t="shared" si="298"/>
-        <v>256772.73371221981</v>
+        <v>219379.28249734172</v>
       </c>
       <c r="BS141" s="3">
         <f t="shared" si="298"/>
-        <v>259340.461049342</v>
+        <v>221573.07532231513</v>
       </c>
       <c r="BT141" s="3">
         <f t="shared" si="298"/>
-        <v>261933.86565983543</v>
+        <v>223788.80607553828</v>
       </c>
       <c r="BU141" s="3">
         <f t="shared" si="298"/>
-        <v>264553.20431643381</v>
+        <v>226026.69413629366</v>
       </c>
       <c r="BV141" s="3">
         <f t="shared" si="298"/>
-        <v>267198.73635959817</v>
+        <v>228286.9610776566</v>
       </c>
       <c r="BW141" s="3">
         <f t="shared" si="298"/>
-        <v>269870.72372319415</v>
+        <v>230569.83068843317</v>
       </c>
       <c r="BX141" s="3">
         <f t="shared" si="298"/>
-        <v>272569.43096042611</v>
+        <v>232875.52899531749</v>
       </c>
       <c r="BY141" s="3">
         <f t="shared" si="298"/>
-        <v>275295.12527003034</v>
+        <v>235204.28428527067</v>
       </c>
       <c r="BZ141" s="3">
         <f t="shared" si="298"/>
-        <v>278048.07652273064</v>
+        <v>237556.32712812338</v>
       </c>
       <c r="CA141" s="3">
         <f t="shared" si="298"/>
-        <v>280828.55728795793</v>
+        <v>239931.8903994046</v>
       </c>
       <c r="CB141" s="3">
         <f t="shared" si="298"/>
-        <v>283636.84286083753</v>
+        <v>242331.20930339865</v>
       </c>
       <c r="CC141" s="3">
         <f t="shared" si="298"/>
-        <v>286473.21128944593</v>
+        <v>244754.52139643262</v>
       </c>
       <c r="CD141" s="3">
         <f t="shared" si="298"/>
-        <v>289337.9434023404</v>
+        <v>247202.06661039696</v>
       </c>
       <c r="CE141" s="3">
         <f t="shared" si="298"/>
-        <v>292231.3228363638</v>
+        <v>249674.08727650094</v>
       </c>
       <c r="CF141" s="3">
         <f t="shared" si="298"/>
-        <v>295153.63606472744</v>
+        <v>252170.82814926596</v>
       </c>
       <c r="CG141" s="3">
         <f t="shared" si="298"/>
-        <v>298105.17242537474</v>
+        <v>254692.53643075863</v>
       </c>
       <c r="CH141" s="3">
         <f t="shared" si="298"/>
-        <v>301086.22414962848</v>
+        <v>257239.46179506622</v>
       </c>
       <c r="CI141" s="3">
         <f t="shared" si="298"/>
-        <v>304097.08639112476</v>
+        <v>259811.85641301688</v>
       </c>
       <c r="CJ141" s="3">
         <f t="shared" si="298"/>
-        <v>307138.05725503602</v>
+        <v>262409.97497714707</v>
       </c>
       <c r="CK141" s="3">
         <f t="shared" si="298"/>
-        <v>310209.43782758637</v>
+        <v>265034.07472691854</v>
       </c>
       <c r="CL141" s="3">
         <f t="shared" ref="CL141:DQ141" si="299">CK141*(1+$AB$132)</f>
-        <v>313311.53220586223</v>
+        <v>267684.4154741877</v>
       </c>
       <c r="CM141" s="3">
         <f t="shared" si="299"/>
-        <v>316444.64752792084</v>
+        <v>270361.25962892961</v>
       </c>
       <c r="CN141" s="3">
         <f t="shared" si="299"/>
-        <v>319609.09400320007</v>
+        <v>273064.87222521892</v>
       </c>
       <c r="CO141" s="3">
         <f t="shared" si="299"/>
-        <v>322805.18494323205</v>
+        <v>275795.52094747109</v>
       </c>
       <c r="CP141" s="3">
         <f t="shared" si="299"/>
-        <v>326033.23679266439</v>
+        <v>278553.47615694581</v>
       </c>
       <c r="CQ141" s="3">
         <f t="shared" si="299"/>
-        <v>329293.56916059105</v>
+        <v>281339.01091851527</v>
       </c>
       <c r="CR141" s="3">
         <f t="shared" si="299"/>
-        <v>332586.50485219696</v>
+        <v>284152.4010277004</v>
       </c>
       <c r="CS141" s="3">
         <f t="shared" si="299"/>
-        <v>335912.36990071891</v>
+        <v>286993.9250379774</v>
       </c>
       <c r="CT141" s="3">
         <f t="shared" si="299"/>
-        <v>339271.49359972612</v>
+        <v>289863.8642883572</v>
       </c>
       <c r="CU141" s="3">
         <f t="shared" si="299"/>
-        <v>342664.20853572339</v>
+        <v>292762.50293124077</v>
       </c>
       <c r="CV141" s="3">
         <f t="shared" si="299"/>
-        <v>346090.85062108061</v>
+        <v>295690.12796055316</v>
       </c>
       <c r="CW141" s="3">
         <f t="shared" si="299"/>
-        <v>349551.75912729144</v>
+        <v>298647.02924015868</v>
       </c>
       <c r="CX141" s="3">
         <f t="shared" si="299"/>
-        <v>353047.27671856439</v>
+        <v>301633.49953256029</v>
       </c>
       <c r="CY141" s="3">
         <f t="shared" si="299"/>
-        <v>356577.74948575004</v>
+        <v>304649.83452788589</v>
       </c>
       <c r="CZ141" s="3">
         <f t="shared" si="299"/>
-        <v>360143.52698060754</v>
+        <v>307696.33287316473</v>
       </c>
       <c r="DA141" s="3">
         <f t="shared" si="299"/>
-        <v>363744.96225041361</v>
+        <v>310773.29620189639</v>
       </c>
       <c r="DB141" s="3">
         <f t="shared" si="299"/>
-        <v>367382.41187291773</v>
+        <v>313881.02916391537</v>
       </c>
       <c r="DC141" s="3">
         <f t="shared" si="299"/>
-        <v>371056.23599164688</v>
+        <v>317019.83945555455</v>
       </c>
       <c r="DD141" s="3">
         <f t="shared" si="299"/>
-        <v>374766.79835156334</v>
+        <v>320190.03785011009</v>
       </c>
       <c r="DE141" s="3">
         <f t="shared" si="299"/>
-        <v>378514.46633507899</v>
+        <v>323391.93822861119</v>
       </c>
       <c r="DF141" s="3">
         <f t="shared" si="299"/>
-        <v>382299.61099842977</v>
+        <v>326625.85761089734</v>
       </c>
       <c r="DG141" s="3">
         <f t="shared" si="299"/>
-        <v>386122.60710841406</v>
+        <v>329892.11618700629</v>
       </c>
       <c r="DH141" s="3">
         <f t="shared" si="299"/>
-        <v>389983.83317949821</v>
+        <v>333191.03734887636</v>
       </c>
       <c r="DI141" s="3">
         <f t="shared" si="299"/>
-        <v>393883.67151129321</v>
+        <v>336522.94772236515</v>
       </c>
       <c r="DJ141" s="3">
         <f t="shared" si="299"/>
-        <v>397822.50822640618</v>
+        <v>339888.1771995888</v>
       </c>
       <c r="DK141" s="3">
         <f t="shared" si="299"/>
-        <v>401800.73330867023</v>
+        <v>343287.05897158472</v>
       </c>
       <c r="DL141" s="3">
         <f t="shared" si="299"/>
-        <v>405818.74064175691</v>
+        <v>346719.92956130055</v>
       </c>
       <c r="DM141" s="3">
         <f t="shared" si="299"/>
-        <v>409876.92804817448</v>
+        <v>350187.12885691354</v>
       </c>
       <c r="DN141" s="3">
         <f t="shared" si="299"/>
-        <v>413975.69732865621</v>
+        <v>353689.00014548266</v>
       </c>
       <c r="DO141" s="3">
         <f t="shared" si="299"/>
-        <v>418115.45430194278</v>
+        <v>357225.89014693751</v>
       </c>
       <c r="DP141" s="3">
         <f t="shared" si="299"/>
-        <v>422296.6088449622</v>
+        <v>360798.14904840686</v>
       </c>
       <c r="DQ141" s="3">
         <f t="shared" si="299"/>
-        <v>426519.57493341184</v>
+        <v>364406.13053889095</v>
       </c>
       <c r="DR141" s="3">
         <f t="shared" ref="DR141:DZ141" si="300">DQ141*(1+$AB$132)</f>
-        <v>430784.77068274596</v>
+        <v>368050.19184427988</v>
       </c>
       <c r="DS141" s="3">
         <f t="shared" si="300"/>
-        <v>435092.61838957341</v>
+        <v>371730.69376272266</v>
       </c>
       <c r="DT141" s="3">
         <f t="shared" si="300"/>
-        <v>439443.54457346915</v>
+        <v>375448.00070034986</v>
       </c>
       <c r="DU141" s="3">
         <f t="shared" si="300"/>
-        <v>443837.98001920385</v>
+        <v>379202.48070735339</v>
       </c>
       <c r="DV141" s="3">
         <f t="shared" si="300"/>
-        <v>448276.35981939588</v>
+        <v>382994.50551442691</v>
       </c>
       <c r="DW141" s="3">
         <f t="shared" si="300"/>
-        <v>452759.12341758981</v>
+        <v>386824.45056957117</v>
       </c>
       <c r="DX141" s="3">
         <f t="shared" si="300"/>
-        <v>457286.71465176571</v>
+        <v>390692.69507526688</v>
       </c>
       <c r="DY141" s="3">
         <f t="shared" si="300"/>
-        <v>461859.58179828338</v>
+        <v>394599.62202601956</v>
       </c>
       <c r="DZ141" s="3">
         <f t="shared" si="300"/>
-        <v>466478.17761626624</v>
+        <v>398545.61824627977</v>
       </c>
     </row>
     <row r="143" spans="1:130" x14ac:dyDescent="0.2">
@@ -10531,23 +10530,23 @@
       </c>
       <c r="U144" s="5">
         <f t="shared" si="305"/>
-        <v>0.25177775659167417</v>
+        <v>0.25212519659082144</v>
       </c>
       <c r="V144" s="5">
         <f t="shared" ref="V144:Y144" si="306">V134/V5</f>
-        <v>0.25643687804277793</v>
+        <v>0.25620510554042447</v>
       </c>
       <c r="W144" s="5">
         <f t="shared" si="306"/>
-        <v>0.26013659928332827</v>
+        <v>0.2591100014846679</v>
       </c>
       <c r="X144" s="5">
         <f t="shared" si="306"/>
-        <v>0.26302070394145771</v>
+        <v>0.26102985166788251</v>
       </c>
       <c r="Y144" s="5">
         <f t="shared" si="306"/>
-        <v>0.26527709063187876</v>
+        <v>0.26224678444844784</v>
       </c>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
@@ -10588,23 +10587,23 @@
       </c>
       <c r="U145" s="5">
         <f t="shared" si="308"/>
-        <v>0.16177775659167418</v>
+        <v>0.16212519659082142</v>
       </c>
       <c r="V145" s="5">
         <f t="shared" ref="V145:Y145" si="309">V141/V5</f>
-        <v>0.1664368780427779</v>
+        <v>0.16620510554042447</v>
       </c>
       <c r="W145" s="5">
         <f t="shared" si="309"/>
-        <v>0.17013659928332828</v>
+        <v>0.1691100014846679</v>
       </c>
       <c r="X145" s="5">
         <f t="shared" si="309"/>
-        <v>0.17302070394145772</v>
+        <v>0.17102985166788251</v>
       </c>
       <c r="Y145" s="5">
         <f t="shared" si="309"/>
-        <v>0.17527709063187877</v>
+        <v>0.17224678444844782</v>
       </c>
     </row>
   </sheetData>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B31D9-550B-4720-BE52-CA74461E8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80D5860-4D0A-4EF2-930B-8A3667D480C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="1620" yWindow="345" windowWidth="22125" windowHeight="14250" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O4" s="2">
         <f>O3*O2</f>
-        <v>1069357.392</v>
+        <v>950182.02</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1056,13 +1056,13 @@
       </c>
       <c r="O7" s="2">
         <f>O4+O6-O5</f>
-        <v>1052301.392</v>
+        <v>933126.02</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O8" s="11">
         <f>O2/Model!P19</f>
-        <v>71.954231651523045</v>
+        <v>66.332079998959557</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="S118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y137" sqref="Y137"/>
+      <selection pane="bottomRight" activeCell="AB134" sqref="AB134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2205,44 +2205,44 @@
         <v>1219</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:Y15" si="60">O88*$AB$131</f>
-        <v>1019.64</v>
+        <f>O88*$AB$131</f>
+        <v>339.88</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="60"/>
-        <v>1911.3379870028521</v>
+        <f>P88*$AB$131</f>
+        <v>626.37245433428404</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="60"/>
-        <v>3293.8060049417513</v>
+        <f>Q88*$AB$131</f>
+        <v>1066.8926715644207</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="60"/>
-        <v>5292.2282320372587</v>
+        <f>R88*$AB$131</f>
+        <v>1697.8481832622276</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="60"/>
-        <v>8140.9636003370024</v>
+        <f>S88*$AB$131</f>
+        <v>2590.6354345914965</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="60"/>
-        <v>12191.391175936335</v>
+        <f>T88*$AB$131</f>
+        <v>3853.0827747724952</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="60"/>
-        <v>17463.087415000526</v>
+        <f>U88*$AB$131</f>
+        <v>5478.5695817221704</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="60"/>
-        <v>23777.321897735157</v>
+        <f>V88*$AB$131</f>
+        <v>7393.9590275345836</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="60"/>
-        <v>31421.433429013236</v>
+        <f>W88*$AB$131</f>
+        <v>9683.1390712781085</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="60"/>
-        <v>40803.488370035055</v>
+        <f>X88*$AB$131</f>
+        <v>12467.025667433163</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2254,31 +2254,31 @@
         <v>1445</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:G16" si="61">D14+D15</f>
+        <f t="shared" ref="D16:G16" si="60">D14+D15</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>19798</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>802</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16" si="62">H14+H15</f>
+        <f t="shared" ref="H16" si="61">H14+H15</f>
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16" si="63">I14+I15</f>
+        <f t="shared" ref="I16" si="62">I14+I15</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16" si="64">J14+J15</f>
+        <f t="shared" ref="J16" si="63">J14+J15</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -2290,52 +2290,52 @@
         <v>13937</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:T16" si="65">N14+N15</f>
+        <f t="shared" ref="N16:T16" si="64">N14+N15</f>
         <v>9801</v>
       </c>
       <c r="O16" s="2">
+        <f t="shared" si="64"/>
+        <v>8979</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="64"/>
+        <v>18132.433818625574</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="64"/>
+        <v>27881.026406970668</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="64"/>
+        <v>39933.893145430819</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="64"/>
+        <v>56505.522236029668</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="64"/>
+        <v>79901.730391202436</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" ref="U16:Y16" si="65">U14+U15</f>
+        <v>102878.91183225792</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="65"/>
-        <v>8979</v>
-      </c>
-      <c r="P16" s="2">
+        <v>121227.18011470967</v>
+      </c>
+      <c r="W16" s="2">
         <f t="shared" si="65"/>
-        <v>18812.193818625572</v>
-      </c>
-      <c r="Q16" s="2">
+        <v>144884.81289515976</v>
+      </c>
+      <c r="X16" s="2">
         <f t="shared" si="65"/>
-        <v>29165.991939639236</v>
-      </c>
-      <c r="R16" s="2">
+        <v>176195.35418702889</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="65"/>
-        <v>42160.806478808154</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="65"/>
-        <v>60099.902284804703</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="65"/>
-        <v>85452.05855694793</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" ref="U16:Y16" si="66">U14+U15</f>
-        <v>111217.22023342176</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" si="66"/>
-        <v>133211.69794798802</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="66"/>
-        <v>161268.17576536033</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="66"/>
-        <v>197933.64854476403</v>
-      </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="66"/>
-        <v>247061.45179285863</v>
+        <v>218724.98909025674</v>
       </c>
     </row>
     <row r="17" spans="2:172" x14ac:dyDescent="0.2">
@@ -2361,44 +2361,44 @@
         <v>1837</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:U17" si="67">P16*P32</f>
-        <v>3950.56070191137</v>
+        <f t="shared" ref="P17:U17" si="66">P16*P32</f>
+        <v>3807.8111019113703</v>
       </c>
       <c r="Q17" s="2">
+        <f t="shared" si="66"/>
+        <v>5855.0155454638398</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="66"/>
+        <v>8386.1175605404715</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="66"/>
+        <v>11866.15966956623</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="66"/>
+        <v>16779.363382152511</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="66"/>
+        <v>21604.571484774162</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" ref="V17:Y17" si="67">V16*V32</f>
+        <v>25457.70782408903</v>
+      </c>
+      <c r="W17" s="2">
         <f t="shared" si="67"/>
-        <v>6124.8583073242389</v>
-      </c>
-      <c r="R17" s="2">
+        <v>30425.81070798355</v>
+      </c>
+      <c r="X17" s="2">
         <f t="shared" si="67"/>
-        <v>8853.7693605497116</v>
-      </c>
-      <c r="S17" s="2">
+        <v>37001.024379276067</v>
+      </c>
+      <c r="Y17" s="2">
         <f t="shared" si="67"/>
-        <v>12620.979479808988</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="67"/>
-        <v>17944.932296959065</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="67"/>
-        <v>23355.616249018567</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" ref="V17:Y17" si="68">V16*V32</f>
-        <v>27974.456569077483</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="68"/>
-        <v>33866.316910725669</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="68"/>
-        <v>41566.066194400446</v>
-      </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="68"/>
-        <v>51882.90487650031</v>
+        <v>45932.247708953917</v>
       </c>
     </row>
     <row r="18" spans="2:172" x14ac:dyDescent="0.2">
@@ -2410,31 +2410,31 @@
         <v>962</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:G18" si="69">D16-D17</f>
+        <f t="shared" ref="D18:G18" si="68">D16-D17</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>19798</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>633</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18" si="70">H16-H17</f>
+        <f t="shared" ref="H18" si="69">H16-H17</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ref="I18" si="71">I16-I17</f>
+        <f t="shared" ref="I18" si="70">I16-I17</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18" si="72">J16-J17</f>
+        <f t="shared" ref="J18" si="71">J16-J17</f>
         <v>0</v>
       </c>
       <c r="K18" s="4"/>
@@ -2447,640 +2447,640 @@
         <v>12805</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:O18" si="73">N16-N17</f>
+        <f t="shared" ref="N18:O18" si="72">N16-N17</f>
         <v>14802</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>7142</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="74">P16-P17</f>
-        <v>14861.633116714202</v>
+        <f t="shared" ref="P18" si="73">P16-P17</f>
+        <v>14324.622716714202</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="75">Q16-Q17</f>
-        <v>23041.133632314995</v>
+        <f t="shared" ref="Q18" si="74">Q16-Q17</f>
+        <v>22026.010861506827</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="76">R16-R17</f>
-        <v>33307.037118258442</v>
+        <f t="shared" ref="R18" si="75">R16-R17</f>
+        <v>31547.775584890347</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18" si="77">S16-S17</f>
-        <v>47478.922804995716</v>
+        <f t="shared" ref="S18" si="76">S16-S17</f>
+        <v>44639.362566463438</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:U18" si="78">T16-T17</f>
-        <v>67507.126259988872</v>
+        <f t="shared" ref="T18:U18" si="77">T16-T17</f>
+        <v>63122.367009049922</v>
       </c>
       <c r="U18" s="4">
+        <f t="shared" si="77"/>
+        <v>81274.340347483754</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" ref="V18:Y18" si="78">V16-V17</f>
+        <v>95769.472290620644</v>
+      </c>
+      <c r="W18" s="4">
         <f t="shared" si="78"/>
-        <v>87861.603984403191</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" ref="V18:Y18" si="79">V16-V17</f>
-        <v>105237.24137891055</v>
-      </c>
-      <c r="W18" s="4">
-        <f t="shared" si="79"/>
-        <v>127401.85885463466</v>
+        <v>114459.00218717621</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="79"/>
-        <v>156367.58235036358</v>
+        <f t="shared" si="78"/>
+        <v>139194.32980775283</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="79"/>
-        <v>195178.54691635832</v>
+        <f t="shared" si="78"/>
+        <v>172792.74138130283</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" ref="Z18:BE18" si="80">Y18*(1+$AB$132)</f>
-        <v>197130.33238552191</v>
+        <f>Y18*(1+$AB$132)</f>
+        <v>174520.66879511587</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="80"/>
-        <v>199101.63570937712</v>
+        <f>Z18*(1+$AB$132)</f>
+        <v>176265.87548306704</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="80"/>
-        <v>201092.65206647091</v>
+        <f>AA18*(1+$AB$132)</f>
+        <v>178028.53423789772</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="80"/>
-        <v>203103.57858713562</v>
+        <f>AB18*(1+$AB$132)</f>
+        <v>179808.8195802767</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="80"/>
-        <v>205134.61437300697</v>
+        <f>AC18*(1+$AB$132)</f>
+        <v>181606.90777607946</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="80"/>
-        <v>207185.96051673705</v>
+        <f>AD18*(1+$AB$132)</f>
+        <v>183422.97685384026</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="80"/>
-        <v>209257.82012190443</v>
+        <f>AE18*(1+$AB$132)</f>
+        <v>185257.20662237867</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="80"/>
-        <v>211350.39832312346</v>
+        <f>AF18*(1+$AB$132)</f>
+        <v>187109.77868860247</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="80"/>
-        <v>213463.90230635469</v>
+        <f>AG18*(1+$AB$132)</f>
+        <v>188980.87647548851</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="80"/>
-        <v>215598.54132941825</v>
+        <f>AH18*(1+$AB$132)</f>
+        <v>190870.68524024339</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="80"/>
-        <v>217754.52674271245</v>
+        <f>AI18*(1+$AB$132)</f>
+        <v>192779.39209264581</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="80"/>
-        <v>219932.07201013959</v>
+        <f>AJ18*(1+$AB$132)</f>
+        <v>194707.18601357227</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="80"/>
-        <v>222131.39273024097</v>
+        <f>AK18*(1+$AB$132)</f>
+        <v>196654.257873708</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="80"/>
-        <v>224352.70665754337</v>
+        <f>AL18*(1+$AB$132)</f>
+        <v>198620.80045244508</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="80"/>
-        <v>226596.23372411879</v>
+        <f>AM18*(1+$AB$132)</f>
+        <v>200607.00845696955</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="80"/>
-        <v>228862.19606135998</v>
+        <f>AN18*(1+$AB$132)</f>
+        <v>202613.07854153923</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="80"/>
-        <v>231150.8180219736</v>
+        <f>AO18*(1+$AB$132)</f>
+        <v>204639.20932695462</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="80"/>
-        <v>233462.32620219333</v>
+        <f>AP18*(1+$AB$132)</f>
+        <v>206685.60142022418</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="80"/>
-        <v>235796.94946421526</v>
+        <f>AQ18*(1+$AB$132)</f>
+        <v>208752.45743442641</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="80"/>
-        <v>238154.91895885742</v>
+        <f>AR18*(1+$AB$132)</f>
+        <v>210839.98200877069</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="80"/>
-        <v>240536.468148446</v>
+        <f>AS18*(1+$AB$132)</f>
+        <v>212948.3818288584</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="80"/>
-        <v>242941.83282993047</v>
+        <f>AT18*(1+$AB$132)</f>
+        <v>215077.86564714697</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="80"/>
-        <v>245371.25115822977</v>
+        <f>AU18*(1+$AB$132)</f>
+        <v>217228.64430361844</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="80"/>
-        <v>247824.96366981207</v>
+        <f>AV18*(1+$AB$132)</f>
+        <v>219400.93074665463</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="80"/>
-        <v>250303.21330651021</v>
+        <f>AW18*(1+$AB$132)</f>
+        <v>221594.94005412117</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="80"/>
-        <v>252806.24543957532</v>
+        <f>AX18*(1+$AB$132)</f>
+        <v>223810.88945466239</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="80"/>
-        <v>255334.30789397107</v>
+        <f>AY18*(1+$AB$132)</f>
+        <v>226048.99834920903</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="80"/>
-        <v>257887.65097291078</v>
+        <f>AZ18*(1+$AB$132)</f>
+        <v>228309.48833270112</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="80"/>
-        <v>260466.52748263988</v>
+        <f>BA18*(1+$AB$132)</f>
+        <v>230592.58321602814</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="80"/>
-        <v>263071.19275746628</v>
+        <f>BB18*(1+$AB$132)</f>
+        <v>232898.50904818843</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="80"/>
-        <v>265701.90468504094</v>
+        <f>BC18*(1+$AB$132)</f>
+        <v>235227.4941386703</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="80"/>
-        <v>268358.92373189132</v>
+        <f>BD18*(1+$AB$132)</f>
+        <v>237579.76908005701</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" ref="BF18:CK18" si="81">BE18*(1+$AB$132)</f>
-        <v>271042.51296921022</v>
+        <f>BE18*(1+$AB$132)</f>
+        <v>239955.56677085758</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="81"/>
-        <v>273752.93809890235</v>
+        <f>BF18*(1+$AB$132)</f>
+        <v>242355.12243856615</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="81"/>
-        <v>276490.46747989138</v>
+        <f>BG18*(1+$AB$132)</f>
+        <v>244778.6736629518</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="81"/>
-        <v>279255.37215469027</v>
+        <f>BH18*(1+$AB$132)</f>
+        <v>247226.46039958132</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="81"/>
-        <v>282047.92587623716</v>
+        <f>BI18*(1+$AB$132)</f>
+        <v>249698.72500357713</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="81"/>
-        <v>284868.40513499954</v>
+        <f>BJ18*(1+$AB$132)</f>
+        <v>252195.7122536129</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="81"/>
-        <v>287717.08918634953</v>
+        <f>BK18*(1+$AB$132)</f>
+        <v>254717.66937614905</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="81"/>
-        <v>290594.26007821306</v>
+        <f>BL18*(1+$AB$132)</f>
+        <v>257264.84606991053</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="81"/>
-        <v>293500.20267899521</v>
+        <f>BM18*(1+$AB$132)</f>
+        <v>259837.49453060963</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="81"/>
-        <v>296435.20470578515</v>
+        <f>BN18*(1+$AB$132)</f>
+        <v>262435.86947591574</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="81"/>
-        <v>299399.55675284303</v>
+        <f>BO18*(1+$AB$132)</f>
+        <v>265060.22817067488</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="81"/>
-        <v>302393.55232037144</v>
+        <f>BP18*(1+$AB$132)</f>
+        <v>267710.83045238163</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="81"/>
-        <v>305417.48784357513</v>
+        <f>BQ18*(1+$AB$132)</f>
+        <v>270387.93875690544</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="81"/>
-        <v>308471.66272201086</v>
+        <f>BR18*(1+$AB$132)</f>
+        <v>273091.81814447447</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="81"/>
-        <v>311556.37934923096</v>
+        <f>BS18*(1+$AB$132)</f>
+        <v>275822.73632591922</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="81"/>
-        <v>314671.94314272329</v>
+        <f>BT18*(1+$AB$132)</f>
+        <v>278580.9636891784</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="81"/>
-        <v>317818.66257415054</v>
+        <f>BU18*(1+$AB$132)</f>
+        <v>281366.77332607016</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="81"/>
-        <v>320996.84919989202</v>
+        <f>BV18*(1+$AB$132)</f>
+        <v>284180.44105933089</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="81"/>
-        <v>324206.81769189093</v>
+        <f>BW18*(1+$AB$132)</f>
+        <v>287022.24546992418</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="81"/>
-        <v>327448.88586880983</v>
+        <f>BX18*(1+$AB$132)</f>
+        <v>289892.4679246234</v>
       </c>
       <c r="BZ18" s="4">
-        <f t="shared" si="81"/>
-        <v>330723.37472749793</v>
+        <f>BY18*(1+$AB$132)</f>
+        <v>292791.39260386967</v>
       </c>
       <c r="CA18" s="4">
-        <f t="shared" si="81"/>
-        <v>334030.60847477289</v>
+        <f>BZ18*(1+$AB$132)</f>
+        <v>295719.30652990838</v>
       </c>
       <c r="CB18" s="4">
-        <f t="shared" si="81"/>
-        <v>337370.91455952061</v>
+        <f>CA18*(1+$AB$132)</f>
+        <v>298676.49959520745</v>
       </c>
       <c r="CC18" s="4">
-        <f t="shared" si="81"/>
-        <v>340744.62370511581</v>
+        <f>CB18*(1+$AB$132)</f>
+        <v>301663.26459115953</v>
       </c>
       <c r="CD18" s="4">
-        <f t="shared" si="81"/>
-        <v>344152.06994216697</v>
+        <f>CC18*(1+$AB$132)</f>
+        <v>304679.89723707113</v>
       </c>
       <c r="CE18" s="4">
-        <f t="shared" si="81"/>
-        <v>347593.59064158867</v>
+        <f>CD18*(1+$AB$132)</f>
+        <v>307726.69620944181</v>
       </c>
       <c r="CF18" s="4">
-        <f t="shared" si="81"/>
-        <v>351069.52654800453</v>
+        <f>CE18*(1+$AB$132)</f>
+        <v>310803.96317153622</v>
       </c>
       <c r="CG18" s="4">
-        <f t="shared" si="81"/>
-        <v>354580.22181348456</v>
+        <f>CF18*(1+$AB$132)</f>
+        <v>313912.00280325161</v>
       </c>
       <c r="CH18" s="4">
-        <f t="shared" si="81"/>
-        <v>358126.02403161942</v>
+        <f>CG18*(1+$AB$132)</f>
+        <v>317051.12283128413</v>
       </c>
       <c r="CI18" s="4">
-        <f t="shared" si="81"/>
-        <v>361707.28427193564</v>
+        <f>CH18*(1+$AB$132)</f>
+        <v>320221.63405959698</v>
       </c>
       <c r="CJ18" s="4">
-        <f t="shared" si="81"/>
-        <v>365324.35711465502</v>
+        <f>CI18*(1+$AB$132)</f>
+        <v>323423.85040019295</v>
       </c>
       <c r="CK18" s="4">
-        <f t="shared" si="81"/>
-        <v>368977.60068580159</v>
+        <f>CJ18*(1+$AB$132)</f>
+        <v>326658.08890419488</v>
       </c>
       <c r="CL18" s="4">
-        <f t="shared" ref="CL18:DQ18" si="82">CK18*(1+$AB$132)</f>
-        <v>372667.37669265963</v>
+        <f>CK18*(1+$AB$132)</f>
+        <v>329924.66979323683</v>
       </c>
       <c r="CM18" s="4">
-        <f t="shared" si="82"/>
-        <v>376394.0504595862</v>
+        <f>CL18*(1+$AB$132)</f>
+        <v>333223.91649116919</v>
       </c>
       <c r="CN18" s="4">
-        <f t="shared" si="82"/>
-        <v>380157.99096418207</v>
+        <f>CM18*(1+$AB$132)</f>
+        <v>336556.15565608087</v>
       </c>
       <c r="CO18" s="4">
-        <f t="shared" si="82"/>
-        <v>383959.57087382389</v>
+        <f>CN18*(1+$AB$132)</f>
+        <v>339921.71721264167</v>
       </c>
       <c r="CP18" s="4">
-        <f t="shared" si="82"/>
-        <v>387799.16658256215</v>
+        <f>CO18*(1+$AB$132)</f>
+        <v>343320.93438476807</v>
       </c>
       <c r="CQ18" s="4">
-        <f t="shared" si="82"/>
-        <v>391677.15824838774</v>
+        <f>CP18*(1+$AB$132)</f>
+        <v>346754.14372861577</v>
       </c>
       <c r="CR18" s="4">
-        <f t="shared" si="82"/>
-        <v>395593.92983087164</v>
+        <f>CQ18*(1+$AB$132)</f>
+        <v>350221.68516590196</v>
       </c>
       <c r="CS18" s="4">
-        <f t="shared" si="82"/>
-        <v>399549.86912918038</v>
+        <f>CR18*(1+$AB$132)</f>
+        <v>353723.90201756096</v>
       </c>
       <c r="CT18" s="4">
-        <f t="shared" si="82"/>
-        <v>403545.36782047217</v>
+        <f>CS18*(1+$AB$132)</f>
+        <v>357261.14103773655</v>
       </c>
       <c r="CU18" s="4">
-        <f t="shared" si="82"/>
-        <v>407580.8214986769</v>
+        <f>CT18*(1+$AB$132)</f>
+        <v>360833.75244811393</v>
       </c>
       <c r="CV18" s="4">
-        <f t="shared" si="82"/>
-        <v>411656.62971366366</v>
+        <f>CU18*(1+$AB$132)</f>
+        <v>364442.08997259504</v>
       </c>
       <c r="CW18" s="4">
-        <f t="shared" si="82"/>
-        <v>415773.19601080031</v>
+        <f>CV18*(1+$AB$132)</f>
+        <v>368086.51087232097</v>
       </c>
       <c r="CX18" s="4">
-        <f t="shared" si="82"/>
-        <v>419930.92797090829</v>
+        <f>CW18*(1+$AB$132)</f>
+        <v>371767.3759810442</v>
       </c>
       <c r="CY18" s="4">
-        <f t="shared" si="82"/>
-        <v>424130.23725061736</v>
+        <f>CX18*(1+$AB$132)</f>
+        <v>375485.04974085465</v>
       </c>
       <c r="CZ18" s="4">
-        <f t="shared" si="82"/>
-        <v>428371.53962312354</v>
+        <f>CY18*(1+$AB$132)</f>
+        <v>379239.90023826319</v>
       </c>
       <c r="DA18" s="4">
-        <f t="shared" si="82"/>
-        <v>432655.25501935475</v>
+        <f>CZ18*(1+$AB$132)</f>
+        <v>383032.29924064584</v>
       </c>
       <c r="DB18" s="4">
-        <f t="shared" si="82"/>
-        <v>436981.80756954831</v>
+        <f>DA18*(1+$AB$132)</f>
+        <v>386862.62223305227</v>
       </c>
       <c r="DC18" s="4">
-        <f t="shared" si="82"/>
-        <v>441351.6256452438</v>
+        <f>DB18*(1+$AB$132)</f>
+        <v>390731.24845538283</v>
       </c>
       <c r="DD18" s="4">
-        <f t="shared" si="82"/>
-        <v>445765.14190169622</v>
+        <f>DC18*(1+$AB$132)</f>
+        <v>394638.56093993667</v>
       </c>
       <c r="DE18" s="4">
-        <f t="shared" si="82"/>
-        <v>450222.79332071316</v>
+        <f>DD18*(1+$AB$132)</f>
+        <v>398584.94654933602</v>
       </c>
       <c r="DF18" s="4">
-        <f t="shared" si="82"/>
-        <v>454725.02125392028</v>
+        <f>DE18*(1+$AB$132)</f>
+        <v>402570.79601482936</v>
       </c>
       <c r="DG18" s="4">
-        <f t="shared" si="82"/>
-        <v>459272.2714664595</v>
+        <f>DF18*(1+$AB$132)</f>
+        <v>406596.50397497765</v>
       </c>
       <c r="DH18" s="4">
-        <f t="shared" si="82"/>
-        <v>463864.99418112409</v>
+        <f>DG18*(1+$AB$132)</f>
+        <v>410662.46901472745</v>
       </c>
       <c r="DI18" s="4">
-        <f t="shared" si="82"/>
-        <v>468503.64412293531</v>
+        <f>DH18*(1+$AB$132)</f>
+        <v>414769.09370487474</v>
       </c>
       <c r="DJ18" s="4">
-        <f t="shared" si="82"/>
-        <v>473188.68056416465</v>
+        <f>DI18*(1+$AB$132)</f>
+        <v>418916.7846419235</v>
       </c>
       <c r="DK18" s="4">
-        <f t="shared" si="82"/>
-        <v>477920.56736980629</v>
+        <f>DJ18*(1+$AB$132)</f>
+        <v>423105.95248834277</v>
       </c>
       <c r="DL18" s="4">
-        <f t="shared" si="82"/>
-        <v>482699.77304350433</v>
+        <f>DK18*(1+$AB$132)</f>
+        <v>427337.01201322622</v>
       </c>
       <c r="DM18" s="4">
-        <f t="shared" si="82"/>
-        <v>487526.77077393938</v>
+        <f>DL18*(1+$AB$132)</f>
+        <v>431610.38213335851</v>
       </c>
       <c r="DN18" s="4">
-        <f t="shared" si="82"/>
-        <v>492402.03848167876</v>
+        <f>DM18*(1+$AB$132)</f>
+        <v>435926.48595469212</v>
       </c>
       <c r="DO18" s="4">
-        <f t="shared" si="82"/>
-        <v>497326.05886649556</v>
+        <f>DN18*(1+$AB$132)</f>
+        <v>440285.75081423903</v>
       </c>
       <c r="DP18" s="4">
-        <f t="shared" si="82"/>
-        <v>502299.31945516053</v>
+        <f>DO18*(1+$AB$132)</f>
+        <v>444688.60832238145</v>
       </c>
       <c r="DQ18" s="4">
-        <f t="shared" si="82"/>
-        <v>507322.31264971214</v>
+        <f>DP18*(1+$AB$132)</f>
+        <v>449135.49440560525</v>
       </c>
       <c r="DR18" s="4">
-        <f t="shared" ref="DR18:EW18" si="83">DQ18*(1+$AB$132)</f>
-        <v>512395.53577620926</v>
+        <f>DQ18*(1+$AB$132)</f>
+        <v>453626.84934966132</v>
       </c>
       <c r="DS18" s="4">
-        <f t="shared" si="83"/>
-        <v>517519.49113397137</v>
+        <f>DR18*(1+$AB$132)</f>
+        <v>458163.11784315796</v>
       </c>
       <c r="DT18" s="4">
-        <f t="shared" si="83"/>
-        <v>522694.6860453111</v>
+        <f>DS18*(1+$AB$132)</f>
+        <v>462744.74902158952</v>
       </c>
       <c r="DU18" s="4">
-        <f t="shared" si="83"/>
-        <v>527921.63290576427</v>
+        <f>DT18*(1+$AB$132)</f>
+        <v>467372.19651180541</v>
       </c>
       <c r="DV18" s="4">
-        <f t="shared" si="83"/>
-        <v>533200.84923482197</v>
+        <f>DU18*(1+$AB$132)</f>
+        <v>472045.91847692349</v>
       </c>
       <c r="DW18" s="4">
-        <f t="shared" si="83"/>
-        <v>538532.85772717022</v>
+        <f>DV18*(1+$AB$132)</f>
+        <v>476766.37766169274</v>
       </c>
       <c r="DX18" s="4">
-        <f t="shared" si="83"/>
-        <v>543918.18630444189</v>
+        <f>DW18*(1+$AB$132)</f>
+        <v>481534.04143830965</v>
       </c>
       <c r="DY18" s="4">
-        <f t="shared" si="83"/>
-        <v>549357.36816748627</v>
+        <f>DX18*(1+$AB$132)</f>
+        <v>486349.38185269275</v>
       </c>
       <c r="DZ18" s="4">
-        <f t="shared" si="83"/>
-        <v>554850.94184916117</v>
+        <f>DY18*(1+$AB$132)</f>
+        <v>491212.87567121966</v>
       </c>
       <c r="EA18" s="4">
-        <f t="shared" si="83"/>
-        <v>560399.4512676528</v>
+        <f>DZ18*(1+$AB$132)</f>
+        <v>496125.00442793185</v>
       </c>
       <c r="EB18" s="4">
-        <f t="shared" si="83"/>
-        <v>566003.44578032929</v>
+        <f>EA18*(1+$AB$132)</f>
+        <v>501086.25447221118</v>
       </c>
       <c r="EC18" s="4">
-        <f t="shared" si="83"/>
-        <v>571663.48023813264</v>
+        <f>EB18*(1+$AB$132)</f>
+        <v>506097.11701693328</v>
       </c>
       <c r="ED18" s="4">
-        <f t="shared" si="83"/>
-        <v>577380.11504051392</v>
+        <f>EC18*(1+$AB$132)</f>
+        <v>511158.08818710264</v>
       </c>
       <c r="EE18" s="4">
-        <f t="shared" si="83"/>
-        <v>583153.91619091912</v>
+        <f>ED18*(1+$AB$132)</f>
+        <v>516269.66906897369</v>
       </c>
       <c r="EF18" s="4">
-        <f t="shared" si="83"/>
-        <v>588985.45535282826</v>
+        <f>EE18*(1+$AB$132)</f>
+        <v>521432.3657596634</v>
       </c>
       <c r="EG18" s="4">
-        <f t="shared" si="83"/>
-        <v>594875.3099063565</v>
+        <f>EF18*(1+$AB$132)</f>
+        <v>526646.68941726</v>
       </c>
       <c r="EH18" s="4">
-        <f t="shared" si="83"/>
-        <v>600824.06300542003</v>
+        <f>EG18*(1+$AB$132)</f>
+        <v>531913.1563114326</v>
       </c>
       <c r="EI18" s="4">
-        <f t="shared" si="83"/>
-        <v>606832.30363547418</v>
+        <f>EH18*(1+$AB$132)</f>
+        <v>537232.28787454695</v>
       </c>
       <c r="EJ18" s="4">
-        <f t="shared" si="83"/>
-        <v>612900.62667182891</v>
+        <f>EI18*(1+$AB$132)</f>
+        <v>542604.61075329245</v>
       </c>
       <c r="EK18" s="4">
-        <f t="shared" si="83"/>
-        <v>619029.63293854718</v>
+        <f>EJ18*(1+$AB$132)</f>
+        <v>548030.65686082537</v>
       </c>
       <c r="EL18" s="4">
-        <f t="shared" si="83"/>
-        <v>625219.92926793266</v>
+        <f>EK18*(1+$AB$132)</f>
+        <v>553510.96342943364</v>
       </c>
       <c r="EM18" s="4">
-        <f t="shared" si="83"/>
-        <v>631472.12856061198</v>
+        <f>EL18*(1+$AB$132)</f>
+        <v>559046.07306372793</v>
       </c>
       <c r="EN18" s="4">
-        <f t="shared" si="83"/>
-        <v>637786.84984621813</v>
+        <f>EM18*(1+$AB$132)</f>
+        <v>564636.53379436524</v>
       </c>
       <c r="EO18" s="4">
-        <f t="shared" si="83"/>
-        <v>644164.71834468027</v>
+        <f>EN18*(1+$AB$132)</f>
+        <v>570282.8991323089</v>
       </c>
       <c r="EP18" s="4">
-        <f t="shared" si="83"/>
-        <v>650606.36552812706</v>
+        <f>EO18*(1+$AB$132)</f>
+        <v>575985.72812363203</v>
       </c>
       <c r="EQ18" s="4">
-        <f t="shared" si="83"/>
-        <v>657112.42918340839</v>
+        <f>EP18*(1+$AB$132)</f>
+        <v>581745.58540486835</v>
       </c>
       <c r="ER18" s="4">
-        <f t="shared" si="83"/>
-        <v>663683.55347524246</v>
+        <f>EQ18*(1+$AB$132)</f>
+        <v>587563.04125891707</v>
       </c>
       <c r="ES18" s="4">
-        <f t="shared" si="83"/>
-        <v>670320.38900999492</v>
+        <f>ER18*(1+$AB$132)</f>
+        <v>593438.67167150625</v>
       </c>
       <c r="ET18" s="4">
-        <f t="shared" si="83"/>
-        <v>677023.59290009493</v>
+        <f>ES18*(1+$AB$132)</f>
+        <v>599373.05838822131</v>
       </c>
       <c r="EU18" s="4">
-        <f t="shared" si="83"/>
-        <v>683793.82882909593</v>
+        <f>ET18*(1+$AB$132)</f>
+        <v>605366.7889721035</v>
       </c>
       <c r="EV18" s="4">
-        <f t="shared" si="83"/>
-        <v>690631.76711738692</v>
+        <f>EU18*(1+$AB$132)</f>
+        <v>611420.4568618245</v>
       </c>
       <c r="EW18" s="4">
-        <f t="shared" si="83"/>
-        <v>697538.08478856075</v>
+        <f>EV18*(1+$AB$132)</f>
+        <v>617534.66143044271</v>
       </c>
       <c r="EX18" s="4">
-        <f t="shared" ref="EX18:FP18" si="84">EW18*(1+$AB$132)</f>
-        <v>704513.46563644637</v>
+        <f>EW18*(1+$AB$132)</f>
+        <v>623710.00804474717</v>
       </c>
       <c r="EY18" s="4">
-        <f t="shared" si="84"/>
-        <v>711558.60029281082</v>
+        <f>EX18*(1+$AB$132)</f>
+        <v>629947.10812519467</v>
       </c>
       <c r="EZ18" s="4">
-        <f t="shared" si="84"/>
-        <v>718674.18629573891</v>
+        <f>EY18*(1+$AB$132)</f>
+        <v>636246.57920644665</v>
       </c>
       <c r="FA18" s="4">
-        <f t="shared" si="84"/>
-        <v>725860.92815869628</v>
+        <f>EZ18*(1+$AB$132)</f>
+        <v>642609.04499851109</v>
       </c>
       <c r="FB18" s="4">
-        <f t="shared" si="84"/>
-        <v>733119.53744028322</v>
+        <f>FA18*(1+$AB$132)</f>
+        <v>649035.13544849621</v>
       </c>
       <c r="FC18" s="4">
-        <f t="shared" si="84"/>
-        <v>740450.73281468602</v>
+        <f>FB18*(1+$AB$132)</f>
+        <v>655525.48680298112</v>
       </c>
       <c r="FD18" s="4">
-        <f t="shared" si="84"/>
-        <v>747855.24014283286</v>
+        <f>FC18*(1+$AB$132)</f>
+        <v>662080.74167101097</v>
       </c>
       <c r="FE18" s="4">
-        <f t="shared" si="84"/>
-        <v>755333.7925442612</v>
+        <f>FD18*(1+$AB$132)</f>
+        <v>668701.54908772104</v>
       </c>
       <c r="FF18" s="4">
-        <f t="shared" si="84"/>
-        <v>762887.13046970381</v>
+        <f>FE18*(1+$AB$132)</f>
+        <v>675388.56457859825</v>
       </c>
       <c r="FG18" s="4">
-        <f t="shared" si="84"/>
-        <v>770516.00177440082</v>
+        <f>FF18*(1+$AB$132)</f>
+        <v>682142.4502243842</v>
       </c>
       <c r="FH18" s="4">
-        <f t="shared" si="84"/>
-        <v>778221.16179214488</v>
+        <f>FG18*(1+$AB$132)</f>
+        <v>688963.87472662807</v>
       </c>
       <c r="FI18" s="4">
-        <f t="shared" si="84"/>
-        <v>786003.37341006636</v>
+        <f>FH18*(1+$AB$132)</f>
+        <v>695853.51347389433</v>
       </c>
       <c r="FJ18" s="4">
-        <f t="shared" si="84"/>
-        <v>793863.40714416699</v>
+        <f>FI18*(1+$AB$132)</f>
+        <v>702812.04860863322</v>
       </c>
       <c r="FK18" s="4">
-        <f t="shared" si="84"/>
-        <v>801802.04121560871</v>
+        <f>FJ18*(1+$AB$132)</f>
+        <v>709840.16909471957</v>
       </c>
       <c r="FL18" s="4">
-        <f t="shared" si="84"/>
-        <v>809820.06162776484</v>
+        <f>FK18*(1+$AB$132)</f>
+        <v>716938.57078566682</v>
       </c>
       <c r="FM18" s="4">
-        <f t="shared" si="84"/>
-        <v>817918.26224404247</v>
+        <f>FL18*(1+$AB$132)</f>
+        <v>724107.95649352344</v>
       </c>
       <c r="FN18" s="4">
-        <f t="shared" si="84"/>
-        <v>826097.44486648287</v>
+        <f>FM18*(1+$AB$132)</f>
+        <v>731349.03605845873</v>
       </c>
       <c r="FO18" s="4">
-        <f t="shared" si="84"/>
-        <v>834358.41931514768</v>
+        <f>FN18*(1+$AB$132)</f>
+        <v>738662.52641904331</v>
       </c>
       <c r="FP18" s="4">
-        <f t="shared" si="84"/>
-        <v>842702.00350829912</v>
+        <f>FO18*(1+$AB$132)</f>
+        <v>746049.15168323379</v>
       </c>
     </row>
     <row r="19" spans="2:172" x14ac:dyDescent="0.2">
@@ -3092,31 +3092,31 @@
         <v>0.30194601381042058</v>
       </c>
       <c r="D19" s="5" t="e">
-        <f t="shared" ref="D19:J19" si="85">D18/D20</f>
+        <f t="shared" ref="D19:J19" si="79">D18/D20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="5" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="5" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>0.19670602858918582</v>
       </c>
       <c r="H19" s="5" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="5" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="5" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="5">
@@ -3137,43 +3137,43 @@
       </c>
       <c r="P19" s="5">
         <f>P18/Main!$O$3</f>
-        <v>4.6140441274932664</v>
+        <v>4.4473202107430847</v>
       </c>
       <c r="Q19" s="5">
         <f>Q18/Main!$O$3</f>
-        <v>7.1535077263753353</v>
+        <v>6.8383457773117131</v>
       </c>
       <c r="R19" s="5">
         <f>R18/Main!$O$3</f>
-        <v>10.340730242281621</v>
+        <v>9.7945378902693321</v>
       </c>
       <c r="S19" s="5">
         <f>S18/Main!$O$3</f>
-        <v>14.740630671451493</v>
+        <v>13.85904140462131</v>
       </c>
       <c r="T19" s="5">
         <f>T18/Main!$O$3</f>
-        <v>20.958723515623582</v>
+        <v>19.597401209159617</v>
       </c>
       <c r="U19" s="5">
         <f>U18/Main!$O$3</f>
-        <v>27.278113698045917</v>
+        <v>25.232986836046116</v>
       </c>
       <c r="V19" s="5">
         <f>V18/Main!$O$3</f>
-        <v>32.672672765138842</v>
+        <v>29.73324450586119</v>
       </c>
       <c r="W19" s="5">
         <f>W18/Main!$O$3</f>
-        <v>39.554051298631414</v>
+        <v>35.535723613478794</v>
       </c>
       <c r="X19" s="5">
         <f>X18/Main!$O$3</f>
-        <v>48.546947660993681</v>
+        <v>43.2152223773789</v>
       </c>
       <c r="Y19" s="5">
         <f>Y18/Main!$O$3</f>
-        <v>60.596464812421623</v>
+        <v>53.646414723238323</v>
       </c>
     </row>
     <row r="20" spans="2:172" x14ac:dyDescent="0.2">
@@ -3226,47 +3226,47 @@
         <v>0.22674008188620642</v>
       </c>
       <c r="D22" s="6" t="e">
-        <f t="shared" ref="D22:J22" si="86">D2/D6-1</f>
+        <f t="shared" ref="D22:J22" si="80">D2/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="6" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="6" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.19376068376068378</v>
       </c>
       <c r="H22" s="6" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="6" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="6" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" ref="L22:O24" si="87">L2/L6-1</f>
+        <f t="shared" ref="L22:O24" si="81">L2/L6-1</f>
         <v>0.41442817356931094</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.39825467637160528</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.24145566283571074</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.22580439934471075</v>
       </c>
       <c r="P22" s="6">
@@ -3274,23 +3274,23 @@
         <v>0.24838483927918184</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" ref="Q22:U22" si="88">P22*1.1</f>
+        <f t="shared" ref="Q22:U22" si="82">P22*1.1</f>
         <v>0.27322332320710002</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.30054565552781004</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.33060022108059106</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.3636602431886502</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>0.40002626750751524</v>
       </c>
       <c r="V22" s="6">
@@ -3298,15 +3298,15 @@
         <v>0.40402653018259038</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" ref="W22:Y22" si="89">V22*1.01</f>
+        <f t="shared" ref="W22:Y22" si="83">V22*1.01</f>
         <v>0.40806679548441627</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.41214746343926045</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>0.41626893807365306</v>
       </c>
     </row>
@@ -3319,47 +3319,47 @@
         <v>0.32711038961038952</v>
       </c>
       <c r="D23" s="6" t="e">
-        <f t="shared" ref="D23:J23" si="90">D3/D7-1</f>
+        <f t="shared" ref="D23:J23" si="84">D3/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="6" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="6" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>0.40359897172236514</v>
       </c>
       <c r="H23" s="6" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="6" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="6" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>-4.4208361891706627E-2</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>7.9536039768019817E-2</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.2331426236207601</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>0.35455278001611612</v>
       </c>
       <c r="P23" s="6">
@@ -3367,23 +3367,23 @@
         <v>0.36164383561643842</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" ref="Q23:U23" si="91">P23*1.02</f>
+        <f t="shared" ref="Q23:U23" si="85">P23*1.02</f>
         <v>0.36887671232876718</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.37625424657534251</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.38377933150684934</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.39145491813698635</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.39928401649972611</v>
       </c>
       <c r="V23" s="6">
@@ -3391,15 +3391,15 @@
         <v>0.4032768566647234</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" ref="W23:Y23" si="92">V23*1.01</f>
+        <f t="shared" ref="W23:Y23" si="86">V23*1.01</f>
         <v>0.40730962523137065</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0.41138272148368438</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>0.41549654869852121</v>
       </c>
     </row>
@@ -3412,47 +3412,47 @@
         <v>3.6701404621658273E-2</v>
       </c>
       <c r="D24" s="6" t="e">
-        <f t="shared" ref="D24:J24" si="93">D4/D8-1</f>
+        <f t="shared" ref="D24:J24" si="87">D4/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="6" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="6" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>3.9810800157666471E-2</v>
       </c>
       <c r="H24" s="6" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="6" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="6" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>-2.6625704045058929E-2</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>3.5884353741496566E-2</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>6.2452107279693525E-2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>6.178812619695595E-2</v>
       </c>
       <c r="P24" s="6">
@@ -3496,87 +3496,87 @@
         <v>0.20994035785288268</v>
       </c>
       <c r="D26" s="6" t="e">
-        <f t="shared" ref="D26:J26" si="94">D5/D9-1</f>
+        <f t="shared" ref="D26:J26" si="88">D5/D9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.19484612532443446</v>
       </c>
       <c r="H26" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" ref="L26:U26" si="95">L5/L9-1</f>
+        <f t="shared" ref="L26:U26" si="89">L5/L9-1</f>
         <v>0.33831464306139192</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.34405781319605988</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.22322500726808481</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.21747258225324018</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.31831882154137325</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.3537617403674802</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.39389838635857033</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.4403079429466501</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.49482706442942881</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>0.55096021097026604</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:Y26" si="96">V5/V9-1</f>
+        <f t="shared" ref="V26:Y26" si="90">V5/V9-1</f>
         <v>0.54773976911968303</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>0.54512294464461108</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>0.54383521201648666</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>0.54464924450985119</v>
       </c>
     </row>
@@ -3589,87 +3589,87 @@
         <v>5.4973944885216654E-2</v>
       </c>
       <c r="D27" s="6" t="e">
-        <f t="shared" ref="D27:J27" si="97">D14/D5</f>
+        <f t="shared" ref="D27:J27" si="91">D14/D5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="6" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>2.5497801913628135E-2</v>
       </c>
       <c r="H27" s="6" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="6" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="6" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:U27" si="98">L14/L5</f>
+        <f t="shared" ref="L27:U27" si="92">L14/L5</f>
         <v>0.12069189751593185</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.16979696054602145</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>9.1874799789197395E-2</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>7.9434947282219268E-2</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.1422668288374247</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.16212625939578343</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.18339627098820496</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.20651271076082825</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.23183497526956776</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>0.25604681433750753</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:Y27" si="99">V14/V5</f>
+        <f t="shared" ref="V27:Y27" si="93">V14/V5</f>
         <v>0.25470523344713913</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>0.25361099086949274</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>0.25307115502734917</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>0.25341251368517825</v>
       </c>
     </row>
@@ -3682,87 +3682,87 @@
         <v>0.11853903572602226</v>
       </c>
       <c r="D28" s="6" t="e">
-        <f t="shared" ref="D28:U28" si="100">D13/D5</f>
+        <f t="shared" ref="D28:U28" si="94">D13/D5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>0.13757434703904836</v>
       </c>
       <c r="H28" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>0.13209965999665571</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>8.6187424811568589E-2</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.0614117574116748E-2</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987702E-2</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28:Y28" si="101">V13/V5</f>
+        <f t="shared" ref="V28:Y28" si="95">V13/V5</f>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>9.9191319479987702E-2</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>9.9191319479987702E-2</v>
       </c>
       <c r="Y28" s="6">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>9.9191319479987702E-2</v>
       </c>
     </row>
@@ -3795,69 +3795,69 @@
         <v>-9.2296136331627587E-2</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f t="shared" ref="H30:J30" si="102">H5/D5-1</f>
+        <f t="shared" ref="H30:J30" si="96">H5/D5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="7" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="7">
-        <f t="shared" ref="M30:U30" si="103">M5/L5-1</f>
+        <f t="shared" ref="M30:U30" si="97">M5/L5-1</f>
         <v>0.51351652639206291</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.18795266504627928</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>9.4757835346634955E-3</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.2802197637588637</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.34416527741201164</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.26067521666406357</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.25228754018450261</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.25651675626185955</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.15975496768663233</v>
       </c>
       <c r="V30" s="7">
-        <f t="shared" ref="V30:Y30" si="104">V5/U5-1</f>
+        <f t="shared" ref="V30:Y30" si="98">V5/U5-1</f>
         <v>0.1750296016588615</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>0.19296532458429927</v>
       </c>
       <c r="X30" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>0.21366188404875253</v>
       </c>
       <c r="Y30" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>0.23702710959855011</v>
       </c>
     </row>
@@ -3871,27 +3871,27 @@
         <v>-1</v>
       </c>
       <c r="E31" s="7" t="e">
-        <f t="shared" ref="E31:J31" si="105">E5/D5-1</f>
+        <f t="shared" ref="E31:J31" si="99">E5/D5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="7" t="e">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>-2.3386200626325904E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>-1</v>
       </c>
       <c r="I31" s="7" t="e">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="7" t="e">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4"/>
@@ -3919,31 +3919,31 @@
         <v>0.33425605536332181</v>
       </c>
       <c r="D32" s="6" t="e">
-        <f t="shared" ref="D32:J32" si="106">D17/D16</f>
+        <f t="shared" ref="D32:J32" si="100">D17/D16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="6" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>0.21072319201995013</v>
       </c>
       <c r="H32" s="6" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="6" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="6" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="6">
@@ -4002,67 +4002,67 @@
         <v>-0.19628265623201746</v>
       </c>
       <c r="H34" s="6" t="e">
-        <f t="shared" ref="H34:J34" si="107">H2/D2-1</f>
+        <f t="shared" ref="H34:J34" si="101">H2/D2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="6" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>-1</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" ref="M34:U34" si="108">M2/L2-1</f>
+        <f t="shared" ref="M34:U34" si="102">M2/L2-1</f>
         <v>0.51299966124661256</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.15332624331812705</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>-6.4900083718560042E-2</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.24875397329185667</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.36682416502946968</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.2583017988007994</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.2473433373931273</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.25248791811749527</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>0.12744382310712887</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" ref="V34:V36" si="109">V2/U2-1</f>
+        <f t="shared" ref="V34:V36" si="103">V2/U2-1</f>
         <v>0.14335141679857832</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" ref="W34:W36" si="110">W2/V2-1</f>
+        <f t="shared" ref="W34:W36" si="104">W2/V2-1</f>
         <v>0.16398126729731888</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" ref="X34:X36" si="111">X2/W2-1</f>
+        <f t="shared" ref="X34:X36" si="105">X2/W2-1</f>
         <v>0.18991201824368176</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" ref="Y34:Y36" si="112">Y2/X2-1</f>
+        <f t="shared" ref="Y34:Y36" si="106">Y2/X2-1</f>
         <v>0.22124619731049844</v>
       </c>
     </row>
@@ -4075,67 +4075,67 @@
         <v>0.66972477064220182</v>
       </c>
       <c r="H35" s="6" t="e">
-        <f t="shared" ref="H35:J35" si="113">H3/D3-1</f>
+        <f t="shared" ref="H35:J35" si="107">H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="6" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="6" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" ref="M35:U35" si="114">M3/L3-1</f>
+        <f t="shared" ref="M35:U35" si="108">M3/L3-1</f>
         <v>0.40157762638938688</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.54387311332821686</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.67125103562551791</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.5</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.24</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.24</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.24</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.24</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="114"/>
+        <f t="shared" si="108"/>
         <v>0.24</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>0.24</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>0.24000000000000021</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0.24</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="106"/>
         <v>0.24</v>
       </c>
       <c r="AC35" s="6"/>
@@ -4149,67 +4149,67 @@
         <v>0.15297202797202791</v>
       </c>
       <c r="H36" s="6" t="e">
-        <f t="shared" ref="H36:J36" si="115">H4/D4-1</f>
+        <f t="shared" ref="H36:J36" si="109">H4/D4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="6" t="e">
-        <f t="shared" si="115"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="6" t="e">
-        <f t="shared" si="115"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36:U36" si="116">M4/L4-1</f>
+        <f t="shared" ref="M36:U36" si="110">M4/L4-1</f>
         <v>0.60205155181483438</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>0.36578558528977179</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>0.26625796369755972</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="S36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="T36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="U36" s="6">
-        <f t="shared" si="116"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V36" s="6">
-        <f t="shared" si="109"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="W36" s="6">
         <f t="shared" si="110"/>
         <v>0.30000000000000004</v>
       </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="110"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="110"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="110"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="110"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="110"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="104"/>
+        <v>0.30000000000000004</v>
+      </c>
       <c r="X36" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="106"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AC36" s="6"/>
@@ -4238,628 +4238,628 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:U38" si="117">P18*0.73</f>
-        <v>10848.992175201367</v>
+        <f t="shared" ref="P38:U38" si="111">P18*0.73</f>
+        <v>10456.974583201367</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="117"/>
-        <v>16820.027551589945</v>
+        <f t="shared" si="111"/>
+        <v>16078.987928899984</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="117"/>
-        <v>24314.137096328661</v>
+        <f t="shared" si="111"/>
+        <v>23029.876176969952</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="117"/>
-        <v>34659.613647646875</v>
+        <f t="shared" si="111"/>
+        <v>32586.734673518309</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="117"/>
-        <v>49280.202169791875</v>
+        <f t="shared" si="111"/>
+        <v>46079.327916606439</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="117"/>
-        <v>64138.970908614327</v>
+        <f t="shared" si="111"/>
+        <v>59330.268453663142</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" ref="V38:Y38" si="118">V18*0.73</f>
-        <v>76823.186206604703</v>
+        <f t="shared" ref="V38:Y38" si="112">V18*0.73</f>
+        <v>69911.714772153064</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="118"/>
-        <v>93003.3569638833</v>
+        <f t="shared" si="112"/>
+        <v>83555.071596638634</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="118"/>
-        <v>114148.33511576541</v>
+        <f t="shared" si="112"/>
+        <v>101611.86075965957</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="118"/>
-        <v>142480.33924894157</v>
+        <f t="shared" si="112"/>
+        <v>126138.70120835106</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" ref="Z38:BE38" si="119">Y38*(1+$AB$132)</f>
-        <v>143905.14264143098</v>
+        <f>Y38*(1+$AB$132)</f>
+        <v>127400.08822043457</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="119"/>
-        <v>145344.1940678453</v>
+        <f>Z38*(1+$AB$132)</f>
+        <v>128674.08910263891</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="119"/>
-        <v>146797.63600852375</v>
+        <f>AA38*(1+$AB$132)</f>
+        <v>129960.82999366531</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="119"/>
-        <v>148265.612368609</v>
+        <f>AB38*(1+$AB$132)</f>
+        <v>131260.43829360197</v>
       </c>
       <c r="AD38" s="2">
-        <f t="shared" si="119"/>
-        <v>149748.26849229509</v>
+        <f>AC38*(1+$AB$132)</f>
+        <v>132573.042676538</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="119"/>
-        <v>151245.75117721804</v>
+        <f>AD38*(1+$AB$132)</f>
+        <v>133898.77310330336</v>
       </c>
       <c r="AF38" s="2">
-        <f t="shared" si="119"/>
-        <v>152758.20868899021</v>
+        <f>AE38*(1+$AB$132)</f>
+        <v>135237.7608343364</v>
       </c>
       <c r="AG38" s="2">
-        <f t="shared" si="119"/>
-        <v>154285.79077588013</v>
+        <f>AF38*(1+$AB$132)</f>
+        <v>136590.13844267977</v>
       </c>
       <c r="AH38" s="2">
-        <f t="shared" si="119"/>
-        <v>155828.64868363892</v>
+        <f>AG38*(1+$AB$132)</f>
+        <v>137956.03982710658</v>
       </c>
       <c r="AI38" s="2">
-        <f t="shared" si="119"/>
-        <v>157386.93517047531</v>
+        <f>AH38*(1+$AB$132)</f>
+        <v>139335.60022537765</v>
       </c>
       <c r="AJ38" s="2">
-        <f t="shared" si="119"/>
-        <v>158960.80452218006</v>
+        <f>AI38*(1+$AB$132)</f>
+        <v>140728.95622763142</v>
       </c>
       <c r="AK38" s="2">
-        <f t="shared" si="119"/>
-        <v>160550.41256740186</v>
+        <f>AJ38*(1+$AB$132)</f>
+        <v>142136.24578990773</v>
       </c>
       <c r="AL38" s="2">
-        <f t="shared" si="119"/>
-        <v>162155.91669307588</v>
+        <f>AK38*(1+$AB$132)</f>
+        <v>143557.60824780681</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="119"/>
-        <v>163777.47586000664</v>
+        <f>AL38*(1+$AB$132)</f>
+        <v>144993.18433028489</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="119"/>
-        <v>165415.25061860672</v>
+        <f>AM38*(1+$AB$132)</f>
+        <v>146443.11617358774</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="119"/>
-        <v>167069.40312479279</v>
+        <f>AN38*(1+$AB$132)</f>
+        <v>147907.54733532362</v>
       </c>
       <c r="AP38" s="2">
-        <f t="shared" si="119"/>
-        <v>168740.09715604072</v>
+        <f>AO38*(1+$AB$132)</f>
+        <v>149386.62280867685</v>
       </c>
       <c r="AQ38" s="2">
-        <f t="shared" si="119"/>
-        <v>170427.49812760114</v>
+        <f>AP38*(1+$AB$132)</f>
+        <v>150880.48903676361</v>
       </c>
       <c r="AR38" s="2">
-        <f t="shared" si="119"/>
-        <v>172131.77310887715</v>
+        <f>AQ38*(1+$AB$132)</f>
+        <v>152389.29392713125</v>
       </c>
       <c r="AS38" s="2">
-        <f t="shared" si="119"/>
-        <v>173853.09083996594</v>
+        <f>AR38*(1+$AB$132)</f>
+        <v>153913.18686640257</v>
       </c>
       <c r="AT38" s="2">
-        <f t="shared" si="119"/>
-        <v>175591.62174836561</v>
+        <f>AS38*(1+$AB$132)</f>
+        <v>155452.3187350666</v>
       </c>
       <c r="AU38" s="2">
-        <f t="shared" si="119"/>
-        <v>177347.53796584927</v>
+        <f>AT38*(1+$AB$132)</f>
+        <v>157006.84192241725</v>
       </c>
       <c r="AV38" s="2">
-        <f t="shared" si="119"/>
-        <v>179121.01334550776</v>
+        <f>AU38*(1+$AB$132)</f>
+        <v>158576.91034164143</v>
       </c>
       <c r="AW38" s="2">
-        <f t="shared" si="119"/>
-        <v>180912.22347896284</v>
+        <f>AV38*(1+$AB$132)</f>
+        <v>160162.67944505785</v>
       </c>
       <c r="AX38" s="2">
-        <f t="shared" si="119"/>
-        <v>182721.34571375247</v>
+        <f>AW38*(1+$AB$132)</f>
+        <v>161764.30623950841</v>
       </c>
       <c r="AY38" s="2">
-        <f t="shared" si="119"/>
-        <v>184548.55917088999</v>
+        <f>AX38*(1+$AB$132)</f>
+        <v>163381.94930190349</v>
       </c>
       <c r="AZ38" s="2">
-        <f t="shared" si="119"/>
-        <v>186394.0447625989</v>
+        <f>AY38*(1+$AB$132)</f>
+        <v>165015.76879492251</v>
       </c>
       <c r="BA38" s="2">
-        <f t="shared" si="119"/>
-        <v>188257.9852102249</v>
+        <f>AZ38*(1+$AB$132)</f>
+        <v>166665.92648287173</v>
       </c>
       <c r="BB38" s="2">
-        <f t="shared" si="119"/>
-        <v>190140.56506232714</v>
+        <f>BA38*(1+$AB$132)</f>
+        <v>168332.58574770045</v>
       </c>
       <c r="BC38" s="2">
-        <f t="shared" si="119"/>
-        <v>192041.97071295039</v>
+        <f>BB38*(1+$AB$132)</f>
+        <v>170015.91160517745</v>
       </c>
       <c r="BD38" s="2">
-        <f t="shared" si="119"/>
-        <v>193962.3904200799</v>
+        <f>BC38*(1+$AB$132)</f>
+        <v>171716.07072122922</v>
       </c>
       <c r="BE38" s="2">
-        <f t="shared" si="119"/>
-        <v>195902.0143242807</v>
+        <f>BD38*(1+$AB$132)</f>
+        <v>173433.2314284415</v>
       </c>
       <c r="BF38" s="2">
-        <f t="shared" ref="BF38:CK38" si="120">BE38*(1+$AB$132)</f>
-        <v>197861.03446752351</v>
+        <f>BE38*(1+$AB$132)</f>
+        <v>175167.56374272594</v>
       </c>
       <c r="BG38" s="2">
-        <f t="shared" si="120"/>
-        <v>199839.64481219873</v>
+        <f>BF38*(1+$AB$132)</f>
+        <v>176919.23938015319</v>
       </c>
       <c r="BH38" s="2">
-        <f t="shared" si="120"/>
-        <v>201838.04126032072</v>
+        <f>BG38*(1+$AB$132)</f>
+        <v>178688.43177395471</v>
       </c>
       <c r="BI38" s="2">
-        <f t="shared" si="120"/>
-        <v>203856.42167292393</v>
+        <f>BH38*(1+$AB$132)</f>
+        <v>180475.31609169426</v>
       </c>
       <c r="BJ38" s="2">
-        <f t="shared" si="120"/>
-        <v>205894.98588965318</v>
+        <f>BI38*(1+$AB$132)</f>
+        <v>182280.0692526112</v>
       </c>
       <c r="BK38" s="2">
-        <f t="shared" si="120"/>
-        <v>207953.9357485497</v>
+        <f>BJ38*(1+$AB$132)</f>
+        <v>184102.8699451373</v>
       </c>
       <c r="BL38" s="2">
-        <f t="shared" si="120"/>
-        <v>210033.47510603521</v>
+        <f>BK38*(1+$AB$132)</f>
+        <v>185943.89864458868</v>
       </c>
       <c r="BM38" s="2">
-        <f t="shared" si="120"/>
-        <v>212133.80985709556</v>
+        <f>BL38*(1+$AB$132)</f>
+        <v>187803.33763103458</v>
       </c>
       <c r="BN38" s="2">
-        <f t="shared" si="120"/>
-        <v>214255.14795566653</v>
+        <f>BM38*(1+$AB$132)</f>
+        <v>189681.37100734492</v>
       </c>
       <c r="BO38" s="2">
-        <f t="shared" si="120"/>
-        <v>216397.69943522318</v>
+        <f>BN38*(1+$AB$132)</f>
+        <v>191578.18471741836</v>
       </c>
       <c r="BP38" s="2">
-        <f t="shared" si="120"/>
-        <v>218561.67642957543</v>
+        <f>BO38*(1+$AB$132)</f>
+        <v>193493.96656459256</v>
       </c>
       <c r="BQ38" s="2">
-        <f t="shared" si="120"/>
-        <v>220747.29319387118</v>
+        <f>BP38*(1+$AB$132)</f>
+        <v>195428.90623023847</v>
       </c>
       <c r="BR38" s="2">
-        <f t="shared" si="120"/>
-        <v>222954.7661258099</v>
+        <f>BQ38*(1+$AB$132)</f>
+        <v>197383.19529254086</v>
       </c>
       <c r="BS38" s="2">
-        <f t="shared" si="120"/>
-        <v>225184.31378706801</v>
+        <f>BR38*(1+$AB$132)</f>
+        <v>199357.02724546628</v>
       </c>
       <c r="BT38" s="2">
-        <f t="shared" si="120"/>
-        <v>227436.1569249387</v>
+        <f>BS38*(1+$AB$132)</f>
+        <v>201350.59751792095</v>
       </c>
       <c r="BU38" s="2">
-        <f t="shared" si="120"/>
-        <v>229710.51849418809</v>
+        <f>BT38*(1+$AB$132)</f>
+        <v>203364.10349310015</v>
       </c>
       <c r="BV38" s="2">
-        <f t="shared" si="120"/>
-        <v>232007.62367912996</v>
+        <f>BU38*(1+$AB$132)</f>
+        <v>205397.74452803115</v>
       </c>
       <c r="BW38" s="2">
-        <f t="shared" si="120"/>
-        <v>234327.69991592126</v>
+        <f>BV38*(1+$AB$132)</f>
+        <v>207451.72197331148</v>
       </c>
       <c r="BX38" s="2">
-        <f t="shared" si="120"/>
-        <v>236670.97691508048</v>
+        <f>BW38*(1+$AB$132)</f>
+        <v>209526.2391930446</v>
       </c>
       <c r="BY38" s="2">
-        <f t="shared" si="120"/>
-        <v>239037.68668423127</v>
+        <f>BX38*(1+$AB$132)</f>
+        <v>211621.50158497505</v>
       </c>
       <c r="BZ38" s="2">
-        <f t="shared" si="120"/>
-        <v>241428.0635510736</v>
+        <f>BY38*(1+$AB$132)</f>
+        <v>213737.71660082479</v>
       </c>
       <c r="CA38" s="2">
-        <f t="shared" si="120"/>
-        <v>243842.34418658435</v>
+        <f>BZ38*(1+$AB$132)</f>
+        <v>215875.09376683304</v>
       </c>
       <c r="CB38" s="2">
-        <f t="shared" si="120"/>
-        <v>246280.76762845021</v>
+        <f>CA38*(1+$AB$132)</f>
+        <v>218033.84470450139</v>
       </c>
       <c r="CC38" s="2">
-        <f t="shared" si="120"/>
-        <v>248743.57530473472</v>
+        <f>CB38*(1+$AB$132)</f>
+        <v>220214.1831515464</v>
       </c>
       <c r="CD38" s="2">
-        <f t="shared" si="120"/>
-        <v>251231.01105778207</v>
+        <f>CC38*(1+$AB$132)</f>
+        <v>222416.32498306187</v>
       </c>
       <c r="CE38" s="2">
-        <f t="shared" si="120"/>
-        <v>253743.32116835989</v>
+        <f>CD38*(1+$AB$132)</f>
+        <v>224640.4882328925</v>
       </c>
       <c r="CF38" s="2">
-        <f t="shared" si="120"/>
-        <v>256280.75438004348</v>
+        <f>CE38*(1+$AB$132)</f>
+        <v>226886.89311522144</v>
       </c>
       <c r="CG38" s="2">
-        <f t="shared" si="120"/>
-        <v>258843.56192384392</v>
+        <f>CF38*(1+$AB$132)</f>
+        <v>229155.76204637365</v>
       </c>
       <c r="CH38" s="2">
-        <f t="shared" si="120"/>
-        <v>261431.99754308237</v>
+        <f>CG38*(1+$AB$132)</f>
+        <v>231447.3196668374</v>
       </c>
       <c r="CI38" s="2">
-        <f t="shared" si="120"/>
-        <v>264046.31751851318</v>
+        <f>CH38*(1+$AB$132)</f>
+        <v>233761.79286350578</v>
       </c>
       <c r="CJ38" s="2">
-        <f t="shared" si="120"/>
-        <v>266686.78069369833</v>
+        <f>CI38*(1+$AB$132)</f>
+        <v>236099.41079214084</v>
       </c>
       <c r="CK38" s="2">
-        <f t="shared" si="120"/>
-        <v>269353.64850063529</v>
+        <f>CJ38*(1+$AB$132)</f>
+        <v>238460.40490006225</v>
       </c>
       <c r="CL38" s="2">
-        <f t="shared" ref="CL38:DQ38" si="121">CK38*(1+$AB$132)</f>
-        <v>272047.18498564162</v>
+        <f>CK38*(1+$AB$132)</f>
+        <v>240845.00894906287</v>
       </c>
       <c r="CM38" s="2">
-        <f t="shared" si="121"/>
-        <v>274767.65683549806</v>
+        <f>CL38*(1+$AB$132)</f>
+        <v>243253.4590385535</v>
       </c>
       <c r="CN38" s="2">
-        <f t="shared" si="121"/>
-        <v>277515.33340385306</v>
+        <f>CM38*(1+$AB$132)</f>
+        <v>245685.99362893903</v>
       </c>
       <c r="CO38" s="2">
-        <f t="shared" si="121"/>
-        <v>280290.48673789157</v>
+        <f>CN38*(1+$AB$132)</f>
+        <v>248142.85356522843</v>
       </c>
       <c r="CP38" s="2">
-        <f t="shared" si="121"/>
-        <v>283093.3916052705</v>
+        <f>CO38*(1+$AB$132)</f>
+        <v>250624.28210088072</v>
       </c>
       <c r="CQ38" s="2">
-        <f t="shared" si="121"/>
-        <v>285924.32552132319</v>
+        <f>CP38*(1+$AB$132)</f>
+        <v>253130.52492188953</v>
       </c>
       <c r="CR38" s="2">
-        <f t="shared" si="121"/>
-        <v>288783.56877653644</v>
+        <f>CQ38*(1+$AB$132)</f>
+        <v>255661.83017110842</v>
       </c>
       <c r="CS38" s="2">
-        <f t="shared" si="121"/>
-        <v>291671.40446430183</v>
+        <f>CR38*(1+$AB$132)</f>
+        <v>258218.44847281949</v>
       </c>
       <c r="CT38" s="2">
-        <f t="shared" si="121"/>
-        <v>294588.11850894487</v>
+        <f>CS38*(1+$AB$132)</f>
+        <v>260800.6329575477</v>
       </c>
       <c r="CU38" s="2">
-        <f t="shared" si="121"/>
-        <v>297533.99969403434</v>
+        <f>CT38*(1+$AB$132)</f>
+        <v>263408.63928712317</v>
       </c>
       <c r="CV38" s="2">
-        <f t="shared" si="121"/>
-        <v>300509.33969097468</v>
+        <f>CU38*(1+$AB$132)</f>
+        <v>266042.72567999439</v>
       </c>
       <c r="CW38" s="2">
-        <f t="shared" si="121"/>
-        <v>303514.43308788445</v>
+        <f>CV38*(1+$AB$132)</f>
+        <v>268703.15293679433</v>
       </c>
       <c r="CX38" s="2">
-        <f t="shared" si="121"/>
-        <v>306549.57741876331</v>
+        <f>CW38*(1+$AB$132)</f>
+        <v>271390.18446616229</v>
       </c>
       <c r="CY38" s="2">
-        <f t="shared" si="121"/>
-        <v>309615.07319295092</v>
+        <f>CX38*(1+$AB$132)</f>
+        <v>274104.08631082391</v>
       </c>
       <c r="CZ38" s="2">
-        <f t="shared" si="121"/>
-        <v>312711.22392488044</v>
+        <f>CY38*(1+$AB$132)</f>
+        <v>276845.12717393215</v>
       </c>
       <c r="DA38" s="2">
-        <f t="shared" si="121"/>
-        <v>315838.33616412926</v>
+        <f>CZ38*(1+$AB$132)</f>
+        <v>279613.57844567148</v>
       </c>
       <c r="DB38" s="2">
-        <f t="shared" si="121"/>
-        <v>318996.71952577058</v>
+        <f>DA38*(1+$AB$132)</f>
+        <v>282409.71423012821</v>
       </c>
       <c r="DC38" s="2">
-        <f t="shared" si="121"/>
-        <v>322186.68672102829</v>
+        <f>DB38*(1+$AB$132)</f>
+        <v>285233.81137242948</v>
       </c>
       <c r="DD38" s="2">
-        <f t="shared" si="121"/>
-        <v>325408.5535882386</v>
+        <f>DC38*(1+$AB$132)</f>
+        <v>288086.14948615379</v>
       </c>
       <c r="DE38" s="2">
-        <f t="shared" si="121"/>
-        <v>328662.63912412099</v>
+        <f>DD38*(1+$AB$132)</f>
+        <v>290967.01098101534</v>
       </c>
       <c r="DF38" s="2">
-        <f t="shared" si="121"/>
-        <v>331949.2655153622</v>
+        <f>DE38*(1+$AB$132)</f>
+        <v>293876.68109082547</v>
       </c>
       <c r="DG38" s="2">
-        <f t="shared" si="121"/>
-        <v>335268.75817051582</v>
+        <f>DF38*(1+$AB$132)</f>
+        <v>296815.44790173374</v>
       </c>
       <c r="DH38" s="2">
-        <f t="shared" si="121"/>
-        <v>338621.44575222099</v>
+        <f>DG38*(1+$AB$132)</f>
+        <v>299783.60238075111</v>
       </c>
       <c r="DI38" s="2">
-        <f t="shared" si="121"/>
-        <v>342007.66020974319</v>
+        <f>DH38*(1+$AB$132)</f>
+        <v>302781.43840455863</v>
       </c>
       <c r="DJ38" s="2">
-        <f t="shared" si="121"/>
-        <v>345427.73681184062</v>
+        <f>DI38*(1+$AB$132)</f>
+        <v>305809.25278860424</v>
       </c>
       <c r="DK38" s="2">
-        <f t="shared" si="121"/>
-        <v>348882.01417995902</v>
+        <f>DJ38*(1+$AB$132)</f>
+        <v>308867.34531649027</v>
       </c>
       <c r="DL38" s="2">
-        <f t="shared" si="121"/>
-        <v>352370.83432175859</v>
+        <f>DK38*(1+$AB$132)</f>
+        <v>311956.0187696552</v>
       </c>
       <c r="DM38" s="2">
-        <f t="shared" si="121"/>
-        <v>355894.54266497621</v>
+        <f>DL38*(1+$AB$132)</f>
+        <v>315075.57895735174</v>
       </c>
       <c r="DN38" s="2">
-        <f t="shared" si="121"/>
-        <v>359453.48809162597</v>
+        <f>DM38*(1+$AB$132)</f>
+        <v>318226.33474692528</v>
       </c>
       <c r="DO38" s="2">
-        <f t="shared" si="121"/>
-        <v>363048.02297254221</v>
+        <f>DN38*(1+$AB$132)</f>
+        <v>321408.59809439455</v>
       </c>
       <c r="DP38" s="2">
-        <f t="shared" si="121"/>
-        <v>366678.50320226763</v>
+        <f>DO38*(1+$AB$132)</f>
+        <v>324622.68407533847</v>
       </c>
       <c r="DQ38" s="2">
-        <f t="shared" si="121"/>
-        <v>370345.28823429032</v>
+        <f>DP38*(1+$AB$132)</f>
+        <v>327868.91091609187</v>
       </c>
       <c r="DR38" s="2">
-        <f t="shared" ref="DR38:EW38" si="122">DQ38*(1+$AB$132)</f>
-        <v>374048.74111663323</v>
+        <f>DQ38*(1+$AB$132)</f>
+        <v>331147.60002525279</v>
       </c>
       <c r="DS38" s="2">
-        <f t="shared" si="122"/>
-        <v>377789.22852779954</v>
+        <f>DR38*(1+$AB$132)</f>
+        <v>334459.07602550532</v>
       </c>
       <c r="DT38" s="2">
-        <f t="shared" si="122"/>
-        <v>381567.12081307755</v>
+        <f>DS38*(1+$AB$132)</f>
+        <v>337803.66678576038</v>
       </c>
       <c r="DU38" s="2">
-        <f t="shared" si="122"/>
-        <v>385382.79202120833</v>
+        <f>DT38*(1+$AB$132)</f>
+        <v>341181.70345361799</v>
       </c>
       <c r="DV38" s="2">
-        <f t="shared" si="122"/>
-        <v>389236.61994142039</v>
+        <f>DU38*(1+$AB$132)</f>
+        <v>344593.52048815414</v>
       </c>
       <c r="DW38" s="2">
-        <f t="shared" si="122"/>
-        <v>393128.98614083458</v>
+        <f>DV38*(1+$AB$132)</f>
+        <v>348039.45569303568</v>
       </c>
       <c r="DX38" s="2">
-        <f t="shared" si="122"/>
-        <v>397060.27600224293</v>
+        <f>DW38*(1+$AB$132)</f>
+        <v>351519.85024996602</v>
       </c>
       <c r="DY38" s="2">
-        <f t="shared" si="122"/>
-        <v>401030.87876226538</v>
+        <f>DX38*(1+$AB$132)</f>
+        <v>355035.04875246569</v>
       </c>
       <c r="DZ38" s="2">
-        <f t="shared" si="122"/>
-        <v>405041.18754988804</v>
+        <f>DY38*(1+$AB$132)</f>
+        <v>358585.39923999034</v>
       </c>
       <c r="EA38" s="2">
-        <f t="shared" si="122"/>
-        <v>409091.59942538693</v>
+        <f>DZ38*(1+$AB$132)</f>
+        <v>362171.25323239027</v>
       </c>
       <c r="EB38" s="2">
-        <f t="shared" si="122"/>
-        <v>413182.51541964081</v>
+        <f>EA38*(1+$AB$132)</f>
+        <v>365792.96576471417</v>
       </c>
       <c r="EC38" s="2">
-        <f t="shared" si="122"/>
-        <v>417314.34057383722</v>
+        <f>EB38*(1+$AB$132)</f>
+        <v>369450.89542236133</v>
       </c>
       <c r="ED38" s="2">
-        <f t="shared" si="122"/>
-        <v>421487.48397957563</v>
+        <f>EC38*(1+$AB$132)</f>
+        <v>373145.40437658492</v>
       </c>
       <c r="EE38" s="2">
-        <f t="shared" si="122"/>
-        <v>425702.35881937138</v>
+        <f>ED38*(1+$AB$132)</f>
+        <v>376876.85842035076</v>
       </c>
       <c r="EF38" s="2">
-        <f t="shared" si="122"/>
-        <v>429959.38240756508</v>
+        <f>EE38*(1+$AB$132)</f>
+        <v>380645.62700455426</v>
       </c>
       <c r="EG38" s="2">
-        <f t="shared" si="122"/>
-        <v>434258.97623164073</v>
+        <f>EF38*(1+$AB$132)</f>
+        <v>384452.08327459981</v>
       </c>
       <c r="EH38" s="2">
-        <f t="shared" si="122"/>
-        <v>438601.56599395716</v>
+        <f>EG38*(1+$AB$132)</f>
+        <v>388296.6041073458</v>
       </c>
       <c r="EI38" s="2">
-        <f t="shared" si="122"/>
-        <v>442987.58165389672</v>
+        <f>EH38*(1+$AB$132)</f>
+        <v>392179.57014841924</v>
       </c>
       <c r="EJ38" s="2">
-        <f t="shared" si="122"/>
-        <v>447417.45747043571</v>
+        <f>EI38*(1+$AB$132)</f>
+        <v>396101.36584990344</v>
       </c>
       <c r="EK38" s="2">
-        <f t="shared" si="122"/>
-        <v>451891.63204514008</v>
+        <f>EJ38*(1+$AB$132)</f>
+        <v>400062.37950840249</v>
       </c>
       <c r="EL38" s="2">
-        <f t="shared" si="122"/>
-        <v>456410.5483655915</v>
+        <f>EK38*(1+$AB$132)</f>
+        <v>404063.0033034865</v>
       </c>
       <c r="EM38" s="2">
-        <f t="shared" si="122"/>
-        <v>460974.65384924744</v>
+        <f>EL38*(1+$AB$132)</f>
+        <v>408103.63333652139</v>
       </c>
       <c r="EN38" s="2">
-        <f t="shared" si="122"/>
-        <v>465584.40038773994</v>
+        <f>EM38*(1+$AB$132)</f>
+        <v>412184.66966988659</v>
       </c>
       <c r="EO38" s="2">
-        <f t="shared" si="122"/>
-        <v>470240.24439161737</v>
+        <f>EN38*(1+$AB$132)</f>
+        <v>416306.51636658545</v>
       </c>
       <c r="EP38" s="2">
-        <f t="shared" si="122"/>
-        <v>474942.64683553355</v>
+        <f>EO38*(1+$AB$132)</f>
+        <v>420469.58153025131</v>
       </c>
       <c r="EQ38" s="2">
-        <f t="shared" si="122"/>
-        <v>479692.0733038889</v>
+        <f>EP38*(1+$AB$132)</f>
+        <v>424674.2773455538</v>
       </c>
       <c r="ER38" s="2">
-        <f t="shared" si="122"/>
-        <v>484488.99403692782</v>
+        <f>EQ38*(1+$AB$132)</f>
+        <v>428921.02011900936</v>
       </c>
       <c r="ES38" s="2">
-        <f t="shared" si="122"/>
-        <v>489333.88397729711</v>
+        <f>ER38*(1+$AB$132)</f>
+        <v>433210.23032019945</v>
       </c>
       <c r="ET38" s="2">
-        <f t="shared" si="122"/>
-        <v>494227.22281707008</v>
+        <f>ES38*(1+$AB$132)</f>
+        <v>437542.33262340142</v>
       </c>
       <c r="EU38" s="2">
-        <f t="shared" si="122"/>
-        <v>499169.49504524079</v>
+        <f>ET38*(1+$AB$132)</f>
+        <v>441917.75594963547</v>
       </c>
       <c r="EV38" s="2">
-        <f t="shared" si="122"/>
-        <v>504161.18999569322</v>
+        <f>EU38*(1+$AB$132)</f>
+        <v>446336.93350913184</v>
       </c>
       <c r="EW38" s="2">
-        <f t="shared" si="122"/>
-        <v>509202.80189565016</v>
+        <f>EV38*(1+$AB$132)</f>
+        <v>450800.30284422316</v>
       </c>
       <c r="EX38" s="2">
-        <f t="shared" ref="EX38:FO38" si="123">EW38*(1+$AB$132)</f>
-        <v>514294.82991460664</v>
+        <f>EW38*(1+$AB$132)</f>
+        <v>455308.30587266537</v>
       </c>
       <c r="EY38" s="2">
-        <f t="shared" si="123"/>
-        <v>519437.77821375272</v>
+        <f>EX38*(1+$AB$132)</f>
+        <v>459861.38893139205</v>
       </c>
       <c r="EZ38" s="2">
-        <f t="shared" si="123"/>
-        <v>524632.15599589027</v>
+        <f>EY38*(1+$AB$132)</f>
+        <v>464460.00282070599</v>
       </c>
       <c r="FA38" s="2">
-        <f t="shared" si="123"/>
-        <v>529878.47755584912</v>
+        <f>EZ38*(1+$AB$132)</f>
+        <v>469104.60284891305</v>
       </c>
       <c r="FB38" s="2">
-        <f t="shared" si="123"/>
-        <v>535177.26233140763</v>
+        <f>FA38*(1+$AB$132)</f>
+        <v>473795.64887740219</v>
       </c>
       <c r="FC38" s="2">
-        <f t="shared" si="123"/>
-        <v>540529.03495472169</v>
+        <f>FB38*(1+$AB$132)</f>
+        <v>478533.60536617623</v>
       </c>
       <c r="FD38" s="2">
-        <f t="shared" si="123"/>
-        <v>545934.32530426886</v>
+        <f>FC38*(1+$AB$132)</f>
+        <v>483318.941419838</v>
       </c>
       <c r="FE38" s="2">
-        <f t="shared" si="123"/>
-        <v>551393.66855731152</v>
+        <f>FD38*(1+$AB$132)</f>
+        <v>488152.13083403639</v>
       </c>
       <c r="FF38" s="2">
-        <f t="shared" si="123"/>
-        <v>556907.6052428846</v>
+        <f>FE38*(1+$AB$132)</f>
+        <v>493033.65214237676</v>
       </c>
       <c r="FG38" s="2">
-        <f t="shared" si="123"/>
-        <v>562476.68129531341</v>
+        <f>FF38*(1+$AB$132)</f>
+        <v>497963.98866380053</v>
       </c>
       <c r="FH38" s="2">
-        <f t="shared" si="123"/>
-        <v>568101.44810826657</v>
+        <f>FG38*(1+$AB$132)</f>
+        <v>502943.62855043856</v>
       </c>
       <c r="FI38" s="2">
-        <f t="shared" si="123"/>
-        <v>573782.46258934925</v>
+        <f>FH38*(1+$AB$132)</f>
+        <v>507973.06483594293</v>
       </c>
       <c r="FJ38" s="2">
-        <f t="shared" si="123"/>
-        <v>579520.28721524274</v>
+        <f>FI38*(1+$AB$132)</f>
+        <v>513052.79548430239</v>
       </c>
       <c r="FK38" s="2">
-        <f t="shared" si="123"/>
-        <v>585315.49008739518</v>
+        <f>FJ38*(1+$AB$132)</f>
+        <v>518183.3234391454</v>
       </c>
       <c r="FL38" s="2">
-        <f t="shared" si="123"/>
-        <v>591168.6449882692</v>
+        <f>FK38*(1+$AB$132)</f>
+        <v>523365.15667353687</v>
       </c>
       <c r="FM38" s="2">
-        <f t="shared" si="123"/>
-        <v>597080.33143815189</v>
+        <f>FL38*(1+$AB$132)</f>
+        <v>528598.80824027222</v>
       </c>
       <c r="FN38" s="2">
-        <f t="shared" si="123"/>
-        <v>603051.1347525334</v>
+        <f>FM38*(1+$AB$132)</f>
+        <v>533884.79632267496</v>
       </c>
       <c r="FO38" s="2">
-        <f t="shared" si="123"/>
-        <v>609081.64610005869</v>
+        <f>FN38*(1+$AB$132)</f>
+        <v>539223.64428590168</v>
       </c>
     </row>
     <row r="39" spans="2:171" x14ac:dyDescent="0.2">
@@ -4934,11 +4934,11 @@
         <v>2864160</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" ref="S42:T42" si="124">R42*1.2</f>
+        <f t="shared" ref="S42:T42" si="113">R42*1.2</f>
         <v>3436992</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="113"/>
         <v>4124390.4</v>
       </c>
       <c r="U42" s="2">
@@ -4946,19 +4946,19 @@
         <v>4330609.92</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:Y42" si="125">U42*1.05</f>
+        <f t="shared" ref="V42:Y42" si="114">U42*1.05</f>
         <v>4547140.4160000002</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="114"/>
         <v>4774497.4368000003</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="114"/>
         <v>5013222.3086400004</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="114"/>
         <v>5263883.4240720002</v>
       </c>
     </row>
@@ -4990,19 +4990,19 @@
         <v>241576.50000000012</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" ref="V43:Y43" si="126">U43*1.1</f>
+        <f t="shared" ref="V43:Y43" si="115">U43*1.1</f>
         <v>265734.15000000014</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="115"/>
         <v>292307.56500000018</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="115"/>
         <v>321538.32150000019</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="115"/>
         <v>353692.15365000023</v>
       </c>
     </row>
@@ -5038,19 +5038,19 @@
         <v>675000</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" ref="V44:Y44" si="127">U44*1.5</f>
+        <f t="shared" ref="V44:Y44" si="116">U44*1.5</f>
         <v>1012500</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="116"/>
         <v>1518750</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="116"/>
         <v>2278125</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="116"/>
         <v>3417187.5</v>
       </c>
     </row>
@@ -5066,31 +5066,31 @@
         <v>55000.000000000007</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" ref="S45:U45" si="128">R45*1.1</f>
+        <f t="shared" ref="S45:U45" si="117">R45*1.1</f>
         <v>60500.000000000015</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="117"/>
         <v>66550.000000000015</v>
       </c>
       <c r="U45" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="117"/>
         <v>73205.000000000029</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" ref="V45" si="129">U45*1.1</f>
+        <f t="shared" ref="V45" si="118">U45*1.1</f>
         <v>80525.500000000044</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" ref="W45" si="130">V45*1.1</f>
+        <f t="shared" ref="W45" si="119">V45*1.1</f>
         <v>88578.050000000061</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" ref="X45" si="131">W45*1.1</f>
+        <f t="shared" ref="X45" si="120">W45*1.1</f>
         <v>97435.855000000069</v>
       </c>
       <c r="Y45" s="2">
-        <f t="shared" ref="Y45" si="132">X45*1.1</f>
+        <f t="shared" ref="Y45" si="121">X45*1.1</f>
         <v>107179.44050000008</v>
       </c>
     </row>
@@ -5106,59 +5106,59 @@
         <v>459000</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ref="L46:U46" si="133">SUM(L42:L45)</f>
+        <f t="shared" ref="L46:U46" si="122">SUM(L42:L45)</f>
         <v>906032</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>1298434</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>1775159</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>1679338</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>2036000</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>2701800</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>3300660</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>3997142</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>4860555.4000000004</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="122"/>
         <v>5320391.42</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" ref="V46:Y46" si="134">SUM(V42:V45)</f>
+        <f t="shared" ref="V46:Y46" si="123">SUM(V42:V45)</f>
         <v>5905900.0660000006</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="123"/>
         <v>6674133.0518000005</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="123"/>
         <v>7710321.4851400014</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="123"/>
         <v>9141942.5182220004</v>
       </c>
     </row>
@@ -5175,35 +5175,35 @@
         <v>47279.055199132039</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:U47" si="135">Q47*1.01</f>
+        <f t="shared" ref="R47:U47" si="124">Q47*1.01</f>
         <v>47751.845751123357</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="124"/>
         <v>48229.364208634594</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="124"/>
         <v>48711.657850720941</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="124"/>
         <v>49198.77442922815</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" ref="V47:V50" si="136">U47*1.01</f>
+        <f t="shared" ref="V47:V50" si="125">U47*1.01</f>
         <v>49690.76217352043</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" ref="W47:W50" si="137">V47*1.01</f>
+        <f t="shared" ref="W47:W50" si="126">V47*1.01</f>
         <v>50187.669795255635</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" ref="X47:X50" si="138">W47*1.01</f>
+        <f t="shared" ref="X47:X50" si="127">W47*1.01</f>
         <v>50689.546493208189</v>
       </c>
       <c r="Y47" s="2">
-        <f t="shared" ref="Y47:Y50" si="139">X47*1.01</f>
+        <f t="shared" ref="Y47:Y50" si="128">X47*1.01</f>
         <v>51196.441958140269</v>
       </c>
       <c r="AA47" s="2" t="s">
@@ -5225,35 +5225,35 @@
         <v>65650</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" ref="R48:U48" si="140">Q48*1.01</f>
+        <f t="shared" ref="R48:U48" si="129">Q48*1.01</f>
         <v>66306.5</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="129"/>
         <v>66969.565000000002</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="129"/>
         <v>67639.260649999997</v>
       </c>
       <c r="U48" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="129"/>
         <v>68315.653256499994</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="125"/>
         <v>68998.809789064995</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="126"/>
         <v>69688.797886955639</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="127"/>
         <v>70385.685865825202</v>
       </c>
       <c r="Y48" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="128"/>
         <v>71089.542724483457</v>
       </c>
       <c r="AA48" s="2" t="s">
@@ -5275,35 +5275,35 @@
         <v>30300</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" ref="R49:U49" si="141">Q49*1.01</f>
+        <f t="shared" ref="R49:U49" si="130">Q49*1.01</f>
         <v>30603</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="130"/>
         <v>30909.03</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="130"/>
         <v>31218.120299999999</v>
       </c>
       <c r="U49" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="130"/>
         <v>31530.301502999999</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="125"/>
         <v>31845.604518029999</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="126"/>
         <v>32164.0605632103</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="127"/>
         <v>32485.701168842403</v>
       </c>
       <c r="Y49" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="128"/>
         <v>32810.558180530825</v>
       </c>
       <c r="AA49" s="4" t="s">
@@ -5326,35 +5326,35 @@
         <v>166650</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" ref="R50:U50" si="142">Q50*1.01</f>
+        <f t="shared" ref="R50:U50" si="131">Q50*1.01</f>
         <v>168316.5</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="131"/>
         <v>169999.66500000001</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="131"/>
         <v>171699.66165000002</v>
       </c>
       <c r="U50" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="131"/>
         <v>173416.65826650002</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="125"/>
         <v>175150.82484916502</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="126"/>
         <v>176902.33309765666</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="127"/>
         <v>178671.35642863324</v>
       </c>
       <c r="Y50" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="128"/>
         <v>180458.06999291957</v>
       </c>
     </row>
@@ -5367,43 +5367,43 @@
         <v>43132.897603485842</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:U51" si="143">P45+P43+P42</f>
+        <f t="shared" ref="P51:U51" si="132">P45+P43+P42</f>
         <v>1986000</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="132"/>
         <v>2601800</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="132"/>
         <v>3100660</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="132"/>
         <v>3697142</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="132"/>
         <v>4410555.4000000004</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="132"/>
         <v>4645391.42</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" ref="V51:Y51" si="144">V45+V43+V42</f>
+        <f t="shared" ref="V51:Y51" si="133">V45+V43+V42</f>
         <v>4893400.0660000006</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="133"/>
         <v>5155383.0518000005</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="133"/>
         <v>5432196.4851400005</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="133"/>
         <v>5724755.0182220004</v>
       </c>
     </row>
@@ -5432,39 +5432,39 @@
         <v>47269.876582319936</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:U52" si="145">P52*1.03</f>
+        <f t="shared" ref="Q52:U52" si="134">P52*1.03</f>
         <v>48687.972879789537</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="134"/>
         <v>50148.612066183225</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="134"/>
         <v>51653.070428168721</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="134"/>
         <v>53202.662541013786</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="134"/>
         <v>54798.742417244204</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52" si="146">U52*1.03</f>
+        <f t="shared" ref="V52" si="135">U52*1.03</f>
         <v>56442.704689761529</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" ref="W52" si="147">V52*1.03</f>
+        <f t="shared" ref="W52" si="136">V52*1.03</f>
         <v>58135.985830454374</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" ref="X52" si="148">W52*1.03</f>
+        <f t="shared" ref="X52" si="137">W52*1.03</f>
         <v>59880.065405368005</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" ref="Y52" si="149">X52*1.03</f>
+        <f t="shared" ref="Y52" si="138">X52*1.03</f>
         <v>61676.467367529047</v>
       </c>
     </row>
@@ -5473,43 +5473,43 @@
         <v>12</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" ref="P54:U54" si="150">P42*(P47/1000000)</f>
+        <f t="shared" ref="P54:U54" si="139">P42*(P47/1000000)</f>
         <v>85944.896381788538</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="139"/>
         <v>112845.64894928834</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="139"/>
         <v>136768.92652653749</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="139"/>
         <v>165763.93895016343</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="139"/>
         <v>200905.89400759808</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="139"/>
         <v>213060.70059505774</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" ref="V54:Y54" si="151">V42*(V47/1000000)</f>
+        <f t="shared" ref="V54:Y54" si="140">V42*(V47/1000000)</f>
         <v>225950.87298105878</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="151"/>
+        <f t="shared" si="140"/>
         <v>239620.90079641284</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="151"/>
+        <f t="shared" si="140"/>
         <v>254117.96529459581</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="151"/>
+        <f t="shared" si="140"/>
         <v>269492.10219491884</v>
       </c>
     </row>
@@ -5518,43 +5518,43 @@
         <v>52</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" ref="P55:U55" si="152">P43*(P48/1000000)</f>
+        <f t="shared" ref="P55:U55" si="141">P43*(P48/1000000)</f>
         <v>9750</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="141"/>
         <v>10832.25</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="141"/>
         <v>12034.629750000002</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="141"/>
         <v>13370.473652250006</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="141"/>
         <v>14854.596227649754</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="141"/>
         <v>16503.456408918879</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" ref="V55:Y55" si="153">V43*(V48/1000000)</f>
+        <f t="shared" ref="V55:Y55" si="142">V43*(V48/1000000)</f>
         <v>18335.340070308877</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="142"/>
         <v>20370.562818113161</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="142"/>
         <v>22631.695290923726</v>
       </c>
       <c r="Y55" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="142"/>
         <v>25143.813468216256</v>
       </c>
     </row>
@@ -5563,539 +5563,539 @@
         <v>53</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" ref="P56:U56" si="154">P44*(P49/1000000)</f>
+        <f t="shared" ref="P56:U56" si="143">P44*(P49/1000000)</f>
         <v>1500</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="154"/>
+        <f t="shared" si="143"/>
         <v>3030</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="154"/>
+        <f t="shared" si="143"/>
         <v>6120.6</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="154"/>
+        <f t="shared" si="143"/>
         <v>9272.7090000000007</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="154"/>
+        <f t="shared" si="143"/>
         <v>14048.154134999999</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="154"/>
+        <f t="shared" si="143"/>
         <v>21282.953514525001</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56:Y56" si="155">V44*(V49/1000000)</f>
+        <f t="shared" ref="V56:Y56" si="144">V44*(V49/1000000)</f>
         <v>32243.674574505374</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="155"/>
+        <f t="shared" si="144"/>
         <v>48849.166980375645</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="155"/>
+        <f t="shared" si="144"/>
         <v>74006.487975269105</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" si="155"/>
+        <f t="shared" si="144"/>
         <v>112119.82928253268</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" ref="Z56:BE56" si="156">Y56*(1+$AB$47)</f>
+        <f t="shared" ref="Z56:BE56" si="145">Y56*(1+$AB$47)</f>
         <v>113241.02757535801</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>114373.43785111159</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>115517.17222962271</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>116672.34395191894</v>
       </c>
       <c r="AD56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>117839.06739143813</v>
       </c>
       <c r="AE56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>119017.45806535252</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>120207.63264600605</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>121409.70897246612</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>122623.80606219078</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>123850.04412281269</v>
       </c>
       <c r="AJ56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>125088.54456404081</v>
       </c>
       <c r="AK56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>126339.43000968122</v>
       </c>
       <c r="AL56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>127602.82430977804</v>
       </c>
       <c r="AM56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>128878.85255287582</v>
       </c>
       <c r="AN56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>130167.64107840457</v>
       </c>
       <c r="AO56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>131469.31748918863</v>
       </c>
       <c r="AP56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>132784.01066408053</v>
       </c>
       <c r="AQ56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>134111.85077072133</v>
       </c>
       <c r="AR56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>135452.96927842853</v>
       </c>
       <c r="AS56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>136807.49897121283</v>
       </c>
       <c r="AT56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>138175.57396092496</v>
       </c>
       <c r="AU56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>139557.3297005342</v>
       </c>
       <c r="AV56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>140952.90299753955</v>
       </c>
       <c r="AW56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>142362.43202751494</v>
       </c>
       <c r="AX56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>143786.05634779009</v>
       </c>
       <c r="AY56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>145223.916911268</v>
       </c>
       <c r="AZ56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>146676.15608038066</v>
       </c>
       <c r="BA56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>148142.91764118447</v>
       </c>
       <c r="BB56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>149624.34681759632</v>
       </c>
       <c r="BC56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>151120.59028577228</v>
       </c>
       <c r="BD56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>152631.79618863002</v>
       </c>
       <c r="BE56" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="145"/>
         <v>154158.11415051631</v>
       </c>
       <c r="BF56" s="2">
-        <f t="shared" ref="BF56:CK56" si="157">BE56*(1+$AB$47)</f>
+        <f t="shared" ref="BF56:CK56" si="146">BE56*(1+$AB$47)</f>
         <v>155699.69529202147</v>
       </c>
       <c r="BG56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>157256.69224494169</v>
       </c>
       <c r="BH56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>158829.25916739111</v>
       </c>
       <c r="BI56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>160417.55175906501</v>
       </c>
       <c r="BJ56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>162021.72727665567</v>
       </c>
       <c r="BK56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>163641.94454942222</v>
       </c>
       <c r="BL56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>165278.36399491644</v>
       </c>
       <c r="BM56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>166931.1476348656</v>
       </c>
       <c r="BN56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>168600.45911121427</v>
       </c>
       <c r="BO56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>170286.46370232641</v>
       </c>
       <c r="BP56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>171989.32833934968</v>
       </c>
       <c r="BQ56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>173709.22162274318</v>
       </c>
       <c r="BR56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>175446.31383897061</v>
       </c>
       <c r="BS56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>177200.77697736034</v>
       </c>
       <c r="BT56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>178972.78474713393</v>
       </c>
       <c r="BU56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>180762.51259460527</v>
       </c>
       <c r="BV56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>182570.13772055131</v>
       </c>
       <c r="BW56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>184395.83909775683</v>
       </c>
       <c r="BX56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>186239.79748873442</v>
       </c>
       <c r="BY56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>188102.19546362176</v>
       </c>
       <c r="BZ56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>189983.21741825796</v>
       </c>
       <c r="CA56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>191883.04959244054</v>
       </c>
       <c r="CB56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>193801.88008836494</v>
       </c>
       <c r="CC56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>195739.89888924858</v>
       </c>
       <c r="CD56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>197697.29787814108</v>
       </c>
       <c r="CE56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>199674.27085692249</v>
       </c>
       <c r="CF56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>201671.01356549171</v>
       </c>
       <c r="CG56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>203687.72370114663</v>
       </c>
       <c r="CH56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>205724.60093815811</v>
       </c>
       <c r="CI56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>207781.84694753969</v>
       </c>
       <c r="CJ56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>209859.66541701509</v>
       </c>
       <c r="CK56" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="146"/>
         <v>211958.26207118525</v>
       </c>
       <c r="CL56" s="2">
-        <f t="shared" ref="CL56:DQ56" si="158">CK56*(1+$AB$47)</f>
+        <f t="shared" ref="CL56:DQ56" si="147">CK56*(1+$AB$47)</f>
         <v>214077.8446918971</v>
       </c>
       <c r="CM56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>216218.62313881607</v>
       </c>
       <c r="CN56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>218380.80937020422</v>
       </c>
       <c r="CO56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>220564.61746390627</v>
       </c>
       <c r="CP56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>222770.26363854532</v>
       </c>
       <c r="CQ56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>224997.96627493078</v>
       </c>
       <c r="CR56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>227247.94593768008</v>
       </c>
       <c r="CS56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>229520.42539705688</v>
       </c>
       <c r="CT56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>231815.62965102744</v>
       </c>
       <c r="CU56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>234133.78594753772</v>
       </c>
       <c r="CV56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>236475.12380701309</v>
       </c>
       <c r="CW56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>238839.87504508323</v>
       </c>
       <c r="CX56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>241228.27379553407</v>
       </c>
       <c r="CY56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>243640.55653348941</v>
       </c>
       <c r="CZ56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>246076.9620988243</v>
       </c>
       <c r="DA56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>248537.73171981255</v>
       </c>
       <c r="DB56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>251023.10903701067</v>
       </c>
       <c r="DC56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>253533.34012738077</v>
       </c>
       <c r="DD56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>256068.67352865459</v>
       </c>
       <c r="DE56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>258629.36026394114</v>
       </c>
       <c r="DF56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>261215.65386658054</v>
       </c>
       <c r="DG56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>263827.81040524633</v>
       </c>
       <c r="DH56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>266466.0885092988</v>
       </c>
       <c r="DI56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>269130.74939439178</v>
       </c>
       <c r="DJ56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>271822.05688833568</v>
       </c>
       <c r="DK56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>274540.27745721902</v>
       </c>
       <c r="DL56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>277285.68023179122</v>
       </c>
       <c r="DM56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>280058.53703410912</v>
       </c>
       <c r="DN56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>282859.1224044502</v>
       </c>
       <c r="DO56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>285687.7136284947</v>
       </c>
       <c r="DP56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>288544.59076477966</v>
       </c>
       <c r="DQ56" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="147"/>
         <v>291430.03667242744</v>
       </c>
       <c r="DR56" s="2">
-        <f t="shared" ref="DR56:ES56" si="159">DQ56*(1+$AB$47)</f>
+        <f t="shared" ref="DR56:ES56" si="148">DQ56*(1+$AB$47)</f>
         <v>294344.33703915169</v>
       </c>
       <c r="DS56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>297287.78040954319</v>
       </c>
       <c r="DT56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>300260.65821363864</v>
       </c>
       <c r="DU56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>303263.26479577506</v>
       </c>
       <c r="DV56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>306295.89744373283</v>
       </c>
       <c r="DW56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>309358.85641817015</v>
       </c>
       <c r="DX56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>312452.44498235185</v>
       </c>
       <c r="DY56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>315576.96943217539</v>
       </c>
       <c r="DZ56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>318732.73912649712</v>
       </c>
       <c r="EA56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>321920.06651776208</v>
       </c>
       <c r="EB56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>325139.26718293969</v>
       </c>
       <c r="EC56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>328390.65985476907</v>
       </c>
       <c r="ED56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>331674.56645331677</v>
       </c>
       <c r="EE56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>334991.31211784994</v>
       </c>
       <c r="EF56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>338341.22523902846</v>
       </c>
       <c r="EG56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>341724.63749141875</v>
       </c>
       <c r="EH56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>345141.88386633294</v>
       </c>
       <c r="EI56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>348593.30270499625</v>
       </c>
       <c r="EJ56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>352079.23573204625</v>
       </c>
       <c r="EK56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>355600.02808936674</v>
       </c>
       <c r="EL56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>359156.02837026044</v>
       </c>
       <c r="EM56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>362747.58865396306</v>
       </c>
       <c r="EN56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>366375.06454050267</v>
       </c>
       <c r="EO56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>370038.8151859077</v>
       </c>
       <c r="EP56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>373739.20333776681</v>
       </c>
       <c r="EQ56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>377476.59537114447</v>
       </c>
       <c r="ER56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>381251.36132485594</v>
       </c>
       <c r="ES56" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="148"/>
         <v>385063.87493810448</v>
       </c>
     </row>
@@ -6104,43 +6104,43 @@
         <v>54</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" ref="P57:U57" si="160">P45*(P50/1000000)</f>
+        <f t="shared" ref="P57:U57" si="149">P45*(P50/1000000)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="149"/>
         <v>8332.5</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="149"/>
         <v>9257.4075000000012</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="149"/>
         <v>10284.979732500004</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="149"/>
         <v>11426.612482807504</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="149"/>
         <v>12694.96646839914</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" ref="V57:Y57" si="161">V45*(V50/1000000)</f>
+        <f t="shared" ref="V57:Y57" si="150">V45*(V50/1000000)</f>
         <v>14104.107746391446</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="150"/>
         <v>15669.663706240897</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="150"/>
         <v>17408.996377633637</v>
       </c>
       <c r="Y57" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="150"/>
         <v>19341.394975550975</v>
       </c>
     </row>
@@ -6209,43 +6209,43 @@
         <v>62</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" ref="P61:U61" si="162">(8000*SUM(P42:P45)*P66)/1000000</f>
+        <f t="shared" ref="P61:U61" si="151">(8000*SUM(P42:P45)*P66)/1000000</f>
         <v>3909.12</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="151"/>
         <v>6224.9471999999996</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="151"/>
         <v>9125.6647679999987</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="151"/>
         <v>13261.557841919997</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="151"/>
         <v>19351.387540684795</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="151"/>
         <v>23300.352025657336</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" ref="V61:Y61" si="163">(8000*SUM(V42:V45)*V66)/1000000</f>
+        <f t="shared" ref="V61:Y61" si="152">(8000*SUM(V42:V45)*V66)/1000000</f>
         <v>27157.781578119411</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="152"/>
         <v>32224.957737084831</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="152"/>
         <v>39089.424974455884</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="152"/>
         <v>48664.759403265707</v>
       </c>
     </row>
@@ -6258,39 +6258,39 @@
         <v>39.322800000000001</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" ref="Q62:U62" si="164">((99*Q51)/(1000000))*Q67</f>
+        <f t="shared" ref="Q62:U62" si="153">((99*Q51)/(1000000))*Q67</f>
         <v>61.818767999999992</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="153"/>
         <v>88.406017919999996</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="153"/>
         <v>126.4954952448</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="153"/>
         <v>181.08540801331199</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="153"/>
         <v>209.79984986459132</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" ref="V62:Y62" si="165">((99*V51)/(1000000))*V67</f>
+        <f t="shared" ref="V62:Y62" si="154">((99*V51)/(1000000))*V67</f>
         <v>232.05069964435646</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="154"/>
         <v>256.69794812768737</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="154"/>
         <v>284.00515760487639</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="154"/>
         <v>314.26568487156283</v>
       </c>
     </row>
@@ -6303,39 +6303,39 @@
         <v>3948.4427999999998</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" ref="Q63:T63" si="166">SUM(Q61:Q62)</f>
+        <f t="shared" ref="Q63:T63" si="155">SUM(Q61:Q62)</f>
         <v>6286.7659679999997</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="155"/>
         <v>9214.0707859199993</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="155"/>
         <v>13388.053337164798</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="155"/>
         <v>19532.472948698105</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" ref="U63:Y63" si="167">SUM(U61:U62)</f>
+        <f t="shared" ref="U63:Y63" si="156">SUM(U61:U62)</f>
         <v>23510.151875521926</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="156"/>
         <v>27389.83227776377</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="156"/>
         <v>32481.655685212518</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="156"/>
         <v>39373.430132060763</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="156"/>
         <v>48979.02508813727</v>
       </c>
     </row>
@@ -6348,515 +6348,515 @@
         <v>3158.7542400000002</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" ref="Q64:U64" si="168">Q63*Q68</f>
+        <f t="shared" ref="Q64:U64" si="157">Q63*Q68</f>
         <v>5029.4127743999998</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="157"/>
         <v>7371.2566287359996</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="157"/>
         <v>10710.442669731839</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="157"/>
         <v>15625.978358958484</v>
       </c>
       <c r="U64" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="157"/>
         <v>18808.121500417543</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" ref="V64:Y64" si="169">V63*V68</f>
+        <f t="shared" ref="V64:Y64" si="158">V63*V68</f>
         <v>21911.865822211017</v>
       </c>
       <c r="W64" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="158"/>
         <v>25985.324548170014</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="158"/>
         <v>31498.744105648613</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="158"/>
         <v>39183.220070509815</v>
       </c>
       <c r="Z64" s="2">
-        <f t="shared" ref="Z64:BE64" si="170">Y64*(1+$AB$69)</f>
+        <f t="shared" ref="Z64:BE64" si="159">Y64*(1+$AB$69)</f>
         <v>39575.05227121491</v>
       </c>
       <c r="AA64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>39970.802793927061</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>40370.51082186633</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>40774.215930084996</v>
       </c>
       <c r="AD64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>41181.958089385844</v>
       </c>
       <c r="AE64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>41593.777670279705</v>
       </c>
       <c r="AF64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>42009.715446982504</v>
       </c>
       <c r="AG64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>42429.81260145233</v>
       </c>
       <c r="AH64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>42854.110727466854</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>43282.651834741526</v>
       </c>
       <c r="AJ64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>43715.47835308894</v>
       </c>
       <c r="AK64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>44152.633136619828</v>
       </c>
       <c r="AL64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>44594.159467986028</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>45040.10106266589</v>
       </c>
       <c r="AN64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>45490.502073292548</v>
       </c>
       <c r="AO64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>45945.407094025475</v>
       </c>
       <c r="AP64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>46404.861164965732</v>
       </c>
       <c r="AQ64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>46868.909776615394</v>
       </c>
       <c r="AR64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>47337.598874381547</v>
       </c>
       <c r="AS64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>47810.974863125361</v>
       </c>
       <c r="AT64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>48289.084611756618</v>
       </c>
       <c r="AU64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>48771.975457874185</v>
       </c>
       <c r="AV64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>49259.695212452927</v>
       </c>
       <c r="AW64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>49752.292164577455</v>
       </c>
       <c r="AX64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>50249.815086223229</v>
       </c>
       <c r="AY64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>50752.313237085458</v>
       </c>
       <c r="AZ64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>51259.836369456316</v>
       </c>
       <c r="BA64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>51772.434733150876</v>
       </c>
       <c r="BB64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>52290.159080482386</v>
       </c>
       <c r="BC64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>52813.06067128721</v>
       </c>
       <c r="BD64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>53341.191278000086</v>
       </c>
       <c r="BE64" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="159"/>
         <v>53874.603190780086</v>
       </c>
       <c r="BF64" s="2">
-        <f t="shared" ref="BF64:CK64" si="171">BE64*(1+$AB$69)</f>
+        <f t="shared" ref="BF64:CK64" si="160">BE64*(1+$AB$69)</f>
         <v>54413.349222687888</v>
       </c>
       <c r="BG64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>54957.482714914768</v>
       </c>
       <c r="BH64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>55507.057542063914</v>
       </c>
       <c r="BI64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>56062.128117484557</v>
       </c>
       <c r="BJ64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>56622.749398659405</v>
       </c>
       <c r="BK64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>57188.976892646002</v>
       </c>
       <c r="BL64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>57760.866661572465</v>
       </c>
       <c r="BM64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>58338.475328188193</v>
       </c>
       <c r="BN64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>58921.860081470077</v>
       </c>
       <c r="BO64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>59511.07868228478</v>
       </c>
       <c r="BP64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>60106.18946910763</v>
       </c>
       <c r="BQ64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>60707.251363798707</v>
       </c>
       <c r="BR64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>61314.323877436691</v>
       </c>
       <c r="BS64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>61927.467116211061</v>
       </c>
       <c r="BT64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>62546.741787373168</v>
       </c>
       <c r="BU64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>63172.209205246902</v>
       </c>
       <c r="BV64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>63803.931297299372</v>
       </c>
       <c r="BW64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>64441.970610272365</v>
       </c>
       <c r="BX64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>65086.390316375087</v>
       </c>
       <c r="BY64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>65737.254219538838</v>
       </c>
       <c r="BZ64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>66394.626761734224</v>
       </c>
       <c r="CA64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>67058.573029351566</v>
       </c>
       <c r="CB64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>67729.158759645085</v>
       </c>
       <c r="CC64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>68406.450347241538</v>
       </c>
       <c r="CD64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>69090.514850713953</v>
       </c>
       <c r="CE64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>69781.419999221092</v>
       </c>
       <c r="CF64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>70479.234199213301</v>
       </c>
       <c r="CG64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>71184.026541205429</v>
       </c>
       <c r="CH64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>71895.866806617487</v>
       </c>
       <c r="CI64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>72614.825474683661</v>
       </c>
       <c r="CJ64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>73340.973729430494</v>
       </c>
       <c r="CK64" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="160"/>
         <v>74074.383466724801</v>
       </c>
       <c r="CL64" s="2">
-        <f t="shared" ref="CL64:DQ64" si="172">CK64*(1+$AB$69)</f>
+        <f t="shared" ref="CL64:DQ64" si="161">CK64*(1+$AB$69)</f>
         <v>74815.127301392044</v>
       </c>
       <c r="CM64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>75563.278574405966</v>
       </c>
       <c r="CN64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>76318.911360150028</v>
       </c>
       <c r="CO64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>77082.100473751532</v>
       </c>
       <c r="CP64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>77852.92147848905</v>
       </c>
       <c r="CQ64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>78631.450693273946</v>
       </c>
       <c r="CR64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>79417.76520020669</v>
       </c>
       <c r="CS64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>80211.942852208755</v>
       </c>
       <c r="CT64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>81014.062280730839</v>
       </c>
       <c r="CU64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>81824.202903538142</v>
       </c>
       <c r="CV64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>82642.444932573519</v>
       </c>
       <c r="CW64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>83468.869381899261</v>
       </c>
       <c r="CX64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>84303.558075718262</v>
       </c>
       <c r="CY64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>85146.593656475452</v>
       </c>
       <c r="CZ64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>85998.059593040205</v>
       </c>
       <c r="DA64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>86858.040188970612</v>
       </c>
       <c r="DB64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>87726.620590860315</v>
       </c>
       <c r="DC64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>88603.886796768915</v>
       </c>
       <c r="DD64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>89489.925664736598</v>
       </c>
       <c r="DE64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>90384.824921383959</v>
       </c>
       <c r="DF64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>91288.673170597802</v>
       </c>
       <c r="DG64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>92201.559902303779</v>
       </c>
       <c r="DH64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>93123.575501326821</v>
       </c>
       <c r="DI64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>94054.811256340094</v>
       </c>
       <c r="DJ64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>94995.35936890349</v>
       </c>
       <c r="DK64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>95945.312962592521</v>
       </c>
       <c r="DL64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>96904.766092218444</v>
       </c>
       <c r="DM64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>97873.813753140625</v>
       </c>
       <c r="DN64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>98852.551890672024</v>
       </c>
       <c r="DO64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>99841.077409578749</v>
       </c>
       <c r="DP64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>100839.48818367453</v>
       </c>
       <c r="DQ64" s="2">
-        <f t="shared" si="172"/>
+        <f t="shared" si="161"/>
         <v>101847.88306551128</v>
       </c>
       <c r="DR64" s="2">
-        <f t="shared" ref="DR64:EN64" si="173">DQ64*(1+$AB$69)</f>
+        <f t="shared" ref="DR64:EN64" si="162">DQ64*(1+$AB$69)</f>
         <v>102866.3618961664</v>
       </c>
       <c r="DS64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>103895.02551512807</v>
       </c>
       <c r="DT64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>104933.97577027936</v>
       </c>
       <c r="DU64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>105983.31552798215</v>
       </c>
       <c r="DV64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>107043.14868326197</v>
       </c>
       <c r="DW64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>108113.58017009459</v>
       </c>
       <c r="DX64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>109194.71597179554</v>
       </c>
       <c r="DY64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>110286.66313151349</v>
       </c>
       <c r="DZ64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>111389.52976282862</v>
       </c>
       <c r="EA64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>112503.42506045691</v>
       </c>
       <c r="EB64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>113628.45931106148</v>
       </c>
       <c r="EC64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>114764.74390417209</v>
       </c>
       <c r="ED64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>115912.39134321382</v>
       </c>
       <c r="EE64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>117071.51525664596</v>
       </c>
       <c r="EF64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>118242.23040921243</v>
       </c>
       <c r="EG64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>119424.65271330455</v>
       </c>
       <c r="EH64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>120618.89924043759</v>
       </c>
       <c r="EI64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>121825.08823284197</v>
       </c>
       <c r="EJ64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>123043.33911517038</v>
       </c>
       <c r="EK64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>124273.77250632209</v>
       </c>
       <c r="EL64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>125516.51023138531</v>
       </c>
       <c r="EM64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>126771.67533369917</v>
       </c>
       <c r="EN64" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="162"/>
         <v>128039.39208703616</v>
       </c>
     </row>
@@ -6876,11 +6876,11 @@
         <v>0.34559999999999996</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" ref="S66:T66" si="174">R66*1.2</f>
+        <f t="shared" ref="S66:T66" si="163">R66*1.2</f>
         <v>0.41471999999999992</v>
       </c>
       <c r="T66" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="163"/>
         <v>0.49766399999999988</v>
       </c>
       <c r="U66" s="6">
@@ -6892,15 +6892,15 @@
         <v>0.57480191999999986</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" ref="W66:Y66" si="175">V66*1.05</f>
+        <f t="shared" ref="W66:Y66" si="164">V66*1.05</f>
         <v>0.6035420159999999</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="164"/>
         <v>0.63371911679999993</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="164"/>
         <v>0.66540507263999993</v>
       </c>
     </row>
@@ -6920,11 +6920,11 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" ref="S67:T67" si="176">R67*1.2</f>
+        <f t="shared" ref="S67:T67" si="165">R67*1.2</f>
         <v>0.34559999999999996</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="165"/>
         <v>0.41471999999999992</v>
       </c>
       <c r="U67" s="6">
@@ -6936,15 +6936,15 @@
         <v>0.47900159999999997</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" ref="W67:Y67" si="177">V67*1.05</f>
+        <f t="shared" ref="W67:Y67" si="166">V67*1.05</f>
         <v>0.50295168000000001</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="166"/>
         <v>0.52809926400000007</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="166"/>
         <v>0.55450422720000014</v>
       </c>
     </row>
@@ -7018,19 +7018,19 @@
         <v>800000</v>
       </c>
       <c r="V70" s="2">
-        <f t="shared" ref="V70:Y70" si="178">U70*2</f>
+        <f t="shared" ref="V70:Y70" si="167">U70*2</f>
         <v>1600000</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="167"/>
         <v>3200000</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="167"/>
         <v>6400000</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="167"/>
         <v>12800000</v>
       </c>
       <c r="AA70" s="2" t="s">
@@ -7054,30 +7054,30 @@
         <v>25000</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" ref="S71:Y71" si="179">R71*1</f>
+        <f t="shared" ref="S71:Y71" si="168">R71*1</f>
         <v>25000</v>
       </c>
       <c r="T71" s="2">
         <v>20000</v>
       </c>
       <c r="U71" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="168"/>
         <v>20000</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="168"/>
         <v>20000</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="168"/>
         <v>20000</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="168"/>
         <v>20000</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="168"/>
         <v>20000</v>
       </c>
       <c r="AA71" s="4" t="s">
@@ -7100,35 +7100,35 @@
         <v>9800</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" ref="R72:U72" si="180">Q72*0.98</f>
+        <f t="shared" ref="R72:U72" si="169">Q72*0.98</f>
         <v>9604</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="169"/>
         <v>9411.92</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="169"/>
         <v>9223.6815999999999</v>
       </c>
       <c r="U72" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="169"/>
         <v>9039.2079680000006</v>
       </c>
       <c r="V72" s="2">
-        <f t="shared" ref="V72" si="181">U72*0.98</f>
+        <f t="shared" ref="V72" si="170">U72*0.98</f>
         <v>8858.4238086400001</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" ref="W72" si="182">V72*0.98</f>
+        <f t="shared" ref="W72" si="171">V72*0.98</f>
         <v>8681.2553324672008</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" ref="X72" si="183">W72*0.98</f>
+        <f t="shared" ref="X72" si="172">W72*0.98</f>
         <v>8507.6302258178566</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" ref="Y72" si="184">X72*0.98</f>
+        <f t="shared" ref="Y72" si="173">X72*0.98</f>
         <v>8337.4776213014993</v>
       </c>
     </row>
@@ -7141,519 +7141,519 @@
         <v>100</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" ref="Q73:U73" si="185">(Q71-Q72)*Q70/1000000</f>
+        <f t="shared" ref="Q73:U73" si="174">(Q71-Q72)*Q70/1000000</f>
         <v>1010</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="174"/>
         <v>1539.6</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="174"/>
         <v>3117.616</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="174"/>
         <v>4310.52736</v>
       </c>
       <c r="U73" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="174"/>
         <v>8768.6336255999995</v>
       </c>
       <c r="V73" s="2">
-        <f t="shared" ref="V73:Y73" si="186">(V71-V72)*V70/1000000</f>
+        <f t="shared" ref="V73:Y73" si="175">(V71-V72)*V70/1000000</f>
         <v>17826.521906176</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="175"/>
         <v>36219.982936104956</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="175"/>
         <v>73551.166554765718</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="175"/>
         <v>149280.28644734083</v>
       </c>
       <c r="Z73" s="2">
-        <f t="shared" ref="Z73:BE73" si="187">Y73*(1+$AB$76)</f>
+        <f t="shared" ref="Z73:BE73" si="176">Y73*(1+$AB$76)</f>
         <v>150773.08931181423</v>
       </c>
       <c r="AA73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>152280.82020493236</v>
       </c>
       <c r="AB73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>153803.62840698168</v>
       </c>
       <c r="AC73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>155341.6646910515</v>
       </c>
       <c r="AD73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>156895.08133796201</v>
       </c>
       <c r="AE73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>158464.03215134164</v>
       </c>
       <c r="AF73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>160048.67247285505</v>
       </c>
       <c r="AG73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>161649.15919758359</v>
       </c>
       <c r="AH73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>163265.65078955944</v>
       </c>
       <c r="AI73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>164898.30729745503</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>166547.29037042957</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>168212.76327413387</v>
       </c>
       <c r="AL73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>169894.89090687523</v>
       </c>
       <c r="AM73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>171593.83981594397</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>173309.7782141034</v>
       </c>
       <c r="AO73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>175042.87599624443</v>
       </c>
       <c r="AP73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>176793.30475620687</v>
       </c>
       <c r="AQ73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>178561.23780376895</v>
       </c>
       <c r="AR73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>180346.85018180663</v>
       </c>
       <c r="AS73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>182150.3186836247</v>
       </c>
       <c r="AT73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>183971.82187046096</v>
       </c>
       <c r="AU73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>185811.54008916556</v>
       </c>
       <c r="AV73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>187669.65549005722</v>
       </c>
       <c r="AW73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>189546.35204495781</v>
       </c>
       <c r="AX73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>191441.81556540739</v>
       </c>
       <c r="AY73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>193356.23372106146</v>
       </c>
       <c r="AZ73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>195289.79605827207</v>
       </c>
       <c r="BA73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>197242.69401885479</v>
       </c>
       <c r="BB73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>199215.12095904333</v>
       </c>
       <c r="BC73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>201207.27216863376</v>
       </c>
       <c r="BD73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>203219.34489032009</v>
       </c>
       <c r="BE73" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="176"/>
         <v>205251.53833922331</v>
       </c>
       <c r="BF73" s="2">
-        <f t="shared" ref="BF73:CK73" si="188">BE73*(1+$AB$76)</f>
+        <f t="shared" ref="BF73:CK73" si="177">BE73*(1+$AB$76)</f>
         <v>207304.05372261553</v>
       </c>
       <c r="BG73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>209377.09425984169</v>
       </c>
       <c r="BH73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>211470.86520244009</v>
       </c>
       <c r="BI73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>213585.57385446448</v>
       </c>
       <c r="BJ73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>215721.42959300912</v>
       </c>
       <c r="BK73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>217878.6438889392</v>
       </c>
       <c r="BL73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>220057.4303278286</v>
       </c>
       <c r="BM73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>222258.00463110689</v>
       </c>
       <c r="BN73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>224480.58467741797</v>
       </c>
       <c r="BO73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>226725.39052419216</v>
       </c>
       <c r="BP73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>228992.64442943409</v>
       </c>
       <c r="BQ73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>231282.57087372843</v>
       </c>
       <c r="BR73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>233595.39658246571</v>
       </c>
       <c r="BS73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>235931.35054829036</v>
       </c>
       <c r="BT73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>238290.66405377327</v>
       </c>
       <c r="BU73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>240673.570694311</v>
       </c>
       <c r="BV73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>243080.30640125411</v>
       </c>
       <c r="BW73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>245511.10946526667</v>
       </c>
       <c r="BX73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>247966.22055991934</v>
       </c>
       <c r="BY73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>250445.88276551853</v>
       </c>
       <c r="BZ73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>252950.34159317371</v>
       </c>
       <c r="CA73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>255479.84500910545</v>
       </c>
       <c r="CB73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>258034.64345919652</v>
       </c>
       <c r="CC73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>260614.9898937885</v>
       </c>
       <c r="CD73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>263221.13979272638</v>
       </c>
       <c r="CE73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>265853.35119065363</v>
       </c>
       <c r="CF73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>268511.88470256014</v>
       </c>
       <c r="CG73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>271197.00354958576</v>
       </c>
       <c r="CH73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>273908.97358508164</v>
       </c>
       <c r="CI73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>276648.06332093244</v>
       </c>
       <c r="CJ73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>279414.54395414179</v>
       </c>
       <c r="CK73" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="177"/>
         <v>282208.68939368322</v>
       </c>
       <c r="CL73" s="2">
-        <f t="shared" ref="CL73:DQ73" si="189">CK73*(1+$AB$76)</f>
+        <f t="shared" ref="CL73:DQ73" si="178">CK73*(1+$AB$76)</f>
         <v>285030.77628762007</v>
       </c>
       <c r="CM73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>287881.08405049628</v>
       </c>
       <c r="CN73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>290759.89489100123</v>
       </c>
       <c r="CO73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>293667.49383991124</v>
       </c>
       <c r="CP73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>296604.16877831036</v>
       </c>
       <c r="CQ73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>299570.21046609344</v>
       </c>
       <c r="CR73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>302565.91257075436</v>
       </c>
       <c r="CS73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>305591.57169646188</v>
       </c>
       <c r="CT73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>308647.48741342651</v>
       </c>
       <c r="CU73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>311733.9622875608</v>
       </c>
       <c r="CV73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>314851.30191043642</v>
       </c>
       <c r="CW73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>317999.81492954079</v>
       </c>
       <c r="CX73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>321179.81307883619</v>
       </c>
       <c r="CY73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>324391.61120962456</v>
       </c>
       <c r="CZ73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>327635.52732172079</v>
       </c>
       <c r="DA73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>330911.88259493798</v>
       </c>
       <c r="DB73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>334221.00142088736</v>
       </c>
       <c r="DC73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>337563.21143509622</v>
       </c>
       <c r="DD73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>340938.84354944719</v>
       </c>
       <c r="DE73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>344348.2319849417</v>
       </c>
       <c r="DF73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>347791.71430479112</v>
       </c>
       <c r="DG73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>351269.63144783903</v>
       </c>
       <c r="DH73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>354782.32776231744</v>
       </c>
       <c r="DI73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>358330.1510399406</v>
       </c>
       <c r="DJ73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>361913.45255033998</v>
       </c>
       <c r="DK73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>365532.58707584336</v>
       </c>
       <c r="DL73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>369187.91294660181</v>
       </c>
       <c r="DM73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>372879.79207606782</v>
       </c>
       <c r="DN73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>376608.58999682852</v>
       </c>
       <c r="DO73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>380374.67589679681</v>
       </c>
       <c r="DP73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>384178.42265576479</v>
       </c>
       <c r="DQ73" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="178"/>
         <v>388020.20688232244</v>
       </c>
       <c r="DR73" s="2">
-        <f t="shared" ref="DR73:EO73" si="190">DQ73*(1+$AB$76)</f>
+        <f t="shared" ref="DR73:EO73" si="179">DQ73*(1+$AB$76)</f>
         <v>391900.40895114566</v>
       </c>
       <c r="DS73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>395819.41304065712</v>
       </c>
       <c r="DT73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>399777.60717106372</v>
       </c>
       <c r="DU73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>403775.38324277435</v>
       </c>
       <c r="DV73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>407813.13707520207</v>
       </c>
       <c r="DW73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>411891.26844595408</v>
       </c>
       <c r="DX73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>416010.18113041361</v>
       </c>
       <c r="DY73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>420170.28294171777</v>
       </c>
       <c r="DZ73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>424371.98577113496</v>
       </c>
       <c r="EA73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>428615.70562884631</v>
       </c>
       <c r="EB73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>432901.86268513475</v>
       </c>
       <c r="EC73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>437230.88131198613</v>
       </c>
       <c r="ED73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>441603.19012510602</v>
       </c>
       <c r="EE73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>446019.22202635708</v>
       </c>
       <c r="EF73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>450479.41424662067</v>
       </c>
       <c r="EG73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>454984.20838908688</v>
       </c>
       <c r="EH73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>459534.05047297775</v>
       </c>
       <c r="EI73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>464129.39097770752</v>
       </c>
       <c r="EJ73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>468770.68488748459</v>
       </c>
       <c r="EK73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>473458.39173635945</v>
       </c>
       <c r="EL73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>478192.97565372306</v>
       </c>
       <c r="EM73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>482974.90541026031</v>
       </c>
       <c r="EN73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>487804.65446436295</v>
       </c>
       <c r="EO73" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="179"/>
         <v>492682.70100900659</v>
       </c>
     </row>
@@ -7682,23 +7682,23 @@
         <v>1.1683315694678793</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" ref="U75:Y75" si="191">U71/U72-1</f>
+        <f t="shared" ref="U75:Y75" si="180">U71/U72-1</f>
         <v>1.2125832341508973</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="191"/>
+        <f t="shared" si="180"/>
         <v>1.2577379940315279</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="191"/>
+        <f t="shared" si="180"/>
         <v>1.3038142796240075</v>
       </c>
       <c r="X75" s="6">
-        <f t="shared" si="191"/>
+        <f t="shared" si="180"/>
         <v>1.3508308975755181</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="191"/>
+        <f t="shared" si="180"/>
         <v>1.3988070383423654</v>
       </c>
     </row>
@@ -7711,35 +7711,35 @@
         <v>9</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:T76" si="192">R70/Q70-1</f>
+        <f t="shared" ref="R76:T76" si="181">R70/Q70-1</f>
         <v>1</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="192"/>
+        <f t="shared" si="181"/>
         <v>1</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="192"/>
+        <f t="shared" si="181"/>
         <v>1</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" ref="U76" si="193">U70/T70-1</f>
+        <f t="shared" ref="U76" si="182">U70/T70-1</f>
         <v>1</v>
       </c>
       <c r="V76" s="6">
-        <f t="shared" ref="V76" si="194">V70/U70-1</f>
+        <f t="shared" ref="V76" si="183">V70/U70-1</f>
         <v>1</v>
       </c>
       <c r="W76" s="6">
-        <f t="shared" ref="W76" si="195">W70/V70-1</f>
+        <f t="shared" ref="W76" si="184">W70/V70-1</f>
         <v>1</v>
       </c>
       <c r="X76" s="6">
-        <f t="shared" ref="X76" si="196">X70/W70-1</f>
+        <f t="shared" ref="X76" si="185">X70/W70-1</f>
         <v>1</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" ref="Y76" si="197">Y70/X70-1</f>
+        <f t="shared" ref="Y76" si="186">Y70/X70-1</f>
         <v>1</v>
       </c>
       <c r="AA76" s="2" t="s">
@@ -7770,35 +7770,35 @@
         <v>55000</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" ref="R78:T78" si="198">Q78+R70</f>
+        <f t="shared" ref="R78:T78" si="187">Q78+R70</f>
         <v>155000</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="198"/>
+        <f t="shared" si="187"/>
         <v>355000</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="198"/>
+        <f t="shared" si="187"/>
         <v>755000</v>
       </c>
       <c r="U78" s="2">
-        <f t="shared" ref="U78" si="199">T78+U70</f>
+        <f t="shared" ref="U78" si="188">T78+U70</f>
         <v>1555000</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" ref="V78" si="200">U78+V70</f>
+        <f t="shared" ref="V78" si="189">U78+V70</f>
         <v>3155000</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" ref="W78" si="201">V78+W70</f>
+        <f t="shared" ref="W78" si="190">V78+W70</f>
         <v>6355000</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" ref="X78" si="202">W78+X70</f>
+        <f t="shared" ref="X78" si="191">W78+X70</f>
         <v>12755000</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" ref="Y78" si="203">X78+Y70</f>
+        <f t="shared" ref="Y78" si="192">X78+Y70</f>
         <v>25555000</v>
       </c>
       <c r="AA78" s="4" t="s">
@@ -7833,31 +7833,31 @@
         <v>2460000</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" ref="S80:T82" si="204">R80*1.1</f>
+        <f t="shared" ref="S80:T82" si="193">R80*1.1</f>
         <v>2706000</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="193"/>
         <v>2976600.0000000005</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" ref="U80:U82" si="205">T80*1.1</f>
+        <f t="shared" ref="U80:U82" si="194">T80*1.1</f>
         <v>3274260.0000000009</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" ref="V80" si="206">U80*1.1</f>
+        <f t="shared" ref="V80" si="195">U80*1.1</f>
         <v>3601686.0000000014</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" ref="W80" si="207">V80*1.1</f>
+        <f t="shared" ref="W80" si="196">V80*1.1</f>
         <v>3961854.600000002</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" ref="X80" si="208">W80*1.1</f>
+        <f t="shared" ref="X80" si="197">W80*1.1</f>
         <v>4358040.0600000024</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" ref="Y80" si="209">X80*1.1</f>
+        <f t="shared" ref="Y80" si="198">X80*1.1</f>
         <v>4793844.0660000034</v>
       </c>
     </row>
@@ -7873,39 +7873,39 @@
         <v>450000</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" ref="Q81:R81" si="210">P81*1.2</f>
+        <f t="shared" ref="Q81:R81" si="199">P81*1.2</f>
         <v>540000</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="199"/>
         <v>648000</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" ref="S81" si="211">R81*1.2</f>
+        <f t="shared" ref="S81" si="200">R81*1.2</f>
         <v>777600</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" ref="T81" si="212">S81*1.2</f>
+        <f t="shared" ref="T81" si="201">S81*1.2</f>
         <v>933120</v>
       </c>
       <c r="U81" s="2">
-        <f t="shared" ref="U81" si="213">T81*1.2</f>
+        <f t="shared" ref="U81" si="202">T81*1.2</f>
         <v>1119744</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" ref="V81" si="214">U81*1.2</f>
+        <f t="shared" ref="V81" si="203">U81*1.2</f>
         <v>1343692.8</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" ref="W81" si="215">V81*1.2</f>
+        <f t="shared" ref="W81" si="204">V81*1.2</f>
         <v>1612431.3600000001</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" ref="X81" si="216">W81*1.2</f>
+        <f t="shared" ref="X81" si="205">W81*1.2</f>
         <v>1934917.632</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" ref="Y81" si="217">X81*1.2</f>
+        <f t="shared" ref="Y81" si="206">X81*1.2</f>
         <v>2321901.1584000001</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>1045000.0000000001</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" ref="Q82" si="218">P82*1.1</f>
+        <f t="shared" ref="Q82" si="207">P82*1.1</f>
         <v>1149500.0000000002</v>
       </c>
       <c r="R82" s="2">
@@ -7929,31 +7929,31 @@
         <v>1264450.0000000005</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="193"/>
         <v>1390895.0000000007</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="193"/>
         <v>1529984.5000000009</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="194"/>
         <v>1682982.9500000011</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" ref="V82" si="219">U82*1.1</f>
+        <f t="shared" ref="V82" si="208">U82*1.1</f>
         <v>1851281.2450000013</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" ref="W82" si="220">V82*1.1</f>
+        <f t="shared" ref="W82" si="209">V82*1.1</f>
         <v>2036409.3695000017</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" ref="X82" si="221">W82*1.1</f>
+        <f t="shared" ref="X82" si="210">W82*1.1</f>
         <v>2240050.3064500019</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" ref="Y82" si="222">X82*1.1</f>
+        <f t="shared" ref="Y82" si="211">X82*1.1</f>
         <v>2464055.3370950022</v>
       </c>
     </row>
@@ -7966,43 +7966,43 @@
         <v>2350000</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" ref="P83:Q83" si="223">SUM(P80:P82)</f>
+        <f t="shared" ref="P83:Q83" si="212">SUM(P80:P82)</f>
         <v>3032500</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="223"/>
+        <f t="shared" si="212"/>
         <v>3739500</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" ref="R83" si="224">SUM(R80:R82)</f>
+        <f t="shared" ref="R83" si="213">SUM(R80:R82)</f>
         <v>4372450</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" ref="S83" si="225">SUM(S80:S82)</f>
+        <f t="shared" ref="S83" si="214">SUM(S80:S82)</f>
         <v>4874495.0000000009</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" ref="T83" si="226">SUM(T80:T82)</f>
+        <f t="shared" ref="T83" si="215">SUM(T80:T82)</f>
         <v>5439704.5000000019</v>
       </c>
       <c r="U83" s="2">
-        <f t="shared" ref="U83:Y83" si="227">SUM(U80:U82)</f>
+        <f t="shared" ref="U83:Y83" si="216">SUM(U80:U82)</f>
         <v>6076986.950000002</v>
       </c>
       <c r="V83" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="216"/>
         <v>6796660.0450000027</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="216"/>
         <v>7610695.3295000037</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="216"/>
         <v>8533007.9984500036</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="216"/>
         <v>9579800.5614950061</v>
       </c>
     </row>
@@ -8011,47 +8011,47 @@
         <v>75</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" ref="O85:U85" si="228">O83/O46</f>
+        <f t="shared" ref="O85:U85" si="217">O83/O46</f>
         <v>1.3993609386555892</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.4894400785854618</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.3840772818121252</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.3247199045039477</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.219495079234113</v>
       </c>
       <c r="T85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.1191528647117162</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="217"/>
         <v>1.1422067419994453</v>
       </c>
       <c r="V85" s="6">
-        <f t="shared" ref="V85:Y85" si="229">V83/V46</f>
+        <f t="shared" ref="V85:Y85" si="218">V83/V46</f>
         <v>1.1508254404994198</v>
       </c>
       <c r="W85" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="218"/>
         <v>1.1403271811381426</v>
       </c>
       <c r="X85" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="218"/>
         <v>1.1066993788644941</v>
       </c>
       <c r="Y85" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="218"/>
         <v>1.0478955148099274</v>
       </c>
     </row>
@@ -8069,31 +8069,31 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="S86" s="6">
-        <f t="shared" ref="S86:U86" si="230">S80/R80-1</f>
+        <f t="shared" ref="S86:U86" si="219">S80/R80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="219"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="219"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="V86" s="6">
-        <f t="shared" ref="V86" si="231">V80/U80-1</f>
+        <f t="shared" ref="V86" si="220">V80/U80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="W86" s="6">
-        <f t="shared" ref="W86" si="232">W80/V80-1</f>
+        <f t="shared" ref="W86" si="221">W80/V80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="X86" s="6">
-        <f t="shared" ref="X86" si="233">X80/W80-1</f>
+        <f t="shared" ref="X86" si="222">X80/W80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" ref="Y86" si="234">Y80/X80-1</f>
+        <f t="shared" ref="Y86" si="223">Y80/X80-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -8130,44 +8130,44 @@
         <v>16994</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" ref="P88:U88" si="235">+O88+P18</f>
-        <v>31855.633116714202</v>
+        <f t="shared" ref="P88:U88" si="224">+O88+P18</f>
+        <v>31318.622716714202</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="235"/>
-        <v>54896.766749029193</v>
+        <f t="shared" si="224"/>
+        <v>53344.63357822103</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="235"/>
-        <v>88203.803867287643</v>
+        <f t="shared" si="224"/>
+        <v>84892.409163111384</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="235"/>
-        <v>135682.72667228337</v>
+        <f t="shared" si="224"/>
+        <v>129531.77172957483</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="235"/>
-        <v>203189.85293227225</v>
+        <f t="shared" si="224"/>
+        <v>192654.13873862475</v>
       </c>
       <c r="U88" s="2">
-        <f t="shared" si="235"/>
-        <v>291051.45691667544</v>
+        <f t="shared" si="224"/>
+        <v>273928.47908610851</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" ref="V88:Y88" si="236">+U88+V18</f>
-        <v>396288.69829558599</v>
+        <f t="shared" ref="V88:Y88" si="225">+U88+V18</f>
+        <v>369697.95137672918</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" si="236"/>
-        <v>523690.55715022061</v>
+        <f t="shared" si="225"/>
+        <v>484156.95356390538</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="236"/>
-        <v>680058.13950058422</v>
+        <f t="shared" si="225"/>
+        <v>623351.28337165818</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="236"/>
-        <v>875236.68641694251</v>
+        <f t="shared" si="225"/>
+        <v>796144.02475296101</v>
       </c>
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.2">
@@ -8462,39 +8462,39 @@
         <v>93</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ref="C106" si="237">SUM(C92:C105)</f>
+        <f t="shared" ref="C106" si="226">SUM(C92:C105)</f>
         <v>122060</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" ref="D106:L106" si="238">SUM(D92:D105)</f>
+        <f t="shared" ref="D106:L106" si="227">SUM(D92:D105)</f>
         <v>0</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="227"/>
         <v>125111</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" ref="M106" si="239">SUM(M92:M105)</f>
+        <f t="shared" ref="M106" si="228">SUM(M92:M105)</f>
         <v>0</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" ref="N106" si="240">SUM(N92:N105)</f>
+        <f t="shared" ref="N106" si="229">SUM(N92:N105)</f>
         <v>106618</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" ref="O106" si="241">SUM(O92:O105)</f>
+        <f t="shared" ref="O106" si="230">SUM(O92:O105)</f>
         <v>122070</v>
       </c>
     </row>
@@ -8622,39 +8622,39 @@
         <v>102</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" ref="C115" si="242">SUM(C108:C114)</f>
+        <f t="shared" ref="C115" si="231">SUM(C108:C114)</f>
         <v>48390</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" ref="D115:L115" si="243">SUM(D108:D114)</f>
+        <f t="shared" ref="D115:L115" si="232">SUM(D108:D114)</f>
         <v>0</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="232"/>
         <v>49693</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="M115" s="2">
-        <f t="shared" ref="M115" si="244">SUM(M108:M114)</f>
+        <f t="shared" ref="M115" si="233">SUM(M108:M114)</f>
         <v>0</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" ref="N115" si="245">SUM(N108:N114)</f>
+        <f t="shared" ref="N115" si="234">SUM(N108:N114)</f>
         <v>43009</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" ref="O115" si="246">SUM(O108:O114)</f>
+        <f t="shared" ref="O115" si="235">SUM(O108:O114)</f>
         <v>48390</v>
       </c>
     </row>
@@ -8663,39 +8663,39 @@
         <v>103</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" ref="C116" si="247">C106-C115</f>
+        <f t="shared" ref="C116" si="236">C106-C115</f>
         <v>73670</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" ref="D116:L116" si="248">D106-D115</f>
+        <f t="shared" ref="D116:L116" si="237">D106-D115</f>
         <v>0</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="237"/>
         <v>75418</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" ref="M116" si="249">M106-M115</f>
+        <f t="shared" ref="M116" si="238">M106-M115</f>
         <v>0</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" ref="N116" si="250">N106-N115</f>
+        <f t="shared" ref="N116" si="239">N106-N115</f>
         <v>63609</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" ref="O116" si="251">O106-O115</f>
+        <f t="shared" ref="O116" si="240">O106-O115</f>
         <v>73680</v>
       </c>
     </row>
@@ -8704,39 +8704,39 @@
         <v>104</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" ref="C117" si="252">C116+C115</f>
+        <f t="shared" ref="C117" si="241">C116+C115</f>
         <v>122060</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" ref="D117:L117" si="253">D116+D115</f>
+        <f t="shared" ref="D117:L117" si="242">D116+D115</f>
         <v>0</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="242"/>
         <v>125111</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" ref="M117" si="254">M116+M115</f>
+        <f t="shared" ref="M117" si="243">M116+M115</f>
         <v>0</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" ref="N117" si="255">N116+N115</f>
+        <f t="shared" ref="N117" si="244">N116+N115</f>
         <v>106618</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" ref="O117" si="256">O116+O115</f>
+        <f t="shared" ref="O117" si="245">O116+O115</f>
         <v>122070</v>
       </c>
     </row>
@@ -8749,88 +8749,88 @@
         <v>962</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" ref="D119:U119" si="257">D18</f>
+        <f t="shared" ref="D119:U119" si="246">D18</f>
         <v>0</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>19798</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>633</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>5853</v>
       </c>
       <c r="M119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>12805</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>14802</v>
       </c>
       <c r="O119" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="246"/>
         <v>7142</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="257"/>
-        <v>14861.633116714202</v>
+        <f t="shared" si="246"/>
+        <v>14324.622716714202</v>
       </c>
       <c r="Q119" s="2">
-        <f t="shared" si="257"/>
-        <v>23041.133632314995</v>
+        <f t="shared" si="246"/>
+        <v>22026.010861506827</v>
       </c>
       <c r="R119" s="2">
-        <f t="shared" si="257"/>
-        <v>33307.037118258442</v>
+        <f t="shared" si="246"/>
+        <v>31547.775584890347</v>
       </c>
       <c r="S119" s="2">
-        <f t="shared" si="257"/>
-        <v>47478.922804995716</v>
+        <f t="shared" si="246"/>
+        <v>44639.362566463438</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="257"/>
-        <v>67507.126259988872</v>
+        <f t="shared" si="246"/>
+        <v>63122.367009049922</v>
       </c>
       <c r="U119" s="2">
-        <f t="shared" si="257"/>
-        <v>87861.603984403191</v>
+        <f t="shared" si="246"/>
+        <v>81274.340347483754</v>
       </c>
       <c r="V119" s="2">
-        <f t="shared" ref="V119:Y119" si="258">V18</f>
-        <v>105237.24137891055</v>
+        <f t="shared" ref="V119:Y119" si="247">V18</f>
+        <v>95769.472290620644</v>
       </c>
       <c r="W119" s="2">
-        <f t="shared" si="258"/>
-        <v>127401.85885463466</v>
+        <f t="shared" si="247"/>
+        <v>114459.00218717621</v>
       </c>
       <c r="X119" s="2">
-        <f t="shared" si="258"/>
-        <v>156367.58235036358</v>
+        <f t="shared" si="247"/>
+        <v>139194.32980775283</v>
       </c>
       <c r="Y119" s="2">
-        <f t="shared" si="258"/>
-        <v>195178.54691635832</v>
+        <f t="shared" si="247"/>
+        <v>172792.74138130283</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
@@ -8897,19 +8897,19 @@
         <v>2398.7999999999997</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" ref="Q122:T122" si="259">P122*1.2</f>
+        <f t="shared" ref="Q122:T122" si="248">P122*1.2</f>
         <v>2878.5599999999995</v>
       </c>
       <c r="R122" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="248"/>
         <v>3454.2719999999995</v>
       </c>
       <c r="S122" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="248"/>
         <v>4145.1263999999992</v>
       </c>
       <c r="T122" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="248"/>
         <v>4974.151679999999</v>
       </c>
       <c r="U122" s="2">
@@ -8917,19 +8917,19 @@
         <v>5720.2744319999983</v>
       </c>
       <c r="V122" s="2">
-        <f t="shared" ref="V122:Y122" si="260">U122*1.15</f>
+        <f t="shared" ref="V122:Y122" si="249">U122*1.15</f>
         <v>6578.3155967999974</v>
       </c>
       <c r="W122" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="249"/>
         <v>7565.062936319996</v>
       </c>
       <c r="X122" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="249"/>
         <v>8699.8223767679956</v>
       </c>
       <c r="Y122" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="249"/>
         <v>10004.795733283194</v>
       </c>
     </row>
@@ -8957,39 +8957,39 @@
         <v>428.87362085921933</v>
       </c>
       <c r="Q123" s="2">
-        <f t="shared" ref="Q123:U123" si="261">P123*(1+Q30)</f>
+        <f t="shared" ref="Q123:U123" si="250">P123*(1+Q30)</f>
         <v>576.47702955692648</v>
       </c>
       <c r="R123" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="250"/>
         <v>726.75030413853403</v>
       </c>
       <c r="S123" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="250"/>
         <v>910.10035069798391</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="250"/>
         <v>1143.5563405318117</v>
       </c>
       <c r="U123" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="250"/>
         <v>1326.2451467613148</v>
       </c>
       <c r="V123" s="2">
-        <f t="shared" ref="V123:Y123" si="262">U123*(1+V30)</f>
+        <f t="shared" ref="V123:Y123" si="251">U123*(1+V30)</f>
         <v>1558.3773065009461</v>
       </c>
       <c r="W123" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="251"/>
         <v>1859.0900892747072</v>
       </c>
       <c r="X123" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="251"/>
         <v>2256.3067803655049</v>
       </c>
       <c r="Y123" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="251"/>
         <v>2791.1126548831512</v>
       </c>
     </row>
@@ -9017,39 +9017,39 @@
         <v>-93.456042754397046</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" ref="Q124:U124" si="263">P124*(1+Q30)</f>
+        <f t="shared" ref="Q124:U124" si="252">P124*(1+Q30)</f>
         <v>-125.62036763479293</v>
       </c>
       <c r="R124" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="252"/>
         <v>-158.36648418541191</v>
       </c>
       <c r="S124" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="252"/>
         <v>-198.3203749282174</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="252"/>
         <v>-249.19287420543955</v>
       </c>
       <c r="U124" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="252"/>
         <v>-289.00267377186856</v>
       </c>
       <c r="V124" s="2">
-        <f t="shared" ref="V124:Y124" si="264">U124*(1+V30)</f>
+        <f t="shared" ref="V124:Y124" si="253">U124*(1+V30)</f>
         <v>-339.58669664050461</v>
       </c>
       <c r="W124" s="2">
-        <f t="shared" si="264"/>
+        <f t="shared" si="253"/>
         <v>-405.11515378224954</v>
       </c>
       <c r="X124" s="2">
-        <f t="shared" si="264"/>
+        <f t="shared" si="253"/>
         <v>-491.67282079606508</v>
       </c>
       <c r="Y124" s="2">
-        <f t="shared" si="264"/>
+        <f t="shared" si="253"/>
         <v>-608.21260837752232</v>
       </c>
     </row>
@@ -9077,39 +9077,39 @@
         <v>610.66482731297799</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" ref="Q125:U125" si="265">P125*(1+Q30)</f>
+        <f t="shared" ref="Q125:U125" si="254">P125*(1+Q30)</f>
         <v>820.83445701090727</v>
       </c>
       <c r="R125" s="2">
-        <f t="shared" si="265"/>
+        <f t="shared" si="254"/>
         <v>1034.8056569375544</v>
       </c>
       <c r="S125" s="2">
-        <f t="shared" si="265"/>
+        <f t="shared" si="254"/>
         <v>1295.8742306953384</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="265"/>
+        <f t="shared" si="254"/>
         <v>1628.2876848766393</v>
       </c>
       <c r="U125" s="2">
-        <f t="shared" si="265"/>
+        <f t="shared" si="254"/>
         <v>1888.4147313586482</v>
       </c>
       <c r="V125" s="2">
-        <f t="shared" ref="V125:Y125" si="266">U125*(1+V30)</f>
+        <f t="shared" ref="V125:Y125" si="255">U125*(1+V30)</f>
         <v>2218.9432095550783</v>
       </c>
       <c r="W125" s="2">
-        <f t="shared" si="266"/>
+        <f t="shared" si="255"/>
         <v>2647.1223062210006</v>
       </c>
       <c r="X125" s="2">
-        <f t="shared" si="266"/>
+        <f t="shared" si="255"/>
         <v>3212.7114454756584</v>
       </c>
       <c r="Y125" s="2">
-        <f t="shared" si="266"/>
+        <f t="shared" si="255"/>
         <v>3974.2111533709335</v>
       </c>
     </row>
@@ -9137,39 +9137,39 @@
         <v>220.19779936652455</v>
       </c>
       <c r="Q126" s="2">
-        <f t="shared" ref="Q126:U126" si="267">P126*(1+Q30)</f>
+        <f t="shared" ref="Q126:U126" si="256">P126*(1+Q30)</f>
         <v>295.98223607101897</v>
       </c>
       <c r="R126" s="2">
-        <f t="shared" si="267"/>
+        <f t="shared" si="256"/>
         <v>373.13746958754587</v>
       </c>
       <c r="S126" s="2">
-        <f t="shared" si="267"/>
+        <f t="shared" si="256"/>
         <v>467.27540394045747</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="267"/>
+        <f t="shared" si="256"/>
         <v>587.1393748402138</v>
       </c>
       <c r="U126" s="2">
-        <f t="shared" si="267"/>
+        <f t="shared" si="256"/>
         <v>680.9378066953617</v>
       </c>
       <c r="V126" s="2">
-        <f t="shared" ref="V126:Y126" si="268">U126*(1+V30)</f>
+        <f t="shared" ref="V126:Y126" si="257">U126*(1+V30)</f>
         <v>800.12207975570971</v>
       </c>
       <c r="W126" s="2">
-        <f t="shared" si="268"/>
+        <f t="shared" si="257"/>
         <v>954.51789658283485</v>
       </c>
       <c r="X126" s="2">
-        <f t="shared" si="268"/>
+        <f t="shared" si="257"/>
         <v>1158.4619887249758</v>
       </c>
       <c r="Y126" s="2">
-        <f t="shared" si="268"/>
+        <f t="shared" si="257"/>
         <v>1433.0488854922448</v>
       </c>
     </row>
@@ -9247,39 +9247,39 @@
         <v>-1386.4780041508493</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" ref="Q128:U128" si="269">P128*(1+Q30)</f>
+        <f t="shared" ref="Q128:U128" si="258">P128*(1+Q30)</f>
         <v>-1863.6555910750785</v>
       </c>
       <c r="R128" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="258"/>
         <v>-2349.4644160657681</v>
       </c>
       <c r="S128" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="258"/>
         <v>-2942.2050143460197</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="258"/>
         <v>-3696.9299008834387</v>
       </c>
       <c r="U128" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="258"/>
         <v>-4287.5328177388174</v>
       </c>
       <c r="V128" s="2">
-        <f t="shared" ref="V128:Y128" si="270">U128*(1+V30)</f>
+        <f t="shared" ref="V128:Y128" si="259">U128*(1+V30)</f>
         <v>-5037.9779789269387</v>
       </c>
       <c r="W128" s="2">
-        <f t="shared" si="270"/>
+        <f t="shared" si="259"/>
         <v>-6010.1330348791271</v>
       </c>
       <c r="X128" s="2">
-        <f t="shared" si="270"/>
+        <f t="shared" si="259"/>
         <v>-7294.2693824950484</v>
       </c>
       <c r="Y128" s="2">
-        <f t="shared" si="270"/>
+        <f t="shared" si="259"/>
         <v>-9023.2089708610511</v>
       </c>
       <c r="AA128" s="2" t="s">
@@ -9310,39 +9310,39 @@
         <v>1199.5659186420553</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" ref="Q129:U129" si="271">P129*(1+Q30)</f>
+        <f t="shared" ref="Q129:U129" si="260">P129*(1+Q30)</f>
         <v>1612.4148558054928</v>
       </c>
       <c r="R129" s="2">
-        <f t="shared" si="271"/>
+        <f t="shared" si="260"/>
         <v>2032.7314476949446</v>
       </c>
       <c r="S129" s="2">
-        <f t="shared" si="271"/>
+        <f t="shared" si="260"/>
         <v>2545.5642644895852</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="271"/>
+        <f t="shared" si="260"/>
         <v>3198.5441524725597</v>
       </c>
       <c r="U129" s="2">
-        <f t="shared" si="271"/>
+        <f t="shared" si="260"/>
         <v>3709.5274701950802</v>
       </c>
       <c r="V129" s="2">
-        <f t="shared" ref="V129:Y129" si="272">U129*(1+V30)</f>
+        <f t="shared" ref="V129:Y129" si="261">U129*(1+V30)</f>
         <v>4358.8045856459294</v>
       </c>
       <c r="W129" s="2">
-        <f t="shared" si="272"/>
+        <f t="shared" si="261"/>
         <v>5199.9027273146285</v>
       </c>
       <c r="X129" s="2">
-        <f t="shared" si="272"/>
+        <f t="shared" si="261"/>
         <v>6310.9237409029183</v>
       </c>
       <c r="Y129" s="2">
-        <f t="shared" si="272"/>
+        <f t="shared" si="261"/>
         <v>7806.7837541060062</v>
       </c>
       <c r="AA129" s="4" t="s">
@@ -9377,39 +9377,39 @@
         <v>-755.32966061772959</v>
       </c>
       <c r="Q130" s="2">
-        <f t="shared" ref="Q130:U130" si="273">P130*(1+Q30)</f>
+        <f t="shared" ref="Q130:U130" si="262">P130*(1+Q30)</f>
         <v>-1015.2879028017511</v>
       </c>
       <c r="R130" s="2">
-        <f t="shared" si="273"/>
+        <f t="shared" si="262"/>
         <v>-1279.9482968410002</v>
       </c>
       <c r="S130" s="2">
-        <f t="shared" si="273"/>
+        <f t="shared" si="262"/>
         <v>-1602.8633042143597</v>
       </c>
       <c r="T130" s="2">
-        <f t="shared" si="273"/>
+        <f t="shared" si="262"/>
         <v>-2014.0245997425934</v>
       </c>
       <c r="U130" s="2">
-        <f t="shared" si="273"/>
+        <f t="shared" si="262"/>
         <v>-2335.7750345945542</v>
       </c>
       <c r="V130" s="2">
-        <f t="shared" ref="V130:Y130" si="274">U130*(1+V30)</f>
+        <f t="shared" ref="V130:Y130" si="263">U130*(1+V30)</f>
         <v>-2744.6048084643526</v>
       </c>
       <c r="W130" s="2">
-        <f t="shared" si="274"/>
+        <f t="shared" si="263"/>
         <v>-3274.2183661853051</v>
       </c>
       <c r="X130" s="2">
-        <f t="shared" si="274"/>
+        <f t="shared" si="263"/>
         <v>-3973.7940310914855</v>
       </c>
       <c r="Y130" s="2">
-        <f t="shared" si="274"/>
+        <f t="shared" si="263"/>
         <v>-4915.6909444210714</v>
       </c>
     </row>
@@ -9437,46 +9437,46 @@
         <v>-4190.1592867827612</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" ref="Q131:U131" si="275">P131*(1+Q30)</f>
+        <f t="shared" ref="Q131:U131" si="264">P131*(1+Q30)</f>
         <v>-5632.2666201188667</v>
       </c>
       <c r="R131" s="2">
-        <f t="shared" si="275"/>
+        <f t="shared" si="264"/>
         <v>-7100.4589416281251</v>
       </c>
       <c r="S131" s="2">
-        <f t="shared" si="275"/>
+        <f t="shared" si="264"/>
         <v>-8891.8162621925421</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="275"/>
+        <f t="shared" si="264"/>
         <v>-11172.716127046626</v>
       </c>
       <c r="U131" s="2">
-        <f t="shared" si="275"/>
+        <f t="shared" si="264"/>
         <v>-12957.613030894876</v>
       </c>
       <c r="V131" s="2">
-        <f t="shared" ref="V131:Y131" si="276">U131*(1+V30)</f>
+        <f t="shared" ref="V131:Y131" si="265">U131*(1+V30)</f>
         <v>-15225.57887814208</v>
       </c>
       <c r="W131" s="2">
-        <f t="shared" si="276"/>
+        <f t="shared" si="265"/>
         <v>-18163.587648346616</v>
       </c>
       <c r="X131" s="2">
-        <f t="shared" si="276"/>
+        <f t="shared" si="265"/>
         <v>-22044.454006377004</v>
       </c>
       <c r="Y131" s="2">
-        <f t="shared" si="276"/>
+        <f t="shared" si="265"/>
         <v>-27269.587222186721</v>
       </c>
       <c r="AA131" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AB131" s="6">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="132" spans="1:130" x14ac:dyDescent="0.2">
@@ -9503,39 +9503,39 @@
         <v>4593.4285123668033</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" ref="Q132:U132" si="277">P132*(1+Q30)</f>
+        <f t="shared" ref="Q132:U132" si="266">P132*(1+Q30)</f>
         <v>6174.3271105977683</v>
       </c>
       <c r="R132" s="2">
-        <f t="shared" si="277"/>
+        <f t="shared" si="266"/>
         <v>7783.821167907643</v>
       </c>
       <c r="S132" s="2">
-        <f t="shared" si="277"/>
+        <f t="shared" si="266"/>
         <v>9747.5822635951245</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" si="277"/>
+        <f t="shared" si="266"/>
         <v>12248.00044724818</v>
       </c>
       <c r="U132" s="2">
-        <f t="shared" si="277"/>
+        <f t="shared" si="266"/>
         <v>14204.679362924171</v>
       </c>
       <c r="V132" s="2">
-        <f t="shared" ref="V132:Y132" si="278">U132*(1+V30)</f>
+        <f t="shared" ref="V132:Y132" si="267">U132*(1+V30)</f>
         <v>16690.918733508639</v>
       </c>
       <c r="W132" s="2">
-        <f t="shared" si="278"/>
+        <f t="shared" si="267"/>
         <v>19911.687284530293</v>
       </c>
       <c r="X132" s="2">
-        <f t="shared" si="278"/>
+        <f t="shared" si="267"/>
         <v>24166.055904332625</v>
       </c>
       <c r="Y132" s="2">
-        <f t="shared" si="278"/>
+        <f t="shared" si="267"/>
         <v>29894.066285733563</v>
       </c>
       <c r="AA132" s="2" t="s">
@@ -9569,39 +9569,39 @@
         <v>642.6703214069496</v>
       </c>
       <c r="Q133" s="2">
-        <f t="shared" ref="Q133:U133" si="279">P133*(1+Q30)</f>
+        <f t="shared" ref="Q133:U133" si="268">P133*(1+Q30)</f>
         <v>863.85513085843911</v>
       </c>
       <c r="R133" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="268"/>
         <v>1089.0407542613257</v>
       </c>
       <c r="S133" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="268"/>
         <v>1363.7921673145909</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="268"/>
         <v>1713.627710289461</v>
       </c>
       <c r="U133" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="268"/>
         <v>1987.3882497736715</v>
       </c>
       <c r="V133" s="2">
-        <f t="shared" ref="V133:Y133" si="280">U133*(1+V30)</f>
+        <f t="shared" ref="V133:Y133" si="269">U133*(1+V30)</f>
         <v>2335.2400234730594</v>
       </c>
       <c r="W133" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="269"/>
         <v>2785.8603725847852</v>
       </c>
       <c r="X133" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="269"/>
         <v>3381.0925484880099</v>
       </c>
       <c r="Y133" s="2">
-        <f t="shared" si="280"/>
+        <f t="shared" si="269"/>
         <v>4182.503142541319</v>
       </c>
       <c r="AA133" s="2" t="s">
@@ -9621,95 +9621,95 @@
         <v>242</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" ref="D134:L134" si="281">SUM(D120:D133)</f>
+        <f t="shared" ref="D134:L134" si="270">SUM(D120:D133)</f>
         <v>0</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>2156</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="J134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="L134" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="M134" s="4">
-        <f t="shared" ref="M134" si="282">SUM(M120:M133)</f>
+        <f t="shared" ref="M134" si="271">SUM(M120:M133)</f>
         <v>14724</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" ref="N134" si="283">SUM(N120:N133)</f>
+        <f t="shared" ref="N134" si="272">SUM(N120:N133)</f>
         <v>13256</v>
       </c>
       <c r="O134" s="4">
-        <f t="shared" ref="O134" si="284">SUM(O120:O133)</f>
+        <f t="shared" ref="O134" si="273">SUM(O120:O133)</f>
         <v>14923</v>
       </c>
       <c r="P134" s="4">
-        <f t="shared" ref="P134:U134" si="285">SUM(P121:P133,P119)</f>
-        <v>18530.411122362995</v>
+        <f t="shared" ref="P134:U134" si="274">SUM(P121:P133,P119)</f>
+        <v>17993.400722362996</v>
       </c>
       <c r="Q134" s="4">
-        <f t="shared" si="285"/>
-        <v>27626.753970585058</v>
+        <f t="shared" si="274"/>
+        <v>26611.63119977689</v>
       </c>
       <c r="R134" s="4">
-        <f t="shared" si="285"/>
-        <v>38913.357780065686</v>
+        <f t="shared" si="274"/>
+        <v>37154.096246697591</v>
       </c>
       <c r="S134" s="4">
-        <f t="shared" si="285"/>
-        <v>54319.032930047659</v>
+        <f t="shared" si="274"/>
+        <v>51479.472691515381</v>
       </c>
       <c r="T134" s="4">
-        <f t="shared" si="285"/>
-        <v>75867.570148369647</v>
+        <f t="shared" si="274"/>
+        <v>71482.810897430696</v>
       </c>
       <c r="U134" s="4">
-        <f t="shared" si="285"/>
-        <v>97509.147627111321</v>
+        <f t="shared" si="274"/>
+        <v>90921.883990191884</v>
       </c>
       <c r="V134" s="4">
-        <f t="shared" ref="V134:Y134" si="286">SUM(V121:V133,V119)</f>
-        <v>116430.21455197604</v>
+        <f t="shared" ref="V134:Y134" si="275">SUM(V121:V133,V119)</f>
+        <v>106962.44546368613</v>
       </c>
       <c r="W134" s="4">
-        <f t="shared" si="286"/>
-        <v>140472.0482642696</v>
+        <f t="shared" si="275"/>
+        <v>127529.19159681117</v>
       </c>
       <c r="X134" s="4">
-        <f t="shared" si="286"/>
-        <v>171748.76689466165</v>
+        <f t="shared" si="275"/>
+        <v>154575.5143520509</v>
       </c>
       <c r="Y134" s="4">
-        <f t="shared" si="286"/>
-        <v>213448.36877992237</v>
+        <f t="shared" si="275"/>
+        <v>191062.56324486688</v>
       </c>
       <c r="AA134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AB134" s="4">
         <f>NPV(AB133,P141:DZ141)+Main!O5-Main!O6+AB129</f>
-        <v>1552852.3007451114</v>
+        <v>1406383.5701872846</v>
       </c>
     </row>
     <row r="135" spans="1:130" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="AB135" s="2">
         <f>AB134/Main!O3</f>
-        <v>482.1091318059332</v>
+        <v>436.63544928502114</v>
       </c>
     </row>
     <row r="136" spans="1:130" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="AB136" s="6">
         <f>AB135/Main!O2-1</f>
-        <v>0.45213593917449768</v>
+        <v>0.48012016706786831</v>
       </c>
     </row>
     <row r="137" spans="1:130" x14ac:dyDescent="0.2">
@@ -9814,47 +9814,47 @@
         <v>-2777</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" ref="D140:L140" si="287">D135</f>
+        <f t="shared" ref="D140:L140" si="276">D135</f>
         <v>0</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>-1492</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="J140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="L140" s="4">
-        <f t="shared" si="287"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="M140" s="4">
-        <f t="shared" ref="M140:O140" si="288">M135</f>
+        <f t="shared" ref="M140:O140" si="277">M135</f>
         <v>-7158</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="288"/>
+        <f t="shared" si="277"/>
         <v>-8898</v>
       </c>
       <c r="O140" s="4">
-        <f t="shared" si="288"/>
+        <f t="shared" si="277"/>
         <v>-11339</v>
       </c>
       <c r="P140" s="4">
@@ -9862,39 +9862,39 @@
         <v>-11255.820184944305</v>
       </c>
       <c r="Q140" s="4">
-        <f t="shared" ref="Q140:U140" si="289">Q5*-0.09</f>
+        <f t="shared" ref="Q140:U140" si="278">Q5*-0.09</f>
         <v>-15129.682661395382</v>
       </c>
       <c r="R140" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="278"/>
         <v>-19073.615967213151</v>
       </c>
       <c r="S140" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="278"/>
         <v>-23885.651622005207</v>
       </c>
       <c r="T140" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="278"/>
         <v>-30012.721497282808</v>
       </c>
       <c r="U140" s="4">
-        <f t="shared" si="289"/>
+        <f t="shared" si="278"/>
         <v>-34807.402850269114</v>
       </c>
       <c r="V140" s="4">
-        <f t="shared" ref="V140:Y140" si="290">V5*-0.09</f>
+        <f t="shared" ref="V140:Y140" si="279">V5*-0.09</f>
         <v>-40899.728705931244</v>
       </c>
       <c r="W140" s="4">
-        <f t="shared" si="290"/>
+        <f t="shared" si="279"/>
         <v>-48791.958131081046</v>
       </c>
       <c r="X140" s="4">
-        <f t="shared" si="290"/>
+        <f t="shared" si="279"/>
         <v>-59216.939831795673</v>
       </c>
       <c r="Y140" s="4">
-        <f t="shared" si="290"/>
+        <f t="shared" si="279"/>
         <v>-73252.959919397457</v>
       </c>
     </row>
@@ -9904,512 +9904,512 @@
         <v>59</v>
       </c>
       <c r="C141" s="4">
-        <f t="shared" ref="C141:J141" si="291">C134+C140</f>
+        <f t="shared" ref="C141:J141" si="280">C134+C140</f>
         <v>-2535</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>664</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <f t="shared" si="291"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="L141" s="4">
-        <f t="shared" ref="L141:U141" si="292">L134+L140</f>
+        <f t="shared" ref="L141:U141" si="281">L134+L140</f>
         <v>0</v>
       </c>
       <c r="M141" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="281"/>
         <v>7566</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="281"/>
         <v>4358</v>
       </c>
       <c r="O141" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="281"/>
         <v>3584</v>
       </c>
       <c r="P141" s="4">
-        <f t="shared" si="292"/>
-        <v>7274.5909374186904</v>
+        <f t="shared" si="281"/>
+        <v>6737.5805374186912</v>
       </c>
       <c r="Q141" s="4">
-        <f t="shared" si="292"/>
-        <v>12497.071309189676</v>
+        <f t="shared" si="281"/>
+        <v>11481.948538381508</v>
       </c>
       <c r="R141" s="4">
-        <f t="shared" si="292"/>
-        <v>19839.741812852535</v>
+        <f t="shared" si="281"/>
+        <v>18080.48027948444</v>
       </c>
       <c r="S141" s="4">
-        <f t="shared" si="292"/>
-        <v>30433.381308042452</v>
+        <f t="shared" si="281"/>
+        <v>27593.821069510173</v>
       </c>
       <c r="T141" s="4">
-        <f t="shared" si="292"/>
-        <v>45854.848651086839</v>
+        <f t="shared" si="281"/>
+        <v>41470.089400147888</v>
       </c>
       <c r="U141" s="4">
-        <f t="shared" si="292"/>
-        <v>62701.744776842206</v>
+        <f t="shared" si="281"/>
+        <v>56114.481139922769</v>
       </c>
       <c r="V141" s="4">
-        <f t="shared" ref="V141" si="293">V134+V140</f>
-        <v>75530.485846044787</v>
+        <f t="shared" ref="V141" si="282">V134+V140</f>
+        <v>66062.716757754883</v>
       </c>
       <c r="W141" s="4">
-        <f t="shared" ref="W141" si="294">W134+W140</f>
-        <v>91680.090133188554</v>
+        <f t="shared" ref="W141" si="283">W134+W140</f>
+        <v>78737.233465730125</v>
       </c>
       <c r="X141" s="4">
-        <f t="shared" ref="X141" si="295">X134+X140</f>
-        <v>112531.82706286598</v>
+        <f t="shared" ref="X141" si="284">X134+X140</f>
+        <v>95358.574520255235</v>
       </c>
       <c r="Y141" s="4">
-        <f t="shared" ref="Y141" si="296">Y134+Y140</f>
-        <v>140195.40886052491</v>
+        <f t="shared" ref="Y141" si="285">Y134+Y140</f>
+        <v>117809.60332546942</v>
       </c>
       <c r="Z141" s="4">
-        <f t="shared" ref="Z141:BE141" si="297">Y141*(1+$AB$132)</f>
-        <v>141597.36294913015</v>
+        <f>Y141*(1+$AB$132)</f>
+        <v>118987.69935872412</v>
       </c>
       <c r="AA141" s="4">
-        <f t="shared" si="297"/>
-        <v>143013.33657862147</v>
+        <f>Z141*(1+$AB$132)</f>
+        <v>120177.57635231136</v>
       </c>
       <c r="AB141" s="4">
-        <f t="shared" si="297"/>
-        <v>144443.4699444077</v>
+        <f>AA141*(1+$AB$132)</f>
+        <v>121379.35211583447</v>
       </c>
       <c r="AC141" s="4">
-        <f t="shared" si="297"/>
-        <v>145887.90464385177</v>
+        <f>AB141*(1+$AB$132)</f>
+        <v>122593.14563699281</v>
       </c>
       <c r="AD141" s="4">
-        <f t="shared" si="297"/>
-        <v>147346.78369029029</v>
+        <f>AC141*(1+$AB$132)</f>
+        <v>123819.07709336274</v>
       </c>
       <c r="AE141" s="4">
-        <f t="shared" si="297"/>
-        <v>148820.25152719321</v>
+        <f>AD141*(1+$AB$132)</f>
+        <v>125057.26786429636</v>
       </c>
       <c r="AF141" s="4">
-        <f t="shared" si="297"/>
-        <v>150308.45404246513</v>
+        <f>AE141*(1+$AB$132)</f>
+        <v>126307.84054293932</v>
       </c>
       <c r="AG141" s="4">
-        <f t="shared" si="297"/>
-        <v>151811.5385828898</v>
+        <f>AF141*(1+$AB$132)</f>
+        <v>127570.91894836871</v>
       </c>
       <c r="AH141" s="4">
-        <f t="shared" si="297"/>
-        <v>153329.65396871869</v>
+        <f>AG141*(1+$AB$132)</f>
+        <v>128846.6281378524</v>
       </c>
       <c r="AI141" s="4">
-        <f t="shared" si="297"/>
-        <v>154862.95050840589</v>
+        <f>AH141*(1+$AB$132)</f>
+        <v>130135.09441923093</v>
       </c>
       <c r="AJ141" s="4">
-        <f t="shared" si="297"/>
-        <v>156411.58001348996</v>
+        <f>AI141*(1+$AB$132)</f>
+        <v>131436.44536342323</v>
       </c>
       <c r="AK141" s="4">
-        <f t="shared" si="297"/>
-        <v>157975.69581362486</v>
+        <f>AJ141*(1+$AB$132)</f>
+        <v>132750.80981705748</v>
       </c>
       <c r="AL141" s="4">
-        <f t="shared" si="297"/>
-        <v>159555.45277176111</v>
+        <f>AK141*(1+$AB$132)</f>
+        <v>134078.31791522805</v>
       </c>
       <c r="AM141" s="4">
-        <f t="shared" si="297"/>
-        <v>161151.00729947872</v>
+        <f>AL141*(1+$AB$132)</f>
+        <v>135419.10109438034</v>
       </c>
       <c r="AN141" s="4">
-        <f t="shared" si="297"/>
-        <v>162762.51737247352</v>
+        <f>AM141*(1+$AB$132)</f>
+        <v>136773.29210532416</v>
       </c>
       <c r="AO141" s="4">
-        <f t="shared" si="297"/>
-        <v>164390.14254619824</v>
+        <f>AN141*(1+$AB$132)</f>
+        <v>138141.02502637741</v>
       </c>
       <c r="AP141" s="4">
-        <f t="shared" si="297"/>
-        <v>166034.04397166023</v>
+        <f>AO141*(1+$AB$132)</f>
+        <v>139522.43527664119</v>
       </c>
       <c r="AQ141" s="4">
-        <f t="shared" si="297"/>
-        <v>167694.38441137684</v>
+        <f>AP141*(1+$AB$132)</f>
+        <v>140917.6596294076</v>
       </c>
       <c r="AR141" s="4">
-        <f t="shared" si="297"/>
-        <v>169371.3282554906</v>
+        <f>AQ141*(1+$AB$132)</f>
+        <v>142326.83622570167</v>
       </c>
       <c r="AS141" s="4">
-        <f t="shared" si="297"/>
-        <v>171065.04153804551</v>
+        <f>AR141*(1+$AB$132)</f>
+        <v>143750.10458795869</v>
       </c>
       <c r="AT141" s="4">
-        <f t="shared" si="297"/>
-        <v>172775.69195342597</v>
+        <f>AS141*(1+$AB$132)</f>
+        <v>145187.60563383828</v>
       </c>
       <c r="AU141" s="4">
-        <f t="shared" si="297"/>
-        <v>174503.44887296023</v>
+        <f>AT141*(1+$AB$132)</f>
+        <v>146639.48169017668</v>
       </c>
       <c r="AV141" s="4">
-        <f t="shared" si="297"/>
-        <v>176248.48336168984</v>
+        <f>AU141*(1+$AB$132)</f>
+        <v>148105.87650707844</v>
       </c>
       <c r="AW141" s="4">
-        <f t="shared" si="297"/>
-        <v>178010.96819530675</v>
+        <f>AV141*(1+$AB$132)</f>
+        <v>149586.93527214922</v>
       </c>
       <c r="AX141" s="4">
-        <f t="shared" si="297"/>
-        <v>179791.07787725981</v>
+        <f>AW141*(1+$AB$132)</f>
+        <v>151082.80462487071</v>
       </c>
       <c r="AY141" s="4">
-        <f t="shared" si="297"/>
-        <v>181588.98865603242</v>
+        <f>AX141*(1+$AB$132)</f>
+        <v>152593.63267111941</v>
       </c>
       <c r="AZ141" s="4">
-        <f t="shared" si="297"/>
-        <v>183404.87854259275</v>
+        <f>AY141*(1+$AB$132)</f>
+        <v>154119.56899783062</v>
       </c>
       <c r="BA141" s="4">
-        <f t="shared" si="297"/>
-        <v>185238.92732801868</v>
+        <f>AZ141*(1+$AB$132)</f>
+        <v>155660.76468780893</v>
       </c>
       <c r="BB141" s="4">
-        <f t="shared" si="297"/>
-        <v>187091.31660129887</v>
+        <f>BA141*(1+$AB$132)</f>
+        <v>157217.37233468701</v>
       </c>
       <c r="BC141" s="4">
-        <f t="shared" si="297"/>
-        <v>188962.22976731186</v>
+        <f>BB141*(1+$AB$132)</f>
+        <v>158789.54605803388</v>
       </c>
       <c r="BD141" s="4">
-        <f t="shared" si="297"/>
-        <v>190851.85206498497</v>
+        <f>BC141*(1+$AB$132)</f>
+        <v>160377.44151861421</v>
       </c>
       <c r="BE141" s="4">
-        <f t="shared" si="297"/>
-        <v>192760.37058563481</v>
+        <f>BD141*(1+$AB$132)</f>
+        <v>161981.21593380035</v>
       </c>
       <c r="BF141" s="4">
-        <f t="shared" ref="BF141:CK141" si="298">BE141*(1+$AB$132)</f>
-        <v>194687.97429149115</v>
+        <f>BE141*(1+$AB$132)</f>
+        <v>163601.02809313836</v>
       </c>
       <c r="BG141" s="4">
-        <f t="shared" si="298"/>
-        <v>196634.85403440607</v>
+        <f>BF141*(1+$AB$132)</f>
+        <v>165237.03837406976</v>
       </c>
       <c r="BH141" s="4">
-        <f t="shared" si="298"/>
-        <v>198601.20257475015</v>
+        <f>BG141*(1+$AB$132)</f>
+        <v>166889.40875781045</v>
       </c>
       <c r="BI141" s="4">
-        <f t="shared" si="298"/>
-        <v>200587.21460049765</v>
+        <f>BH141*(1+$AB$132)</f>
+        <v>168558.30284538856</v>
       </c>
       <c r="BJ141" s="4">
-        <f t="shared" si="298"/>
-        <v>202593.08674650264</v>
+        <f>BI141*(1+$AB$132)</f>
+        <v>170243.88587384246</v>
       </c>
       <c r="BK141" s="4">
-        <f t="shared" si="298"/>
-        <v>204619.01761396768</v>
+        <f>BJ141*(1+$AB$132)</f>
+        <v>171946.32473258089</v>
       </c>
       <c r="BL141" s="4">
-        <f t="shared" si="298"/>
-        <v>206665.20779010735</v>
+        <f>BK141*(1+$AB$132)</f>
+        <v>173665.78797990672</v>
       </c>
       <c r="BM141" s="4">
-        <f t="shared" si="298"/>
-        <v>208731.85986800844</v>
+        <f>BL141*(1+$AB$132)</f>
+        <v>175402.4458597058</v>
       </c>
       <c r="BN141" s="4">
-        <f t="shared" si="298"/>
-        <v>210819.17846668852</v>
+        <f>BM141*(1+$AB$132)</f>
+        <v>177156.47031830286</v>
       </c>
       <c r="BO141" s="4">
-        <f t="shared" si="298"/>
-        <v>212927.3702513554</v>
+        <f>BN141*(1+$AB$132)</f>
+        <v>178928.03502148588</v>
       </c>
       <c r="BP141" s="4">
-        <f t="shared" si="298"/>
-        <v>215056.64395386894</v>
+        <f>BO141*(1+$AB$132)</f>
+        <v>180717.31537170074</v>
       </c>
       <c r="BQ141" s="4">
-        <f t="shared" si="298"/>
-        <v>217207.21039340764</v>
+        <f>BP141*(1+$AB$132)</f>
+        <v>182524.48852541775</v>
       </c>
       <c r="BR141" s="4">
-        <f t="shared" si="298"/>
-        <v>219379.28249734172</v>
+        <f>BQ141*(1+$AB$132)</f>
+        <v>184349.73341067194</v>
       </c>
       <c r="BS141" s="4">
-        <f t="shared" si="298"/>
-        <v>221573.07532231513</v>
+        <f>BR141*(1+$AB$132)</f>
+        <v>186193.23074477864</v>
       </c>
       <c r="BT141" s="4">
-        <f t="shared" si="298"/>
-        <v>223788.80607553828</v>
+        <f>BS141*(1+$AB$132)</f>
+        <v>188055.16305222645</v>
       </c>
       <c r="BU141" s="4">
-        <f t="shared" si="298"/>
-        <v>226026.69413629366</v>
+        <f>BT141*(1+$AB$132)</f>
+        <v>189935.71468274872</v>
       </c>
       <c r="BV141" s="4">
-        <f t="shared" si="298"/>
-        <v>228286.9610776566</v>
+        <f>BU141*(1+$AB$132)</f>
+        <v>191835.07182957619</v>
       </c>
       <c r="BW141" s="4">
-        <f t="shared" si="298"/>
-        <v>230569.83068843317</v>
+        <f>BV141*(1+$AB$132)</f>
+        <v>193753.42254787195</v>
       </c>
       <c r="BX141" s="4">
-        <f t="shared" si="298"/>
-        <v>232875.52899531749</v>
+        <f>BW141*(1+$AB$132)</f>
+        <v>195690.95677335066</v>
       </c>
       <c r="BY141" s="4">
-        <f t="shared" si="298"/>
-        <v>235204.28428527067</v>
+        <f>BX141*(1+$AB$132)</f>
+        <v>197647.86634108415</v>
       </c>
       <c r="BZ141" s="4">
-        <f t="shared" si="298"/>
-        <v>237556.32712812338</v>
+        <f>BY141*(1+$AB$132)</f>
+        <v>199624.345004495</v>
       </c>
       <c r="CA141" s="4">
-        <f t="shared" si="298"/>
-        <v>239931.8903994046</v>
+        <f>BZ141*(1+$AB$132)</f>
+        <v>201620.58845453995</v>
       </c>
       <c r="CB141" s="4">
-        <f t="shared" si="298"/>
-        <v>242331.20930339865</v>
+        <f>CA141*(1+$AB$132)</f>
+        <v>203636.79433908535</v>
       </c>
       <c r="CC141" s="4">
-        <f t="shared" si="298"/>
-        <v>244754.52139643262</v>
+        <f>CB141*(1+$AB$132)</f>
+        <v>205673.1622824762</v>
       </c>
       <c r="CD141" s="4">
-        <f t="shared" si="298"/>
-        <v>247202.06661039696</v>
+        <f>CC141*(1+$AB$132)</f>
+        <v>207729.89390530097</v>
       </c>
       <c r="CE141" s="4">
-        <f t="shared" si="298"/>
-        <v>249674.08727650094</v>
+        <f>CD141*(1+$AB$132)</f>
+        <v>209807.19284435397</v>
       </c>
       <c r="CF141" s="4">
-        <f t="shared" si="298"/>
-        <v>252170.82814926596</v>
+        <f>CE141*(1+$AB$132)</f>
+        <v>211905.2647727975</v>
       </c>
       <c r="CG141" s="4">
-        <f t="shared" si="298"/>
-        <v>254692.53643075863</v>
+        <f>CF141*(1+$AB$132)</f>
+        <v>214024.31742052548</v>
       </c>
       <c r="CH141" s="4">
-        <f t="shared" si="298"/>
-        <v>257239.46179506622</v>
+        <f>CG141*(1+$AB$132)</f>
+        <v>216164.56059473072</v>
       </c>
       <c r="CI141" s="4">
-        <f t="shared" si="298"/>
-        <v>259811.85641301688</v>
+        <f>CH141*(1+$AB$132)</f>
+        <v>218326.20620067802</v>
       </c>
       <c r="CJ141" s="4">
-        <f t="shared" si="298"/>
-        <v>262409.97497714707</v>
+        <f>CI141*(1+$AB$132)</f>
+        <v>220509.46826268479</v>
       </c>
       <c r="CK141" s="4">
-        <f t="shared" si="298"/>
-        <v>265034.07472691854</v>
+        <f>CJ141*(1+$AB$132)</f>
+        <v>222714.56294531166</v>
       </c>
       <c r="CL141" s="4">
-        <f t="shared" ref="CL141:DQ141" si="299">CK141*(1+$AB$132)</f>
-        <v>267684.4154741877</v>
+        <f>CK141*(1+$AB$132)</f>
+        <v>224941.70857476478</v>
       </c>
       <c r="CM141" s="4">
-        <f t="shared" si="299"/>
-        <v>270361.25962892961</v>
+        <f>CL141*(1+$AB$132)</f>
+        <v>227191.12566051242</v>
       </c>
       <c r="CN141" s="4">
-        <f t="shared" si="299"/>
-        <v>273064.87222521892</v>
+        <f>CM141*(1+$AB$132)</f>
+        <v>229463.03691711754</v>
       </c>
       <c r="CO141" s="4">
-        <f t="shared" si="299"/>
-        <v>275795.52094747109</v>
+        <f>CN141*(1+$AB$132)</f>
+        <v>231757.66728628872</v>
       </c>
       <c r="CP141" s="4">
-        <f t="shared" si="299"/>
-        <v>278553.47615694581</v>
+        <f>CO141*(1+$AB$132)</f>
+        <v>234075.24395915162</v>
       </c>
       <c r="CQ141" s="4">
-        <f t="shared" si="299"/>
-        <v>281339.01091851527</v>
+        <f>CP141*(1+$AB$132)</f>
+        <v>236415.99639874313</v>
       </c>
       <c r="CR141" s="4">
-        <f t="shared" si="299"/>
-        <v>284152.4010277004</v>
+        <f>CQ141*(1+$AB$132)</f>
+        <v>238780.15636273057</v>
       </c>
       <c r="CS141" s="4">
-        <f t="shared" si="299"/>
-        <v>286993.9250379774</v>
+        <f>CR141*(1+$AB$132)</f>
+        <v>241167.95792635789</v>
       </c>
       <c r="CT141" s="4">
-        <f t="shared" si="299"/>
-        <v>289863.8642883572</v>
+        <f>CS141*(1+$AB$132)</f>
+        <v>243579.63750562147</v>
       </c>
       <c r="CU141" s="4">
-        <f t="shared" si="299"/>
-        <v>292762.50293124077</v>
+        <f>CT141*(1+$AB$132)</f>
+        <v>246015.43388067768</v>
       </c>
       <c r="CV141" s="4">
-        <f t="shared" si="299"/>
-        <v>295690.12796055316</v>
+        <f>CU141*(1+$AB$132)</f>
+        <v>248475.58821948446</v>
       </c>
       <c r="CW141" s="4">
-        <f t="shared" si="299"/>
-        <v>298647.02924015868</v>
+        <f>CV141*(1+$AB$132)</f>
+        <v>250960.34410167931</v>
       </c>
       <c r="CX141" s="4">
-        <f t="shared" si="299"/>
-        <v>301633.49953256029</v>
+        <f>CW141*(1+$AB$132)</f>
+        <v>253469.94754269611</v>
       </c>
       <c r="CY141" s="4">
-        <f t="shared" si="299"/>
-        <v>304649.83452788589</v>
+        <f>CX141*(1+$AB$132)</f>
+        <v>256004.64701812307</v>
       </c>
       <c r="CZ141" s="4">
-        <f t="shared" si="299"/>
-        <v>307696.33287316473</v>
+        <f>CY141*(1+$AB$132)</f>
+        <v>258564.6934883043</v>
       </c>
       <c r="DA141" s="4">
-        <f t="shared" si="299"/>
-        <v>310773.29620189639</v>
+        <f>CZ141*(1+$AB$132)</f>
+        <v>261150.34042318736</v>
       </c>
       <c r="DB141" s="4">
-        <f t="shared" si="299"/>
-        <v>313881.02916391537</v>
+        <f>DA141*(1+$AB$132)</f>
+        <v>263761.84382741922</v>
       </c>
       <c r="DC141" s="4">
-        <f t="shared" si="299"/>
-        <v>317019.83945555455</v>
+        <f>DB141*(1+$AB$132)</f>
+        <v>266399.46226569341</v>
       </c>
       <c r="DD141" s="4">
-        <f t="shared" si="299"/>
-        <v>320190.03785011009</v>
+        <f>DC141*(1+$AB$132)</f>
+        <v>269063.45688835037</v>
       </c>
       <c r="DE141" s="4">
-        <f t="shared" si="299"/>
-        <v>323391.93822861119</v>
+        <f>DD141*(1+$AB$132)</f>
+        <v>271754.09145723388</v>
       </c>
       <c r="DF141" s="4">
-        <f t="shared" si="299"/>
-        <v>326625.85761089734</v>
+        <f>DE141*(1+$AB$132)</f>
+        <v>274471.63237180625</v>
       </c>
       <c r="DG141" s="4">
-        <f t="shared" si="299"/>
-        <v>329892.11618700629</v>
+        <f>DF141*(1+$AB$132)</f>
+        <v>277216.34869552433</v>
       </c>
       <c r="DH141" s="4">
-        <f t="shared" si="299"/>
-        <v>333191.03734887636</v>
+        <f>DG141*(1+$AB$132)</f>
+        <v>279988.51218247955</v>
       </c>
       <c r="DI141" s="4">
-        <f t="shared" si="299"/>
-        <v>336522.94772236515</v>
+        <f>DH141*(1+$AB$132)</f>
+        <v>282788.39730430435</v>
       </c>
       <c r="DJ141" s="4">
-        <f t="shared" si="299"/>
-        <v>339888.1771995888</v>
+        <f>DI141*(1+$AB$132)</f>
+        <v>285616.28127734741</v>
       </c>
       <c r="DK141" s="4">
-        <f t="shared" si="299"/>
-        <v>343287.05897158472</v>
+        <f>DJ141*(1+$AB$132)</f>
+        <v>288472.4440901209</v>
       </c>
       <c r="DL141" s="4">
-        <f t="shared" si="299"/>
-        <v>346719.92956130055</v>
+        <f>DK141*(1+$AB$132)</f>
+        <v>291357.16853102209</v>
       </c>
       <c r="DM141" s="4">
-        <f t="shared" si="299"/>
-        <v>350187.12885691354</v>
+        <f>DL141*(1+$AB$132)</f>
+        <v>294270.74021633231</v>
       </c>
       <c r="DN141" s="4">
-        <f t="shared" si="299"/>
-        <v>353689.00014548266</v>
+        <f>DM141*(1+$AB$132)</f>
+        <v>297213.44761849561</v>
       </c>
       <c r="DO141" s="4">
-        <f t="shared" si="299"/>
-        <v>357225.89014693751</v>
+        <f>DN141*(1+$AB$132)</f>
+        <v>300185.58209468058</v>
       </c>
       <c r="DP141" s="4">
-        <f t="shared" si="299"/>
-        <v>360798.14904840686</v>
+        <f>DO141*(1+$AB$132)</f>
+        <v>303187.43791562738</v>
       </c>
       <c r="DQ141" s="4">
-        <f t="shared" si="299"/>
-        <v>364406.13053889095</v>
+        <f>DP141*(1+$AB$132)</f>
+        <v>306219.31229478365</v>
       </c>
       <c r="DR141" s="4">
-        <f t="shared" ref="DR141:DZ141" si="300">DQ141*(1+$AB$132)</f>
-        <v>368050.19184427988</v>
+        <f>DQ141*(1+$AB$132)</f>
+        <v>309281.50541773147</v>
       </c>
       <c r="DS141" s="4">
-        <f t="shared" si="300"/>
-        <v>371730.69376272266</v>
+        <f>DR141*(1+$AB$132)</f>
+        <v>312374.32047190878</v>
       </c>
       <c r="DT141" s="4">
-        <f t="shared" si="300"/>
-        <v>375448.00070034986</v>
+        <f>DS141*(1+$AB$132)</f>
+        <v>315498.06367662788</v>
       </c>
       <c r="DU141" s="4">
-        <f t="shared" si="300"/>
-        <v>379202.48070735339</v>
+        <f>DT141*(1+$AB$132)</f>
+        <v>318653.04431339417</v>
       </c>
       <c r="DV141" s="4">
-        <f t="shared" si="300"/>
-        <v>382994.50551442691</v>
+        <f>DU141*(1+$AB$132)</f>
+        <v>321839.57475652813</v>
       </c>
       <c r="DW141" s="4">
-        <f t="shared" si="300"/>
-        <v>386824.45056957117</v>
+        <f>DV141*(1+$AB$132)</f>
+        <v>325057.97050409339</v>
       </c>
       <c r="DX141" s="4">
-        <f t="shared" si="300"/>
-        <v>390692.69507526688</v>
+        <f>DW141*(1+$AB$132)</f>
+        <v>328308.55020913435</v>
       </c>
       <c r="DY141" s="4">
-        <f t="shared" si="300"/>
-        <v>394599.62202601956</v>
+        <f>DX141*(1+$AB$132)</f>
+        <v>331591.63571122568</v>
       </c>
       <c r="DZ141" s="4">
-        <f t="shared" si="300"/>
-        <v>398545.61824627977</v>
+        <f>DY141*(1+$AB$132)</f>
+        <v>334907.55206833791</v>
       </c>
     </row>
     <row r="143" spans="1:130" x14ac:dyDescent="0.2">
@@ -10421,51 +10421,51 @@
         <v>8.7869190542829781E-2</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" ref="N143:O143" si="301">-N140/N5</f>
+        <f t="shared" ref="N143:O143" si="286">-N140/N5</f>
         <v>9.1947134014652848E-2</v>
       </c>
       <c r="O143" s="6">
-        <f t="shared" si="301"/>
+        <f t="shared" si="286"/>
         <v>0.11607124577745931</v>
       </c>
       <c r="P143" s="6">
-        <f t="shared" ref="P143:U143" si="302">-P140/P5</f>
+        <f t="shared" ref="P143:U143" si="287">-P140/P5</f>
         <v>0.09</v>
       </c>
       <c r="Q143" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="287"/>
         <v>0.09</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="287"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="S143" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="287"/>
         <v>0.09</v>
       </c>
       <c r="T143" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="287"/>
         <v>0.09</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="302"/>
+        <f t="shared" si="287"/>
         <v>0.09</v>
       </c>
       <c r="V143" s="6">
-        <f t="shared" ref="V143:Y143" si="303">-V140/V5</f>
+        <f t="shared" ref="V143:Y143" si="288">-V140/V5</f>
         <v>0.09</v>
       </c>
       <c r="W143" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="288"/>
         <v>0.09</v>
       </c>
       <c r="X143" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="288"/>
         <v>0.09</v>
       </c>
       <c r="Y143" s="6">
-        <f t="shared" si="303"/>
+        <f t="shared" si="288"/>
         <v>0.09</v>
       </c>
     </row>
@@ -10478,52 +10478,52 @@
         <v>0.18074685129262724</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" ref="N144:O144" si="304">N134/N5</f>
+        <f t="shared" ref="N144:O144" si="289">N134/N5</f>
         <v>0.13698035609105846</v>
       </c>
       <c r="O144" s="6">
-        <f t="shared" si="304"/>
+        <f t="shared" si="289"/>
         <v>0.15275872658409254</v>
       </c>
       <c r="P144" s="6">
-        <f t="shared" ref="P144:U144" si="305">P134/P5</f>
-        <v>0.14816663500394411</v>
+        <f t="shared" ref="P144:U144" si="290">P134/P5</f>
+        <v>0.1438727732323562</v>
       </c>
       <c r="Q144" s="6">
-        <f t="shared" si="305"/>
-        <v>0.16433972298023986</v>
+        <f t="shared" si="290"/>
+        <v>0.1583011925353251</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="305"/>
-        <v>0.18361501071564351</v>
+        <f t="shared" si="290"/>
+        <v>0.17531382974003312</v>
       </c>
       <c r="S144" s="6">
-        <f t="shared" si="305"/>
-        <v>0.20467153423607878</v>
+        <f t="shared" si="290"/>
+        <v>0.19397220622476072</v>
       </c>
       <c r="T144" s="6">
-        <f t="shared" si="305"/>
-        <v>0.2275062364461499</v>
+        <f t="shared" si="290"/>
+        <v>0.2143575343992451</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="305"/>
-        <v>0.25212519659082144</v>
+        <f t="shared" si="290"/>
+        <v>0.23509279317155379</v>
       </c>
       <c r="V144" s="6">
-        <f t="shared" ref="V144:Y144" si="306">V134/V5</f>
-        <v>0.25620510554042447</v>
+        <f t="shared" ref="V144:Y144" si="291">V134/V5</f>
+        <v>0.23537124563703299</v>
       </c>
       <c r="W144" s="6">
-        <f t="shared" si="306"/>
-        <v>0.2591100014846679</v>
+        <f t="shared" si="291"/>
+        <v>0.23523604469568568</v>
       </c>
       <c r="X144" s="6">
-        <f t="shared" si="306"/>
-        <v>0.26102985166788251</v>
+        <f t="shared" si="291"/>
+        <v>0.23492933493694051</v>
       </c>
       <c r="Y144" s="6">
-        <f t="shared" si="306"/>
-        <v>0.26224678444844784</v>
+        <f t="shared" si="291"/>
+        <v>0.23474315182565883</v>
       </c>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
@@ -10535,52 +10535,52 @@
         <v>9.2877660749797447E-2</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" ref="N145:O145" si="307">N141/N5</f>
+        <f t="shared" ref="N145:O145" si="292">N141/N5</f>
         <v>4.5033222076405609E-2</v>
       </c>
       <c r="O145" s="6">
-        <f t="shared" si="307"/>
+        <f t="shared" si="292"/>
         <v>3.6687480806633227E-2</v>
       </c>
       <c r="P145" s="6">
-        <f t="shared" ref="P145:U145" si="308">P141/P5</f>
-        <v>5.8166635003944117E-2</v>
+        <f t="shared" ref="P145:U145" si="293">P141/P5</f>
+        <v>5.3872773232356203E-2</v>
       </c>
       <c r="Q145" s="6">
-        <f t="shared" si="308"/>
-        <v>7.4339722980239858E-2</v>
+        <f t="shared" si="293"/>
+        <v>6.8301192535325086E-2</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="308"/>
-        <v>9.3615010715643515E-2</v>
+        <f t="shared" si="293"/>
+        <v>8.5313829740033112E-2</v>
       </c>
       <c r="S145" s="6">
-        <f t="shared" si="308"/>
-        <v>0.11467153423607877</v>
+        <f t="shared" si="293"/>
+        <v>0.10397220622476071</v>
       </c>
       <c r="T145" s="6">
-        <f t="shared" si="308"/>
-        <v>0.1375062364461499</v>
+        <f t="shared" si="293"/>
+        <v>0.1243575343992451</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="308"/>
-        <v>0.16212519659082142</v>
+        <f t="shared" si="293"/>
+        <v>0.1450927931715538</v>
       </c>
       <c r="V145" s="6">
-        <f t="shared" ref="V145:Y145" si="309">V141/V5</f>
-        <v>0.16620510554042447</v>
+        <f t="shared" ref="V145:Y145" si="294">V141/V5</f>
+        <v>0.14537124563703296</v>
       </c>
       <c r="W145" s="6">
-        <f t="shared" si="309"/>
-        <v>0.1691100014846679</v>
+        <f t="shared" si="294"/>
+        <v>0.14523604469568568</v>
       </c>
       <c r="X145" s="6">
-        <f t="shared" si="309"/>
-        <v>0.17102985166788251</v>
+        <f t="shared" si="294"/>
+        <v>0.14492933493694055</v>
       </c>
       <c r="Y145" s="6">
-        <f t="shared" si="309"/>
-        <v>0.17224678444844782</v>
+        <f t="shared" si="294"/>
+        <v>0.14474315182565883</v>
       </c>
     </row>
   </sheetData>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80D5860-4D0A-4EF2-930B-8A3667D480C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38614CE2-48B6-4050-9CD8-C2423DFC00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="345" windowWidth="22125" windowHeight="14250" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="5460" yWindow="225" windowWidth="21945" windowHeight="14445" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9599DFAE-09FB-4C1C-9676-BB65CCFD3CC8}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,11 +1081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EE7A2-9B92-42CF-8ECF-ED82CD9F983C}">
   <dimension ref="A1:FP145"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="V118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB134" sqref="AB134"/>
+      <selection pane="bottomRight" activeCell="AB129" sqref="AB129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1236,31 +1236,31 @@
       </c>
       <c r="S2" s="2">
         <f t="shared" si="6"/>
-        <v>206464.65723739116</v>
+        <v>191670.39141763683</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="6"/>
-        <v>258594.48870810229</v>
+        <v>215165.92139421334</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="6"/>
-        <v>291550.75898349611</v>
+        <v>244582.76343352528</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" ref="V2:Y2" si="7">(V46*V52)/1000000</f>
-        <v>333344.97335248115</v>
+        <v>282549.08616518771</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="7"/>
-        <v>388007.30453001201</v>
+        <v>333071.55253695411</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="7"/>
-        <v>461694.55482659745</v>
+        <v>402281.53904610535</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="7"/>
-        <v>563842.71940094559</v>
+        <v>499587.54283434339</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1455,31 +1455,31 @@
       </c>
       <c r="S5" s="4">
         <f t="shared" si="22"/>
-        <v>265396.12913339119</v>
+        <v>250601.86331363683</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="22"/>
-        <v>333474.68330314232</v>
+        <v>290046.11598925333</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" ref="U5:Y5" si="23">SUM(U2:U4)</f>
-        <v>386748.92055854574</v>
+        <v>339780.92500857491</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="23"/>
-        <v>454441.43006590271</v>
+        <v>403645.54287860927</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="23"/>
-        <v>542132.86812312272</v>
+        <v>487197.11613006482</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="23"/>
-        <v>657965.99813106307</v>
+        <v>598552.98235057096</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="23"/>
-        <v>813921.77688219398</v>
+        <v>749666.60031559179</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1519,31 +1519,31 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" si="24"/>
-        <v>138207.39590938119</v>
+        <v>128304.11764036267</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="24"/>
-        <v>164553.95405726915</v>
+        <v>136918.63009408372</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="24"/>
-        <v>174922.797078345</v>
+        <v>146743.23348053859</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" ref="V6:Y6" si="25">V2*(1-V22)</f>
-        <v>198664.76041507014</v>
+        <v>168391.75927560517</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="25"/>
-        <v>229674.40714590397</v>
+        <v>197156.11142617985</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="25"/>
-        <v>271408.31517109676</v>
+        <v>236482.22313981122</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="25"/>
-        <v>329132.50935535325</v>
+        <v>291624.76690386562</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="S9" s="2">
         <f t="shared" si="32"/>
-        <v>184263.46284700147</v>
+        <v>174360.18457798296</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="32"/>
-        <v>223085.79449652167</v>
+        <v>195450.47053333625</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" ref="U9:Y9" si="33">SUM(U6:U8)</f>
-        <v>249360.95576339721</v>
+        <v>221181.39216559078</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="33"/>
-        <v>293616.17445830576</v>
+        <v>263343.1733188408</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="33"/>
-        <v>350867.13973289484</v>
+        <v>318348.84401317069</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="33"/>
-        <v>426189.26748772501</v>
+        <v>391263.17545643949</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="33"/>
-        <v>526929.83845692943</v>
+        <v>489422.09600544185</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1831,31 +1831,31 @@
       </c>
       <c r="S10" s="4">
         <f t="shared" si="38"/>
-        <v>81132.666286389722</v>
+        <v>76241.67873565387</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="38"/>
-        <v>110388.88880662064</v>
+        <v>94595.645455917082</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" ref="U10:Y10" si="39">U5-U9</f>
-        <v>137387.96479514852</v>
+        <v>118599.53284298413</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="39"/>
-        <v>160825.25560759695</v>
+        <v>140302.36955976847</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="39"/>
-        <v>191265.72839022789</v>
+        <v>168848.27211689414</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="39"/>
-        <v>231776.73064333806</v>
+        <v>207289.80689413147</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="39"/>
-        <v>286991.93842526455</v>
+        <v>260244.50431014993</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1894,31 +1894,31 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="40"/>
-        <v>12333.89729005626</v>
+        <v>11646.355404277932</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="40"/>
-        <v>15497.748614968432</v>
+        <v>13479.46940926615</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="40"/>
-        <v>17973.590944168263</v>
+        <v>15790.821983201251</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" ref="V11:Y11" si="41">U11*(1+V30)</f>
-        <v>21119.501407505355</v>
+        <v>18758.836776219534</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="41"/>
-        <v>25194.832851663192</v>
+        <v>22641.774052927572</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="41"/>
-        <v>30578.008307042954</v>
+        <v>27816.875216210385</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="41"/>
-        <v>37825.825233341799</v>
+        <v>34839.659795606378</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1957,31 +1957,31 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="42"/>
-        <v>13991.09494356602</v>
+        <v>13211.17408194523</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="42"/>
-        <v>17580.045235041282</v>
+        <v>15290.587545753449</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="42"/>
-        <v>20388.544793494835</v>
+        <v>17912.496302530049</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" ref="V12:Y12" si="43">U12*(1+V30)</f>
-        <v>23957.14366710409</v>
+        <v>21279.297224125676</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="43"/>
-        <v>28580.041670939521</v>
+        <v>25683.95074285836</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="43"/>
-        <v>34686.507220544314</v>
+        <v>31554.384881824542</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="43"/>
-        <v>42908.149769099167</v>
+        <v>39520.759459773741</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -2050,31 +2050,31 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" ref="S13" si="51">SUM(S11:S12)</f>
-        <v>26324.992233622281</v>
+        <v>24857.52948622316</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" ref="T13:U13" si="52">SUM(T11:T12)</f>
-        <v>33077.793850009715</v>
+        <v>28770.056955019601</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="52"/>
-        <v>38362.135737663099</v>
+        <v>33703.3182857313</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ref="V13:Y13" si="53">SUM(V11:V12)</f>
-        <v>45076.645074609449</v>
+        <v>40038.134000345206</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="53"/>
-        <v>53774.874522602709</v>
+        <v>48325.724795785936</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="53"/>
-        <v>65264.515527587268</v>
+        <v>59371.260098034923</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="53"/>
-        <v>80733.975002440973</v>
+        <v>74360.419255380111</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="58"/>
-        <v>54807.674052767441</v>
+        <v>51384.149249430709</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="58"/>
-        <v>77311.094956610934</v>
+        <v>65825.588500897487</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ref="U14:Y14" si="59">U10-U13</f>
-        <v>99025.829057485418</v>
+        <v>84896.214557252824</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="59"/>
-        <v>115748.6105329875</v>
+        <v>100264.23555942326</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="59"/>
-        <v>137490.85386762518</v>
+        <v>120522.5473211082</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="59"/>
-        <v>166512.21511575079</v>
+        <v>147918.54679609655</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="59"/>
-        <v>206257.96342282358</v>
+        <v>185884.08505476982</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2205,44 +2205,44 @@
         <v>1219</v>
       </c>
       <c r="P15" s="2">
-        <f>O88*$AB$131</f>
+        <f t="shared" ref="P15:Y15" si="60">O88*$AB$131</f>
         <v>339.88</v>
       </c>
       <c r="Q15" s="2">
-        <f>P88*$AB$131</f>
+        <f t="shared" si="60"/>
         <v>626.37245433428404</v>
       </c>
       <c r="R15" s="2">
-        <f>Q88*$AB$131</f>
+        <f t="shared" si="60"/>
         <v>1066.8926715644207</v>
       </c>
       <c r="S15" s="2">
-        <f>R88*$AB$131</f>
+        <f t="shared" si="60"/>
         <v>1697.8481832622276</v>
       </c>
       <c r="T15" s="2">
-        <f>S88*$AB$131</f>
-        <v>2590.6354345914965</v>
+        <f t="shared" si="60"/>
+        <v>2536.5437426987764</v>
       </c>
       <c r="U15" s="2">
-        <f>T88*$AB$131</f>
-        <v>3853.0827747724952</v>
+        <f t="shared" si="60"/>
+        <v>3616.6654321475976</v>
       </c>
       <c r="V15" s="2">
-        <f>U88*$AB$131</f>
-        <v>5478.5695817221704</v>
+        <f t="shared" si="60"/>
+        <v>5015.1689359801239</v>
       </c>
       <c r="W15" s="2">
-        <f>V88*$AB$131</f>
-        <v>7393.9590275345836</v>
+        <f t="shared" si="60"/>
+        <v>6678.5835270074977</v>
       </c>
       <c r="X15" s="2">
-        <f>W88*$AB$131</f>
-        <v>9683.1390712781085</v>
+        <f t="shared" si="60"/>
+        <v>8688.361394407726</v>
       </c>
       <c r="Y15" s="2">
-        <f>X88*$AB$131</f>
-        <v>12467.025667433163</v>
+        <f t="shared" si="60"/>
+        <v>11162.750543817694</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2254,31 +2254,31 @@
         <v>1445</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:G16" si="60">D14+D15</f>
+        <f t="shared" ref="D16:G16" si="61">D14+D15</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>19798</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>802</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16" si="61">H14+H15</f>
+        <f t="shared" ref="H16" si="62">H14+H15</f>
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16" si="62">I14+I15</f>
+        <f t="shared" ref="I16" si="63">I14+I15</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16" si="63">J14+J15</f>
+        <f t="shared" ref="J16" si="64">J14+J15</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -2290,52 +2290,52 @@
         <v>13937</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:T16" si="64">N14+N15</f>
+        <f t="shared" ref="N16:T16" si="65">N14+N15</f>
         <v>9801</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8979</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>18132.433818625574</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>27881.026406970668</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>39933.893145430819</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="64"/>
-        <v>56505.522236029668</v>
+        <f t="shared" si="65"/>
+        <v>53081.997432692937</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="64"/>
-        <v>79901.730391202436</v>
+        <f t="shared" si="65"/>
+        <v>68362.132243596265</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" ref="U16:Y16" si="65">U14+U15</f>
-        <v>102878.91183225792</v>
+        <f t="shared" ref="U16:Y16" si="66">U14+U15</f>
+        <v>88512.879989400419</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="65"/>
-        <v>121227.18011470967</v>
+        <f t="shared" si="66"/>
+        <v>105279.40449540339</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="65"/>
-        <v>144884.81289515976</v>
+        <f t="shared" si="66"/>
+        <v>127201.1308481157</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="65"/>
-        <v>176195.35418702889</v>
+        <f t="shared" si="66"/>
+        <v>156606.90819050427</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="65"/>
-        <v>218724.98909025674</v>
+        <f t="shared" si="66"/>
+        <v>197046.83559858752</v>
       </c>
     </row>
     <row r="17" spans="2:172" x14ac:dyDescent="0.2">
@@ -2361,44 +2361,44 @@
         <v>1837</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:U17" si="66">P16*P32</f>
+        <f t="shared" ref="P17:U17" si="67">P16*P32</f>
         <v>3807.8111019113703</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5855.0155454638398</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8386.1175605404715</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="66"/>
-        <v>11866.15966956623</v>
+        <f t="shared" si="67"/>
+        <v>11147.219460865515</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="66"/>
-        <v>16779.363382152511</v>
+        <f t="shared" si="67"/>
+        <v>14356.047771155216</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="66"/>
-        <v>21604.571484774162</v>
+        <f t="shared" si="67"/>
+        <v>18587.704797774088</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" ref="V17:Y17" si="67">V16*V32</f>
-        <v>25457.70782408903</v>
+        <f t="shared" ref="V17:Y17" si="68">V16*V32</f>
+        <v>22108.674944034712</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="67"/>
-        <v>30425.81070798355</v>
+        <f t="shared" si="68"/>
+        <v>26712.237478104296</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="67"/>
-        <v>37001.024379276067</v>
+        <f t="shared" si="68"/>
+        <v>32887.450720005894</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="67"/>
-        <v>45932.247708953917</v>
+        <f t="shared" si="68"/>
+        <v>41379.835475703381</v>
       </c>
     </row>
     <row r="18" spans="2:172" x14ac:dyDescent="0.2">
@@ -2410,31 +2410,31 @@
         <v>962</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:G18" si="68">D16-D17</f>
+        <f t="shared" ref="D18:G18" si="69">D16-D17</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>19798</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>633</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18" si="69">H16-H17</f>
+        <f t="shared" ref="H18" si="70">H16-H17</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ref="I18" si="70">I16-I17</f>
+        <f t="shared" ref="I18" si="71">I16-I17</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18" si="71">J16-J17</f>
+        <f t="shared" ref="J18" si="72">J16-J17</f>
         <v>0</v>
       </c>
       <c r="K18" s="4"/>
@@ -2447,640 +2447,640 @@
         <v>12805</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:O18" si="72">N16-N17</f>
+        <f t="shared" ref="N18:O18" si="73">N16-N17</f>
         <v>14802</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7142</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="73">P16-P17</f>
+        <f t="shared" ref="P18" si="74">P16-P17</f>
         <v>14324.622716714202</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="74">Q16-Q17</f>
+        <f t="shared" ref="Q18" si="75">Q16-Q17</f>
         <v>22026.010861506827</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="75">R16-R17</f>
+        <f t="shared" ref="R18" si="76">R16-R17</f>
         <v>31547.775584890347</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18" si="76">S16-S17</f>
-        <v>44639.362566463438</v>
+        <f t="shared" ref="S18" si="77">S16-S17</f>
+        <v>41934.777971827425</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:U18" si="77">T16-T17</f>
-        <v>63122.367009049922</v>
+        <f t="shared" ref="T18:U18" si="78">T16-T17</f>
+        <v>54006.084472441049</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="77"/>
-        <v>81274.340347483754</v>
+        <f t="shared" si="78"/>
+        <v>69925.175191626331</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" ref="V18:Y18" si="78">V16-V17</f>
-        <v>95769.472290620644</v>
+        <f t="shared" ref="V18:Y18" si="79">V16-V17</f>
+        <v>83170.729551368684</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="78"/>
-        <v>114459.00218717621</v>
+        <f t="shared" si="79"/>
+        <v>100488.89337001141</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="78"/>
-        <v>139194.32980775283</v>
+        <f t="shared" si="79"/>
+        <v>123719.45747049837</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="78"/>
-        <v>172792.74138130283</v>
+        <f t="shared" si="79"/>
+        <v>155667.00012288414</v>
       </c>
       <c r="Z18" s="4">
-        <f>Y18*(1+$AB$132)</f>
-        <v>174520.66879511587</v>
+        <f t="shared" ref="Z18:BE18" si="80">Y18*(1+$AB$132)</f>
+        <v>157223.67012411298</v>
       </c>
       <c r="AA18" s="4">
-        <f>Z18*(1+$AB$132)</f>
-        <v>176265.87548306704</v>
+        <f t="shared" si="80"/>
+        <v>158795.90682535412</v>
       </c>
       <c r="AB18" s="4">
-        <f>AA18*(1+$AB$132)</f>
-        <v>178028.53423789772</v>
+        <f t="shared" si="80"/>
+        <v>160383.86589360767</v>
       </c>
       <c r="AC18" s="4">
-        <f>AB18*(1+$AB$132)</f>
-        <v>179808.8195802767</v>
+        <f t="shared" si="80"/>
+        <v>161987.70455254376</v>
       </c>
       <c r="AD18" s="4">
-        <f>AC18*(1+$AB$132)</f>
-        <v>181606.90777607946</v>
+        <f t="shared" si="80"/>
+        <v>163607.5815980692</v>
       </c>
       <c r="AE18" s="4">
-        <f>AD18*(1+$AB$132)</f>
-        <v>183422.97685384026</v>
+        <f t="shared" si="80"/>
+        <v>165243.6574140499</v>
       </c>
       <c r="AF18" s="4">
-        <f>AE18*(1+$AB$132)</f>
-        <v>185257.20662237867</v>
+        <f t="shared" si="80"/>
+        <v>166896.09398819041</v>
       </c>
       <c r="AG18" s="4">
-        <f>AF18*(1+$AB$132)</f>
-        <v>187109.77868860247</v>
+        <f t="shared" si="80"/>
+        <v>168565.05492807232</v>
       </c>
       <c r="AH18" s="4">
-        <f>AG18*(1+$AB$132)</f>
-        <v>188980.87647548851</v>
+        <f t="shared" si="80"/>
+        <v>170250.70547735304</v>
       </c>
       <c r="AI18" s="4">
-        <f>AH18*(1+$AB$132)</f>
-        <v>190870.68524024339</v>
+        <f t="shared" si="80"/>
+        <v>171953.21253212658</v>
       </c>
       <c r="AJ18" s="4">
-        <f>AI18*(1+$AB$132)</f>
-        <v>192779.39209264581</v>
+        <f t="shared" si="80"/>
+        <v>173672.74465744785</v>
       </c>
       <c r="AK18" s="4">
-        <f>AJ18*(1+$AB$132)</f>
-        <v>194707.18601357227</v>
+        <f t="shared" si="80"/>
+        <v>175409.47210402234</v>
       </c>
       <c r="AL18" s="4">
-        <f>AK18*(1+$AB$132)</f>
-        <v>196654.257873708</v>
+        <f t="shared" si="80"/>
+        <v>177163.56682506256</v>
       </c>
       <c r="AM18" s="4">
-        <f>AL18*(1+$AB$132)</f>
-        <v>198620.80045244508</v>
+        <f t="shared" si="80"/>
+        <v>178935.20249331318</v>
       </c>
       <c r="AN18" s="4">
-        <f>AM18*(1+$AB$132)</f>
-        <v>200607.00845696955</v>
+        <f t="shared" si="80"/>
+        <v>180724.5545182463</v>
       </c>
       <c r="AO18" s="4">
-        <f>AN18*(1+$AB$132)</f>
-        <v>202613.07854153923</v>
+        <f t="shared" si="80"/>
+        <v>182531.80006342876</v>
       </c>
       <c r="AP18" s="4">
-        <f>AO18*(1+$AB$132)</f>
-        <v>204639.20932695462</v>
+        <f t="shared" si="80"/>
+        <v>184357.11806406305</v>
       </c>
       <c r="AQ18" s="4">
-        <f>AP18*(1+$AB$132)</f>
-        <v>206685.60142022418</v>
+        <f t="shared" si="80"/>
+        <v>186200.68924470368</v>
       </c>
       <c r="AR18" s="4">
-        <f>AQ18*(1+$AB$132)</f>
-        <v>208752.45743442641</v>
+        <f t="shared" si="80"/>
+        <v>188062.69613715072</v>
       </c>
       <c r="AS18" s="4">
-        <f>AR18*(1+$AB$132)</f>
-        <v>210839.98200877069</v>
+        <f t="shared" si="80"/>
+        <v>189943.32309852223</v>
       </c>
       <c r="AT18" s="4">
-        <f>AS18*(1+$AB$132)</f>
-        <v>212948.3818288584</v>
+        <f t="shared" si="80"/>
+        <v>191842.75632950745</v>
       </c>
       <c r="AU18" s="4">
-        <f>AT18*(1+$AB$132)</f>
-        <v>215077.86564714697</v>
+        <f t="shared" si="80"/>
+        <v>193761.18389280254</v>
       </c>
       <c r="AV18" s="4">
-        <f>AU18*(1+$AB$132)</f>
-        <v>217228.64430361844</v>
+        <f t="shared" si="80"/>
+        <v>195698.79573173056</v>
       </c>
       <c r="AW18" s="4">
-        <f>AV18*(1+$AB$132)</f>
-        <v>219400.93074665463</v>
+        <f t="shared" si="80"/>
+        <v>197655.78368904785</v>
       </c>
       <c r="AX18" s="4">
-        <f>AW18*(1+$AB$132)</f>
-        <v>221594.94005412117</v>
+        <f t="shared" si="80"/>
+        <v>199632.34152593833</v>
       </c>
       <c r="AY18" s="4">
-        <f>AX18*(1+$AB$132)</f>
-        <v>223810.88945466239</v>
+        <f t="shared" si="80"/>
+        <v>201628.66494119773</v>
       </c>
       <c r="AZ18" s="4">
-        <f>AY18*(1+$AB$132)</f>
-        <v>226048.99834920903</v>
+        <f t="shared" si="80"/>
+        <v>203644.95159060971</v>
       </c>
       <c r="BA18" s="4">
-        <f>AZ18*(1+$AB$132)</f>
-        <v>228309.48833270112</v>
+        <f t="shared" si="80"/>
+        <v>205681.40110651581</v>
       </c>
       <c r="BB18" s="4">
-        <f>BA18*(1+$AB$132)</f>
-        <v>230592.58321602814</v>
+        <f t="shared" si="80"/>
+        <v>207738.21511758098</v>
       </c>
       <c r="BC18" s="4">
-        <f>BB18*(1+$AB$132)</f>
-        <v>232898.50904818843</v>
+        <f t="shared" si="80"/>
+        <v>209815.5972687568</v>
       </c>
       <c r="BD18" s="4">
-        <f>BC18*(1+$AB$132)</f>
-        <v>235227.4941386703</v>
+        <f t="shared" si="80"/>
+        <v>211913.75324144436</v>
       </c>
       <c r="BE18" s="4">
-        <f>BD18*(1+$AB$132)</f>
-        <v>237579.76908005701</v>
+        <f t="shared" si="80"/>
+        <v>214032.89077385879</v>
       </c>
       <c r="BF18" s="4">
-        <f>BE18*(1+$AB$132)</f>
-        <v>239955.56677085758</v>
+        <f t="shared" ref="BF18:CK18" si="81">BE18*(1+$AB$132)</f>
+        <v>216173.21968159737</v>
       </c>
       <c r="BG18" s="4">
-        <f>BF18*(1+$AB$132)</f>
-        <v>242355.12243856615</v>
+        <f t="shared" si="81"/>
+        <v>218334.95187841335</v>
       </c>
       <c r="BH18" s="4">
-        <f>BG18*(1+$AB$132)</f>
-        <v>244778.6736629518</v>
+        <f t="shared" si="81"/>
+        <v>220518.3013971975</v>
       </c>
       <c r="BI18" s="4">
-        <f>BH18*(1+$AB$132)</f>
-        <v>247226.46039958132</v>
+        <f t="shared" si="81"/>
+        <v>222723.48441116948</v>
       </c>
       <c r="BJ18" s="4">
-        <f>BI18*(1+$AB$132)</f>
-        <v>249698.72500357713</v>
+        <f t="shared" si="81"/>
+        <v>224950.71925528118</v>
       </c>
       <c r="BK18" s="4">
-        <f>BJ18*(1+$AB$132)</f>
-        <v>252195.7122536129</v>
+        <f t="shared" si="81"/>
+        <v>227200.22644783399</v>
       </c>
       <c r="BL18" s="4">
-        <f>BK18*(1+$AB$132)</f>
-        <v>254717.66937614905</v>
+        <f t="shared" si="81"/>
+        <v>229472.22871231232</v>
       </c>
       <c r="BM18" s="4">
-        <f>BL18*(1+$AB$132)</f>
-        <v>257264.84606991053</v>
+        <f t="shared" si="81"/>
+        <v>231766.95099943544</v>
       </c>
       <c r="BN18" s="4">
-        <f>BM18*(1+$AB$132)</f>
-        <v>259837.49453060963</v>
+        <f t="shared" si="81"/>
+        <v>234084.62050942981</v>
       </c>
       <c r="BO18" s="4">
-        <f>BN18*(1+$AB$132)</f>
-        <v>262435.86947591574</v>
+        <f t="shared" si="81"/>
+        <v>236425.46671452411</v>
       </c>
       <c r="BP18" s="4">
-        <f>BO18*(1+$AB$132)</f>
-        <v>265060.22817067488</v>
+        <f t="shared" si="81"/>
+        <v>238789.72138166934</v>
       </c>
       <c r="BQ18" s="4">
-        <f>BP18*(1+$AB$132)</f>
-        <v>267710.83045238163</v>
+        <f t="shared" si="81"/>
+        <v>241177.61859548604</v>
       </c>
       <c r="BR18" s="4">
-        <f>BQ18*(1+$AB$132)</f>
-        <v>270387.93875690544</v>
+        <f t="shared" si="81"/>
+        <v>243589.3947814409</v>
       </c>
       <c r="BS18" s="4">
-        <f>BR18*(1+$AB$132)</f>
-        <v>273091.81814447447</v>
+        <f t="shared" si="81"/>
+        <v>246025.28872925532</v>
       </c>
       <c r="BT18" s="4">
-        <f>BS18*(1+$AB$132)</f>
-        <v>275822.73632591922</v>
+        <f t="shared" si="81"/>
+        <v>248485.54161654788</v>
       </c>
       <c r="BU18" s="4">
-        <f>BT18*(1+$AB$132)</f>
-        <v>278580.9636891784</v>
+        <f t="shared" si="81"/>
+        <v>250970.39703271337</v>
       </c>
       <c r="BV18" s="4">
-        <f>BU18*(1+$AB$132)</f>
-        <v>281366.77332607016</v>
+        <f t="shared" si="81"/>
+        <v>253480.1010030405</v>
       </c>
       <c r="BW18" s="4">
-        <f>BV18*(1+$AB$132)</f>
-        <v>284180.44105933089</v>
+        <f t="shared" si="81"/>
+        <v>256014.90201307091</v>
       </c>
       <c r="BX18" s="4">
-        <f>BW18*(1+$AB$132)</f>
-        <v>287022.24546992418</v>
+        <f t="shared" si="81"/>
+        <v>258575.05103320163</v>
       </c>
       <c r="BY18" s="4">
-        <f>BX18*(1+$AB$132)</f>
-        <v>289892.4679246234</v>
+        <f t="shared" si="81"/>
+        <v>261160.80154353366</v>
       </c>
       <c r="BZ18" s="4">
-        <f>BY18*(1+$AB$132)</f>
-        <v>292791.39260386967</v>
+        <f t="shared" si="81"/>
+        <v>263772.40955896897</v>
       </c>
       <c r="CA18" s="4">
-        <f>BZ18*(1+$AB$132)</f>
-        <v>295719.30652990838</v>
+        <f t="shared" si="81"/>
+        <v>266410.13365455868</v>
       </c>
       <c r="CB18" s="4">
-        <f>CA18*(1+$AB$132)</f>
-        <v>298676.49959520745</v>
+        <f t="shared" si="81"/>
+        <v>269074.23499110428</v>
       </c>
       <c r="CC18" s="4">
-        <f>CB18*(1+$AB$132)</f>
-        <v>301663.26459115953</v>
+        <f t="shared" si="81"/>
+        <v>271764.97734101536</v>
       </c>
       <c r="CD18" s="4">
-        <f>CC18*(1+$AB$132)</f>
-        <v>304679.89723707113</v>
+        <f t="shared" si="81"/>
+        <v>274482.62711442553</v>
       </c>
       <c r="CE18" s="4">
-        <f>CD18*(1+$AB$132)</f>
-        <v>307726.69620944181</v>
+        <f t="shared" si="81"/>
+        <v>277227.4533855698</v>
       </c>
       <c r="CF18" s="4">
-        <f>CE18*(1+$AB$132)</f>
-        <v>310803.96317153622</v>
+        <f t="shared" si="81"/>
+        <v>279999.72791942552</v>
       </c>
       <c r="CG18" s="4">
-        <f>CF18*(1+$AB$132)</f>
-        <v>313912.00280325161</v>
+        <f t="shared" si="81"/>
+        <v>282799.72519861977</v>
       </c>
       <c r="CH18" s="4">
-        <f>CG18*(1+$AB$132)</f>
-        <v>317051.12283128413</v>
+        <f t="shared" si="81"/>
+        <v>285627.72245060594</v>
       </c>
       <c r="CI18" s="4">
-        <f>CH18*(1+$AB$132)</f>
-        <v>320221.63405959698</v>
+        <f t="shared" si="81"/>
+        <v>288483.99967511202</v>
       </c>
       <c r="CJ18" s="4">
-        <f>CI18*(1+$AB$132)</f>
-        <v>323423.85040019295</v>
+        <f t="shared" si="81"/>
+        <v>291368.83967186313</v>
       </c>
       <c r="CK18" s="4">
-        <f>CJ18*(1+$AB$132)</f>
-        <v>326658.08890419488</v>
+        <f t="shared" si="81"/>
+        <v>294282.52806858177</v>
       </c>
       <c r="CL18" s="4">
-        <f>CK18*(1+$AB$132)</f>
-        <v>329924.66979323683</v>
+        <f t="shared" ref="CL18:DQ18" si="82">CK18*(1+$AB$132)</f>
+        <v>297225.35334926756</v>
       </c>
       <c r="CM18" s="4">
-        <f>CL18*(1+$AB$132)</f>
-        <v>333223.91649116919</v>
+        <f t="shared" si="82"/>
+        <v>300197.60688276024</v>
       </c>
       <c r="CN18" s="4">
-        <f>CM18*(1+$AB$132)</f>
-        <v>336556.15565608087</v>
+        <f t="shared" si="82"/>
+        <v>303199.58295158786</v>
       </c>
       <c r="CO18" s="4">
-        <f>CN18*(1+$AB$132)</f>
-        <v>339921.71721264167</v>
+        <f t="shared" si="82"/>
+        <v>306231.57878110372</v>
       </c>
       <c r="CP18" s="4">
-        <f>CO18*(1+$AB$132)</f>
-        <v>343320.93438476807</v>
+        <f t="shared" si="82"/>
+        <v>309293.89456891478</v>
       </c>
       <c r="CQ18" s="4">
-        <f>CP18*(1+$AB$132)</f>
-        <v>346754.14372861577</v>
+        <f t="shared" si="82"/>
+        <v>312386.8335146039</v>
       </c>
       <c r="CR18" s="4">
-        <f>CQ18*(1+$AB$132)</f>
-        <v>350221.68516590196</v>
+        <f t="shared" si="82"/>
+        <v>315510.70184974995</v>
       </c>
       <c r="CS18" s="4">
-        <f>CR18*(1+$AB$132)</f>
-        <v>353723.90201756096</v>
+        <f t="shared" si="82"/>
+        <v>318665.80886824743</v>
       </c>
       <c r="CT18" s="4">
-        <f>CS18*(1+$AB$132)</f>
-        <v>357261.14103773655</v>
+        <f t="shared" si="82"/>
+        <v>321852.46695692989</v>
       </c>
       <c r="CU18" s="4">
-        <f>CT18*(1+$AB$132)</f>
-        <v>360833.75244811393</v>
+        <f t="shared" si="82"/>
+        <v>325070.99162649916</v>
       </c>
       <c r="CV18" s="4">
-        <f>CU18*(1+$AB$132)</f>
-        <v>364442.08997259504</v>
+        <f t="shared" si="82"/>
+        <v>328321.70154276415</v>
       </c>
       <c r="CW18" s="4">
-        <f>CV18*(1+$AB$132)</f>
-        <v>368086.51087232097</v>
+        <f t="shared" si="82"/>
+        <v>331604.9185581918</v>
       </c>
       <c r="CX18" s="4">
-        <f>CW18*(1+$AB$132)</f>
-        <v>371767.3759810442</v>
+        <f t="shared" si="82"/>
+        <v>334920.96774377371</v>
       </c>
       <c r="CY18" s="4">
-        <f>CX18*(1+$AB$132)</f>
-        <v>375485.04974085465</v>
+        <f t="shared" si="82"/>
+        <v>338270.17742121144</v>
       </c>
       <c r="CZ18" s="4">
-        <f>CY18*(1+$AB$132)</f>
-        <v>379239.90023826319</v>
+        <f t="shared" si="82"/>
+        <v>341652.87919542356</v>
       </c>
       <c r="DA18" s="4">
-        <f>CZ18*(1+$AB$132)</f>
-        <v>383032.29924064584</v>
+        <f t="shared" si="82"/>
+        <v>345069.40798737778</v>
       </c>
       <c r="DB18" s="4">
-        <f>DA18*(1+$AB$132)</f>
-        <v>386862.62223305227</v>
+        <f t="shared" si="82"/>
+        <v>348520.10206725157</v>
       </c>
       <c r="DC18" s="4">
-        <f>DB18*(1+$AB$132)</f>
-        <v>390731.24845538283</v>
+        <f t="shared" si="82"/>
+        <v>352005.30308792408</v>
       </c>
       <c r="DD18" s="4">
-        <f>DC18*(1+$AB$132)</f>
-        <v>394638.56093993667</v>
+        <f t="shared" si="82"/>
+        <v>355525.35611880332</v>
       </c>
       <c r="DE18" s="4">
-        <f>DD18*(1+$AB$132)</f>
-        <v>398584.94654933602</v>
+        <f t="shared" si="82"/>
+        <v>359080.60967999138</v>
       </c>
       <c r="DF18" s="4">
-        <f>DE18*(1+$AB$132)</f>
-        <v>402570.79601482936</v>
+        <f t="shared" si="82"/>
+        <v>362671.41577679128</v>
       </c>
       <c r="DG18" s="4">
-        <f>DF18*(1+$AB$132)</f>
-        <v>406596.50397497765</v>
+        <f t="shared" si="82"/>
+        <v>366298.12993455923</v>
       </c>
       <c r="DH18" s="4">
-        <f>DG18*(1+$AB$132)</f>
-        <v>410662.46901472745</v>
+        <f t="shared" si="82"/>
+        <v>369961.11123390484</v>
       </c>
       <c r="DI18" s="4">
-        <f>DH18*(1+$AB$132)</f>
-        <v>414769.09370487474</v>
+        <f t="shared" si="82"/>
+        <v>373660.72234624391</v>
       </c>
       <c r="DJ18" s="4">
-        <f>DI18*(1+$AB$132)</f>
-        <v>418916.7846419235</v>
+        <f t="shared" si="82"/>
+        <v>377397.32956970634</v>
       </c>
       <c r="DK18" s="4">
-        <f>DJ18*(1+$AB$132)</f>
-        <v>423105.95248834277</v>
+        <f t="shared" si="82"/>
+        <v>381171.30286540341</v>
       </c>
       <c r="DL18" s="4">
-        <f>DK18*(1+$AB$132)</f>
-        <v>427337.01201322622</v>
+        <f t="shared" si="82"/>
+        <v>384983.01589405746</v>
       </c>
       <c r="DM18" s="4">
-        <f>DL18*(1+$AB$132)</f>
-        <v>431610.38213335851</v>
+        <f t="shared" si="82"/>
+        <v>388832.84605299804</v>
       </c>
       <c r="DN18" s="4">
-        <f>DM18*(1+$AB$132)</f>
-        <v>435926.48595469212</v>
+        <f t="shared" si="82"/>
+        <v>392721.17451352801</v>
       </c>
       <c r="DO18" s="4">
-        <f>DN18*(1+$AB$132)</f>
-        <v>440285.75081423903</v>
+        <f t="shared" si="82"/>
+        <v>396648.38625866332</v>
       </c>
       <c r="DP18" s="4">
-        <f>DO18*(1+$AB$132)</f>
-        <v>444688.60832238145</v>
+        <f t="shared" si="82"/>
+        <v>400614.87012124993</v>
       </c>
       <c r="DQ18" s="4">
-        <f>DP18*(1+$AB$132)</f>
-        <v>449135.49440560525</v>
+        <f t="shared" si="82"/>
+        <v>404621.01882246241</v>
       </c>
       <c r="DR18" s="4">
-        <f>DQ18*(1+$AB$132)</f>
-        <v>453626.84934966132</v>
+        <f t="shared" ref="DR18:EW18" si="83">DQ18*(1+$AB$132)</f>
+        <v>408667.22901068704</v>
       </c>
       <c r="DS18" s="4">
-        <f>DR18*(1+$AB$132)</f>
-        <v>458163.11784315796</v>
+        <f t="shared" si="83"/>
+        <v>412753.90130079392</v>
       </c>
       <c r="DT18" s="4">
-        <f>DS18*(1+$AB$132)</f>
-        <v>462744.74902158952</v>
+        <f t="shared" si="83"/>
+        <v>416881.44031380187</v>
       </c>
       <c r="DU18" s="4">
-        <f>DT18*(1+$AB$132)</f>
-        <v>467372.19651180541</v>
+        <f t="shared" si="83"/>
+        <v>421050.25471693987</v>
       </c>
       <c r="DV18" s="4">
-        <f>DU18*(1+$AB$132)</f>
-        <v>472045.91847692349</v>
+        <f t="shared" si="83"/>
+        <v>425260.75726410927</v>
       </c>
       <c r="DW18" s="4">
-        <f>DV18*(1+$AB$132)</f>
-        <v>476766.37766169274</v>
+        <f t="shared" si="83"/>
+        <v>429513.36483675038</v>
       </c>
       <c r="DX18" s="4">
-        <f>DW18*(1+$AB$132)</f>
-        <v>481534.04143830965</v>
+        <f t="shared" si="83"/>
+        <v>433808.49848511786</v>
       </c>
       <c r="DY18" s="4">
-        <f>DX18*(1+$AB$132)</f>
-        <v>486349.38185269275</v>
+        <f t="shared" si="83"/>
+        <v>438146.58346996905</v>
       </c>
       <c r="DZ18" s="4">
-        <f>DY18*(1+$AB$132)</f>
-        <v>491212.87567121966</v>
+        <f t="shared" si="83"/>
+        <v>442528.04930466873</v>
       </c>
       <c r="EA18" s="4">
-        <f>DZ18*(1+$AB$132)</f>
-        <v>496125.00442793185</v>
+        <f t="shared" si="83"/>
+        <v>446953.32979771541</v>
       </c>
       <c r="EB18" s="4">
-        <f>EA18*(1+$AB$132)</f>
-        <v>501086.25447221118</v>
+        <f t="shared" si="83"/>
+        <v>451422.86309569259</v>
       </c>
       <c r="EC18" s="4">
-        <f>EB18*(1+$AB$132)</f>
-        <v>506097.11701693328</v>
+        <f t="shared" si="83"/>
+        <v>455937.09172664949</v>
       </c>
       <c r="ED18" s="4">
-        <f>EC18*(1+$AB$132)</f>
-        <v>511158.08818710264</v>
+        <f t="shared" si="83"/>
+        <v>460496.46264391602</v>
       </c>
       <c r="EE18" s="4">
-        <f>ED18*(1+$AB$132)</f>
-        <v>516269.66906897369</v>
+        <f t="shared" si="83"/>
+        <v>465101.42727035517</v>
       </c>
       <c r="EF18" s="4">
-        <f>EE18*(1+$AB$132)</f>
-        <v>521432.3657596634</v>
+        <f t="shared" si="83"/>
+        <v>469752.44154305873</v>
       </c>
       <c r="EG18" s="4">
-        <f>EF18*(1+$AB$132)</f>
-        <v>526646.68941726</v>
+        <f t="shared" si="83"/>
+        <v>474449.96595848934</v>
       </c>
       <c r="EH18" s="4">
-        <f>EG18*(1+$AB$132)</f>
-        <v>531913.1563114326</v>
+        <f t="shared" si="83"/>
+        <v>479194.46561807423</v>
       </c>
       <c r="EI18" s="4">
-        <f>EH18*(1+$AB$132)</f>
-        <v>537232.28787454695</v>
+        <f t="shared" si="83"/>
+        <v>483986.41027425497</v>
       </c>
       <c r="EJ18" s="4">
-        <f>EI18*(1+$AB$132)</f>
-        <v>542604.61075329245</v>
+        <f t="shared" si="83"/>
+        <v>488826.27437699755</v>
       </c>
       <c r="EK18" s="4">
-        <f>EJ18*(1+$AB$132)</f>
-        <v>548030.65686082537</v>
+        <f t="shared" si="83"/>
+        <v>493714.53712076752</v>
       </c>
       <c r="EL18" s="4">
-        <f>EK18*(1+$AB$132)</f>
-        <v>553510.96342943364</v>
+        <f t="shared" si="83"/>
+        <v>498651.6824919752</v>
       </c>
       <c r="EM18" s="4">
-        <f>EL18*(1+$AB$132)</f>
-        <v>559046.07306372793</v>
+        <f t="shared" si="83"/>
+        <v>503638.19931689493</v>
       </c>
       <c r="EN18" s="4">
-        <f>EM18*(1+$AB$132)</f>
-        <v>564636.53379436524</v>
+        <f t="shared" si="83"/>
+        <v>508674.58131006389</v>
       </c>
       <c r="EO18" s="4">
-        <f>EN18*(1+$AB$132)</f>
-        <v>570282.8991323089</v>
+        <f t="shared" si="83"/>
+        <v>513761.32712316455</v>
       </c>
       <c r="EP18" s="4">
-        <f>EO18*(1+$AB$132)</f>
-        <v>575985.72812363203</v>
+        <f t="shared" si="83"/>
+        <v>518898.9403943962</v>
       </c>
       <c r="EQ18" s="4">
-        <f>EP18*(1+$AB$132)</f>
-        <v>581745.58540486835</v>
+        <f t="shared" si="83"/>
+        <v>524087.92979834013</v>
       </c>
       <c r="ER18" s="4">
-        <f>EQ18*(1+$AB$132)</f>
-        <v>587563.04125891707</v>
+        <f t="shared" si="83"/>
+        <v>529328.80909632356</v>
       </c>
       <c r="ES18" s="4">
-        <f>ER18*(1+$AB$132)</f>
-        <v>593438.67167150625</v>
+        <f t="shared" si="83"/>
+        <v>534622.09718728682</v>
       </c>
       <c r="ET18" s="4">
-        <f>ES18*(1+$AB$132)</f>
-        <v>599373.05838822131</v>
+        <f t="shared" si="83"/>
+        <v>539968.31815915974</v>
       </c>
       <c r="EU18" s="4">
-        <f>ET18*(1+$AB$132)</f>
-        <v>605366.7889721035</v>
+        <f t="shared" si="83"/>
+        <v>545368.0013407513</v>
       </c>
       <c r="EV18" s="4">
-        <f>EU18*(1+$AB$132)</f>
-        <v>611420.4568618245</v>
+        <f t="shared" si="83"/>
+        <v>550821.68135415879</v>
       </c>
       <c r="EW18" s="4">
-        <f>EV18*(1+$AB$132)</f>
-        <v>617534.66143044271</v>
+        <f t="shared" si="83"/>
+        <v>556329.89816770039</v>
       </c>
       <c r="EX18" s="4">
-        <f>EW18*(1+$AB$132)</f>
-        <v>623710.00804474717</v>
+        <f t="shared" ref="EX18:FP18" si="84">EW18*(1+$AB$132)</f>
+        <v>561893.19714937743</v>
       </c>
       <c r="EY18" s="4">
-        <f>EX18*(1+$AB$132)</f>
-        <v>629947.10812519467</v>
+        <f t="shared" si="84"/>
+        <v>567512.12912087119</v>
       </c>
       <c r="EZ18" s="4">
-        <f>EY18*(1+$AB$132)</f>
-        <v>636246.57920644665</v>
+        <f t="shared" si="84"/>
+        <v>573187.25041207985</v>
       </c>
       <c r="FA18" s="4">
-        <f>EZ18*(1+$AB$132)</f>
-        <v>642609.04499851109</v>
+        <f t="shared" si="84"/>
+        <v>578919.12291620066</v>
       </c>
       <c r="FB18" s="4">
-        <f>FA18*(1+$AB$132)</f>
-        <v>649035.13544849621</v>
+        <f t="shared" si="84"/>
+        <v>584708.3141453627</v>
       </c>
       <c r="FC18" s="4">
-        <f>FB18*(1+$AB$132)</f>
-        <v>655525.48680298112</v>
+        <f t="shared" si="84"/>
+        <v>590555.39728681638</v>
       </c>
       <c r="FD18" s="4">
-        <f>FC18*(1+$AB$132)</f>
-        <v>662080.74167101097</v>
+        <f t="shared" si="84"/>
+        <v>596460.95125968452</v>
       </c>
       <c r="FE18" s="4">
-        <f>FD18*(1+$AB$132)</f>
-        <v>668701.54908772104</v>
+        <f t="shared" si="84"/>
+        <v>602425.56077228137</v>
       </c>
       <c r="FF18" s="4">
-        <f>FE18*(1+$AB$132)</f>
-        <v>675388.56457859825</v>
+        <f t="shared" si="84"/>
+        <v>608449.81638000417</v>
       </c>
       <c r="FG18" s="4">
-        <f>FF18*(1+$AB$132)</f>
-        <v>682142.4502243842</v>
+        <f t="shared" si="84"/>
+        <v>614534.31454380427</v>
       </c>
       <c r="FH18" s="4">
-        <f>FG18*(1+$AB$132)</f>
-        <v>688963.87472662807</v>
+        <f t="shared" si="84"/>
+        <v>620679.65768924227</v>
       </c>
       <c r="FI18" s="4">
-        <f>FH18*(1+$AB$132)</f>
-        <v>695853.51347389433</v>
+        <f t="shared" si="84"/>
+        <v>626886.45426613465</v>
       </c>
       <c r="FJ18" s="4">
-        <f>FI18*(1+$AB$132)</f>
-        <v>702812.04860863322</v>
+        <f t="shared" si="84"/>
+        <v>633155.318808796</v>
       </c>
       <c r="FK18" s="4">
-        <f>FJ18*(1+$AB$132)</f>
-        <v>709840.16909471957</v>
+        <f t="shared" si="84"/>
+        <v>639486.871996884</v>
       </c>
       <c r="FL18" s="4">
-        <f>FK18*(1+$AB$132)</f>
-        <v>716938.57078566682</v>
+        <f t="shared" si="84"/>
+        <v>645881.74071685283</v>
       </c>
       <c r="FM18" s="4">
-        <f>FL18*(1+$AB$132)</f>
-        <v>724107.95649352344</v>
+        <f t="shared" si="84"/>
+        <v>652340.55812402139</v>
       </c>
       <c r="FN18" s="4">
-        <f>FM18*(1+$AB$132)</f>
-        <v>731349.03605845873</v>
+        <f t="shared" si="84"/>
+        <v>658863.96370526159</v>
       </c>
       <c r="FO18" s="4">
-        <f>FN18*(1+$AB$132)</f>
-        <v>738662.52641904331</v>
+        <f t="shared" si="84"/>
+        <v>665452.60334231425</v>
       </c>
       <c r="FP18" s="4">
-        <f>FO18*(1+$AB$132)</f>
-        <v>746049.15168323379</v>
+        <f t="shared" si="84"/>
+        <v>672107.12937573739</v>
       </c>
     </row>
     <row r="19" spans="2:172" x14ac:dyDescent="0.2">
@@ -3092,31 +3092,31 @@
         <v>0.30194601381042058</v>
       </c>
       <c r="D19" s="5" t="e">
-        <f t="shared" ref="D19:J19" si="79">D18/D20</f>
+        <f t="shared" ref="D19:J19" si="85">D18/D20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>0.19670602858918582</v>
       </c>
       <c r="H19" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="5">
@@ -3149,31 +3149,31 @@
       </c>
       <c r="S19" s="5">
         <f>S18/Main!$O$3</f>
-        <v>13.85904140462131</v>
+        <v>13.019357598125346</v>
       </c>
       <c r="T19" s="5">
         <f>T18/Main!$O$3</f>
-        <v>19.597401209159617</v>
+        <v>16.767097865491191</v>
       </c>
       <c r="U19" s="5">
         <f>U18/Main!$O$3</f>
-        <v>25.232986836046116</v>
+        <v>21.709447503047645</v>
       </c>
       <c r="V19" s="5">
         <f>V18/Main!$O$3</f>
-        <v>29.73324450586119</v>
+        <v>25.821752781276331</v>
       </c>
       <c r="W19" s="5">
         <f>W18/Main!$O$3</f>
-        <v>35.535723613478794</v>
+        <v>31.198468209441984</v>
       </c>
       <c r="X19" s="5">
         <f>X18/Main!$O$3</f>
-        <v>43.2152223773789</v>
+        <v>38.410787812841392</v>
       </c>
       <c r="Y19" s="5">
         <f>Y18/Main!$O$3</f>
-        <v>53.646414723238323</v>
+        <v>48.329440117432256</v>
       </c>
     </row>
     <row r="20" spans="2:172" x14ac:dyDescent="0.2">
@@ -3226,47 +3226,47 @@
         <v>0.22674008188620642</v>
       </c>
       <c r="D22" s="6" t="e">
-        <f t="shared" ref="D22:J22" si="80">D2/D6-1</f>
+        <f t="shared" ref="D22:J22" si="86">D2/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="6" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="6" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>0.19376068376068378</v>
       </c>
       <c r="H22" s="6" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="6" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="6" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" ref="L22:O24" si="81">L2/L6-1</f>
+        <f t="shared" ref="L22:O24" si="87">L2/L6-1</f>
         <v>0.41442817356931094</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.39825467637160528</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.24145566283571074</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.22580439934471075</v>
       </c>
       <c r="P22" s="6">
@@ -3274,23 +3274,23 @@
         <v>0.24838483927918184</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" ref="Q22:U22" si="82">P22*1.1</f>
+        <f t="shared" ref="Q22:U22" si="88">P22*1.1</f>
         <v>0.27322332320710002</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.30054565552781004</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.33060022108059106</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.3636602431886502</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.40002626750751524</v>
       </c>
       <c r="V22" s="6">
@@ -3298,15 +3298,15 @@
         <v>0.40402653018259038</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" ref="W22:Y22" si="83">V22*1.01</f>
+        <f t="shared" ref="W22:Y22" si="89">V22*1.01</f>
         <v>0.40806679548441627</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.41214746343926045</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.41626893807365306</v>
       </c>
     </row>
@@ -3319,47 +3319,47 @@
         <v>0.32711038961038952</v>
       </c>
       <c r="D23" s="6" t="e">
-        <f t="shared" ref="D23:J23" si="84">D3/D7-1</f>
+        <f t="shared" ref="D23:J23" si="90">D3/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="6" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="6" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.40359897172236514</v>
       </c>
       <c r="H23" s="6" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="6" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="6" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>-4.4208361891706627E-2</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>7.9536039768019817E-2</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.2331426236207601</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.35455278001611612</v>
       </c>
       <c r="P23" s="6">
@@ -3367,23 +3367,23 @@
         <v>0.36164383561643842</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" ref="Q23:U23" si="85">P23*1.02</f>
+        <f t="shared" ref="Q23:U23" si="91">P23*1.02</f>
         <v>0.36887671232876718</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.37625424657534251</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.38377933150684934</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.39145491813698635</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.39928401649972611</v>
       </c>
       <c r="V23" s="6">
@@ -3391,15 +3391,15 @@
         <v>0.4032768566647234</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" ref="W23:Y23" si="86">V23*1.01</f>
+        <f t="shared" ref="W23:Y23" si="92">V23*1.01</f>
         <v>0.40730962523137065</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.41138272148368438</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.41549654869852121</v>
       </c>
     </row>
@@ -3412,47 +3412,47 @@
         <v>3.6701404621658273E-2</v>
       </c>
       <c r="D24" s="6" t="e">
-        <f t="shared" ref="D24:J24" si="87">D4/D8-1</f>
+        <f t="shared" ref="D24:J24" si="93">D4/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="6" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="6" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="93"/>
+        <v>3.9810800157666471E-2</v>
+      </c>
+      <c r="H24" s="6" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="6" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="6" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="6">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="6" t="e">
+        <v>-2.6625704045058929E-2</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="6">
+        <v>3.5884353741496566E-2</v>
+      </c>
+      <c r="N24" s="6">
         <f t="shared" si="87"/>
-        <v>3.9810800157666471E-2</v>
-      </c>
-      <c r="H24" s="6" t="e">
+        <v>6.2452107279693525E-2</v>
+      </c>
+      <c r="O24" s="6">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="6" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="6" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="81"/>
-        <v>-2.6625704045058929E-2</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="81"/>
-        <v>3.5884353741496566E-2</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="81"/>
-        <v>6.2452107279693525E-2</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="81"/>
         <v>6.178812619695595E-2</v>
       </c>
       <c r="P24" s="6">
@@ -3496,88 +3496,88 @@
         <v>0.20994035785288268</v>
       </c>
       <c r="D26" s="6" t="e">
-        <f t="shared" ref="D26:J26" si="88">D5/D9-1</f>
+        <f t="shared" ref="D26:J26" si="94">D5/D9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="6" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="6" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.19484612532443446</v>
       </c>
       <c r="H26" s="6" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="6" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="6" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" ref="L26:U26" si="89">L5/L9-1</f>
+        <f t="shared" ref="L26:U26" si="95">L5/L9-1</f>
         <v>0.33831464306139192</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.34405781319605988</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.22322500726808481</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.21747258225324018</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.31831882154137325</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.3537617403674802</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.39389838635857033</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="89"/>
-        <v>0.4403079429466501</v>
+        <f t="shared" si="95"/>
+        <v>0.43726541652950957</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="89"/>
-        <v>0.49482706442942881</v>
+        <f t="shared" si="95"/>
+        <v>0.48398781132523672</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="89"/>
-        <v>0.55096021097026604</v>
+        <f t="shared" si="95"/>
+        <v>0.53620936047908052</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:Y26" si="90">V5/V9-1</f>
-        <v>0.54773976911968303</v>
+        <f t="shared" ref="V26:Y26" si="96">V5/V9-1</f>
+        <v>0.53277390027459881</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="90"/>
-        <v>0.54512294464461108</v>
+        <f t="shared" si="96"/>
+        <v>0.53038757731411312</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="90"/>
-        <v>0.54383521201648666</v>
+        <f t="shared" si="96"/>
+        <v>0.52979636187921719</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="90"/>
-        <v>0.54464924450985119</v>
+        <f t="shared" si="96"/>
+        <v>0.53173836333547198</v>
       </c>
     </row>
     <row r="27" spans="2:172" x14ac:dyDescent="0.2">
@@ -3589,88 +3589,88 @@
         <v>5.4973944885216654E-2</v>
       </c>
       <c r="D27" s="6" t="e">
-        <f t="shared" ref="D27:J27" si="91">D14/D5</f>
+        <f t="shared" ref="D27:J27" si="97">D14/D5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="6" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>2.5497801913628135E-2</v>
       </c>
       <c r="H27" s="6" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="6" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="6" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:U27" si="92">L14/L5</f>
+        <f t="shared" ref="L27:U27" si="98">L14/L5</f>
         <v>0.12069189751593185</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.16979696054602145</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>9.1874799789197395E-2</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>7.9434947282219268E-2</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.1422668288374247</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.16212625939578343</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.18339627098820496</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="92"/>
-        <v>0.20651271076082825</v>
+        <f t="shared" si="98"/>
+        <v>0.20504296564276414</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="92"/>
-        <v>0.23183497526956776</v>
+        <f t="shared" si="98"/>
+        <v>0.22694869840400286</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="92"/>
-        <v>0.25604681433750753</v>
+        <f t="shared" si="98"/>
+        <v>0.24985574029828289</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:Y27" si="93">V14/V5</f>
-        <v>0.25470523344713913</v>
+        <f t="shared" ref="V27:Y27" si="99">V14/V5</f>
+        <v>0.24839673651388819</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="93"/>
-        <v>0.25361099086949274</v>
+        <f t="shared" si="99"/>
+        <v>0.24737943499840592</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="93"/>
-        <v>0.25307115502734917</v>
+        <f t="shared" si="99"/>
+        <v>0.24712690631864737</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="93"/>
-        <v>0.25341251368517825</v>
+        <f t="shared" si="99"/>
+        <v>0.24795567119639189</v>
       </c>
     </row>
     <row r="28" spans="2:172" x14ac:dyDescent="0.2">
@@ -3682,87 +3682,87 @@
         <v>0.11853903572602226</v>
       </c>
       <c r="D28" s="6" t="e">
-        <f t="shared" ref="D28:U28" si="94">D13/D5</f>
+        <f t="shared" ref="D28:U28" si="100">D13/D5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0.13757434703904836</v>
       </c>
       <c r="H28" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="6" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0.13209965999665571</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>8.6187424811568589E-2</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.0614117574116748E-2</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.9191319479987702E-2</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.9191319479987716E-2</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
+        <v>9.9191319479987702E-2</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="100"/>
         <v>9.9191319479987716E-2</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" si="94"/>
+      <c r="U28" s="6">
+        <f t="shared" si="100"/>
         <v>9.9191319479987716E-2</v>
       </c>
-      <c r="U28" s="6">
-        <f t="shared" si="94"/>
+      <c r="V28" s="6">
+        <f t="shared" ref="V28:Y28" si="101">V13/V5</f>
+        <v>9.9191319479987702E-2</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="101"/>
         <v>9.9191319479987716E-2</v>
       </c>
-      <c r="V28" s="6">
-        <f t="shared" ref="V28:Y28" si="95">V13/V5</f>
-        <v>9.9191319479987716E-2</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="95"/>
+      <c r="X28" s="6">
+        <f t="shared" si="101"/>
         <v>9.9191319479987702E-2</v>
       </c>
-      <c r="X28" s="6">
-        <f t="shared" si="95"/>
-        <v>9.9191319479987702E-2</v>
-      </c>
       <c r="Y28" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>9.9191319479987702E-2</v>
       </c>
     </row>
@@ -3795,70 +3795,70 @@
         <v>-9.2296136331627587E-2</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f t="shared" ref="H30:J30" si="96">H5/D5-1</f>
+        <f t="shared" ref="H30:J30" si="102">H5/D5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="7" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>-1</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="7">
-        <f t="shared" ref="M30:U30" si="97">M5/L5-1</f>
+        <f t="shared" ref="M30:U30" si="103">M5/L5-1</f>
         <v>0.51351652639206291</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.18795266504627928</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>9.4757835346634955E-3</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.2802197637588637</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.34416527741201164</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.26067521666406357</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="97"/>
-        <v>0.25228754018450261</v>
+        <f t="shared" si="103"/>
+        <v>0.18247991031155841</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="97"/>
-        <v>0.25651675626185955</v>
+        <f t="shared" si="103"/>
+        <v>0.15739808217726892</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="97"/>
-        <v>0.15975496768663233</v>
+        <f t="shared" si="103"/>
+        <v>0.17147207384485141</v>
       </c>
       <c r="V30" s="7">
-        <f t="shared" ref="V30:Y30" si="98">V5/U5-1</f>
-        <v>0.1750296016588615</v>
+        <f t="shared" ref="V30:Y30" si="104">V5/U5-1</f>
+        <v>0.18795822004552676</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="98"/>
-        <v>0.19296532458429927</v>
+        <f t="shared" si="104"/>
+        <v>0.20699243364761366</v>
       </c>
       <c r="X30" s="7">
-        <f t="shared" si="98"/>
-        <v>0.21366188404875253</v>
+        <f t="shared" si="104"/>
+        <v>0.22856429673688372</v>
       </c>
       <c r="Y30" s="7">
-        <f t="shared" si="98"/>
-        <v>0.23702710959855011</v>
+        <f t="shared" si="104"/>
+        <v>0.25246489854846965</v>
       </c>
     </row>
     <row r="31" spans="2:172" x14ac:dyDescent="0.2">
@@ -3871,27 +3871,27 @@
         <v>-1</v>
       </c>
       <c r="E31" s="7" t="e">
-        <f t="shared" ref="E31:J31" si="99">E5/D5-1</f>
+        <f t="shared" ref="E31:J31" si="105">E5/D5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="7" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>-2.3386200626325904E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>-1</v>
       </c>
       <c r="I31" s="7" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="7" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4"/>
@@ -3919,31 +3919,31 @@
         <v>0.33425605536332181</v>
       </c>
       <c r="D32" s="6" t="e">
-        <f t="shared" ref="D32:J32" si="100">D17/D16</f>
+        <f t="shared" ref="D32:J32" si="106">D17/D16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.21072319201995013</v>
       </c>
       <c r="H32" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="6" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="6">
@@ -4002,68 +4002,68 @@
         <v>-0.19628265623201746</v>
       </c>
       <c r="H34" s="6" t="e">
-        <f t="shared" ref="H34:J34" si="101">H2/D2-1</f>
+        <f t="shared" ref="H34:J34" si="107">H2/D2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="6" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>-1</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" ref="M34:U34" si="102">M2/L2-1</f>
+        <f t="shared" ref="M34:U34" si="108">M2/L2-1</f>
         <v>0.51299966124661256</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.15332624331812705</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>-6.4900083718560042E-2</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.24875397329185667</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.36682416502946968</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.2583017988007994</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" si="102"/>
-        <v>0.2473433373931273</v>
+        <f t="shared" si="108"/>
+        <v>0.15796470402889118</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="102"/>
-        <v>0.25248791811749527</v>
+        <f t="shared" si="108"/>
+        <v>0.12258299157631147</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="102"/>
-        <v>0.12744382310712887</v>
+        <f t="shared" si="108"/>
+        <v>0.13671701284617588</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" ref="V34:V36" si="103">V2/U2-1</f>
-        <v>0.14335141679857832</v>
+        <f t="shared" ref="V34:V36" si="109">V2/U2-1</f>
+        <v>0.15522893845289798</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" ref="W34:W36" si="104">W2/V2-1</f>
-        <v>0.16398126729731888</v>
+        <f t="shared" ref="W34:W36" si="110">W2/V2-1</f>
+        <v>0.17880951963946279</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" ref="X34:X36" si="105">X2/W2-1</f>
-        <v>0.18991201824368176</v>
+        <f t="shared" ref="X34:X36" si="111">X2/W2-1</f>
+        <v>0.20779314829498219</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" ref="Y34:Y36" si="106">Y2/X2-1</f>
-        <v>0.22124619731049844</v>
+        <f t="shared" ref="Y34:Y36" si="112">Y2/X2-1</f>
+        <v>0.24188533239425092</v>
       </c>
     </row>
     <row r="35" spans="2:171" x14ac:dyDescent="0.2">
@@ -4075,67 +4075,67 @@
         <v>0.66972477064220182</v>
       </c>
       <c r="H35" s="6" t="e">
-        <f t="shared" ref="H35:J35" si="107">H3/D3-1</f>
+        <f t="shared" ref="H35:J35" si="113">H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="6" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="6" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" ref="M35:U35" si="108">M3/L3-1</f>
+        <f t="shared" ref="M35:U35" si="114">M3/L3-1</f>
         <v>0.40157762638938688</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.54387311332821686</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.67125103562551791</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.5</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.24</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.24</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.24</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.24</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0.24</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.24</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0.24000000000000021</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.24</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0.24</v>
       </c>
       <c r="AC35" s="6"/>
@@ -4149,67 +4149,67 @@
         <v>0.15297202797202791</v>
       </c>
       <c r="H36" s="6" t="e">
-        <f t="shared" ref="H36:J36" si="109">H4/D4-1</f>
+        <f t="shared" ref="H36:J36" si="115">H4/D4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36:U36" si="116">M4/L4-1</f>
+        <v>0.60205155181483438</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.36578558528977179</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.26625796369755972</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="116"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" si="109"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="6" t="e">
-        <f t="shared" si="109"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" ref="M36:U36" si="110">M4/L4-1</f>
-        <v>0.60205155181483438</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.36578558528977179</v>
-      </c>
-      <c r="O36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.26625796369755972</v>
-      </c>
-      <c r="P36" s="6">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="W36" s="6">
         <f t="shared" si="110"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="110"/>
+      <c r="X36" s="6">
+        <f t="shared" si="111"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="R36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="S36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="T36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="U36" s="6">
-        <f t="shared" si="110"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V36" s="6">
-        <f t="shared" si="103"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="W36" s="6">
-        <f t="shared" si="104"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="X36" s="6">
-        <f t="shared" si="105"/>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="Y36" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AC36" s="6"/>
@@ -4238,628 +4238,628 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:U38" si="111">P18*0.73</f>
+        <f t="shared" ref="P38:U38" si="117">P18*0.73</f>
         <v>10456.974583201367</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>16078.987928899984</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>23029.876176969952</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="111"/>
-        <v>32586.734673518309</v>
+        <f t="shared" si="117"/>
+        <v>30612.387919434019</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="111"/>
-        <v>46079.327916606439</v>
+        <f t="shared" si="117"/>
+        <v>39424.441664881968</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="111"/>
-        <v>59330.268453663142</v>
+        <f t="shared" si="117"/>
+        <v>51045.377889887219</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" ref="V38:Y38" si="112">V18*0.73</f>
-        <v>69911.714772153064</v>
+        <f t="shared" ref="V38:Y38" si="118">V18*0.73</f>
+        <v>60714.63257249914</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="112"/>
-        <v>83555.071596638634</v>
+        <f t="shared" si="118"/>
+        <v>73356.892160108328</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="112"/>
-        <v>101611.86075965957</v>
+        <f t="shared" si="118"/>
+        <v>90315.203953463802</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="112"/>
-        <v>126138.70120835106</v>
+        <f t="shared" si="118"/>
+        <v>113636.91008970542</v>
       </c>
       <c r="Z38" s="2">
-        <f>Y38*(1+$AB$132)</f>
-        <v>127400.08822043457</v>
+        <f t="shared" ref="Z38:BE38" si="119">Y38*(1+$AB$132)</f>
+        <v>114773.27919060246</v>
       </c>
       <c r="AA38" s="2">
-        <f>Z38*(1+$AB$132)</f>
-        <v>128674.08910263891</v>
+        <f t="shared" si="119"/>
+        <v>115921.01198250848</v>
       </c>
       <c r="AB38" s="2">
-        <f>AA38*(1+$AB$132)</f>
-        <v>129960.82999366531</v>
+        <f t="shared" si="119"/>
+        <v>117080.22210233357</v>
       </c>
       <c r="AC38" s="2">
-        <f>AB38*(1+$AB$132)</f>
-        <v>131260.43829360197</v>
+        <f t="shared" si="119"/>
+        <v>118251.02432335691</v>
       </c>
       <c r="AD38" s="2">
-        <f>AC38*(1+$AB$132)</f>
-        <v>132573.042676538</v>
+        <f t="shared" si="119"/>
+        <v>119433.53456659048</v>
       </c>
       <c r="AE38" s="2">
-        <f>AD38*(1+$AB$132)</f>
-        <v>133898.77310330336</v>
+        <f t="shared" si="119"/>
+        <v>120627.86991225638</v>
       </c>
       <c r="AF38" s="2">
-        <f>AE38*(1+$AB$132)</f>
-        <v>135237.7608343364</v>
+        <f t="shared" si="119"/>
+        <v>121834.14861137894</v>
       </c>
       <c r="AG38" s="2">
-        <f>AF38*(1+$AB$132)</f>
-        <v>136590.13844267977</v>
+        <f t="shared" si="119"/>
+        <v>123052.49009749273</v>
       </c>
       <c r="AH38" s="2">
-        <f>AG38*(1+$AB$132)</f>
-        <v>137956.03982710658</v>
+        <f t="shared" si="119"/>
+        <v>124283.01499846765</v>
       </c>
       <c r="AI38" s="2">
-        <f>AH38*(1+$AB$132)</f>
-        <v>139335.60022537765</v>
+        <f t="shared" si="119"/>
+        <v>125525.84514845232</v>
       </c>
       <c r="AJ38" s="2">
-        <f>AI38*(1+$AB$132)</f>
-        <v>140728.95622763142</v>
+        <f t="shared" si="119"/>
+        <v>126781.10359993685</v>
       </c>
       <c r="AK38" s="2">
-        <f>AJ38*(1+$AB$132)</f>
-        <v>142136.24578990773</v>
+        <f t="shared" si="119"/>
+        <v>128048.91463593622</v>
       </c>
       <c r="AL38" s="2">
-        <f>AK38*(1+$AB$132)</f>
-        <v>143557.60824780681</v>
+        <f t="shared" si="119"/>
+        <v>129329.40378229559</v>
       </c>
       <c r="AM38" s="2">
-        <f>AL38*(1+$AB$132)</f>
-        <v>144993.18433028489</v>
+        <f t="shared" si="119"/>
+        <v>130622.69782011854</v>
       </c>
       <c r="AN38" s="2">
-        <f>AM38*(1+$AB$132)</f>
-        <v>146443.11617358774</v>
+        <f t="shared" si="119"/>
+        <v>131928.92479831973</v>
       </c>
       <c r="AO38" s="2">
-        <f>AN38*(1+$AB$132)</f>
-        <v>147907.54733532362</v>
+        <f t="shared" si="119"/>
+        <v>133248.21404630292</v>
       </c>
       <c r="AP38" s="2">
-        <f>AO38*(1+$AB$132)</f>
-        <v>149386.62280867685</v>
+        <f t="shared" si="119"/>
+        <v>134580.69618676594</v>
       </c>
       <c r="AQ38" s="2">
-        <f>AP38*(1+$AB$132)</f>
-        <v>150880.48903676361</v>
+        <f t="shared" si="119"/>
+        <v>135926.50314863361</v>
       </c>
       <c r="AR38" s="2">
-        <f>AQ38*(1+$AB$132)</f>
-        <v>152389.29392713125</v>
+        <f t="shared" si="119"/>
+        <v>137285.76818011995</v>
       </c>
       <c r="AS38" s="2">
-        <f>AR38*(1+$AB$132)</f>
-        <v>153913.18686640257</v>
+        <f t="shared" si="119"/>
+        <v>138658.62586192114</v>
       </c>
       <c r="AT38" s="2">
-        <f>AS38*(1+$AB$132)</f>
-        <v>155452.3187350666</v>
+        <f t="shared" si="119"/>
+        <v>140045.21212054035</v>
       </c>
       <c r="AU38" s="2">
-        <f>AT38*(1+$AB$132)</f>
-        <v>157006.84192241725</v>
+        <f t="shared" si="119"/>
+        <v>141445.66424174575</v>
       </c>
       <c r="AV38" s="2">
-        <f>AU38*(1+$AB$132)</f>
-        <v>158576.91034164143</v>
+        <f t="shared" si="119"/>
+        <v>142860.12088416322</v>
       </c>
       <c r="AW38" s="2">
-        <f>AV38*(1+$AB$132)</f>
-        <v>160162.67944505785</v>
+        <f t="shared" si="119"/>
+        <v>144288.72209300485</v>
       </c>
       <c r="AX38" s="2">
-        <f>AW38*(1+$AB$132)</f>
-        <v>161764.30623950841</v>
+        <f t="shared" si="119"/>
+        <v>145731.6093139349</v>
       </c>
       <c r="AY38" s="2">
-        <f>AX38*(1+$AB$132)</f>
-        <v>163381.94930190349</v>
+        <f t="shared" si="119"/>
+        <v>147188.92540707425</v>
       </c>
       <c r="AZ38" s="2">
-        <f>AY38*(1+$AB$132)</f>
-        <v>165015.76879492251</v>
+        <f t="shared" si="119"/>
+        <v>148660.81466114498</v>
       </c>
       <c r="BA38" s="2">
-        <f>AZ38*(1+$AB$132)</f>
-        <v>166665.92648287173</v>
+        <f t="shared" si="119"/>
+        <v>150147.42280775643</v>
       </c>
       <c r="BB38" s="2">
-        <f>BA38*(1+$AB$132)</f>
-        <v>168332.58574770045</v>
+        <f t="shared" si="119"/>
+        <v>151648.897035834</v>
       </c>
       <c r="BC38" s="2">
-        <f>BB38*(1+$AB$132)</f>
-        <v>170015.91160517745</v>
+        <f t="shared" si="119"/>
+        <v>153165.38600619233</v>
       </c>
       <c r="BD38" s="2">
-        <f>BC38*(1+$AB$132)</f>
-        <v>171716.07072122922</v>
+        <f t="shared" si="119"/>
+        <v>154697.03986625426</v>
       </c>
       <c r="BE38" s="2">
-        <f>BD38*(1+$AB$132)</f>
-        <v>173433.2314284415</v>
+        <f t="shared" si="119"/>
+        <v>156244.01026491681</v>
       </c>
       <c r="BF38" s="2">
-        <f>BE38*(1+$AB$132)</f>
-        <v>175167.56374272594</v>
+        <f t="shared" ref="BF38:CK38" si="120">BE38*(1+$AB$132)</f>
+        <v>157806.45036756599</v>
       </c>
       <c r="BG38" s="2">
-        <f>BF38*(1+$AB$132)</f>
-        <v>176919.23938015319</v>
+        <f t="shared" si="120"/>
+        <v>159384.51487124164</v>
       </c>
       <c r="BH38" s="2">
-        <f>BG38*(1+$AB$132)</f>
-        <v>178688.43177395471</v>
+        <f t="shared" si="120"/>
+        <v>160978.36001995407</v>
       </c>
       <c r="BI38" s="2">
-        <f>BH38*(1+$AB$132)</f>
-        <v>180475.31609169426</v>
+        <f t="shared" si="120"/>
+        <v>162588.1436201536</v>
       </c>
       <c r="BJ38" s="2">
-        <f>BI38*(1+$AB$132)</f>
-        <v>182280.0692526112</v>
+        <f t="shared" si="120"/>
+        <v>164214.02505635514</v>
       </c>
       <c r="BK38" s="2">
-        <f>BJ38*(1+$AB$132)</f>
-        <v>184102.8699451373</v>
+        <f t="shared" si="120"/>
+        <v>165856.1653069187</v>
       </c>
       <c r="BL38" s="2">
-        <f>BK38*(1+$AB$132)</f>
-        <v>185943.89864458868</v>
+        <f t="shared" si="120"/>
+        <v>167514.72695998789</v>
       </c>
       <c r="BM38" s="2">
-        <f>BL38*(1+$AB$132)</f>
-        <v>187803.33763103458</v>
+        <f t="shared" si="120"/>
+        <v>169189.87422958776</v>
       </c>
       <c r="BN38" s="2">
-        <f>BM38*(1+$AB$132)</f>
-        <v>189681.37100734492</v>
+        <f t="shared" si="120"/>
+        <v>170881.77297188365</v>
       </c>
       <c r="BO38" s="2">
-        <f>BN38*(1+$AB$132)</f>
-        <v>191578.18471741836</v>
+        <f t="shared" si="120"/>
+        <v>172590.59070160249</v>
       </c>
       <c r="BP38" s="2">
-        <f>BO38*(1+$AB$132)</f>
-        <v>193493.96656459256</v>
+        <f t="shared" si="120"/>
+        <v>174316.4966086185</v>
       </c>
       <c r="BQ38" s="2">
-        <f>BP38*(1+$AB$132)</f>
-        <v>195428.90623023847</v>
+        <f t="shared" si="120"/>
+        <v>176059.66157470469</v>
       </c>
       <c r="BR38" s="2">
-        <f>BQ38*(1+$AB$132)</f>
-        <v>197383.19529254086</v>
+        <f t="shared" si="120"/>
+        <v>177820.25819045174</v>
       </c>
       <c r="BS38" s="2">
-        <f>BR38*(1+$AB$132)</f>
-        <v>199357.02724546628</v>
+        <f t="shared" si="120"/>
+        <v>179598.46077235625</v>
       </c>
       <c r="BT38" s="2">
-        <f>BS38*(1+$AB$132)</f>
-        <v>201350.59751792095</v>
+        <f t="shared" si="120"/>
+        <v>181394.44538007982</v>
       </c>
       <c r="BU38" s="2">
-        <f>BT38*(1+$AB$132)</f>
-        <v>203364.10349310015</v>
+        <f t="shared" si="120"/>
+        <v>183208.38983388062</v>
       </c>
       <c r="BV38" s="2">
-        <f>BU38*(1+$AB$132)</f>
-        <v>205397.74452803115</v>
+        <f t="shared" si="120"/>
+        <v>185040.47373221943</v>
       </c>
       <c r="BW38" s="2">
-        <f>BV38*(1+$AB$132)</f>
-        <v>207451.72197331148</v>
+        <f t="shared" si="120"/>
+        <v>186890.87846954161</v>
       </c>
       <c r="BX38" s="2">
-        <f>BW38*(1+$AB$132)</f>
-        <v>209526.2391930446</v>
+        <f t="shared" si="120"/>
+        <v>188759.78725423702</v>
       </c>
       <c r="BY38" s="2">
-        <f>BX38*(1+$AB$132)</f>
-        <v>211621.50158497505</v>
+        <f t="shared" si="120"/>
+        <v>190647.38512677938</v>
       </c>
       <c r="BZ38" s="2">
-        <f>BY38*(1+$AB$132)</f>
-        <v>213737.71660082479</v>
+        <f t="shared" si="120"/>
+        <v>192553.85897804718</v>
       </c>
       <c r="CA38" s="2">
-        <f>BZ38*(1+$AB$132)</f>
-        <v>215875.09376683304</v>
+        <f t="shared" si="120"/>
+        <v>194479.39756782766</v>
       </c>
       <c r="CB38" s="2">
-        <f>CA38*(1+$AB$132)</f>
-        <v>218033.84470450139</v>
+        <f t="shared" si="120"/>
+        <v>196424.19154350593</v>
       </c>
       <c r="CC38" s="2">
-        <f>CB38*(1+$AB$132)</f>
-        <v>220214.1831515464</v>
+        <f t="shared" si="120"/>
+        <v>198388.433458941</v>
       </c>
       <c r="CD38" s="2">
-        <f>CC38*(1+$AB$132)</f>
-        <v>222416.32498306187</v>
+        <f t="shared" si="120"/>
+        <v>200372.31779353041</v>
       </c>
       <c r="CE38" s="2">
-        <f>CD38*(1+$AB$132)</f>
-        <v>224640.4882328925</v>
+        <f t="shared" si="120"/>
+        <v>202376.04097146573</v>
       </c>
       <c r="CF38" s="2">
-        <f>CE38*(1+$AB$132)</f>
-        <v>226886.89311522144</v>
+        <f t="shared" si="120"/>
+        <v>204399.80138118038</v>
       </c>
       <c r="CG38" s="2">
-        <f>CF38*(1+$AB$132)</f>
-        <v>229155.76204637365</v>
+        <f t="shared" si="120"/>
+        <v>206443.79939499218</v>
       </c>
       <c r="CH38" s="2">
-        <f>CG38*(1+$AB$132)</f>
-        <v>231447.3196668374</v>
+        <f t="shared" si="120"/>
+        <v>208508.2373889421</v>
       </c>
       <c r="CI38" s="2">
-        <f>CH38*(1+$AB$132)</f>
-        <v>233761.79286350578</v>
+        <f t="shared" si="120"/>
+        <v>210593.31976283152</v>
       </c>
       <c r="CJ38" s="2">
-        <f>CI38*(1+$AB$132)</f>
-        <v>236099.41079214084</v>
+        <f t="shared" si="120"/>
+        <v>212699.25296045985</v>
       </c>
       <c r="CK38" s="2">
-        <f>CJ38*(1+$AB$132)</f>
-        <v>238460.40490006225</v>
+        <f t="shared" si="120"/>
+        <v>214826.24549006447</v>
       </c>
       <c r="CL38" s="2">
-        <f>CK38*(1+$AB$132)</f>
-        <v>240845.00894906287</v>
+        <f t="shared" ref="CL38:DQ38" si="121">CK38*(1+$AB$132)</f>
+        <v>216974.50794496512</v>
       </c>
       <c r="CM38" s="2">
-        <f>CL38*(1+$AB$132)</f>
-        <v>243253.4590385535</v>
+        <f t="shared" si="121"/>
+        <v>219144.25302441476</v>
       </c>
       <c r="CN38" s="2">
-        <f>CM38*(1+$AB$132)</f>
-        <v>245685.99362893903</v>
+        <f t="shared" si="121"/>
+        <v>221335.69555465892</v>
       </c>
       <c r="CO38" s="2">
-        <f>CN38*(1+$AB$132)</f>
-        <v>248142.85356522843</v>
+        <f t="shared" si="121"/>
+        <v>223549.05251020551</v>
       </c>
       <c r="CP38" s="2">
-        <f>CO38*(1+$AB$132)</f>
-        <v>250624.28210088072</v>
+        <f t="shared" si="121"/>
+        <v>225784.54303530758</v>
       </c>
       <c r="CQ38" s="2">
-        <f>CP38*(1+$AB$132)</f>
-        <v>253130.52492188953</v>
+        <f t="shared" si="121"/>
+        <v>228042.38846566065</v>
       </c>
       <c r="CR38" s="2">
-        <f>CQ38*(1+$AB$132)</f>
-        <v>255661.83017110842</v>
+        <f t="shared" si="121"/>
+        <v>230322.81235031725</v>
       </c>
       <c r="CS38" s="2">
-        <f>CR38*(1+$AB$132)</f>
-        <v>258218.44847281949</v>
+        <f t="shared" si="121"/>
+        <v>232626.04047382044</v>
       </c>
       <c r="CT38" s="2">
-        <f>CS38*(1+$AB$132)</f>
-        <v>260800.6329575477</v>
+        <f t="shared" si="121"/>
+        <v>234952.30087855866</v>
       </c>
       <c r="CU38" s="2">
-        <f>CT38*(1+$AB$132)</f>
-        <v>263408.63928712317</v>
+        <f t="shared" si="121"/>
+        <v>237301.82388734425</v>
       </c>
       <c r="CV38" s="2">
-        <f>CU38*(1+$AB$132)</f>
-        <v>266042.72567999439</v>
+        <f t="shared" si="121"/>
+        <v>239674.8421262177</v>
       </c>
       <c r="CW38" s="2">
-        <f>CV38*(1+$AB$132)</f>
-        <v>268703.15293679433</v>
+        <f t="shared" si="121"/>
+        <v>242071.59054747989</v>
       </c>
       <c r="CX38" s="2">
-        <f>CW38*(1+$AB$132)</f>
-        <v>271390.18446616229</v>
+        <f t="shared" si="121"/>
+        <v>244492.30645295468</v>
       </c>
       <c r="CY38" s="2">
-        <f>CX38*(1+$AB$132)</f>
-        <v>274104.08631082391</v>
+        <f t="shared" si="121"/>
+        <v>246937.22951748423</v>
       </c>
       <c r="CZ38" s="2">
-        <f>CY38*(1+$AB$132)</f>
-        <v>276845.12717393215</v>
+        <f t="shared" si="121"/>
+        <v>249406.60181265906</v>
       </c>
       <c r="DA38" s="2">
-        <f>CZ38*(1+$AB$132)</f>
-        <v>279613.57844567148</v>
+        <f t="shared" si="121"/>
+        <v>251900.66783078565</v>
       </c>
       <c r="DB38" s="2">
-        <f>DA38*(1+$AB$132)</f>
-        <v>282409.71423012821</v>
+        <f t="shared" si="121"/>
+        <v>254419.67450909351</v>
       </c>
       <c r="DC38" s="2">
-        <f>DB38*(1+$AB$132)</f>
-        <v>285233.81137242948</v>
+        <f t="shared" si="121"/>
+        <v>256963.87125418446</v>
       </c>
       <c r="DD38" s="2">
-        <f>DC38*(1+$AB$132)</f>
-        <v>288086.14948615379</v>
+        <f t="shared" si="121"/>
+        <v>259533.5099667263</v>
       </c>
       <c r="DE38" s="2">
-        <f>DD38*(1+$AB$132)</f>
-        <v>290967.01098101534</v>
+        <f t="shared" si="121"/>
+        <v>262128.84506639355</v>
       </c>
       <c r="DF38" s="2">
-        <f>DE38*(1+$AB$132)</f>
-        <v>293876.68109082547</v>
+        <f t="shared" si="121"/>
+        <v>264750.13351705746</v>
       </c>
       <c r="DG38" s="2">
-        <f>DF38*(1+$AB$132)</f>
-        <v>296815.44790173374</v>
+        <f t="shared" si="121"/>
+        <v>267397.63485222805</v>
       </c>
       <c r="DH38" s="2">
-        <f>DG38*(1+$AB$132)</f>
-        <v>299783.60238075111</v>
+        <f t="shared" si="121"/>
+        <v>270071.61120075034</v>
       </c>
       <c r="DI38" s="2">
-        <f>DH38*(1+$AB$132)</f>
-        <v>302781.43840455863</v>
+        <f t="shared" si="121"/>
+        <v>272772.32731275784</v>
       </c>
       <c r="DJ38" s="2">
-        <f>DI38*(1+$AB$132)</f>
-        <v>305809.25278860424</v>
+        <f t="shared" si="121"/>
+        <v>275500.05058588542</v>
       </c>
       <c r="DK38" s="2">
-        <f>DJ38*(1+$AB$132)</f>
-        <v>308867.34531649027</v>
+        <f t="shared" si="121"/>
+        <v>278255.05109174427</v>
       </c>
       <c r="DL38" s="2">
-        <f>DK38*(1+$AB$132)</f>
-        <v>311956.0187696552</v>
+        <f t="shared" si="121"/>
+        <v>281037.60160266171</v>
       </c>
       <c r="DM38" s="2">
-        <f>DL38*(1+$AB$132)</f>
-        <v>315075.57895735174</v>
+        <f t="shared" si="121"/>
+        <v>283847.97761868831</v>
       </c>
       <c r="DN38" s="2">
-        <f>DM38*(1+$AB$132)</f>
-        <v>318226.33474692528</v>
+        <f t="shared" si="121"/>
+        <v>286686.45739487518</v>
       </c>
       <c r="DO38" s="2">
-        <f>DN38*(1+$AB$132)</f>
-        <v>321408.59809439455</v>
+        <f t="shared" si="121"/>
+        <v>289553.3219688239</v>
       </c>
       <c r="DP38" s="2">
-        <f>DO38*(1+$AB$132)</f>
-        <v>324622.68407533847</v>
+        <f t="shared" si="121"/>
+        <v>292448.85518851213</v>
       </c>
       <c r="DQ38" s="2">
-        <f>DP38*(1+$AB$132)</f>
-        <v>327868.91091609187</v>
+        <f t="shared" si="121"/>
+        <v>295373.34374039725</v>
       </c>
       <c r="DR38" s="2">
-        <f>DQ38*(1+$AB$132)</f>
-        <v>331147.60002525279</v>
+        <f t="shared" ref="DR38:EW38" si="122">DQ38*(1+$AB$132)</f>
+        <v>298327.07717780123</v>
       </c>
       <c r="DS38" s="2">
-        <f>DR38*(1+$AB$132)</f>
-        <v>334459.07602550532</v>
+        <f t="shared" si="122"/>
+        <v>301310.34794957924</v>
       </c>
       <c r="DT38" s="2">
-        <f>DS38*(1+$AB$132)</f>
-        <v>337803.66678576038</v>
+        <f t="shared" si="122"/>
+        <v>304323.45142907504</v>
       </c>
       <c r="DU38" s="2">
-        <f>DT38*(1+$AB$132)</f>
-        <v>341181.70345361799</v>
+        <f t="shared" si="122"/>
+        <v>307366.6859433658</v>
       </c>
       <c r="DV38" s="2">
-        <f>DU38*(1+$AB$132)</f>
-        <v>344593.52048815414</v>
+        <f t="shared" si="122"/>
+        <v>310440.35280279943</v>
       </c>
       <c r="DW38" s="2">
-        <f>DV38*(1+$AB$132)</f>
-        <v>348039.45569303568</v>
+        <f t="shared" si="122"/>
+        <v>313544.75633082743</v>
       </c>
       <c r="DX38" s="2">
-        <f>DW38*(1+$AB$132)</f>
-        <v>351519.85024996602</v>
+        <f t="shared" si="122"/>
+        <v>316680.20389413572</v>
       </c>
       <c r="DY38" s="2">
-        <f>DX38*(1+$AB$132)</f>
-        <v>355035.04875246569</v>
+        <f t="shared" si="122"/>
+        <v>319847.00593307707</v>
       </c>
       <c r="DZ38" s="2">
-        <f>DY38*(1+$AB$132)</f>
-        <v>358585.39923999034</v>
+        <f t="shared" si="122"/>
+        <v>323045.47599240782</v>
       </c>
       <c r="EA38" s="2">
-        <f>DZ38*(1+$AB$132)</f>
-        <v>362171.25323239027</v>
+        <f t="shared" si="122"/>
+        <v>326275.93075233191</v>
       </c>
       <c r="EB38" s="2">
-        <f>EA38*(1+$AB$132)</f>
-        <v>365792.96576471417</v>
+        <f t="shared" si="122"/>
+        <v>329538.69005985523</v>
       </c>
       <c r="EC38" s="2">
-        <f>EB38*(1+$AB$132)</f>
-        <v>369450.89542236133</v>
+        <f t="shared" si="122"/>
+        <v>332834.07696045376</v>
       </c>
       <c r="ED38" s="2">
-        <f>EC38*(1+$AB$132)</f>
-        <v>373145.40437658492</v>
+        <f t="shared" si="122"/>
+        <v>336162.41773005831</v>
       </c>
       <c r="EE38" s="2">
-        <f>ED38*(1+$AB$132)</f>
-        <v>376876.85842035076</v>
+        <f t="shared" si="122"/>
+        <v>339524.04190735891</v>
       </c>
       <c r="EF38" s="2">
-        <f>EE38*(1+$AB$132)</f>
-        <v>380645.62700455426</v>
+        <f t="shared" si="122"/>
+        <v>342919.28232643253</v>
       </c>
       <c r="EG38" s="2">
-        <f>EF38*(1+$AB$132)</f>
-        <v>384452.08327459981</v>
+        <f t="shared" si="122"/>
+        <v>346348.47514969687</v>
       </c>
       <c r="EH38" s="2">
-        <f>EG38*(1+$AB$132)</f>
-        <v>388296.6041073458</v>
+        <f t="shared" si="122"/>
+        <v>349811.95990119386</v>
       </c>
       <c r="EI38" s="2">
-        <f>EH38*(1+$AB$132)</f>
-        <v>392179.57014841924</v>
+        <f t="shared" si="122"/>
+        <v>353310.07950020581</v>
       </c>
       <c r="EJ38" s="2">
-        <f>EI38*(1+$AB$132)</f>
-        <v>396101.36584990344</v>
+        <f t="shared" si="122"/>
+        <v>356843.18029520789</v>
       </c>
       <c r="EK38" s="2">
-        <f>EJ38*(1+$AB$132)</f>
-        <v>400062.37950840249</v>
+        <f t="shared" si="122"/>
+        <v>360411.61209815997</v>
       </c>
       <c r="EL38" s="2">
-        <f>EK38*(1+$AB$132)</f>
-        <v>404063.0033034865</v>
+        <f t="shared" si="122"/>
+        <v>364015.72821914154</v>
       </c>
       <c r="EM38" s="2">
-        <f>EL38*(1+$AB$132)</f>
-        <v>408103.63333652139</v>
+        <f t="shared" si="122"/>
+        <v>367655.88550133299</v>
       </c>
       <c r="EN38" s="2">
-        <f>EM38*(1+$AB$132)</f>
-        <v>412184.66966988659</v>
+        <f t="shared" si="122"/>
+        <v>371332.44435634633</v>
       </c>
       <c r="EO38" s="2">
-        <f>EN38*(1+$AB$132)</f>
-        <v>416306.51636658545</v>
+        <f t="shared" si="122"/>
+        <v>375045.7687999098</v>
       </c>
       <c r="EP38" s="2">
-        <f>EO38*(1+$AB$132)</f>
-        <v>420469.58153025131</v>
+        <f t="shared" si="122"/>
+        <v>378796.22648790892</v>
       </c>
       <c r="EQ38" s="2">
-        <f>EP38*(1+$AB$132)</f>
-        <v>424674.2773455538</v>
+        <f t="shared" si="122"/>
+        <v>382584.188752788</v>
       </c>
       <c r="ER38" s="2">
-        <f>EQ38*(1+$AB$132)</f>
-        <v>428921.02011900936</v>
+        <f t="shared" si="122"/>
+        <v>386410.0306403159</v>
       </c>
       <c r="ES38" s="2">
-        <f>ER38*(1+$AB$132)</f>
-        <v>433210.23032019945</v>
+        <f t="shared" si="122"/>
+        <v>390274.13094671909</v>
       </c>
       <c r="ET38" s="2">
-        <f>ES38*(1+$AB$132)</f>
-        <v>437542.33262340142</v>
+        <f t="shared" si="122"/>
+        <v>394176.87225618627</v>
       </c>
       <c r="EU38" s="2">
-        <f>ET38*(1+$AB$132)</f>
-        <v>441917.75594963547</v>
+        <f t="shared" si="122"/>
+        <v>398118.64097874815</v>
       </c>
       <c r="EV38" s="2">
-        <f>EU38*(1+$AB$132)</f>
-        <v>446336.93350913184</v>
+        <f t="shared" si="122"/>
+        <v>402099.82738853566</v>
       </c>
       <c r="EW38" s="2">
-        <f>EV38*(1+$AB$132)</f>
-        <v>450800.30284422316</v>
+        <f t="shared" si="122"/>
+        <v>406120.825662421</v>
       </c>
       <c r="EX38" s="2">
-        <f>EW38*(1+$AB$132)</f>
-        <v>455308.30587266537</v>
+        <f t="shared" ref="EX38:FO38" si="123">EW38*(1+$AB$132)</f>
+        <v>410182.03391904524</v>
       </c>
       <c r="EY38" s="2">
-        <f>EX38*(1+$AB$132)</f>
-        <v>459861.38893139205</v>
+        <f t="shared" si="123"/>
+        <v>414283.85425823572</v>
       </c>
       <c r="EZ38" s="2">
-        <f>EY38*(1+$AB$132)</f>
-        <v>464460.00282070599</v>
+        <f t="shared" si="123"/>
+        <v>418426.69280081807</v>
       </c>
       <c r="FA38" s="2">
-        <f>EZ38*(1+$AB$132)</f>
-        <v>469104.60284891305</v>
+        <f t="shared" si="123"/>
+        <v>422610.95972882624</v>
       </c>
       <c r="FB38" s="2">
-        <f>FA38*(1+$AB$132)</f>
-        <v>473795.64887740219</v>
+        <f t="shared" si="123"/>
+        <v>426837.06932611449</v>
       </c>
       <c r="FC38" s="2">
-        <f>FB38*(1+$AB$132)</f>
-        <v>478533.60536617623</v>
+        <f t="shared" si="123"/>
+        <v>431105.44001937564</v>
       </c>
       <c r="FD38" s="2">
-        <f>FC38*(1+$AB$132)</f>
-        <v>483318.941419838</v>
+        <f t="shared" si="123"/>
+        <v>435416.49441956938</v>
       </c>
       <c r="FE38" s="2">
-        <f>FD38*(1+$AB$132)</f>
-        <v>488152.13083403639</v>
+        <f t="shared" si="123"/>
+        <v>439770.65936376509</v>
       </c>
       <c r="FF38" s="2">
-        <f>FE38*(1+$AB$132)</f>
-        <v>493033.65214237676</v>
+        <f t="shared" si="123"/>
+        <v>444168.36595740274</v>
       </c>
       <c r="FG38" s="2">
-        <f>FF38*(1+$AB$132)</f>
-        <v>497963.98866380053</v>
+        <f t="shared" si="123"/>
+        <v>448610.04961697676</v>
       </c>
       <c r="FH38" s="2">
-        <f>FG38*(1+$AB$132)</f>
-        <v>502943.62855043856</v>
+        <f t="shared" si="123"/>
+        <v>453096.15011314652</v>
       </c>
       <c r="FI38" s="2">
-        <f>FH38*(1+$AB$132)</f>
-        <v>507973.06483594293</v>
+        <f t="shared" si="123"/>
+        <v>457627.11161427799</v>
       </c>
       <c r="FJ38" s="2">
-        <f>FI38*(1+$AB$132)</f>
-        <v>513052.79548430239</v>
+        <f t="shared" si="123"/>
+        <v>462203.3827304208</v>
       </c>
       <c r="FK38" s="2">
-        <f>FJ38*(1+$AB$132)</f>
-        <v>518183.3234391454</v>
+        <f t="shared" si="123"/>
+        <v>466825.416557725</v>
       </c>
       <c r="FL38" s="2">
-        <f>FK38*(1+$AB$132)</f>
-        <v>523365.15667353687</v>
+        <f t="shared" si="123"/>
+        <v>471493.67072330223</v>
       </c>
       <c r="FM38" s="2">
-        <f>FL38*(1+$AB$132)</f>
-        <v>528598.80824027222</v>
+        <f t="shared" si="123"/>
+        <v>476208.60743053525</v>
       </c>
       <c r="FN38" s="2">
-        <f>FM38*(1+$AB$132)</f>
-        <v>533884.79632267496</v>
+        <f t="shared" si="123"/>
+        <v>480970.6935048406</v>
       </c>
       <c r="FO38" s="2">
-        <f>FN38*(1+$AB$132)</f>
-        <v>539223.64428590168</v>
+        <f t="shared" si="123"/>
+        <v>485780.400439889</v>
       </c>
     </row>
     <row r="39" spans="2:171" x14ac:dyDescent="0.2">
@@ -4934,32 +4934,32 @@
         <v>2864160</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" ref="S42:T42" si="113">R42*1.2</f>
-        <v>3436992</v>
+        <f>R42*1.1</f>
+        <v>3150576.0000000005</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="113"/>
-        <v>4124390.4</v>
+        <f>S42*1.05</f>
+        <v>3308104.8000000007</v>
       </c>
       <c r="U42" s="2">
         <f>T42*1.05</f>
-        <v>4330609.92</v>
+        <v>3473510.040000001</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:Y42" si="114">U42*1.05</f>
-        <v>4547140.4160000002</v>
+        <f t="shared" ref="V42:Y42" si="124">U42*1.05</f>
+        <v>3647185.5420000013</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="114"/>
-        <v>4774497.4368000003</v>
+        <f t="shared" si="124"/>
+        <v>3829544.8191000014</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="114"/>
-        <v>5013222.3086400004</v>
+        <f t="shared" si="124"/>
+        <v>4021022.0600550016</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="114"/>
-        <v>5263883.4240720002</v>
+        <f t="shared" si="124"/>
+        <v>4222073.163057752</v>
       </c>
     </row>
     <row r="43" spans="2:171" x14ac:dyDescent="0.2">
@@ -4990,19 +4990,19 @@
         <v>241576.50000000012</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" ref="V43:Y43" si="115">U43*1.1</f>
+        <f t="shared" ref="V43:Y43" si="125">U43*1.1</f>
         <v>265734.15000000014</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>292307.56500000018</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>321538.32150000019</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>353692.15365000023</v>
       </c>
     </row>
@@ -5038,19 +5038,19 @@
         <v>675000</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" ref="V44:Y44" si="116">U44*1.5</f>
+        <f t="shared" ref="V44:Y44" si="126">U44*1.5</f>
         <v>1012500</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>1518750</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>2278125</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>3417187.5</v>
       </c>
     </row>
@@ -5066,31 +5066,31 @@
         <v>55000.000000000007</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" ref="S45:U45" si="117">R45*1.1</f>
+        <f t="shared" ref="S45:U45" si="127">R45*1.1</f>
         <v>60500.000000000015</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>66550.000000000015</v>
       </c>
       <c r="U45" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>73205.000000000029</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" ref="V45" si="118">U45*1.1</f>
+        <f t="shared" ref="V45" si="128">U45*1.1</f>
         <v>80525.500000000044</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" ref="W45" si="119">V45*1.1</f>
+        <f t="shared" ref="W45" si="129">V45*1.1</f>
         <v>88578.050000000061</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" ref="X45" si="120">W45*1.1</f>
+        <f t="shared" ref="X45" si="130">W45*1.1</f>
         <v>97435.855000000069</v>
       </c>
       <c r="Y45" s="2">
-        <f t="shared" ref="Y45" si="121">X45*1.1</f>
+        <f t="shared" ref="Y45" si="131">X45*1.1</f>
         <v>107179.44050000008</v>
       </c>
     </row>
@@ -5106,60 +5106,60 @@
         <v>459000</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ref="L46:U46" si="122">SUM(L42:L45)</f>
+        <f t="shared" ref="L46:U46" si="132">SUM(L42:L45)</f>
         <v>906032</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>1298434</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>1775159</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>1679338</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>2036000</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>2701800</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>3300660</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="122"/>
-        <v>3997142</v>
+        <f t="shared" si="132"/>
+        <v>3710726.0000000005</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="122"/>
-        <v>4860555.4000000004</v>
+        <f t="shared" si="132"/>
+        <v>4044269.8000000007</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="122"/>
-        <v>5320391.42</v>
+        <f t="shared" si="132"/>
+        <v>4463291.540000001</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" ref="V46:Y46" si="123">SUM(V42:V45)</f>
-        <v>5905900.0660000006</v>
+        <f t="shared" ref="V46:Y46" si="133">SUM(V42:V45)</f>
+        <v>5005945.1920000017</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="123"/>
-        <v>6674133.0518000005</v>
+        <f t="shared" si="133"/>
+        <v>5729180.4341000011</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="123"/>
-        <v>7710321.4851400014</v>
+        <f t="shared" si="133"/>
+        <v>6718121.2365550026</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" si="123"/>
-        <v>9141942.5182220004</v>
+        <f t="shared" si="133"/>
+        <v>8100132.2572077531</v>
       </c>
     </row>
     <row r="47" spans="2:171" x14ac:dyDescent="0.2">
@@ -5175,35 +5175,35 @@
         <v>47279.055199132039</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:U47" si="124">Q47*1.01</f>
+        <f t="shared" ref="R47:U47" si="134">Q47*1.01</f>
         <v>47751.845751123357</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>48229.364208634594</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>48711.657850720941</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>49198.77442922815</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" ref="V47:V50" si="125">U47*1.01</f>
+        <f t="shared" ref="V47:V50" si="135">U47*1.01</f>
         <v>49690.76217352043</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" ref="W47:W50" si="126">V47*1.01</f>
+        <f t="shared" ref="W47:W50" si="136">V47*1.01</f>
         <v>50187.669795255635</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" ref="X47:X50" si="127">W47*1.01</f>
+        <f t="shared" ref="X47:X50" si="137">W47*1.01</f>
         <v>50689.546493208189</v>
       </c>
       <c r="Y47" s="2">
-        <f t="shared" ref="Y47:Y50" si="128">X47*1.01</f>
+        <f t="shared" ref="Y47:Y50" si="138">X47*1.01</f>
         <v>51196.441958140269</v>
       </c>
       <c r="AA47" s="2" t="s">
@@ -5225,35 +5225,35 @@
         <v>65650</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" ref="R48:U48" si="129">Q48*1.01</f>
+        <f t="shared" ref="R48:U48" si="139">Q48*1.01</f>
         <v>66306.5</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>66969.565000000002</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>67639.260649999997</v>
       </c>
       <c r="U48" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>68315.653256499994</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>68998.809789064995</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>69688.797886955639</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>70385.685865825202</v>
       </c>
       <c r="Y48" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>71089.542724483457</v>
       </c>
       <c r="AA48" s="2" t="s">
@@ -5275,35 +5275,35 @@
         <v>30300</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" ref="R49:U49" si="130">Q49*1.01</f>
+        <f t="shared" ref="R49:U49" si="140">Q49*1.01</f>
         <v>30603</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>30909.03</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>31218.120299999999</v>
       </c>
       <c r="U49" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>31530.301502999999</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>31845.604518029999</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>32164.0605632103</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>32485.701168842403</v>
       </c>
       <c r="Y49" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>32810.558180530825</v>
       </c>
       <c r="AA49" s="4" t="s">
@@ -5326,35 +5326,35 @@
         <v>166650</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" ref="R50:U50" si="131">Q50*1.01</f>
+        <f t="shared" ref="R50:U50" si="141">Q50*1.01</f>
         <v>168316.5</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="141"/>
         <v>169999.66500000001</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="141"/>
         <v>171699.66165000002</v>
       </c>
       <c r="U50" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="141"/>
         <v>173416.65826650002</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>175150.82484916502</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>176902.33309765666</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>178671.35642863324</v>
       </c>
       <c r="Y50" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>180458.06999291957</v>
       </c>
     </row>
@@ -5367,44 +5367,44 @@
         <v>43132.897603485842</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:U51" si="132">P45+P43+P42</f>
+        <f t="shared" ref="P51:U51" si="142">P45+P43+P42</f>
         <v>1986000</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="142"/>
         <v>2601800</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="142"/>
         <v>3100660</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="132"/>
-        <v>3697142</v>
+        <f t="shared" si="142"/>
+        <v>3410726.0000000005</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="132"/>
-        <v>4410555.4000000004</v>
+        <f t="shared" si="142"/>
+        <v>3594269.8000000007</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="132"/>
-        <v>4645391.42</v>
+        <f t="shared" si="142"/>
+        <v>3788291.540000001</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" ref="V51:Y51" si="133">V45+V43+V42</f>
-        <v>4893400.0660000006</v>
+        <f t="shared" ref="V51:Y51" si="143">V45+V43+V42</f>
+        <v>3993445.1920000017</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="133"/>
-        <v>5155383.0518000005</v>
+        <f t="shared" si="143"/>
+        <v>4210430.4341000021</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="133"/>
-        <v>5432196.4851400005</v>
+        <f t="shared" si="143"/>
+        <v>4439996.2365550017</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="133"/>
-        <v>5724755.0182220004</v>
+        <f t="shared" si="143"/>
+        <v>4682944.7572077522</v>
       </c>
     </row>
     <row r="52" spans="2:149" x14ac:dyDescent="0.2">
@@ -5432,39 +5432,39 @@
         <v>47269.876582319936</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:U52" si="134">P52*1.03</f>
+        <f t="shared" ref="Q52:U52" si="144">P52*1.03</f>
         <v>48687.972879789537</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>50148.612066183225</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>51653.070428168721</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>53202.662541013786</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>54798.742417244204</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52" si="135">U52*1.03</f>
+        <f t="shared" ref="V52" si="145">U52*1.03</f>
         <v>56442.704689761529</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" ref="W52" si="136">V52*1.03</f>
+        <f t="shared" ref="W52" si="146">V52*1.03</f>
         <v>58135.985830454374</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" ref="X52" si="137">W52*1.03</f>
+        <f t="shared" ref="X52" si="147">W52*1.03</f>
         <v>59880.065405368005</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" ref="Y52" si="138">X52*1.03</f>
+        <f t="shared" ref="Y52" si="148">X52*1.03</f>
         <v>61676.467367529047</v>
       </c>
     </row>
@@ -5473,44 +5473,44 @@
         <v>12</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" ref="P54:U54" si="139">P42*(P47/1000000)</f>
+        <f t="shared" ref="P54:U54" si="149">P42*(P47/1000000)</f>
         <v>85944.896381788538</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>112845.64894928834</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>136768.92652653749</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="139"/>
-        <v>165763.93895016343</v>
+        <f t="shared" si="149"/>
+        <v>151950.27737098315</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="139"/>
-        <v>200905.89400759808</v>
+        <f t="shared" si="149"/>
+        <v>161143.26915192767</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="139"/>
-        <v>213060.70059505774</v>
+        <f t="shared" si="149"/>
+        <v>170892.43693561928</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" ref="V54:Y54" si="140">V42*(V47/1000000)</f>
-        <v>225950.87298105878</v>
+        <f t="shared" ref="V54:Y54" si="150">V42*(V47/1000000)</f>
+        <v>181231.42937022427</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="140"/>
-        <v>239620.90079641284</v>
+        <f t="shared" si="150"/>
+        <v>192195.93084712286</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="140"/>
-        <v>254117.96529459581</v>
+        <f t="shared" si="150"/>
+        <v>203823.78466337378</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="140"/>
-        <v>269492.10219491884</v>
+        <f t="shared" si="150"/>
+        <v>216155.12363550789</v>
       </c>
     </row>
     <row r="55" spans="2:149" x14ac:dyDescent="0.2">
@@ -5518,43 +5518,43 @@
         <v>52</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" ref="P55:U55" si="141">P43*(P48/1000000)</f>
+        <f t="shared" ref="P55:U55" si="151">P43*(P48/1000000)</f>
         <v>9750</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>10832.25</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>12034.629750000002</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>13370.473652250006</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>14854.596227649754</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>16503.456408918879</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" ref="V55:Y55" si="142">V43*(V48/1000000)</f>
+        <f t="shared" ref="V55:Y55" si="152">V43*(V48/1000000)</f>
         <v>18335.340070308877</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>20370.562818113161</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>22631.695290923726</v>
       </c>
       <c r="Y55" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>25143.813468216256</v>
       </c>
     </row>
@@ -5563,539 +5563,539 @@
         <v>53</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" ref="P56:U56" si="143">P44*(P49/1000000)</f>
+        <f t="shared" ref="P56:U56" si="153">P44*(P49/1000000)</f>
         <v>1500</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>3030</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>6120.6</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>9272.7090000000007</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>14048.154134999999</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>21282.953514525001</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56:Y56" si="144">V44*(V49/1000000)</f>
+        <f t="shared" ref="V56:Y56" si="154">V44*(V49/1000000)</f>
         <v>32243.674574505374</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="154"/>
         <v>48849.166980375645</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="154"/>
         <v>74006.487975269105</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="154"/>
         <v>112119.82928253268</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" ref="Z56:BE56" si="145">Y56*(1+$AB$47)</f>
+        <f t="shared" ref="Z56:BE56" si="155">Y56*(1+$AB$47)</f>
         <v>113241.02757535801</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>114373.43785111159</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>115517.17222962271</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>116672.34395191894</v>
       </c>
       <c r="AD56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>117839.06739143813</v>
       </c>
       <c r="AE56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>119017.45806535252</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>120207.63264600605</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>121409.70897246612</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>122623.80606219078</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>123850.04412281269</v>
       </c>
       <c r="AJ56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>125088.54456404081</v>
       </c>
       <c r="AK56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>126339.43000968122</v>
       </c>
       <c r="AL56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>127602.82430977804</v>
       </c>
       <c r="AM56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>128878.85255287582</v>
       </c>
       <c r="AN56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>130167.64107840457</v>
       </c>
       <c r="AO56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>131469.31748918863</v>
       </c>
       <c r="AP56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>132784.01066408053</v>
       </c>
       <c r="AQ56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>134111.85077072133</v>
       </c>
       <c r="AR56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>135452.96927842853</v>
       </c>
       <c r="AS56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>136807.49897121283</v>
       </c>
       <c r="AT56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>138175.57396092496</v>
       </c>
       <c r="AU56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>139557.3297005342</v>
       </c>
       <c r="AV56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>140952.90299753955</v>
       </c>
       <c r="AW56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>142362.43202751494</v>
       </c>
       <c r="AX56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>143786.05634779009</v>
       </c>
       <c r="AY56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>145223.916911268</v>
       </c>
       <c r="AZ56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>146676.15608038066</v>
       </c>
       <c r="BA56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>148142.91764118447</v>
       </c>
       <c r="BB56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>149624.34681759632</v>
       </c>
       <c r="BC56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>151120.59028577228</v>
       </c>
       <c r="BD56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>152631.79618863002</v>
       </c>
       <c r="BE56" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="155"/>
         <v>154158.11415051631</v>
       </c>
       <c r="BF56" s="2">
-        <f t="shared" ref="BF56:CK56" si="146">BE56*(1+$AB$47)</f>
+        <f t="shared" ref="BF56:CK56" si="156">BE56*(1+$AB$47)</f>
         <v>155699.69529202147</v>
       </c>
       <c r="BG56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>157256.69224494169</v>
       </c>
       <c r="BH56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>158829.25916739111</v>
       </c>
       <c r="BI56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>160417.55175906501</v>
       </c>
       <c r="BJ56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>162021.72727665567</v>
       </c>
       <c r="BK56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>163641.94454942222</v>
       </c>
       <c r="BL56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>165278.36399491644</v>
       </c>
       <c r="BM56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>166931.1476348656</v>
       </c>
       <c r="BN56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>168600.45911121427</v>
       </c>
       <c r="BO56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>170286.46370232641</v>
       </c>
       <c r="BP56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>171989.32833934968</v>
       </c>
       <c r="BQ56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>173709.22162274318</v>
       </c>
       <c r="BR56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>175446.31383897061</v>
       </c>
       <c r="BS56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>177200.77697736034</v>
       </c>
       <c r="BT56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>178972.78474713393</v>
       </c>
       <c r="BU56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>180762.51259460527</v>
       </c>
       <c r="BV56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>182570.13772055131</v>
       </c>
       <c r="BW56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>184395.83909775683</v>
       </c>
       <c r="BX56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>186239.79748873442</v>
       </c>
       <c r="BY56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>188102.19546362176</v>
       </c>
       <c r="BZ56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>189983.21741825796</v>
       </c>
       <c r="CA56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>191883.04959244054</v>
       </c>
       <c r="CB56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>193801.88008836494</v>
       </c>
       <c r="CC56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>195739.89888924858</v>
       </c>
       <c r="CD56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>197697.29787814108</v>
       </c>
       <c r="CE56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>199674.27085692249</v>
       </c>
       <c r="CF56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>201671.01356549171</v>
       </c>
       <c r="CG56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>203687.72370114663</v>
       </c>
       <c r="CH56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>205724.60093815811</v>
       </c>
       <c r="CI56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>207781.84694753969</v>
       </c>
       <c r="CJ56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>209859.66541701509</v>
       </c>
       <c r="CK56" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="156"/>
         <v>211958.26207118525</v>
       </c>
       <c r="CL56" s="2">
-        <f t="shared" ref="CL56:DQ56" si="147">CK56*(1+$AB$47)</f>
+        <f t="shared" ref="CL56:DQ56" si="157">CK56*(1+$AB$47)</f>
         <v>214077.8446918971</v>
       </c>
       <c r="CM56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>216218.62313881607</v>
       </c>
       <c r="CN56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>218380.80937020422</v>
       </c>
       <c r="CO56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>220564.61746390627</v>
       </c>
       <c r="CP56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>222770.26363854532</v>
       </c>
       <c r="CQ56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>224997.96627493078</v>
       </c>
       <c r="CR56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>227247.94593768008</v>
       </c>
       <c r="CS56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>229520.42539705688</v>
       </c>
       <c r="CT56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>231815.62965102744</v>
       </c>
       <c r="CU56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>234133.78594753772</v>
       </c>
       <c r="CV56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>236475.12380701309</v>
       </c>
       <c r="CW56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>238839.87504508323</v>
       </c>
       <c r="CX56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>241228.27379553407</v>
       </c>
       <c r="CY56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>243640.55653348941</v>
       </c>
       <c r="CZ56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>246076.9620988243</v>
       </c>
       <c r="DA56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>248537.73171981255</v>
       </c>
       <c r="DB56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>251023.10903701067</v>
       </c>
       <c r="DC56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>253533.34012738077</v>
       </c>
       <c r="DD56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>256068.67352865459</v>
       </c>
       <c r="DE56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>258629.36026394114</v>
       </c>
       <c r="DF56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>261215.65386658054</v>
       </c>
       <c r="DG56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>263827.81040524633</v>
       </c>
       <c r="DH56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>266466.0885092988</v>
       </c>
       <c r="DI56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>269130.74939439178</v>
       </c>
       <c r="DJ56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>271822.05688833568</v>
       </c>
       <c r="DK56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>274540.27745721902</v>
       </c>
       <c r="DL56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>277285.68023179122</v>
       </c>
       <c r="DM56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>280058.53703410912</v>
       </c>
       <c r="DN56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>282859.1224044502</v>
       </c>
       <c r="DO56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>285687.7136284947</v>
       </c>
       <c r="DP56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>288544.59076477966</v>
       </c>
       <c r="DQ56" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="157"/>
         <v>291430.03667242744</v>
       </c>
       <c r="DR56" s="2">
-        <f t="shared" ref="DR56:ES56" si="148">DQ56*(1+$AB$47)</f>
+        <f t="shared" ref="DR56:ES56" si="158">DQ56*(1+$AB$47)</f>
         <v>294344.33703915169</v>
       </c>
       <c r="DS56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>297287.78040954319</v>
       </c>
       <c r="DT56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>300260.65821363864</v>
       </c>
       <c r="DU56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>303263.26479577506</v>
       </c>
       <c r="DV56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>306295.89744373283</v>
       </c>
       <c r="DW56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>309358.85641817015</v>
       </c>
       <c r="DX56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>312452.44498235185</v>
       </c>
       <c r="DY56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>315576.96943217539</v>
       </c>
       <c r="DZ56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>318732.73912649712</v>
       </c>
       <c r="EA56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>321920.06651776208</v>
       </c>
       <c r="EB56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>325139.26718293969</v>
       </c>
       <c r="EC56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>328390.65985476907</v>
       </c>
       <c r="ED56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>331674.56645331677</v>
       </c>
       <c r="EE56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>334991.31211784994</v>
       </c>
       <c r="EF56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>338341.22523902846</v>
       </c>
       <c r="EG56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>341724.63749141875</v>
       </c>
       <c r="EH56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>345141.88386633294</v>
       </c>
       <c r="EI56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>348593.30270499625</v>
       </c>
       <c r="EJ56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>352079.23573204625</v>
       </c>
       <c r="EK56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>355600.02808936674</v>
       </c>
       <c r="EL56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>359156.02837026044</v>
       </c>
       <c r="EM56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>362747.58865396306</v>
       </c>
       <c r="EN56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>366375.06454050267</v>
       </c>
       <c r="EO56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>370038.8151859077</v>
       </c>
       <c r="EP56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>373739.20333776681</v>
       </c>
       <c r="EQ56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>377476.59537114447</v>
       </c>
       <c r="ER56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>381251.36132485594</v>
       </c>
       <c r="ES56" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="158"/>
         <v>385063.87493810448</v>
       </c>
     </row>
@@ -6104,43 +6104,43 @@
         <v>54</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" ref="P57:U57" si="149">P45*(P50/1000000)</f>
+        <f t="shared" ref="P57:U57" si="159">P45*(P50/1000000)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="159"/>
         <v>8332.5</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="159"/>
         <v>9257.4075000000012</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="159"/>
         <v>10284.979732500004</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="159"/>
         <v>11426.612482807504</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="159"/>
         <v>12694.96646839914</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" ref="V57:Y57" si="150">V45*(V50/1000000)</f>
+        <f t="shared" ref="V57:Y57" si="160">V45*(V50/1000000)</f>
         <v>14104.107746391446</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>15669.663706240897</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>17408.996377633637</v>
       </c>
       <c r="Y57" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>19341.394975550975</v>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4">
         <f>AB71</f>
-        <v>138665.7261528903</v>
+        <v>122889.08688436032</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -6209,44 +6209,44 @@
         <v>62</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" ref="P61:U61" si="151">(8000*SUM(P42:P45)*P66)/1000000</f>
+        <f t="shared" ref="P61:U61" si="161">(8000*SUM(P42:P45)*P66)/1000000</f>
         <v>3909.12</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>6224.9471999999996</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>9125.6647679999987</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="151"/>
-        <v>13261.557841919997</v>
+        <f t="shared" si="161"/>
+        <v>12311.298293759999</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="151"/>
-        <v>19351.387540684795</v>
+        <f t="shared" si="161"/>
+        <v>16101.499885977601</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="151"/>
-        <v>23300.352025657336</v>
+        <f t="shared" si="161"/>
+        <v>19546.731784470529</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" ref="V61:Y61" si="152">(8000*SUM(V42:V45)*V66)/1000000</f>
-        <v>27157.781578119411</v>
+        <f t="shared" ref="V61:Y61" si="162">(8000*SUM(V42:V45)*V66)/1000000</f>
+        <v>23019.415262210954</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="152"/>
-        <v>32224.957737084831</v>
+        <f t="shared" si="162"/>
+        <v>27662.408873795754</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="152"/>
-        <v>39089.424974455884</v>
+        <f t="shared" si="162"/>
+        <v>34059.214852679674</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="152"/>
-        <v>48664.759403265707</v>
+        <f t="shared" si="162"/>
+        <v>43118.952744007453</v>
       </c>
     </row>
     <row r="62" spans="2:149" x14ac:dyDescent="0.2">
@@ -6258,40 +6258,40 @@
         <v>39.322800000000001</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" ref="Q62:U62" si="153">((99*Q51)/(1000000))*Q67</f>
+        <f t="shared" ref="Q62:U62" si="163">((99*Q51)/(1000000))*Q67</f>
         <v>61.818767999999992</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>88.406017919999996</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="153"/>
-        <v>126.4954952448</v>
+        <f t="shared" si="163"/>
+        <v>116.69594365440001</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="153"/>
-        <v>181.08540801331199</v>
+        <f t="shared" si="163"/>
+        <v>147.570941574144</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="153"/>
-        <v>209.79984986459132</v>
+        <f t="shared" si="163"/>
+        <v>171.09064112735234</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" ref="V62:Y62" si="154">((99*V51)/(1000000))*V67</f>
-        <v>232.05069964435646</v>
+        <f t="shared" ref="V62:Y62" si="164">((99*V51)/(1000000))*V67</f>
+        <v>189.37379701155047</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="154"/>
-        <v>256.69794812768737</v>
+        <f t="shared" si="164"/>
+        <v>209.64666297501881</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="154"/>
-        <v>284.00515760487639</v>
+        <f t="shared" si="164"/>
+        <v>232.13111572405921</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="154"/>
-        <v>314.26568487156283</v>
+        <f t="shared" si="164"/>
+        <v>257.0745536979619</v>
       </c>
     </row>
     <row r="63" spans="2:149" x14ac:dyDescent="0.2">
@@ -6303,40 +6303,40 @@
         <v>3948.4427999999998</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" ref="Q63:T63" si="155">SUM(Q61:Q62)</f>
+        <f t="shared" ref="Q63:T63" si="165">SUM(Q61:Q62)</f>
         <v>6286.7659679999997</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>9214.0707859199993</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="155"/>
-        <v>13388.053337164798</v>
+        <f t="shared" si="165"/>
+        <v>12427.994237414399</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="155"/>
-        <v>19532.472948698105</v>
+        <f t="shared" si="165"/>
+        <v>16249.070827551745</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" ref="U63:Y63" si="156">SUM(U61:U62)</f>
-        <v>23510.151875521926</v>
+        <f t="shared" ref="U63:Y63" si="166">SUM(U61:U62)</f>
+        <v>19717.822425597882</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="156"/>
-        <v>27389.83227776377</v>
+        <f t="shared" si="166"/>
+        <v>23208.789059222505</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="156"/>
-        <v>32481.655685212518</v>
+        <f t="shared" si="166"/>
+        <v>27872.055536770771</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="156"/>
-        <v>39373.430132060763</v>
+        <f t="shared" si="166"/>
+        <v>34291.34596840373</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="156"/>
-        <v>48979.02508813727</v>
+        <f t="shared" si="166"/>
+        <v>43376.027297705412</v>
       </c>
     </row>
     <row r="64" spans="2:149" x14ac:dyDescent="0.2">
@@ -6348,516 +6348,516 @@
         <v>3158.7542400000002</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" ref="Q64:U64" si="157">Q63*Q68</f>
+        <f t="shared" ref="Q64:U64" si="167">Q63*Q68</f>
         <v>5029.4127743999998</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>7371.2566287359996</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="157"/>
-        <v>10710.442669731839</v>
+        <f t="shared" si="167"/>
+        <v>9942.3953899315202</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="157"/>
-        <v>15625.978358958484</v>
+        <f t="shared" si="167"/>
+        <v>12999.256662041396</v>
       </c>
       <c r="U64" s="2">
-        <f t="shared" si="157"/>
-        <v>18808.121500417543</v>
+        <f t="shared" si="167"/>
+        <v>15774.257940478306</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" ref="V64:Y64" si="158">V63*V68</f>
-        <v>21911.865822211017</v>
+        <f t="shared" ref="V64:Y64" si="168">V63*V68</f>
+        <v>18567.031247378003</v>
       </c>
       <c r="W64" s="2">
-        <f t="shared" si="158"/>
-        <v>25985.324548170014</v>
+        <f t="shared" si="168"/>
+        <v>22297.644429416618</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="158"/>
-        <v>31498.744105648613</v>
+        <f t="shared" si="168"/>
+        <v>27433.076774722984</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="158"/>
-        <v>39183.220070509815</v>
+        <f t="shared" si="168"/>
+        <v>34700.821838164331</v>
       </c>
       <c r="Z64" s="2">
-        <f t="shared" ref="Z64:BE64" si="159">Y64*(1+$AB$69)</f>
-        <v>39575.05227121491</v>
+        <f t="shared" ref="Z64:BE64" si="169">Y64*(1+$AB$69)</f>
+        <v>35047.830056545972</v>
       </c>
       <c r="AA64" s="2">
-        <f t="shared" si="159"/>
-        <v>39970.802793927061</v>
+        <f t="shared" si="169"/>
+        <v>35398.308357111433</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="159"/>
-        <v>40370.51082186633</v>
+        <f t="shared" si="169"/>
+        <v>35752.291440682551</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="159"/>
-        <v>40774.215930084996</v>
+        <f t="shared" si="169"/>
+        <v>36109.81435508938</v>
       </c>
       <c r="AD64" s="2">
-        <f t="shared" si="159"/>
-        <v>41181.958089385844</v>
+        <f t="shared" si="169"/>
+        <v>36470.912498640275</v>
       </c>
       <c r="AE64" s="2">
-        <f t="shared" si="159"/>
-        <v>41593.777670279705</v>
+        <f t="shared" si="169"/>
+        <v>36835.621623626677</v>
       </c>
       <c r="AF64" s="2">
-        <f t="shared" si="159"/>
-        <v>42009.715446982504</v>
+        <f t="shared" si="169"/>
+        <v>37203.977839862942</v>
       </c>
       <c r="AG64" s="2">
-        <f t="shared" si="159"/>
-        <v>42429.81260145233</v>
+        <f t="shared" si="169"/>
+        <v>37576.017618261569</v>
       </c>
       <c r="AH64" s="2">
-        <f t="shared" si="159"/>
-        <v>42854.110727466854</v>
+        <f t="shared" si="169"/>
+        <v>37951.777794444184</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" si="159"/>
-        <v>43282.651834741526</v>
+        <f t="shared" si="169"/>
+        <v>38331.295572388626</v>
       </c>
       <c r="AJ64" s="2">
-        <f t="shared" si="159"/>
-        <v>43715.47835308894</v>
+        <f t="shared" si="169"/>
+        <v>38714.608528112512</v>
       </c>
       <c r="AK64" s="2">
-        <f t="shared" si="159"/>
-        <v>44152.633136619828</v>
+        <f t="shared" si="169"/>
+        <v>39101.754613393641</v>
       </c>
       <c r="AL64" s="2">
-        <f t="shared" si="159"/>
-        <v>44594.159467986028</v>
+        <f t="shared" si="169"/>
+        <v>39492.77215952758</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="159"/>
-        <v>45040.10106266589</v>
+        <f t="shared" si="169"/>
+        <v>39887.699881122855</v>
       </c>
       <c r="AN64" s="2">
-        <f t="shared" si="159"/>
-        <v>45490.502073292548</v>
+        <f t="shared" si="169"/>
+        <v>40286.57687993408</v>
       </c>
       <c r="AO64" s="2">
-        <f t="shared" si="159"/>
-        <v>45945.407094025475</v>
+        <f t="shared" si="169"/>
+        <v>40689.44264873342</v>
       </c>
       <c r="AP64" s="2">
-        <f t="shared" si="159"/>
-        <v>46404.861164965732</v>
+        <f t="shared" si="169"/>
+        <v>41096.337075220756</v>
       </c>
       <c r="AQ64" s="2">
-        <f t="shared" si="159"/>
-        <v>46868.909776615394</v>
+        <f t="shared" si="169"/>
+        <v>41507.300445972964</v>
       </c>
       <c r="AR64" s="2">
-        <f t="shared" si="159"/>
-        <v>47337.598874381547</v>
+        <f t="shared" si="169"/>
+        <v>41922.373450432693</v>
       </c>
       <c r="AS64" s="2">
-        <f t="shared" si="159"/>
-        <v>47810.974863125361</v>
+        <f t="shared" si="169"/>
+        <v>42341.597184937018</v>
       </c>
       <c r="AT64" s="2">
-        <f t="shared" si="159"/>
-        <v>48289.084611756618</v>
+        <f t="shared" si="169"/>
+        <v>42765.013156786386</v>
       </c>
       <c r="AU64" s="2">
-        <f t="shared" si="159"/>
-        <v>48771.975457874185</v>
+        <f t="shared" si="169"/>
+        <v>43192.663288354248</v>
       </c>
       <c r="AV64" s="2">
-        <f t="shared" si="159"/>
-        <v>49259.695212452927</v>
+        <f t="shared" si="169"/>
+        <v>43624.589921237792</v>
       </c>
       <c r="AW64" s="2">
-        <f t="shared" si="159"/>
-        <v>49752.292164577455</v>
+        <f t="shared" si="169"/>
+        <v>44060.835820450171</v>
       </c>
       <c r="AX64" s="2">
-        <f t="shared" si="159"/>
-        <v>50249.815086223229</v>
+        <f t="shared" si="169"/>
+        <v>44501.444178654674</v>
       </c>
       <c r="AY64" s="2">
-        <f t="shared" si="159"/>
-        <v>50752.313237085458</v>
+        <f t="shared" si="169"/>
+        <v>44946.458620441219</v>
       </c>
       <c r="AZ64" s="2">
-        <f t="shared" si="159"/>
-        <v>51259.836369456316</v>
+        <f t="shared" si="169"/>
+        <v>45395.923206645632</v>
       </c>
       <c r="BA64" s="2">
-        <f t="shared" si="159"/>
-        <v>51772.434733150876</v>
+        <f t="shared" si="169"/>
+        <v>45849.882438712091</v>
       </c>
       <c r="BB64" s="2">
-        <f t="shared" si="159"/>
-        <v>52290.159080482386</v>
+        <f t="shared" si="169"/>
+        <v>46308.381263099211</v>
       </c>
       <c r="BC64" s="2">
-        <f t="shared" si="159"/>
-        <v>52813.06067128721</v>
+        <f t="shared" si="169"/>
+        <v>46771.465075730201</v>
       </c>
       <c r="BD64" s="2">
-        <f t="shared" si="159"/>
-        <v>53341.191278000086</v>
+        <f t="shared" si="169"/>
+        <v>47239.179726487506</v>
       </c>
       <c r="BE64" s="2">
-        <f t="shared" si="159"/>
-        <v>53874.603190780086</v>
+        <f t="shared" si="169"/>
+        <v>47711.571523752384</v>
       </c>
       <c r="BF64" s="2">
-        <f t="shared" ref="BF64:CK64" si="160">BE64*(1+$AB$69)</f>
-        <v>54413.349222687888</v>
+        <f t="shared" ref="BF64:CK64" si="170">BE64*(1+$AB$69)</f>
+        <v>48188.687238989907</v>
       </c>
       <c r="BG64" s="2">
-        <f t="shared" si="160"/>
-        <v>54957.482714914768</v>
+        <f t="shared" si="170"/>
+        <v>48670.574111379807</v>
       </c>
       <c r="BH64" s="2">
-        <f t="shared" si="160"/>
-        <v>55507.057542063914</v>
+        <f t="shared" si="170"/>
+        <v>49157.279852493608</v>
       </c>
       <c r="BI64" s="2">
-        <f t="shared" si="160"/>
-        <v>56062.128117484557</v>
+        <f t="shared" si="170"/>
+        <v>49648.852651018547</v>
       </c>
       <c r="BJ64" s="2">
-        <f t="shared" si="160"/>
-        <v>56622.749398659405</v>
+        <f t="shared" si="170"/>
+        <v>50145.341177528731</v>
       </c>
       <c r="BK64" s="2">
-        <f t="shared" si="160"/>
-        <v>57188.976892646002</v>
+        <f t="shared" si="170"/>
+        <v>50646.794589304016</v>
       </c>
       <c r="BL64" s="2">
-        <f t="shared" si="160"/>
-        <v>57760.866661572465</v>
+        <f t="shared" si="170"/>
+        <v>51153.262535197056</v>
       </c>
       <c r="BM64" s="2">
-        <f t="shared" si="160"/>
-        <v>58338.475328188193</v>
+        <f t="shared" si="170"/>
+        <v>51664.795160549031</v>
       </c>
       <c r="BN64" s="2">
-        <f t="shared" si="160"/>
-        <v>58921.860081470077</v>
+        <f t="shared" si="170"/>
+        <v>52181.44311215452</v>
       </c>
       <c r="BO64" s="2">
-        <f t="shared" si="160"/>
-        <v>59511.07868228478</v>
+        <f t="shared" si="170"/>
+        <v>52703.257543276064</v>
       </c>
       <c r="BP64" s="2">
-        <f t="shared" si="160"/>
-        <v>60106.18946910763</v>
+        <f t="shared" si="170"/>
+        <v>53230.290118708828</v>
       </c>
       <c r="BQ64" s="2">
-        <f t="shared" si="160"/>
-        <v>60707.251363798707</v>
+        <f t="shared" si="170"/>
+        <v>53762.593019895918</v>
       </c>
       <c r="BR64" s="2">
-        <f t="shared" si="160"/>
-        <v>61314.323877436691</v>
+        <f t="shared" si="170"/>
+        <v>54300.218950094881</v>
       </c>
       <c r="BS64" s="2">
-        <f t="shared" si="160"/>
-        <v>61927.467116211061</v>
+        <f t="shared" si="170"/>
+        <v>54843.221139595829</v>
       </c>
       <c r="BT64" s="2">
-        <f t="shared" si="160"/>
-        <v>62546.741787373168</v>
+        <f t="shared" si="170"/>
+        <v>55391.653350991786</v>
       </c>
       <c r="BU64" s="2">
-        <f t="shared" si="160"/>
-        <v>63172.209205246902</v>
+        <f t="shared" si="170"/>
+        <v>55945.569884501703</v>
       </c>
       <c r="BV64" s="2">
-        <f t="shared" si="160"/>
-        <v>63803.931297299372</v>
+        <f t="shared" si="170"/>
+        <v>56505.025583346724</v>
       </c>
       <c r="BW64" s="2">
-        <f t="shared" si="160"/>
-        <v>64441.970610272365</v>
+        <f t="shared" si="170"/>
+        <v>57070.075839180194</v>
       </c>
       <c r="BX64" s="2">
-        <f t="shared" si="160"/>
-        <v>65086.390316375087</v>
+        <f t="shared" si="170"/>
+        <v>57640.776597571996</v>
       </c>
       <c r="BY64" s="2">
-        <f t="shared" si="160"/>
-        <v>65737.254219538838</v>
+        <f t="shared" si="170"/>
+        <v>58217.18436354772</v>
       </c>
       <c r="BZ64" s="2">
-        <f t="shared" si="160"/>
-        <v>66394.626761734224</v>
+        <f t="shared" si="170"/>
+        <v>58799.356207183198</v>
       </c>
       <c r="CA64" s="2">
-        <f t="shared" si="160"/>
-        <v>67058.573029351566</v>
+        <f t="shared" si="170"/>
+        <v>59387.34976925503</v>
       </c>
       <c r="CB64" s="2">
-        <f t="shared" si="160"/>
-        <v>67729.158759645085</v>
+        <f t="shared" si="170"/>
+        <v>59981.223266947578</v>
       </c>
       <c r="CC64" s="2">
-        <f t="shared" si="160"/>
-        <v>68406.450347241538</v>
+        <f t="shared" si="170"/>
+        <v>60581.035499617057</v>
       </c>
       <c r="CD64" s="2">
-        <f t="shared" si="160"/>
-        <v>69090.514850713953</v>
+        <f t="shared" si="170"/>
+        <v>61186.845854613231</v>
       </c>
       <c r="CE64" s="2">
-        <f t="shared" si="160"/>
-        <v>69781.419999221092</v>
+        <f t="shared" si="170"/>
+        <v>61798.714313159362</v>
       </c>
       <c r="CF64" s="2">
-        <f t="shared" si="160"/>
-        <v>70479.234199213301</v>
+        <f t="shared" si="170"/>
+        <v>62416.701456290954</v>
       </c>
       <c r="CG64" s="2">
-        <f t="shared" si="160"/>
-        <v>71184.026541205429</v>
+        <f t="shared" si="170"/>
+        <v>63040.868470853864</v>
       </c>
       <c r="CH64" s="2">
-        <f t="shared" si="160"/>
-        <v>71895.866806617487</v>
+        <f t="shared" si="170"/>
+        <v>63671.277155562406</v>
       </c>
       <c r="CI64" s="2">
-        <f t="shared" si="160"/>
-        <v>72614.825474683661</v>
+        <f t="shared" si="170"/>
+        <v>64307.989927118033</v>
       </c>
       <c r="CJ64" s="2">
-        <f t="shared" si="160"/>
-        <v>73340.973729430494</v>
+        <f t="shared" si="170"/>
+        <v>64951.069826389212</v>
       </c>
       <c r="CK64" s="2">
-        <f t="shared" si="160"/>
-        <v>74074.383466724801</v>
+        <f t="shared" si="170"/>
+        <v>65600.580524653109</v>
       </c>
       <c r="CL64" s="2">
-        <f t="shared" ref="CL64:DQ64" si="161">CK64*(1+$AB$69)</f>
-        <v>74815.127301392044</v>
+        <f t="shared" ref="CL64:DQ64" si="171">CK64*(1+$AB$69)</f>
+        <v>66256.586329899641</v>
       </c>
       <c r="CM64" s="2">
-        <f t="shared" si="161"/>
-        <v>75563.278574405966</v>
+        <f t="shared" si="171"/>
+        <v>66919.152193198635</v>
       </c>
       <c r="CN64" s="2">
-        <f t="shared" si="161"/>
-        <v>76318.911360150028</v>
+        <f t="shared" si="171"/>
+        <v>67588.343715130628</v>
       </c>
       <c r="CO64" s="2">
-        <f t="shared" si="161"/>
-        <v>77082.100473751532</v>
+        <f t="shared" si="171"/>
+        <v>68264.227152281936</v>
       </c>
       <c r="CP64" s="2">
-        <f t="shared" si="161"/>
-        <v>77852.92147848905</v>
+        <f t="shared" si="171"/>
+        <v>68946.869423804761</v>
       </c>
       <c r="CQ64" s="2">
-        <f t="shared" si="161"/>
-        <v>78631.450693273946</v>
+        <f t="shared" si="171"/>
+        <v>69636.338118042811</v>
       </c>
       <c r="CR64" s="2">
-        <f t="shared" si="161"/>
-        <v>79417.76520020669</v>
+        <f t="shared" si="171"/>
+        <v>70332.701499223243</v>
       </c>
       <c r="CS64" s="2">
-        <f t="shared" si="161"/>
-        <v>80211.942852208755</v>
+        <f t="shared" si="171"/>
+        <v>71036.028514215475</v>
       </c>
       <c r="CT64" s="2">
-        <f t="shared" si="161"/>
-        <v>81014.062280730839</v>
+        <f t="shared" si="171"/>
+        <v>71746.388799357635</v>
       </c>
       <c r="CU64" s="2">
-        <f t="shared" si="161"/>
-        <v>81824.202903538142</v>
+        <f t="shared" si="171"/>
+        <v>72463.852687351216</v>
       </c>
       <c r="CV64" s="2">
-        <f t="shared" si="161"/>
-        <v>82642.444932573519</v>
+        <f t="shared" si="171"/>
+        <v>73188.491214224734</v>
       </c>
       <c r="CW64" s="2">
-        <f t="shared" si="161"/>
-        <v>83468.869381899261</v>
+        <f t="shared" si="171"/>
+        <v>73920.376126366988</v>
       </c>
       <c r="CX64" s="2">
-        <f t="shared" si="161"/>
-        <v>84303.558075718262</v>
+        <f t="shared" si="171"/>
+        <v>74659.579887630665</v>
       </c>
       <c r="CY64" s="2">
-        <f t="shared" si="161"/>
-        <v>85146.593656475452</v>
+        <f t="shared" si="171"/>
+        <v>75406.175686506976</v>
       </c>
       <c r="CZ64" s="2">
-        <f t="shared" si="161"/>
-        <v>85998.059593040205</v>
+        <f t="shared" si="171"/>
+        <v>76160.23744337204</v>
       </c>
       <c r="DA64" s="2">
-        <f t="shared" si="161"/>
-        <v>86858.040188970612</v>
+        <f t="shared" si="171"/>
+        <v>76921.839817805754</v>
       </c>
       <c r="DB64" s="2">
-        <f t="shared" si="161"/>
-        <v>87726.620590860315</v>
+        <f t="shared" si="171"/>
+        <v>77691.058215983809</v>
       </c>
       <c r="DC64" s="2">
-        <f t="shared" si="161"/>
-        <v>88603.886796768915</v>
+        <f t="shared" si="171"/>
+        <v>78467.968798143644</v>
       </c>
       <c r="DD64" s="2">
-        <f t="shared" si="161"/>
-        <v>89489.925664736598</v>
+        <f t="shared" si="171"/>
+        <v>79252.648486125079</v>
       </c>
       <c r="DE64" s="2">
-        <f t="shared" si="161"/>
-        <v>90384.824921383959</v>
+        <f t="shared" si="171"/>
+        <v>80045.174970986336</v>
       </c>
       <c r="DF64" s="2">
-        <f t="shared" si="161"/>
-        <v>91288.673170597802</v>
+        <f t="shared" si="171"/>
+        <v>80845.626720696193</v>
       </c>
       <c r="DG64" s="2">
-        <f t="shared" si="161"/>
-        <v>92201.559902303779</v>
+        <f t="shared" si="171"/>
+        <v>81654.082987903152</v>
       </c>
       <c r="DH64" s="2">
-        <f t="shared" si="161"/>
-        <v>93123.575501326821</v>
+        <f t="shared" si="171"/>
+        <v>82470.62381778218</v>
       </c>
       <c r="DI64" s="2">
-        <f t="shared" si="161"/>
-        <v>94054.811256340094</v>
+        <f t="shared" si="171"/>
+        <v>83295.330055960003</v>
       </c>
       <c r="DJ64" s="2">
-        <f t="shared" si="161"/>
-        <v>94995.35936890349</v>
+        <f t="shared" si="171"/>
+        <v>84128.283356519605</v>
       </c>
       <c r="DK64" s="2">
-        <f t="shared" si="161"/>
-        <v>95945.312962592521</v>
+        <f t="shared" si="171"/>
+        <v>84969.566190084806</v>
       </c>
       <c r="DL64" s="2">
-        <f t="shared" si="161"/>
-        <v>96904.766092218444</v>
+        <f t="shared" si="171"/>
+        <v>85819.261851985662</v>
       </c>
       <c r="DM64" s="2">
-        <f t="shared" si="161"/>
-        <v>97873.813753140625</v>
+        <f t="shared" si="171"/>
+        <v>86677.454470505516</v>
       </c>
       <c r="DN64" s="2">
-        <f t="shared" si="161"/>
-        <v>98852.551890672024</v>
+        <f t="shared" si="171"/>
+        <v>87544.229015210571</v>
       </c>
       <c r="DO64" s="2">
-        <f t="shared" si="161"/>
-        <v>99841.077409578749</v>
+        <f t="shared" si="171"/>
+        <v>88419.671305362674</v>
       </c>
       <c r="DP64" s="2">
-        <f t="shared" si="161"/>
-        <v>100839.48818367453</v>
+        <f t="shared" si="171"/>
+        <v>89303.868018416295</v>
       </c>
       <c r="DQ64" s="2">
-        <f t="shared" si="161"/>
-        <v>101847.88306551128</v>
+        <f t="shared" si="171"/>
+        <v>90196.906698600462</v>
       </c>
       <c r="DR64" s="2">
-        <f t="shared" ref="DR64:EN64" si="162">DQ64*(1+$AB$69)</f>
-        <v>102866.3618961664</v>
+        <f t="shared" ref="DR64:EN64" si="172">DQ64*(1+$AB$69)</f>
+        <v>91098.875765586461</v>
       </c>
       <c r="DS64" s="2">
-        <f t="shared" si="162"/>
-        <v>103895.02551512807</v>
+        <f t="shared" si="172"/>
+        <v>92009.86452324233</v>
       </c>
       <c r="DT64" s="2">
-        <f t="shared" si="162"/>
-        <v>104933.97577027936</v>
+        <f t="shared" si="172"/>
+        <v>92929.963168474758</v>
       </c>
       <c r="DU64" s="2">
-        <f t="shared" si="162"/>
-        <v>105983.31552798215</v>
+        <f t="shared" si="172"/>
+        <v>93859.2628001595</v>
       </c>
       <c r="DV64" s="2">
-        <f t="shared" si="162"/>
-        <v>107043.14868326197</v>
+        <f t="shared" si="172"/>
+        <v>94797.8554281611</v>
       </c>
       <c r="DW64" s="2">
-        <f t="shared" si="162"/>
-        <v>108113.58017009459</v>
+        <f t="shared" si="172"/>
+        <v>95745.833982442709</v>
       </c>
       <c r="DX64" s="2">
-        <f t="shared" si="162"/>
-        <v>109194.71597179554</v>
+        <f t="shared" si="172"/>
+        <v>96703.292322267138</v>
       </c>
       <c r="DY64" s="2">
-        <f t="shared" si="162"/>
-        <v>110286.66313151349</v>
+        <f t="shared" si="172"/>
+        <v>97670.325245489803</v>
       </c>
       <c r="DZ64" s="2">
-        <f t="shared" si="162"/>
-        <v>111389.52976282862</v>
+        <f t="shared" si="172"/>
+        <v>98647.028497944702</v>
       </c>
       <c r="EA64" s="2">
-        <f t="shared" si="162"/>
-        <v>112503.42506045691</v>
+        <f t="shared" si="172"/>
+        <v>99633.498782924144</v>
       </c>
       <c r="EB64" s="2">
-        <f t="shared" si="162"/>
-        <v>113628.45931106148</v>
+        <f t="shared" si="172"/>
+        <v>100629.83377075338</v>
       </c>
       <c r="EC64" s="2">
-        <f t="shared" si="162"/>
-        <v>114764.74390417209</v>
+        <f t="shared" si="172"/>
+        <v>101636.13210846091</v>
       </c>
       <c r="ED64" s="2">
-        <f t="shared" si="162"/>
-        <v>115912.39134321382</v>
+        <f t="shared" si="172"/>
+        <v>102652.49342954552</v>
       </c>
       <c r="EE64" s="2">
-        <f t="shared" si="162"/>
-        <v>117071.51525664596</v>
+        <f t="shared" si="172"/>
+        <v>103679.01836384098</v>
       </c>
       <c r="EF64" s="2">
-        <f t="shared" si="162"/>
-        <v>118242.23040921243</v>
+        <f t="shared" si="172"/>
+        <v>104715.80854747939</v>
       </c>
       <c r="EG64" s="2">
-        <f t="shared" si="162"/>
-        <v>119424.65271330455</v>
+        <f t="shared" si="172"/>
+        <v>105762.96663295418</v>
       </c>
       <c r="EH64" s="2">
-        <f t="shared" si="162"/>
-        <v>120618.89924043759</v>
+        <f t="shared" si="172"/>
+        <v>106820.59629928372</v>
       </c>
       <c r="EI64" s="2">
-        <f t="shared" si="162"/>
-        <v>121825.08823284197</v>
+        <f t="shared" si="172"/>
+        <v>107888.80226227656</v>
       </c>
       <c r="EJ64" s="2">
-        <f t="shared" si="162"/>
-        <v>123043.33911517038</v>
+        <f t="shared" si="172"/>
+        <v>108967.69028489932</v>
       </c>
       <c r="EK64" s="2">
-        <f t="shared" si="162"/>
-        <v>124273.77250632209</v>
+        <f t="shared" si="172"/>
+        <v>110057.36718774831</v>
       </c>
       <c r="EL64" s="2">
-        <f t="shared" si="162"/>
-        <v>125516.51023138531</v>
+        <f t="shared" si="172"/>
+        <v>111157.9408596258</v>
       </c>
       <c r="EM64" s="2">
-        <f t="shared" si="162"/>
-        <v>126771.67533369917</v>
+        <f t="shared" si="172"/>
+        <v>112269.52026822206</v>
       </c>
       <c r="EN64" s="2">
-        <f t="shared" si="162"/>
-        <v>128039.39208703616</v>
+        <f t="shared" si="172"/>
+        <v>113392.21547090428</v>
       </c>
     </row>
     <row r="66" spans="2:145" x14ac:dyDescent="0.2">
@@ -6876,11 +6876,11 @@
         <v>0.34559999999999996</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" ref="S66:T66" si="163">R66*1.2</f>
+        <f t="shared" ref="S66:T66" si="173">R66*1.2</f>
         <v>0.41471999999999992</v>
       </c>
       <c r="T66" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="173"/>
         <v>0.49766399999999988</v>
       </c>
       <c r="U66" s="6">
@@ -6892,15 +6892,15 @@
         <v>0.57480191999999986</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" ref="W66:Y66" si="164">V66*1.05</f>
+        <f t="shared" ref="W66:Y66" si="174">V66*1.05</f>
         <v>0.6035420159999999</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="174"/>
         <v>0.63371911679999993</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="174"/>
         <v>0.66540507263999993</v>
       </c>
     </row>
@@ -6920,11 +6920,11 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" ref="S67:T67" si="165">R67*1.2</f>
+        <f t="shared" ref="S67:T67" si="175">R67*1.2</f>
         <v>0.34559999999999996</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="175"/>
         <v>0.41471999999999992</v>
       </c>
       <c r="U67" s="6">
@@ -6936,15 +6936,15 @@
         <v>0.47900159999999997</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" ref="W67:Y67" si="166">V67*1.05</f>
+        <f t="shared" ref="W67:Y67" si="176">V67*1.05</f>
         <v>0.50295168000000001</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="176"/>
         <v>0.52809926400000007</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="176"/>
         <v>0.55450422720000014</v>
       </c>
     </row>
@@ -7018,19 +7018,19 @@
         <v>800000</v>
       </c>
       <c r="V70" s="2">
-        <f t="shared" ref="V70:Y70" si="167">U70*2</f>
+        <f t="shared" ref="V70:Y70" si="177">U70*2</f>
         <v>1600000</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="177"/>
         <v>3200000</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="177"/>
         <v>6400000</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="177"/>
         <v>12800000</v>
       </c>
       <c r="AA70" s="2" t="s">
@@ -7054,30 +7054,30 @@
         <v>25000</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" ref="S71:Y71" si="168">R71*1</f>
+        <f t="shared" ref="S71:Y71" si="178">R71*1</f>
         <v>25000</v>
       </c>
       <c r="T71" s="2">
         <v>20000</v>
       </c>
       <c r="U71" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="178"/>
         <v>20000</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="178"/>
         <v>20000</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="178"/>
         <v>20000</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="178"/>
         <v>20000</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="178"/>
         <v>20000</v>
       </c>
       <c r="AA71" s="4" t="s">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="AB71" s="4">
         <f>NPV(AB70,P64:EN64)</f>
-        <v>138665.7261528903</v>
+        <v>122889.08688436032</v>
       </c>
     </row>
     <row r="72" spans="2:145" x14ac:dyDescent="0.2">
@@ -7100,35 +7100,35 @@
         <v>9800</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" ref="R72:U72" si="169">Q72*0.98</f>
+        <f t="shared" ref="R72:U72" si="179">Q72*0.98</f>
         <v>9604</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="179"/>
         <v>9411.92</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="179"/>
         <v>9223.6815999999999</v>
       </c>
       <c r="U72" s="2">
-        <f t="shared" si="169"/>
+        <f t="shared" si="179"/>
         <v>9039.2079680000006</v>
       </c>
       <c r="V72" s="2">
-        <f t="shared" ref="V72" si="170">U72*0.98</f>
+        <f t="shared" ref="V72" si="180">U72*0.98</f>
         <v>8858.4238086400001</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" ref="W72" si="171">V72*0.98</f>
+        <f t="shared" ref="W72" si="181">V72*0.98</f>
         <v>8681.2553324672008</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" ref="X72" si="172">W72*0.98</f>
+        <f t="shared" ref="X72" si="182">W72*0.98</f>
         <v>8507.6302258178566</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" ref="Y72" si="173">X72*0.98</f>
+        <f t="shared" ref="Y72" si="183">X72*0.98</f>
         <v>8337.4776213014993</v>
       </c>
     </row>
@@ -7141,519 +7141,519 @@
         <v>100</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" ref="Q73:U73" si="174">(Q71-Q72)*Q70/1000000</f>
+        <f t="shared" ref="Q73:U73" si="184">(Q71-Q72)*Q70/1000000</f>
         <v>1010</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="184"/>
         <v>1539.6</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="184"/>
         <v>3117.616</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="184"/>
         <v>4310.52736</v>
       </c>
       <c r="U73" s="2">
-        <f t="shared" si="174"/>
+        <f t="shared" si="184"/>
         <v>8768.6336255999995</v>
       </c>
       <c r="V73" s="2">
-        <f t="shared" ref="V73:Y73" si="175">(V71-V72)*V70/1000000</f>
+        <f t="shared" ref="V73:Y73" si="185">(V71-V72)*V70/1000000</f>
         <v>17826.521906176</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="175"/>
+        <f t="shared" si="185"/>
         <v>36219.982936104956</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="175"/>
+        <f t="shared" si="185"/>
         <v>73551.166554765718</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="175"/>
+        <f t="shared" si="185"/>
         <v>149280.28644734083</v>
       </c>
       <c r="Z73" s="2">
-        <f t="shared" ref="Z73:BE73" si="176">Y73*(1+$AB$76)</f>
+        <f t="shared" ref="Z73:BE73" si="186">Y73*(1+$AB$76)</f>
         <v>150773.08931181423</v>
       </c>
       <c r="AA73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>152280.82020493236</v>
       </c>
       <c r="AB73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>153803.62840698168</v>
       </c>
       <c r="AC73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>155341.6646910515</v>
       </c>
       <c r="AD73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>156895.08133796201</v>
       </c>
       <c r="AE73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>158464.03215134164</v>
       </c>
       <c r="AF73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>160048.67247285505</v>
       </c>
       <c r="AG73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>161649.15919758359</v>
       </c>
       <c r="AH73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>163265.65078955944</v>
       </c>
       <c r="AI73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>164898.30729745503</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>166547.29037042957</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>168212.76327413387</v>
       </c>
       <c r="AL73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>169894.89090687523</v>
       </c>
       <c r="AM73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>171593.83981594397</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>173309.7782141034</v>
       </c>
       <c r="AO73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>175042.87599624443</v>
       </c>
       <c r="AP73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>176793.30475620687</v>
       </c>
       <c r="AQ73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>178561.23780376895</v>
       </c>
       <c r="AR73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>180346.85018180663</v>
       </c>
       <c r="AS73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>182150.3186836247</v>
       </c>
       <c r="AT73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>183971.82187046096</v>
       </c>
       <c r="AU73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>185811.54008916556</v>
       </c>
       <c r="AV73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>187669.65549005722</v>
       </c>
       <c r="AW73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>189546.35204495781</v>
       </c>
       <c r="AX73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>191441.81556540739</v>
       </c>
       <c r="AY73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>193356.23372106146</v>
       </c>
       <c r="AZ73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>195289.79605827207</v>
       </c>
       <c r="BA73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>197242.69401885479</v>
       </c>
       <c r="BB73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>199215.12095904333</v>
       </c>
       <c r="BC73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>201207.27216863376</v>
       </c>
       <c r="BD73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>203219.34489032009</v>
       </c>
       <c r="BE73" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="186"/>
         <v>205251.53833922331</v>
       </c>
       <c r="BF73" s="2">
-        <f t="shared" ref="BF73:CK73" si="177">BE73*(1+$AB$76)</f>
+        <f t="shared" ref="BF73:CK73" si="187">BE73*(1+$AB$76)</f>
         <v>207304.05372261553</v>
       </c>
       <c r="BG73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>209377.09425984169</v>
       </c>
       <c r="BH73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>211470.86520244009</v>
       </c>
       <c r="BI73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>213585.57385446448</v>
       </c>
       <c r="BJ73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>215721.42959300912</v>
       </c>
       <c r="BK73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>217878.6438889392</v>
       </c>
       <c r="BL73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>220057.4303278286</v>
       </c>
       <c r="BM73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>222258.00463110689</v>
       </c>
       <c r="BN73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>224480.58467741797</v>
       </c>
       <c r="BO73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>226725.39052419216</v>
       </c>
       <c r="BP73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>228992.64442943409</v>
       </c>
       <c r="BQ73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>231282.57087372843</v>
       </c>
       <c r="BR73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>233595.39658246571</v>
       </c>
       <c r="BS73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>235931.35054829036</v>
       </c>
       <c r="BT73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>238290.66405377327</v>
       </c>
       <c r="BU73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>240673.570694311</v>
       </c>
       <c r="BV73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>243080.30640125411</v>
       </c>
       <c r="BW73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>245511.10946526667</v>
       </c>
       <c r="BX73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>247966.22055991934</v>
       </c>
       <c r="BY73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>250445.88276551853</v>
       </c>
       <c r="BZ73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>252950.34159317371</v>
       </c>
       <c r="CA73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>255479.84500910545</v>
       </c>
       <c r="CB73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>258034.64345919652</v>
       </c>
       <c r="CC73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>260614.9898937885</v>
       </c>
       <c r="CD73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>263221.13979272638</v>
       </c>
       <c r="CE73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>265853.35119065363</v>
       </c>
       <c r="CF73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>268511.88470256014</v>
       </c>
       <c r="CG73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>271197.00354958576</v>
       </c>
       <c r="CH73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>273908.97358508164</v>
       </c>
       <c r="CI73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>276648.06332093244</v>
       </c>
       <c r="CJ73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>279414.54395414179</v>
       </c>
       <c r="CK73" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="187"/>
         <v>282208.68939368322</v>
       </c>
       <c r="CL73" s="2">
-        <f t="shared" ref="CL73:DQ73" si="178">CK73*(1+$AB$76)</f>
+        <f t="shared" ref="CL73:DQ73" si="188">CK73*(1+$AB$76)</f>
         <v>285030.77628762007</v>
       </c>
       <c r="CM73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>287881.08405049628</v>
       </c>
       <c r="CN73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>290759.89489100123</v>
       </c>
       <c r="CO73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>293667.49383991124</v>
       </c>
       <c r="CP73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>296604.16877831036</v>
       </c>
       <c r="CQ73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>299570.21046609344</v>
       </c>
       <c r="CR73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>302565.91257075436</v>
       </c>
       <c r="CS73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>305591.57169646188</v>
       </c>
       <c r="CT73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>308647.48741342651</v>
       </c>
       <c r="CU73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>311733.9622875608</v>
       </c>
       <c r="CV73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>314851.30191043642</v>
       </c>
       <c r="CW73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>317999.81492954079</v>
       </c>
       <c r="CX73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>321179.81307883619</v>
       </c>
       <c r="CY73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>324391.61120962456</v>
       </c>
       <c r="CZ73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>327635.52732172079</v>
       </c>
       <c r="DA73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>330911.88259493798</v>
       </c>
       <c r="DB73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>334221.00142088736</v>
       </c>
       <c r="DC73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>337563.21143509622</v>
       </c>
       <c r="DD73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>340938.84354944719</v>
       </c>
       <c r="DE73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>344348.2319849417</v>
       </c>
       <c r="DF73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>347791.71430479112</v>
       </c>
       <c r="DG73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>351269.63144783903</v>
       </c>
       <c r="DH73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>354782.32776231744</v>
       </c>
       <c r="DI73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>358330.1510399406</v>
       </c>
       <c r="DJ73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>361913.45255033998</v>
       </c>
       <c r="DK73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>365532.58707584336</v>
       </c>
       <c r="DL73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>369187.91294660181</v>
       </c>
       <c r="DM73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>372879.79207606782</v>
       </c>
       <c r="DN73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>376608.58999682852</v>
       </c>
       <c r="DO73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>380374.67589679681</v>
       </c>
       <c r="DP73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>384178.42265576479</v>
       </c>
       <c r="DQ73" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>388020.20688232244</v>
       </c>
       <c r="DR73" s="2">
-        <f t="shared" ref="DR73:EO73" si="179">DQ73*(1+$AB$76)</f>
+        <f t="shared" ref="DR73:EO73" si="189">DQ73*(1+$AB$76)</f>
         <v>391900.40895114566</v>
       </c>
       <c r="DS73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>395819.41304065712</v>
       </c>
       <c r="DT73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>399777.60717106372</v>
       </c>
       <c r="DU73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>403775.38324277435</v>
       </c>
       <c r="DV73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>407813.13707520207</v>
       </c>
       <c r="DW73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>411891.26844595408</v>
       </c>
       <c r="DX73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>416010.18113041361</v>
       </c>
       <c r="DY73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>420170.28294171777</v>
       </c>
       <c r="DZ73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>424371.98577113496</v>
       </c>
       <c r="EA73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>428615.70562884631</v>
       </c>
       <c r="EB73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>432901.86268513475</v>
       </c>
       <c r="EC73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>437230.88131198613</v>
       </c>
       <c r="ED73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>441603.19012510602</v>
       </c>
       <c r="EE73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>446019.22202635708</v>
       </c>
       <c r="EF73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>450479.41424662067</v>
       </c>
       <c r="EG73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>454984.20838908688</v>
       </c>
       <c r="EH73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>459534.05047297775</v>
       </c>
       <c r="EI73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>464129.39097770752</v>
       </c>
       <c r="EJ73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>468770.68488748459</v>
       </c>
       <c r="EK73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>473458.39173635945</v>
       </c>
       <c r="EL73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>478192.97565372306</v>
       </c>
       <c r="EM73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>482974.90541026031</v>
       </c>
       <c r="EN73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>487804.65446436295</v>
       </c>
       <c r="EO73" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>492682.70100900659</v>
       </c>
     </row>
@@ -7682,23 +7682,23 @@
         <v>1.1683315694678793</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" ref="U75:Y75" si="180">U71/U72-1</f>
+        <f t="shared" ref="U75:Y75" si="190">U71/U72-1</f>
         <v>1.2125832341508973</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="190"/>
         <v>1.2577379940315279</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="190"/>
         <v>1.3038142796240075</v>
       </c>
       <c r="X75" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="190"/>
         <v>1.3508308975755181</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="190"/>
         <v>1.3988070383423654</v>
       </c>
     </row>
@@ -7711,35 +7711,35 @@
         <v>9</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:T76" si="181">R70/Q70-1</f>
+        <f t="shared" ref="R76:T76" si="191">R70/Q70-1</f>
         <v>1</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="191"/>
         <v>1</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="191"/>
         <v>1</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" ref="U76" si="182">U70/T70-1</f>
+        <f t="shared" ref="U76" si="192">U70/T70-1</f>
         <v>1</v>
       </c>
       <c r="V76" s="6">
-        <f t="shared" ref="V76" si="183">V70/U70-1</f>
+        <f t="shared" ref="V76" si="193">V70/U70-1</f>
         <v>1</v>
       </c>
       <c r="W76" s="6">
-        <f t="shared" ref="W76" si="184">W70/V70-1</f>
+        <f t="shared" ref="W76" si="194">W70/V70-1</f>
         <v>1</v>
       </c>
       <c r="X76" s="6">
-        <f t="shared" ref="X76" si="185">X70/W70-1</f>
+        <f t="shared" ref="X76" si="195">X70/W70-1</f>
         <v>1</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" ref="Y76" si="186">Y70/X70-1</f>
+        <f t="shared" ref="Y76" si="196">Y70/X70-1</f>
         <v>1</v>
       </c>
       <c r="AA76" s="2" t="s">
@@ -7770,35 +7770,35 @@
         <v>55000</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" ref="R78:T78" si="187">Q78+R70</f>
+        <f t="shared" ref="R78:T78" si="197">Q78+R70</f>
         <v>155000</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="197"/>
         <v>355000</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="197"/>
         <v>755000</v>
       </c>
       <c r="U78" s="2">
-        <f t="shared" ref="U78" si="188">T78+U70</f>
+        <f t="shared" ref="U78" si="198">T78+U70</f>
         <v>1555000</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" ref="V78" si="189">U78+V70</f>
+        <f t="shared" ref="V78" si="199">U78+V70</f>
         <v>3155000</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" ref="W78" si="190">V78+W70</f>
+        <f t="shared" ref="W78" si="200">V78+W70</f>
         <v>6355000</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" ref="X78" si="191">W78+X70</f>
+        <f t="shared" ref="X78" si="201">W78+X70</f>
         <v>12755000</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" ref="Y78" si="192">X78+Y70</f>
+        <f t="shared" ref="Y78" si="202">X78+Y70</f>
         <v>25555000</v>
       </c>
       <c r="AA78" s="4" t="s">
@@ -7833,31 +7833,31 @@
         <v>2460000</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" ref="S80:T82" si="193">R80*1.1</f>
+        <f t="shared" ref="S80:T82" si="203">R80*1.1</f>
         <v>2706000</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="203"/>
         <v>2976600.0000000005</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" ref="U80:U82" si="194">T80*1.1</f>
+        <f t="shared" ref="U80:U82" si="204">T80*1.1</f>
         <v>3274260.0000000009</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" ref="V80" si="195">U80*1.1</f>
+        <f t="shared" ref="V80" si="205">U80*1.1</f>
         <v>3601686.0000000014</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" ref="W80" si="196">V80*1.1</f>
+        <f t="shared" ref="W80" si="206">V80*1.1</f>
         <v>3961854.600000002</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" ref="X80" si="197">W80*1.1</f>
+        <f t="shared" ref="X80" si="207">W80*1.1</f>
         <v>4358040.0600000024</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" ref="Y80" si="198">X80*1.1</f>
+        <f t="shared" ref="Y80" si="208">X80*1.1</f>
         <v>4793844.0660000034</v>
       </c>
     </row>
@@ -7873,39 +7873,39 @@
         <v>450000</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" ref="Q81:R81" si="199">P81*1.2</f>
+        <f t="shared" ref="Q81:R81" si="209">P81*1.2</f>
         <v>540000</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="209"/>
         <v>648000</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" ref="S81" si="200">R81*1.2</f>
+        <f t="shared" ref="S81" si="210">R81*1.2</f>
         <v>777600</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" ref="T81" si="201">S81*1.2</f>
+        <f t="shared" ref="T81" si="211">S81*1.2</f>
         <v>933120</v>
       </c>
       <c r="U81" s="2">
-        <f t="shared" ref="U81" si="202">T81*1.2</f>
+        <f t="shared" ref="U81" si="212">T81*1.2</f>
         <v>1119744</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" ref="V81" si="203">U81*1.2</f>
+        <f t="shared" ref="V81" si="213">U81*1.2</f>
         <v>1343692.8</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" ref="W81" si="204">V81*1.2</f>
+        <f t="shared" ref="W81" si="214">V81*1.2</f>
         <v>1612431.3600000001</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" ref="X81" si="205">W81*1.2</f>
+        <f t="shared" ref="X81" si="215">W81*1.2</f>
         <v>1934917.632</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" ref="Y81" si="206">X81*1.2</f>
+        <f t="shared" ref="Y81" si="216">X81*1.2</f>
         <v>2321901.1584000001</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>1045000.0000000001</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" ref="Q82" si="207">P82*1.1</f>
+        <f t="shared" ref="Q82" si="217">P82*1.1</f>
         <v>1149500.0000000002</v>
       </c>
       <c r="R82" s="2">
@@ -7929,31 +7929,31 @@
         <v>1264450.0000000005</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="203"/>
         <v>1390895.0000000007</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="203"/>
         <v>1529984.5000000009</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="204"/>
         <v>1682982.9500000011</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" ref="V82" si="208">U82*1.1</f>
+        <f t="shared" ref="V82" si="218">U82*1.1</f>
         <v>1851281.2450000013</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" ref="W82" si="209">V82*1.1</f>
+        <f t="shared" ref="W82" si="219">V82*1.1</f>
         <v>2036409.3695000017</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" ref="X82" si="210">W82*1.1</f>
+        <f t="shared" ref="X82" si="220">W82*1.1</f>
         <v>2240050.3064500019</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" ref="Y82" si="211">X82*1.1</f>
+        <f t="shared" ref="Y82" si="221">X82*1.1</f>
         <v>2464055.3370950022</v>
       </c>
     </row>
@@ -7966,43 +7966,43 @@
         <v>2350000</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" ref="P83:Q83" si="212">SUM(P80:P82)</f>
+        <f t="shared" ref="P83:Q83" si="222">SUM(P80:P82)</f>
         <v>3032500</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="212"/>
+        <f t="shared" si="222"/>
         <v>3739500</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" ref="R83" si="213">SUM(R80:R82)</f>
+        <f t="shared" ref="R83" si="223">SUM(R80:R82)</f>
         <v>4372450</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" ref="S83" si="214">SUM(S80:S82)</f>
+        <f t="shared" ref="S83" si="224">SUM(S80:S82)</f>
         <v>4874495.0000000009</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" ref="T83" si="215">SUM(T80:T82)</f>
+        <f t="shared" ref="T83" si="225">SUM(T80:T82)</f>
         <v>5439704.5000000019</v>
       </c>
       <c r="U83" s="2">
-        <f t="shared" ref="U83:Y83" si="216">SUM(U80:U82)</f>
+        <f t="shared" ref="U83:Y83" si="226">SUM(U80:U82)</f>
         <v>6076986.950000002</v>
       </c>
       <c r="V83" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="226"/>
         <v>6796660.0450000027</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="226"/>
         <v>7610695.3295000037</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="226"/>
         <v>8533007.9984500036</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="226"/>
         <v>9579800.5614950061</v>
       </c>
     </row>
@@ -8011,48 +8011,48 @@
         <v>75</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" ref="O85:U85" si="217">O83/O46</f>
+        <f t="shared" ref="O85:U85" si="227">O83/O46</f>
         <v>1.3993609386555892</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="227"/>
         <v>1.4894400785854618</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="227"/>
         <v>1.3840772818121252</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="227"/>
         <v>1.3247199045039477</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" si="217"/>
-        <v>1.219495079234113</v>
+        <f t="shared" si="227"/>
+        <v>1.3136229945299114</v>
       </c>
       <c r="T85" s="6">
-        <f t="shared" si="217"/>
-        <v>1.1191528647117162</v>
+        <f t="shared" si="227"/>
+        <v>1.3450399624673905</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="217"/>
-        <v>1.1422067419994453</v>
+        <f t="shared" si="227"/>
+        <v>1.3615482868502022</v>
       </c>
       <c r="V85" s="6">
-        <f t="shared" ref="V85:Y85" si="218">V83/V46</f>
-        <v>1.1508254404994198</v>
+        <f t="shared" ref="V85:Y85" si="228">V83/V46</f>
+        <v>1.3577176306008587</v>
       </c>
       <c r="W85" s="6">
-        <f t="shared" si="218"/>
-        <v>1.1403271811381426</v>
+        <f t="shared" si="228"/>
+        <v>1.3284090834705173</v>
       </c>
       <c r="X85" s="6">
-        <f t="shared" si="218"/>
-        <v>1.1066993788644941</v>
+        <f t="shared" si="228"/>
+        <v>1.2701479622040373</v>
       </c>
       <c r="Y85" s="6">
-        <f t="shared" si="218"/>
-        <v>1.0478955148099274</v>
+        <f t="shared" si="228"/>
+        <v>1.1826721166152068</v>
       </c>
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.2">
@@ -8069,31 +8069,31 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="S86" s="6">
-        <f t="shared" ref="S86:U86" si="219">S80/R80-1</f>
+        <f t="shared" ref="S86:U86" si="229">S80/R80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="229"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="229"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="V86" s="6">
-        <f t="shared" ref="V86" si="220">V80/U80-1</f>
+        <f t="shared" ref="V86" si="230">V80/U80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="W86" s="6">
-        <f t="shared" ref="W86" si="221">W80/V80-1</f>
+        <f t="shared" ref="W86" si="231">W80/V80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="X86" s="6">
-        <f t="shared" ref="X86" si="222">X80/W80-1</f>
+        <f t="shared" ref="X86" si="232">X80/W80-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" ref="Y86" si="223">Y80/X80-1</f>
+        <f t="shared" ref="Y86" si="233">Y80/X80-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -8130,44 +8130,44 @@
         <v>16994</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" ref="P88:U88" si="224">+O88+P18</f>
+        <f t="shared" ref="P88:U88" si="234">+O88+P18</f>
         <v>31318.622716714202</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="234"/>
         <v>53344.63357822103</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="234"/>
         <v>84892.409163111384</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="224"/>
-        <v>129531.77172957483</v>
+        <f t="shared" si="234"/>
+        <v>126827.18713493881</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="224"/>
-        <v>192654.13873862475</v>
+        <f t="shared" si="234"/>
+        <v>180833.27160737987</v>
       </c>
       <c r="U88" s="2">
-        <f t="shared" si="224"/>
-        <v>273928.47908610851</v>
+        <f t="shared" si="234"/>
+        <v>250758.4467990062</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" ref="V88:Y88" si="225">+U88+V18</f>
-        <v>369697.95137672918</v>
+        <f t="shared" ref="V88:Y88" si="235">+U88+V18</f>
+        <v>333929.17635037488</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" si="225"/>
-        <v>484156.95356390538</v>
+        <f t="shared" si="235"/>
+        <v>434418.06972038629</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="225"/>
-        <v>623351.28337165818</v>
+        <f t="shared" si="235"/>
+        <v>558137.52719088469</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="225"/>
-        <v>796144.02475296101</v>
+        <f t="shared" si="235"/>
+        <v>713804.52731376886</v>
       </c>
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.2">
@@ -8462,39 +8462,39 @@
         <v>93</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ref="C106" si="226">SUM(C92:C105)</f>
+        <f t="shared" ref="C106" si="236">SUM(C92:C105)</f>
         <v>122060</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" ref="D106:L106" si="227">SUM(D92:D105)</f>
+        <f t="shared" ref="D106:L106" si="237">SUM(D92:D105)</f>
         <v>0</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="237"/>
         <v>125111</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" ref="M106" si="228">SUM(M92:M105)</f>
+        <f t="shared" ref="M106" si="238">SUM(M92:M105)</f>
         <v>0</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" ref="N106" si="229">SUM(N92:N105)</f>
+        <f t="shared" ref="N106" si="239">SUM(N92:N105)</f>
         <v>106618</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" ref="O106" si="230">SUM(O92:O105)</f>
+        <f t="shared" ref="O106" si="240">SUM(O92:O105)</f>
         <v>122070</v>
       </c>
     </row>
@@ -8622,39 +8622,39 @@
         <v>102</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" ref="C115" si="231">SUM(C108:C114)</f>
+        <f t="shared" ref="C115" si="241">SUM(C108:C114)</f>
         <v>48390</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" ref="D115:L115" si="232">SUM(D108:D114)</f>
+        <f t="shared" ref="D115:L115" si="242">SUM(D108:D114)</f>
         <v>0</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="242"/>
         <v>49693</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="232"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="M115" s="2">
-        <f t="shared" ref="M115" si="233">SUM(M108:M114)</f>
+        <f t="shared" ref="M115" si="243">SUM(M108:M114)</f>
         <v>0</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" ref="N115" si="234">SUM(N108:N114)</f>
+        <f t="shared" ref="N115" si="244">SUM(N108:N114)</f>
         <v>43009</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" ref="O115" si="235">SUM(O108:O114)</f>
+        <f t="shared" ref="O115" si="245">SUM(O108:O114)</f>
         <v>48390</v>
       </c>
     </row>
@@ -8663,39 +8663,39 @@
         <v>103</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" ref="C116" si="236">C106-C115</f>
+        <f t="shared" ref="C116" si="246">C106-C115</f>
         <v>73670</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" ref="D116:L116" si="237">D106-D115</f>
+        <f t="shared" ref="D116:L116" si="247">D106-D115</f>
         <v>0</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="247"/>
         <v>0</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="247"/>
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="247"/>
         <v>75418</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="247"/>
         <v>0</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" ref="M116" si="238">M106-M115</f>
+        <f t="shared" ref="M116" si="248">M106-M115</f>
         <v>0</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" ref="N116" si="239">N106-N115</f>
+        <f t="shared" ref="N116" si="249">N106-N115</f>
         <v>63609</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" ref="O116" si="240">O106-O115</f>
+        <f t="shared" ref="O116" si="250">O106-O115</f>
         <v>73680</v>
       </c>
     </row>
@@ -8704,39 +8704,39 @@
         <v>104</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" ref="C117" si="241">C116+C115</f>
+        <f t="shared" ref="C117" si="251">C116+C115</f>
         <v>122060</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" ref="D117:L117" si="242">D116+D115</f>
+        <f t="shared" ref="D117:L117" si="252">D116+D115</f>
         <v>0</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="252"/>
         <v>125111</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" ref="M117" si="243">M116+M115</f>
+        <f t="shared" ref="M117" si="253">M116+M115</f>
         <v>0</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" ref="N117" si="244">N116+N115</f>
+        <f t="shared" ref="N117" si="254">N116+N115</f>
         <v>106618</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" ref="O117" si="245">O116+O115</f>
+        <f t="shared" ref="O117" si="255">O116+O115</f>
         <v>122070</v>
       </c>
     </row>
@@ -8749,88 +8749,88 @@
         <v>962</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" ref="D119:U119" si="246">D18</f>
+        <f t="shared" ref="D119:U119" si="256">D18</f>
         <v>0</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>19798</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>633</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>5853</v>
       </c>
       <c r="M119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>12805</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>14802</v>
       </c>
       <c r="O119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>7142</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>14324.622716714202</v>
       </c>
       <c r="Q119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>22026.010861506827</v>
       </c>
       <c r="R119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="256"/>
         <v>31547.775584890347</v>
       </c>
       <c r="S119" s="2">
-        <f t="shared" si="246"/>
-        <v>44639.362566463438</v>
+        <f t="shared" si="256"/>
+        <v>41934.777971827425</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="246"/>
-        <v>63122.367009049922</v>
+        <f t="shared" si="256"/>
+        <v>54006.084472441049</v>
       </c>
       <c r="U119" s="2">
-        <f t="shared" si="246"/>
-        <v>81274.340347483754</v>
+        <f t="shared" si="256"/>
+        <v>69925.175191626331</v>
       </c>
       <c r="V119" s="2">
-        <f t="shared" ref="V119:Y119" si="247">V18</f>
-        <v>95769.472290620644</v>
+        <f t="shared" ref="V119:Y119" si="257">V18</f>
+        <v>83170.729551368684</v>
       </c>
       <c r="W119" s="2">
-        <f t="shared" si="247"/>
-        <v>114459.00218717621</v>
+        <f t="shared" si="257"/>
+        <v>100488.89337001141</v>
       </c>
       <c r="X119" s="2">
-        <f t="shared" si="247"/>
-        <v>139194.32980775283</v>
+        <f t="shared" si="257"/>
+        <v>123719.45747049837</v>
       </c>
       <c r="Y119" s="2">
-        <f t="shared" si="247"/>
-        <v>172792.74138130283</v>
+        <f t="shared" si="257"/>
+        <v>155667.00012288414</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
@@ -8897,19 +8897,19 @@
         <v>2398.7999999999997</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" ref="Q122:T122" si="248">P122*1.2</f>
+        <f t="shared" ref="Q122:T122" si="258">P122*1.2</f>
         <v>2878.5599999999995</v>
       </c>
       <c r="R122" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="258"/>
         <v>3454.2719999999995</v>
       </c>
       <c r="S122" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="258"/>
         <v>4145.1263999999992</v>
       </c>
       <c r="T122" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="258"/>
         <v>4974.151679999999</v>
       </c>
       <c r="U122" s="2">
@@ -8917,19 +8917,19 @@
         <v>5720.2744319999983</v>
       </c>
       <c r="V122" s="2">
-        <f t="shared" ref="V122:Y122" si="249">U122*1.15</f>
+        <f t="shared" ref="V122:Y122" si="259">U122*1.15</f>
         <v>6578.3155967999974</v>
       </c>
       <c r="W122" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="259"/>
         <v>7565.062936319996</v>
       </c>
       <c r="X122" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="259"/>
         <v>8699.8223767679956</v>
       </c>
       <c r="Y122" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="259"/>
         <v>10004.795733283194</v>
       </c>
     </row>
@@ -8957,40 +8957,40 @@
         <v>428.87362085921933</v>
       </c>
       <c r="Q123" s="2">
-        <f t="shared" ref="Q123:U123" si="250">P123*(1+Q30)</f>
+        <f t="shared" ref="Q123:U123" si="260">P123*(1+Q30)</f>
         <v>576.47702955692648</v>
       </c>
       <c r="R123" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="260"/>
         <v>726.75030413853403</v>
       </c>
       <c r="S123" s="2">
-        <f t="shared" si="250"/>
-        <v>910.10035069798391</v>
+        <f t="shared" si="260"/>
+        <v>859.36763445663155</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="250"/>
-        <v>1143.5563405318117</v>
+        <f t="shared" si="260"/>
+        <v>994.63045200532167</v>
       </c>
       <c r="U123" s="2">
-        <f t="shared" si="250"/>
-        <v>1326.2451467613148</v>
+        <f t="shared" si="260"/>
+        <v>1165.1817983199162</v>
       </c>
       <c r="V123" s="2">
-        <f t="shared" ref="V123:Y123" si="251">U123*(1+V30)</f>
-        <v>1558.3773065009461</v>
+        <f t="shared" ref="V123:Y123" si="261">U123*(1+V30)</f>
+        <v>1384.1872951615735</v>
       </c>
       <c r="W123" s="2">
-        <f t="shared" si="251"/>
-        <v>1859.0900892747072</v>
+        <f t="shared" si="261"/>
+        <v>1670.7035920111753</v>
       </c>
       <c r="X123" s="2">
-        <f t="shared" si="251"/>
-        <v>2256.3067803655049</v>
+        <f t="shared" si="261"/>
+        <v>2052.566783574995</v>
       </c>
       <c r="Y123" s="2">
-        <f t="shared" si="251"/>
-        <v>2791.1126548831512</v>
+        <f t="shared" si="261"/>
+        <v>2570.7678483542149</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
@@ -9017,40 +9017,40 @@
         <v>-93.456042754397046</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" ref="Q124:U124" si="252">P124*(1+Q30)</f>
+        <f t="shared" ref="Q124:U124" si="262">P124*(1+Q30)</f>
         <v>-125.62036763479293</v>
       </c>
       <c r="R124" s="2">
-        <f t="shared" si="252"/>
+        <f t="shared" si="262"/>
         <v>-158.36648418541191</v>
       </c>
       <c r="S124" s="2">
-        <f t="shared" si="252"/>
-        <v>-198.3203749282174</v>
+        <f t="shared" si="262"/>
+        <v>-187.26518601592269</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="252"/>
-        <v>-249.19287420543955</v>
+        <f t="shared" si="262"/>
+        <v>-216.74036715339844</v>
       </c>
       <c r="U124" s="2">
-        <f t="shared" si="252"/>
-        <v>-289.00267377186856</v>
+        <f t="shared" si="262"/>
+        <v>-253.90528739508619</v>
       </c>
       <c r="V124" s="2">
-        <f t="shared" ref="V124:Y124" si="253">U124*(1+V30)</f>
-        <v>-339.58669664050461</v>
+        <f t="shared" ref="V124:Y124" si="263">U124*(1+V30)</f>
+        <v>-301.6288732740145</v>
       </c>
       <c r="W124" s="2">
-        <f t="shared" si="253"/>
-        <v>-405.11515378224954</v>
+        <f t="shared" si="263"/>
+        <v>-364.06376781139039</v>
       </c>
       <c r="X124" s="2">
-        <f t="shared" si="253"/>
-        <v>-491.67282079606508</v>
+        <f t="shared" si="263"/>
+        <v>-447.27574686858094</v>
       </c>
       <c r="Y124" s="2">
-        <f t="shared" si="253"/>
-        <v>-608.21260837752232</v>
+        <f t="shared" si="263"/>
+        <v>-560.19717292494818</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
@@ -9077,40 +9077,40 @@
         <v>610.66482731297799</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" ref="Q125:U125" si="254">P125*(1+Q30)</f>
+        <f t="shared" ref="Q125:U125" si="264">P125*(1+Q30)</f>
         <v>820.83445701090727</v>
       </c>
       <c r="R125" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="264"/>
         <v>1034.8056569375544</v>
       </c>
       <c r="S125" s="2">
-        <f t="shared" si="254"/>
-        <v>1295.8742306953384</v>
+        <f t="shared" si="264"/>
+        <v>1223.6369004054127</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="254"/>
-        <v>1628.2876848766393</v>
+        <f t="shared" si="264"/>
+        <v>1416.2350018105624</v>
       </c>
       <c r="U125" s="2">
-        <f t="shared" si="254"/>
-        <v>1888.4147313586482</v>
+        <f t="shared" si="264"/>
+        <v>1659.0797546226863</v>
       </c>
       <c r="V125" s="2">
-        <f t="shared" ref="V125:Y125" si="255">U125*(1+V30)</f>
-        <v>2218.9432095550783</v>
+        <f t="shared" ref="V125:Y125" si="265">U125*(1+V30)</f>
+        <v>1970.9174322151357</v>
       </c>
       <c r="W125" s="2">
-        <f t="shared" si="255"/>
-        <v>2647.1223062210006</v>
+        <f t="shared" si="265"/>
+        <v>2378.8824280278523</v>
       </c>
       <c r="X125" s="2">
-        <f t="shared" si="255"/>
-        <v>3212.7114454756584</v>
+        <f t="shared" si="265"/>
+        <v>2922.6100172097686</v>
       </c>
       <c r="Y125" s="2">
-        <f t="shared" si="255"/>
-        <v>3974.2111533709335</v>
+        <f t="shared" si="265"/>
+        <v>3660.466458701374</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.2">
@@ -9137,40 +9137,40 @@
         <v>220.19779936652455</v>
       </c>
       <c r="Q126" s="2">
-        <f t="shared" ref="Q126:U126" si="256">P126*(1+Q30)</f>
+        <f t="shared" ref="Q126:U126" si="266">P126*(1+Q30)</f>
         <v>295.98223607101897</v>
       </c>
       <c r="R126" s="2">
-        <f t="shared" si="256"/>
+        <f t="shared" si="266"/>
         <v>373.13746958754587</v>
       </c>
       <c r="S126" s="2">
-        <f t="shared" si="256"/>
-        <v>467.27540394045747</v>
+        <f t="shared" si="266"/>
+        <v>441.22756157176309</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="256"/>
-        <v>587.1393748402138</v>
+        <f t="shared" si="266"/>
+        <v>510.67593356691145</v>
       </c>
       <c r="U126" s="2">
-        <f t="shared" si="256"/>
-        <v>680.9378066953617</v>
+        <f t="shared" si="266"/>
+        <v>598.24259495828528</v>
       </c>
       <c r="V126" s="2">
-        <f t="shared" ref="V126:Y126" si="257">U126*(1+V30)</f>
-        <v>800.12207975570971</v>
+        <f t="shared" ref="V126:Y126" si="267">U126*(1+V30)</f>
+        <v>710.68720826206163</v>
       </c>
       <c r="W126" s="2">
-        <f t="shared" si="257"/>
-        <v>954.51789658283485</v>
+        <f t="shared" si="267"/>
+        <v>857.79408306245421</v>
       </c>
       <c r="X126" s="2">
-        <f t="shared" si="257"/>
-        <v>1158.4619887249758</v>
+        <f t="shared" si="267"/>
+        <v>1053.855184402684</v>
       </c>
       <c r="Y126" s="2">
-        <f t="shared" si="257"/>
-        <v>1433.0488854922448</v>
+        <f t="shared" si="267"/>
+        <v>1319.9166266176865</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.2">
@@ -9247,40 +9247,40 @@
         <v>-1386.4780041508493</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" ref="Q128:U128" si="258">P128*(1+Q30)</f>
+        <f t="shared" ref="Q128:U128" si="268">P128*(1+Q30)</f>
         <v>-1863.6555910750785</v>
       </c>
       <c r="R128" s="2">
-        <f t="shared" si="258"/>
+        <f t="shared" si="268"/>
         <v>-2349.4644160657681</v>
       </c>
       <c r="S128" s="2">
-        <f t="shared" si="258"/>
-        <v>-2942.2050143460197</v>
+        <f t="shared" si="268"/>
+        <v>-2778.1944719896474</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="258"/>
-        <v>-3696.9299008834387</v>
+        <f t="shared" si="268"/>
+        <v>-3215.476953796308</v>
       </c>
       <c r="U128" s="2">
-        <f t="shared" si="258"/>
-        <v>-4287.5328177388174</v>
+        <f t="shared" si="268"/>
+        <v>-3766.8414554640863</v>
       </c>
       <c r="V128" s="2">
-        <f t="shared" ref="V128:Y128" si="259">U128*(1+V30)</f>
-        <v>-5037.9779789269387</v>
+        <f t="shared" ref="V128:Y128" si="269">U128*(1+V30)</f>
+        <v>-4474.8502706268173</v>
       </c>
       <c r="W128" s="2">
-        <f t="shared" si="259"/>
-        <v>-6010.1330348791271</v>
+        <f t="shared" si="269"/>
+        <v>-5401.1104183525449</v>
       </c>
       <c r="X128" s="2">
-        <f t="shared" si="259"/>
-        <v>-7294.2693824950484</v>
+        <f t="shared" si="269"/>
+        <v>-6635.6114227215503</v>
       </c>
       <c r="Y128" s="2">
-        <f t="shared" si="259"/>
-        <v>-9023.2089708610511</v>
+        <f t="shared" si="269"/>
+        <v>-8310.8703873660124</v>
       </c>
       <c r="AA128" s="2" t="s">
         <v>135</v>
@@ -9310,47 +9310,47 @@
         <v>1199.5659186420553</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" ref="Q129:U129" si="260">P129*(1+Q30)</f>
+        <f t="shared" ref="Q129:U129" si="270">P129*(1+Q30)</f>
         <v>1612.4148558054928</v>
       </c>
       <c r="R129" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="270"/>
         <v>2032.7314476949446</v>
       </c>
       <c r="S129" s="2">
-        <f t="shared" si="260"/>
-        <v>2545.5642644895852</v>
+        <f t="shared" si="270"/>
+        <v>2403.6640999578021</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="260"/>
-        <v>3198.5441524725597</v>
+        <f t="shared" si="270"/>
+        <v>2781.9962194895115</v>
       </c>
       <c r="U129" s="2">
-        <f t="shared" si="260"/>
-        <v>3709.5274701950802</v>
+        <f t="shared" si="270"/>
+        <v>3259.0308806739145</v>
       </c>
       <c r="V129" s="2">
-        <f t="shared" ref="V129:Y129" si="261">U129*(1+V30)</f>
-        <v>4358.8045856459294</v>
+        <f t="shared" ref="V129:Y129" si="271">U129*(1+V30)</f>
+        <v>3871.5925240787888</v>
       </c>
       <c r="W129" s="2">
-        <f t="shared" si="261"/>
-        <v>5199.9027273146285</v>
+        <f t="shared" si="271"/>
+        <v>4672.9828827297642</v>
       </c>
       <c r="X129" s="2">
-        <f t="shared" si="261"/>
-        <v>6310.9237409029183</v>
+        <f t="shared" si="271"/>
+        <v>5741.0599289843885</v>
       </c>
       <c r="Y129" s="2">
-        <f t="shared" si="261"/>
-        <v>7806.7837541060062</v>
+        <f t="shared" si="271"/>
+        <v>7190.4760415161163</v>
       </c>
       <c r="AA129" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AB129" s="4">
         <f>AB78+AB49+AB71</f>
-        <v>554227.2817715134</v>
+        <v>538450.64250298333</v>
       </c>
     </row>
     <row r="130" spans="1:130" x14ac:dyDescent="0.2">
@@ -9377,40 +9377,40 @@
         <v>-755.32966061772959</v>
       </c>
       <c r="Q130" s="2">
-        <f t="shared" ref="Q130:U130" si="262">P130*(1+Q30)</f>
+        <f t="shared" ref="Q130:U130" si="272">P130*(1+Q30)</f>
         <v>-1015.2879028017511</v>
       </c>
       <c r="R130" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="272"/>
         <v>-1279.9482968410002</v>
       </c>
       <c r="S130" s="2">
-        <f t="shared" si="262"/>
-        <v>-1602.8633042143597</v>
+        <f t="shared" si="272"/>
+        <v>-1513.5131472519779</v>
       </c>
       <c r="T130" s="2">
-        <f t="shared" si="262"/>
-        <v>-2014.0245997425934</v>
+        <f t="shared" si="272"/>
+        <v>-1751.7372139795216</v>
       </c>
       <c r="U130" s="2">
-        <f t="shared" si="262"/>
-        <v>-2335.7750345945542</v>
+        <f t="shared" si="272"/>
+        <v>-2052.1112268917923</v>
       </c>
       <c r="V130" s="2">
-        <f t="shared" ref="V130:Y130" si="263">U130*(1+V30)</f>
-        <v>-2744.6048084643526</v>
+        <f t="shared" ref="V130:Y130" si="273">U130*(1+V30)</f>
+        <v>-2437.8224004338158</v>
       </c>
       <c r="W130" s="2">
-        <f t="shared" si="263"/>
-        <v>-3274.2183661853051</v>
+        <f t="shared" si="273"/>
+        <v>-2942.4331919002789</v>
       </c>
       <c r="X130" s="2">
-        <f t="shared" si="263"/>
-        <v>-3973.7940310914855</v>
+        <f t="shared" si="273"/>
+        <v>-3614.9683651022301</v>
       </c>
       <c r="Y130" s="2">
-        <f t="shared" si="263"/>
-        <v>-4915.6909444210714</v>
+        <f t="shared" si="273"/>
+        <v>-4527.6209866536919</v>
       </c>
     </row>
     <row r="131" spans="1:130" x14ac:dyDescent="0.2">
@@ -9437,40 +9437,40 @@
         <v>-4190.1592867827612</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" ref="Q131:U131" si="264">P131*(1+Q30)</f>
+        <f t="shared" ref="Q131:U131" si="274">P131*(1+Q30)</f>
         <v>-5632.2666201188667</v>
       </c>
       <c r="R131" s="2">
-        <f t="shared" si="264"/>
+        <f t="shared" si="274"/>
         <v>-7100.4589416281251</v>
       </c>
       <c r="S131" s="2">
-        <f t="shared" si="264"/>
-        <v>-8891.8162621925421</v>
+        <f t="shared" si="274"/>
+        <v>-8396.1500524673284</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="264"/>
-        <v>-11172.716127046626</v>
+        <f t="shared" si="274"/>
+        <v>-9717.6879683982625</v>
       </c>
       <c r="U131" s="2">
-        <f t="shared" si="264"/>
-        <v>-12957.613030894876</v>
+        <f t="shared" si="274"/>
+        <v>-11384.000077316674</v>
       </c>
       <c r="V131" s="2">
-        <f t="shared" ref="V131:Y131" si="265">U131*(1+V30)</f>
-        <v>-15225.57887814208</v>
+        <f t="shared" ref="V131:Y131" si="275">U131*(1+V30)</f>
+        <v>-13523.716468847255</v>
       </c>
       <c r="W131" s="2">
-        <f t="shared" si="265"/>
-        <v>-18163.587648346616</v>
+        <f t="shared" si="275"/>
+        <v>-16323.02345269426</v>
       </c>
       <c r="X131" s="2">
-        <f t="shared" si="265"/>
-        <v>-22044.454006377004</v>
+        <f t="shared" si="275"/>
+        <v>-20053.883828778984</v>
       </c>
       <c r="Y131" s="2">
-        <f t="shared" si="265"/>
-        <v>-27269.587222186721</v>
+        <f t="shared" si="275"/>
+        <v>-25116.785575114467</v>
       </c>
       <c r="AA131" s="2" t="s">
         <v>76</v>
@@ -9503,40 +9503,40 @@
         <v>4593.4285123668033</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" ref="Q132:U132" si="266">P132*(1+Q30)</f>
+        <f t="shared" ref="Q132:U132" si="276">P132*(1+Q30)</f>
         <v>6174.3271105977683</v>
       </c>
       <c r="R132" s="2">
-        <f t="shared" si="266"/>
+        <f t="shared" si="276"/>
         <v>7783.821167907643</v>
       </c>
       <c r="S132" s="2">
-        <f t="shared" si="266"/>
-        <v>9747.5822635951245</v>
+        <f t="shared" si="276"/>
+        <v>9204.21215650864</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" si="266"/>
-        <v>12248.00044724818</v>
+        <f t="shared" si="276"/>
+        <v>10652.937497895804</v>
       </c>
       <c r="U132" s="2">
-        <f t="shared" si="266"/>
-        <v>14204.679362924171</v>
+        <f t="shared" si="276"/>
+        <v>12479.618783199579</v>
       </c>
       <c r="V132" s="2">
-        <f t="shared" ref="V132:Y132" si="267">U132*(1+V30)</f>
-        <v>16690.918733508639</v>
+        <f t="shared" ref="V132:Y132" si="277">U132*(1+V30)</f>
+        <v>14825.265716536494</v>
       </c>
       <c r="W132" s="2">
-        <f t="shared" si="267"/>
-        <v>19911.687284530293</v>
+        <f t="shared" si="277"/>
+        <v>17893.983546674917</v>
       </c>
       <c r="X132" s="2">
-        <f t="shared" si="267"/>
-        <v>24166.055904332625</v>
+        <f t="shared" si="277"/>
+        <v>21983.909311842039</v>
       </c>
       <c r="Y132" s="2">
-        <f t="shared" si="267"/>
-        <v>29894.066285733563</v>
+        <f t="shared" si="277"/>
+        <v>27534.074745954997</v>
       </c>
       <c r="AA132" s="2" t="s">
         <v>15</v>
@@ -9569,40 +9569,40 @@
         <v>642.6703214069496</v>
       </c>
       <c r="Q133" s="2">
-        <f t="shared" ref="Q133:U133" si="268">P133*(1+Q30)</f>
+        <f t="shared" ref="Q133:U133" si="278">P133*(1+Q30)</f>
         <v>863.85513085843911</v>
       </c>
       <c r="R133" s="2">
-        <f t="shared" si="268"/>
+        <f t="shared" si="278"/>
         <v>1089.0407542613257</v>
       </c>
       <c r="S133" s="2">
-        <f t="shared" si="268"/>
-        <v>1363.7921673145909</v>
+        <f t="shared" si="278"/>
+        <v>1287.7688134245643</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="268"/>
-        <v>1713.627710289461</v>
+        <f t="shared" si="278"/>
+        <v>1490.4611549452879</v>
       </c>
       <c r="U133" s="2">
-        <f t="shared" si="268"/>
-        <v>1987.3882497736715</v>
+        <f t="shared" si="278"/>
+        <v>1746.0336201689488</v>
       </c>
       <c r="V133" s="2">
-        <f t="shared" ref="V133:Y133" si="269">U133*(1+V30)</f>
-        <v>2335.2400234730594</v>
+        <f t="shared" ref="V133:Y133" si="279">U133*(1+V30)</f>
+        <v>2074.2149915555519</v>
       </c>
       <c r="W133" s="2">
-        <f t="shared" si="269"/>
-        <v>2785.8603725847852</v>
+        <f t="shared" si="279"/>
+        <v>2503.5618005659999</v>
       </c>
       <c r="X133" s="2">
-        <f t="shared" si="269"/>
-        <v>3381.0925484880099</v>
+        <f t="shared" si="279"/>
+        <v>3075.7866428496941</v>
       </c>
       <c r="Y133" s="2">
-        <f t="shared" si="269"/>
-        <v>4182.503142541319</v>
+        <f t="shared" si="279"/>
+        <v>3852.3148055934803</v>
       </c>
       <c r="AA133" s="2" t="s">
         <v>16</v>
@@ -9621,95 +9621,95 @@
         <v>242</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" ref="D134:L134" si="270">SUM(D120:D133)</f>
+        <f t="shared" ref="D134:L134" si="280">SUM(D120:D133)</f>
         <v>0</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>2156</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="J134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="L134" s="4">
-        <f t="shared" si="270"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="M134" s="4">
-        <f t="shared" ref="M134" si="271">SUM(M120:M133)</f>
+        <f t="shared" ref="M134" si="281">SUM(M120:M133)</f>
         <v>14724</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" ref="N134" si="272">SUM(N120:N133)</f>
+        <f t="shared" ref="N134" si="282">SUM(N120:N133)</f>
         <v>13256</v>
       </c>
       <c r="O134" s="4">
-        <f t="shared" ref="O134" si="273">SUM(O120:O133)</f>
+        <f t="shared" ref="O134" si="283">SUM(O120:O133)</f>
         <v>14923</v>
       </c>
       <c r="P134" s="4">
-        <f t="shared" ref="P134:U134" si="274">SUM(P121:P133,P119)</f>
+        <f t="shared" ref="P134:U134" si="284">SUM(P121:P133,P119)</f>
         <v>17993.400722362996</v>
       </c>
       <c r="Q134" s="4">
-        <f t="shared" si="274"/>
+        <f t="shared" si="284"/>
         <v>26611.63119977689</v>
       </c>
       <c r="R134" s="4">
-        <f t="shared" si="274"/>
+        <f t="shared" si="284"/>
         <v>37154.096246697591</v>
       </c>
       <c r="S134" s="4">
-        <f t="shared" si="274"/>
-        <v>51479.472691515381</v>
+        <f t="shared" si="284"/>
+        <v>48624.658680427361</v>
       </c>
       <c r="T134" s="4">
-        <f t="shared" si="274"/>
-        <v>71482.810897430696</v>
+        <f t="shared" si="284"/>
+        <v>61925.529908826953</v>
       </c>
       <c r="U134" s="4">
-        <f t="shared" si="274"/>
-        <v>90921.883990191884</v>
+        <f t="shared" si="284"/>
+        <v>79095.779008502024</v>
       </c>
       <c r="V134" s="4">
-        <f t="shared" ref="V134:Y134" si="275">SUM(V121:V133,V119)</f>
-        <v>106962.44546368613</v>
+        <f t="shared" ref="V134:Y134" si="285">SUM(V121:V133,V119)</f>
+        <v>93847.89230279639</v>
       </c>
       <c r="W134" s="4">
-        <f t="shared" si="275"/>
-        <v>127529.19159681117</v>
+        <f t="shared" si="285"/>
+        <v>113001.23380864509</v>
       </c>
       <c r="X134" s="4">
-        <f t="shared" si="275"/>
-        <v>154575.5143520509</v>
+        <f t="shared" si="285"/>
+        <v>138497.3283526586</v>
       </c>
       <c r="Y134" s="4">
-        <f t="shared" si="275"/>
-        <v>191062.56324486688</v>
+        <f t="shared" si="285"/>
+        <v>173284.3382608461</v>
       </c>
       <c r="AA134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AB134" s="4">
         <f>NPV(AB133,P141:DZ141)+Main!O5-Main!O6+AB129</f>
-        <v>1406383.5701872846</v>
+        <v>1305304.5658156378</v>
       </c>
     </row>
     <row r="135" spans="1:130" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="AB135" s="2">
         <f>AB134/Main!O3</f>
-        <v>436.63544928502114</v>
+        <v>405.25377118334984</v>
       </c>
     </row>
     <row r="136" spans="1:130" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="AB136" s="6">
         <f>AB135/Main!O2-1</f>
-        <v>0.48012016706786831</v>
+        <v>0.37374159723169442</v>
       </c>
     </row>
     <row r="137" spans="1:130" x14ac:dyDescent="0.2">
@@ -9814,47 +9814,47 @@
         <v>-2777</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" ref="D140:L140" si="276">D135</f>
+        <f t="shared" ref="D140:L140" si="286">D135</f>
         <v>0</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>-1492</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="J140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="L140" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="M140" s="4">
-        <f t="shared" ref="M140:O140" si="277">M135</f>
+        <f t="shared" ref="M140:O140" si="287">M135</f>
         <v>-7158</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="277"/>
+        <f t="shared" si="287"/>
         <v>-8898</v>
       </c>
       <c r="O140" s="4">
-        <f t="shared" si="277"/>
+        <f t="shared" si="287"/>
         <v>-11339</v>
       </c>
       <c r="P140" s="4">
@@ -9862,40 +9862,40 @@
         <v>-11255.820184944305</v>
       </c>
       <c r="Q140" s="4">
-        <f t="shared" ref="Q140:U140" si="278">Q5*-0.09</f>
+        <f t="shared" ref="Q140:U140" si="288">Q5*-0.09</f>
         <v>-15129.682661395382</v>
       </c>
       <c r="R140" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="288"/>
         <v>-19073.615967213151</v>
       </c>
       <c r="S140" s="4">
-        <f t="shared" si="278"/>
-        <v>-23885.651622005207</v>
+        <f t="shared" si="288"/>
+        <v>-22554.167698227313</v>
       </c>
       <c r="T140" s="4">
-        <f t="shared" si="278"/>
-        <v>-30012.721497282808</v>
+        <f t="shared" si="288"/>
+        <v>-26104.150439032797</v>
       </c>
       <c r="U140" s="4">
-        <f t="shared" si="278"/>
-        <v>-34807.402850269114</v>
+        <f t="shared" si="288"/>
+        <v>-30580.283250771739</v>
       </c>
       <c r="V140" s="4">
-        <f t="shared" ref="V140:Y140" si="279">V5*-0.09</f>
-        <v>-40899.728705931244</v>
+        <f t="shared" ref="V140:Y140" si="289">V5*-0.09</f>
+        <v>-36328.098859074831</v>
       </c>
       <c r="W140" s="4">
-        <f t="shared" si="279"/>
-        <v>-48791.958131081046</v>
+        <f t="shared" si="289"/>
+        <v>-43847.740451705831</v>
       </c>
       <c r="X140" s="4">
-        <f t="shared" si="279"/>
-        <v>-59216.939831795673</v>
+        <f t="shared" si="289"/>
+        <v>-53869.768411551384</v>
       </c>
       <c r="Y140" s="4">
-        <f t="shared" si="279"/>
-        <v>-73252.959919397457</v>
+        <f t="shared" si="289"/>
+        <v>-67469.994028403264</v>
       </c>
     </row>
     <row r="141" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9904,512 +9904,512 @@
         <v>59</v>
       </c>
       <c r="C141" s="4">
-        <f t="shared" ref="C141:J141" si="280">C134+C140</f>
+        <f t="shared" ref="C141:J141" si="290">C134+C140</f>
         <v>-2535</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>664</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <f t="shared" si="280"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="L141" s="4">
-        <f t="shared" ref="L141:U141" si="281">L134+L140</f>
+        <f t="shared" ref="L141:U141" si="291">L134+L140</f>
         <v>0</v>
       </c>
       <c r="M141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>7566</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>4358</v>
       </c>
       <c r="O141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>3584</v>
       </c>
       <c r="P141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>6737.5805374186912</v>
       </c>
       <c r="Q141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>11481.948538381508</v>
       </c>
       <c r="R141" s="4">
-        <f t="shared" si="281"/>
+        <f t="shared" si="291"/>
         <v>18080.48027948444</v>
       </c>
       <c r="S141" s="4">
-        <f t="shared" si="281"/>
-        <v>27593.821069510173</v>
+        <f t="shared" si="291"/>
+        <v>26070.490982200048</v>
       </c>
       <c r="T141" s="4">
-        <f t="shared" si="281"/>
-        <v>41470.089400147888</v>
+        <f t="shared" si="291"/>
+        <v>35821.379469794156</v>
       </c>
       <c r="U141" s="4">
-        <f t="shared" si="281"/>
-        <v>56114.481139922769</v>
+        <f t="shared" si="291"/>
+        <v>48515.495757730285</v>
       </c>
       <c r="V141" s="4">
-        <f t="shared" ref="V141" si="282">V134+V140</f>
-        <v>66062.716757754883</v>
+        <f t="shared" ref="V141" si="292">V134+V140</f>
+        <v>57519.793443721559</v>
       </c>
       <c r="W141" s="4">
-        <f t="shared" ref="W141" si="283">W134+W140</f>
-        <v>78737.233465730125</v>
+        <f t="shared" ref="W141" si="293">W134+W140</f>
+        <v>69153.49335693926</v>
       </c>
       <c r="X141" s="4">
-        <f t="shared" ref="X141" si="284">X134+X140</f>
-        <v>95358.574520255235</v>
+        <f t="shared" ref="X141" si="294">X134+X140</f>
+        <v>84627.559941107218</v>
       </c>
       <c r="Y141" s="4">
-        <f t="shared" ref="Y141" si="285">Y134+Y140</f>
-        <v>117809.60332546942</v>
+        <f t="shared" ref="Y141" si="295">Y134+Y140</f>
+        <v>105814.34423244283</v>
       </c>
       <c r="Z141" s="4">
-        <f>Y141*(1+$AB$132)</f>
-        <v>118987.69935872412</v>
+        <f t="shared" ref="Z141:BE141" si="296">Y141*(1+$AB$132)</f>
+        <v>106872.48767476727</v>
       </c>
       <c r="AA141" s="4">
-        <f>Z141*(1+$AB$132)</f>
-        <v>120177.57635231136</v>
+        <f t="shared" si="296"/>
+        <v>107941.21255151494</v>
       </c>
       <c r="AB141" s="4">
-        <f>AA141*(1+$AB$132)</f>
-        <v>121379.35211583447</v>
+        <f t="shared" si="296"/>
+        <v>109020.62467703009</v>
       </c>
       <c r="AC141" s="4">
-        <f>AB141*(1+$AB$132)</f>
-        <v>122593.14563699281</v>
+        <f t="shared" si="296"/>
+        <v>110110.8309238004</v>
       </c>
       <c r="AD141" s="4">
-        <f>AC141*(1+$AB$132)</f>
-        <v>123819.07709336274</v>
+        <f t="shared" si="296"/>
+        <v>111211.9392330384</v>
       </c>
       <c r="AE141" s="4">
-        <f>AD141*(1+$AB$132)</f>
-        <v>125057.26786429636</v>
+        <f t="shared" si="296"/>
+        <v>112324.05862536878</v>
       </c>
       <c r="AF141" s="4">
-        <f>AE141*(1+$AB$132)</f>
-        <v>126307.84054293932</v>
+        <f t="shared" si="296"/>
+        <v>113447.29921162246</v>
       </c>
       <c r="AG141" s="4">
-        <f>AF141*(1+$AB$132)</f>
-        <v>127570.91894836871</v>
+        <f t="shared" si="296"/>
+        <v>114581.77220373868</v>
       </c>
       <c r="AH141" s="4">
-        <f>AG141*(1+$AB$132)</f>
-        <v>128846.6281378524</v>
+        <f t="shared" si="296"/>
+        <v>115727.58992577608</v>
       </c>
       <c r="AI141" s="4">
-        <f>AH141*(1+$AB$132)</f>
-        <v>130135.09441923093</v>
+        <f t="shared" si="296"/>
+        <v>116884.86582503383</v>
       </c>
       <c r="AJ141" s="4">
-        <f>AI141*(1+$AB$132)</f>
-        <v>131436.44536342323</v>
+        <f t="shared" si="296"/>
+        <v>118053.71448328417</v>
       </c>
       <c r="AK141" s="4">
-        <f>AJ141*(1+$AB$132)</f>
-        <v>132750.80981705748</v>
+        <f t="shared" si="296"/>
+        <v>119234.25162811701</v>
       </c>
       <c r="AL141" s="4">
-        <f>AK141*(1+$AB$132)</f>
-        <v>134078.31791522805</v>
+        <f t="shared" si="296"/>
+        <v>120426.59414439819</v>
       </c>
       <c r="AM141" s="4">
-        <f>AL141*(1+$AB$132)</f>
-        <v>135419.10109438034</v>
+        <f t="shared" si="296"/>
+        <v>121630.86008584217</v>
       </c>
       <c r="AN141" s="4">
-        <f>AM141*(1+$AB$132)</f>
-        <v>136773.29210532416</v>
+        <f t="shared" si="296"/>
+        <v>122847.16868670059</v>
       </c>
       <c r="AO141" s="4">
-        <f>AN141*(1+$AB$132)</f>
-        <v>138141.02502637741</v>
+        <f t="shared" si="296"/>
+        <v>124075.6403735676</v>
       </c>
       <c r="AP141" s="4">
-        <f>AO141*(1+$AB$132)</f>
-        <v>139522.43527664119</v>
+        <f t="shared" si="296"/>
+        <v>125316.39677730328</v>
       </c>
       <c r="AQ141" s="4">
-        <f>AP141*(1+$AB$132)</f>
-        <v>140917.6596294076</v>
+        <f t="shared" si="296"/>
+        <v>126569.56074507631</v>
       </c>
       <c r="AR141" s="4">
-        <f>AQ141*(1+$AB$132)</f>
-        <v>142326.83622570167</v>
+        <f t="shared" si="296"/>
+        <v>127835.25635252707</v>
       </c>
       <c r="AS141" s="4">
-        <f>AR141*(1+$AB$132)</f>
-        <v>143750.10458795869</v>
+        <f t="shared" si="296"/>
+        <v>129113.60891605234</v>
       </c>
       <c r="AT141" s="4">
-        <f>AS141*(1+$AB$132)</f>
-        <v>145187.60563383828</v>
+        <f t="shared" si="296"/>
+        <v>130404.74500521287</v>
       </c>
       <c r="AU141" s="4">
-        <f>AT141*(1+$AB$132)</f>
-        <v>146639.48169017668</v>
+        <f t="shared" si="296"/>
+        <v>131708.79245526501</v>
       </c>
       <c r="AV141" s="4">
-        <f>AU141*(1+$AB$132)</f>
-        <v>148105.87650707844</v>
+        <f t="shared" si="296"/>
+        <v>133025.88037981765</v>
       </c>
       <c r="AW141" s="4">
-        <f>AV141*(1+$AB$132)</f>
-        <v>149586.93527214922</v>
+        <f t="shared" si="296"/>
+        <v>134356.13918361583</v>
       </c>
       <c r="AX141" s="4">
-        <f>AW141*(1+$AB$132)</f>
-        <v>151082.80462487071</v>
+        <f t="shared" si="296"/>
+        <v>135699.70057545198</v>
       </c>
       <c r="AY141" s="4">
-        <f>AX141*(1+$AB$132)</f>
-        <v>152593.63267111941</v>
+        <f t="shared" si="296"/>
+        <v>137056.69758120651</v>
       </c>
       <c r="AZ141" s="4">
-        <f>AY141*(1+$AB$132)</f>
-        <v>154119.56899783062</v>
+        <f t="shared" si="296"/>
+        <v>138427.26455701859</v>
       </c>
       <c r="BA141" s="4">
-        <f>AZ141*(1+$AB$132)</f>
-        <v>155660.76468780893</v>
+        <f t="shared" si="296"/>
+        <v>139811.53720258878</v>
       </c>
       <c r="BB141" s="4">
-        <f>BA141*(1+$AB$132)</f>
-        <v>157217.37233468701</v>
+        <f t="shared" si="296"/>
+        <v>141209.65257461468</v>
       </c>
       <c r="BC141" s="4">
-        <f>BB141*(1+$AB$132)</f>
-        <v>158789.54605803388</v>
+        <f t="shared" si="296"/>
+        <v>142621.74910036082</v>
       </c>
       <c r="BD141" s="4">
-        <f>BC141*(1+$AB$132)</f>
-        <v>160377.44151861421</v>
+        <f t="shared" si="296"/>
+        <v>144047.96659136441</v>
       </c>
       <c r="BE141" s="4">
-        <f>BD141*(1+$AB$132)</f>
-        <v>161981.21593380035</v>
+        <f t="shared" si="296"/>
+        <v>145488.44625727806</v>
       </c>
       <c r="BF141" s="4">
-        <f>BE141*(1+$AB$132)</f>
-        <v>163601.02809313836</v>
+        <f t="shared" ref="BF141:CK141" si="297">BE141*(1+$AB$132)</f>
+        <v>146943.33071985084</v>
       </c>
       <c r="BG141" s="4">
-        <f>BF141*(1+$AB$132)</f>
-        <v>165237.03837406976</v>
+        <f t="shared" si="297"/>
+        <v>148412.76402704936</v>
       </c>
       <c r="BH141" s="4">
-        <f>BG141*(1+$AB$132)</f>
-        <v>166889.40875781045</v>
+        <f t="shared" si="297"/>
+        <v>149896.89166731984</v>
       </c>
       <c r="BI141" s="4">
-        <f>BH141*(1+$AB$132)</f>
-        <v>168558.30284538856</v>
+        <f t="shared" si="297"/>
+        <v>151395.86058399305</v>
       </c>
       <c r="BJ141" s="4">
-        <f>BI141*(1+$AB$132)</f>
-        <v>170243.88587384246</v>
+        <f t="shared" si="297"/>
+        <v>152909.81918983298</v>
       </c>
       <c r="BK141" s="4">
-        <f>BJ141*(1+$AB$132)</f>
-        <v>171946.32473258089</v>
+        <f t="shared" si="297"/>
+        <v>154438.91738173133</v>
       </c>
       <c r="BL141" s="4">
-        <f>BK141*(1+$AB$132)</f>
-        <v>173665.78797990672</v>
+        <f t="shared" si="297"/>
+        <v>155983.30655554865</v>
       </c>
       <c r="BM141" s="4">
-        <f>BL141*(1+$AB$132)</f>
-        <v>175402.4458597058</v>
+        <f t="shared" si="297"/>
+        <v>157543.13962110414</v>
       </c>
       <c r="BN141" s="4">
-        <f>BM141*(1+$AB$132)</f>
-        <v>177156.47031830286</v>
+        <f t="shared" si="297"/>
+        <v>159118.57101731517</v>
       </c>
       <c r="BO141" s="4">
-        <f>BN141*(1+$AB$132)</f>
-        <v>178928.03502148588</v>
+        <f t="shared" si="297"/>
+        <v>160709.75672748833</v>
       </c>
       <c r="BP141" s="4">
-        <f>BO141*(1+$AB$132)</f>
-        <v>180717.31537170074</v>
+        <f t="shared" si="297"/>
+        <v>162316.85429476321</v>
       </c>
       <c r="BQ141" s="4">
-        <f>BP141*(1+$AB$132)</f>
-        <v>182524.48852541775</v>
+        <f t="shared" si="297"/>
+        <v>163940.02283771083</v>
       </c>
       <c r="BR141" s="4">
-        <f>BQ141*(1+$AB$132)</f>
-        <v>184349.73341067194</v>
+        <f t="shared" si="297"/>
+        <v>165579.42306608794</v>
       </c>
       <c r="BS141" s="4">
-        <f>BR141*(1+$AB$132)</f>
-        <v>186193.23074477864</v>
+        <f t="shared" si="297"/>
+        <v>167235.21729674883</v>
       </c>
       <c r="BT141" s="4">
-        <f>BS141*(1+$AB$132)</f>
-        <v>188055.16305222645</v>
+        <f t="shared" si="297"/>
+        <v>168907.56946971631</v>
       </c>
       <c r="BU141" s="4">
-        <f>BT141*(1+$AB$132)</f>
-        <v>189935.71468274872</v>
+        <f t="shared" si="297"/>
+        <v>170596.64516441346</v>
       </c>
       <c r="BV141" s="4">
-        <f>BU141*(1+$AB$132)</f>
-        <v>191835.07182957619</v>
+        <f t="shared" si="297"/>
+        <v>172302.61161605761</v>
       </c>
       <c r="BW141" s="4">
-        <f>BV141*(1+$AB$132)</f>
-        <v>193753.42254787195</v>
+        <f t="shared" si="297"/>
+        <v>174025.63773221819</v>
       </c>
       <c r="BX141" s="4">
-        <f>BW141*(1+$AB$132)</f>
-        <v>195690.95677335066</v>
+        <f t="shared" si="297"/>
+        <v>175765.89410954039</v>
       </c>
       <c r="BY141" s="4">
-        <f>BX141*(1+$AB$132)</f>
-        <v>197647.86634108415</v>
+        <f t="shared" si="297"/>
+        <v>177523.55305063579</v>
       </c>
       <c r="BZ141" s="4">
-        <f>BY141*(1+$AB$132)</f>
-        <v>199624.345004495</v>
+        <f t="shared" si="297"/>
+        <v>179298.78858114214</v>
       </c>
       <c r="CA141" s="4">
-        <f>BZ141*(1+$AB$132)</f>
-        <v>201620.58845453995</v>
+        <f t="shared" si="297"/>
+        <v>181091.77646695357</v>
       </c>
       <c r="CB141" s="4">
-        <f>CA141*(1+$AB$132)</f>
-        <v>203636.79433908535</v>
+        <f t="shared" si="297"/>
+        <v>182902.69423162311</v>
       </c>
       <c r="CC141" s="4">
-        <f>CB141*(1+$AB$132)</f>
-        <v>205673.1622824762</v>
+        <f t="shared" si="297"/>
+        <v>184731.72117393935</v>
       </c>
       <c r="CD141" s="4">
-        <f>CC141*(1+$AB$132)</f>
-        <v>207729.89390530097</v>
+        <f t="shared" si="297"/>
+        <v>186579.03838567875</v>
       </c>
       <c r="CE141" s="4">
-        <f>CD141*(1+$AB$132)</f>
-        <v>209807.19284435397</v>
+        <f t="shared" si="297"/>
+        <v>188444.82876953555</v>
       </c>
       <c r="CF141" s="4">
-        <f>CE141*(1+$AB$132)</f>
-        <v>211905.2647727975</v>
+        <f t="shared" si="297"/>
+        <v>190329.27705723091</v>
       </c>
       <c r="CG141" s="4">
-        <f>CF141*(1+$AB$132)</f>
-        <v>214024.31742052548</v>
+        <f t="shared" si="297"/>
+        <v>192232.56982780321</v>
       </c>
       <c r="CH141" s="4">
-        <f>CG141*(1+$AB$132)</f>
-        <v>216164.56059473072</v>
+        <f t="shared" si="297"/>
+        <v>194154.89552608124</v>
       </c>
       <c r="CI141" s="4">
-        <f>CH141*(1+$AB$132)</f>
-        <v>218326.20620067802</v>
+        <f t="shared" si="297"/>
+        <v>196096.44448134204</v>
       </c>
       <c r="CJ141" s="4">
-        <f>CI141*(1+$AB$132)</f>
-        <v>220509.46826268479</v>
+        <f t="shared" si="297"/>
+        <v>198057.40892615548</v>
       </c>
       <c r="CK141" s="4">
-        <f>CJ141*(1+$AB$132)</f>
-        <v>222714.56294531166</v>
+        <f t="shared" si="297"/>
+        <v>200037.98301541703</v>
       </c>
       <c r="CL141" s="4">
-        <f>CK141*(1+$AB$132)</f>
-        <v>224941.70857476478</v>
+        <f t="shared" ref="CL141:DQ141" si="298">CK141*(1+$AB$132)</f>
+        <v>202038.36284557122</v>
       </c>
       <c r="CM141" s="4">
-        <f>CL141*(1+$AB$132)</f>
-        <v>227191.12566051242</v>
+        <f t="shared" si="298"/>
+        <v>204058.74647402694</v>
       </c>
       <c r="CN141" s="4">
-        <f>CM141*(1+$AB$132)</f>
-        <v>229463.03691711754</v>
+        <f t="shared" si="298"/>
+        <v>206099.3339387672</v>
       </c>
       <c r="CO141" s="4">
-        <f>CN141*(1+$AB$132)</f>
-        <v>231757.66728628872</v>
+        <f t="shared" si="298"/>
+        <v>208160.32727815487</v>
       </c>
       <c r="CP141" s="4">
-        <f>CO141*(1+$AB$132)</f>
-        <v>234075.24395915162</v>
+        <f t="shared" si="298"/>
+        <v>210241.93055093643</v>
       </c>
       <c r="CQ141" s="4">
-        <f>CP141*(1+$AB$132)</f>
-        <v>236415.99639874313</v>
+        <f t="shared" si="298"/>
+        <v>212344.3498564458</v>
       </c>
       <c r="CR141" s="4">
-        <f>CQ141*(1+$AB$132)</f>
-        <v>238780.15636273057</v>
+        <f t="shared" si="298"/>
+        <v>214467.79335501025</v>
       </c>
       <c r="CS141" s="4">
-        <f>CR141*(1+$AB$132)</f>
-        <v>241167.95792635789</v>
+        <f t="shared" si="298"/>
+        <v>216612.47128856034</v>
       </c>
       <c r="CT141" s="4">
-        <f>CS141*(1+$AB$132)</f>
-        <v>243579.63750562147</v>
+        <f t="shared" si="298"/>
+        <v>218778.59600144596</v>
       </c>
       <c r="CU141" s="4">
-        <f>CT141*(1+$AB$132)</f>
-        <v>246015.43388067768</v>
+        <f t="shared" si="298"/>
+        <v>220966.38196146043</v>
       </c>
       <c r="CV141" s="4">
-        <f>CU141*(1+$AB$132)</f>
-        <v>248475.58821948446</v>
+        <f t="shared" si="298"/>
+        <v>223176.04578107502</v>
       </c>
       <c r="CW141" s="4">
-        <f>CV141*(1+$AB$132)</f>
-        <v>250960.34410167931</v>
+        <f t="shared" si="298"/>
+        <v>225407.80623888577</v>
       </c>
       <c r="CX141" s="4">
-        <f>CW141*(1+$AB$132)</f>
-        <v>253469.94754269611</v>
+        <f t="shared" si="298"/>
+        <v>227661.88430127464</v>
       </c>
       <c r="CY141" s="4">
-        <f>CX141*(1+$AB$132)</f>
-        <v>256004.64701812307</v>
+        <f t="shared" si="298"/>
+        <v>229938.50314428739</v>
       </c>
       <c r="CZ141" s="4">
-        <f>CY141*(1+$AB$132)</f>
-        <v>258564.6934883043</v>
+        <f t="shared" si="298"/>
+        <v>232237.88817573027</v>
       </c>
       <c r="DA141" s="4">
-        <f>CZ141*(1+$AB$132)</f>
-        <v>261150.34042318736</v>
+        <f t="shared" si="298"/>
+        <v>234560.26705748757</v>
       </c>
       <c r="DB141" s="4">
-        <f>DA141*(1+$AB$132)</f>
-        <v>263761.84382741922</v>
+        <f t="shared" si="298"/>
+        <v>236905.86972806245</v>
       </c>
       <c r="DC141" s="4">
-        <f>DB141*(1+$AB$132)</f>
-        <v>266399.46226569341</v>
+        <f t="shared" si="298"/>
+        <v>239274.92842534307</v>
       </c>
       <c r="DD141" s="4">
-        <f>DC141*(1+$AB$132)</f>
-        <v>269063.45688835037</v>
+        <f t="shared" si="298"/>
+        <v>241667.67770959649</v>
       </c>
       <c r="DE141" s="4">
-        <f>DD141*(1+$AB$132)</f>
-        <v>271754.09145723388</v>
+        <f t="shared" si="298"/>
+        <v>244084.35448669246</v>
       </c>
       <c r="DF141" s="4">
-        <f>DE141*(1+$AB$132)</f>
-        <v>274471.63237180625</v>
+        <f t="shared" si="298"/>
+        <v>246525.19803155938</v>
       </c>
       <c r="DG141" s="4">
-        <f>DF141*(1+$AB$132)</f>
-        <v>277216.34869552433</v>
+        <f t="shared" si="298"/>
+        <v>248990.45001187499</v>
       </c>
       <c r="DH141" s="4">
-        <f>DG141*(1+$AB$132)</f>
-        <v>279988.51218247955</v>
+        <f t="shared" si="298"/>
+        <v>251480.35451199373</v>
       </c>
       <c r="DI141" s="4">
-        <f>DH141*(1+$AB$132)</f>
-        <v>282788.39730430435</v>
+        <f t="shared" si="298"/>
+        <v>253995.15805711367</v>
       </c>
       <c r="DJ141" s="4">
-        <f>DI141*(1+$AB$132)</f>
-        <v>285616.28127734741</v>
+        <f t="shared" si="298"/>
+        <v>256535.1096376848</v>
       </c>
       <c r="DK141" s="4">
-        <f>DJ141*(1+$AB$132)</f>
-        <v>288472.4440901209</v>
+        <f t="shared" si="298"/>
+        <v>259100.46073406166</v>
       </c>
       <c r="DL141" s="4">
-        <f>DK141*(1+$AB$132)</f>
-        <v>291357.16853102209</v>
+        <f t="shared" si="298"/>
+        <v>261691.46534140228</v>
       </c>
       <c r="DM141" s="4">
-        <f>DL141*(1+$AB$132)</f>
-        <v>294270.74021633231</v>
+        <f t="shared" si="298"/>
+        <v>264308.37999481632</v>
       </c>
       <c r="DN141" s="4">
-        <f>DM141*(1+$AB$132)</f>
-        <v>297213.44761849561</v>
+        <f t="shared" si="298"/>
+        <v>266951.46379476448</v>
       </c>
       <c r="DO141" s="4">
-        <f>DN141*(1+$AB$132)</f>
-        <v>300185.58209468058</v>
+        <f t="shared" si="298"/>
+        <v>269620.97843271215</v>
       </c>
       <c r="DP141" s="4">
-        <f>DO141*(1+$AB$132)</f>
-        <v>303187.43791562738</v>
+        <f t="shared" si="298"/>
+        <v>272317.18821703928</v>
       </c>
       <c r="DQ141" s="4">
-        <f>DP141*(1+$AB$132)</f>
-        <v>306219.31229478365</v>
+        <f t="shared" si="298"/>
+        <v>275040.36009920965</v>
       </c>
       <c r="DR141" s="4">
-        <f>DQ141*(1+$AB$132)</f>
-        <v>309281.50541773147</v>
+        <f t="shared" ref="DR141:DZ141" si="299">DQ141*(1+$AB$132)</f>
+        <v>277790.76370020176</v>
       </c>
       <c r="DS141" s="4">
-        <f>DR141*(1+$AB$132)</f>
-        <v>312374.32047190878</v>
+        <f t="shared" si="299"/>
+        <v>280568.67133720376</v>
       </c>
       <c r="DT141" s="4">
-        <f>DS141*(1+$AB$132)</f>
-        <v>315498.06367662788</v>
+        <f t="shared" si="299"/>
+        <v>283374.35805057583</v>
       </c>
       <c r="DU141" s="4">
-        <f>DT141*(1+$AB$132)</f>
-        <v>318653.04431339417</v>
+        <f t="shared" si="299"/>
+        <v>286208.1016310816</v>
       </c>
       <c r="DV141" s="4">
-        <f>DU141*(1+$AB$132)</f>
-        <v>321839.57475652813</v>
+        <f t="shared" si="299"/>
+        <v>289070.18264739244</v>
       </c>
       <c r="DW141" s="4">
-        <f>DV141*(1+$AB$132)</f>
-        <v>325057.97050409339</v>
+        <f t="shared" si="299"/>
+        <v>291960.88447386638</v>
       </c>
       <c r="DX141" s="4">
-        <f>DW141*(1+$AB$132)</f>
-        <v>328308.55020913435</v>
+        <f t="shared" si="299"/>
+        <v>294880.49331860506</v>
       </c>
       <c r="DY141" s="4">
-        <f>DX141*(1+$AB$132)</f>
-        <v>331591.63571122568</v>
+        <f t="shared" si="299"/>
+        <v>297829.2982517911</v>
       </c>
       <c r="DZ141" s="4">
-        <f>DY141*(1+$AB$132)</f>
-        <v>334907.55206833791</v>
+        <f t="shared" si="299"/>
+        <v>300807.59123430902</v>
       </c>
     </row>
     <row r="143" spans="1:130" x14ac:dyDescent="0.2">
@@ -10421,52 +10421,52 @@
         <v>8.7869190542829781E-2</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" ref="N143:O143" si="286">-N140/N5</f>
+        <f t="shared" ref="N143:O143" si="300">-N140/N5</f>
         <v>9.1947134014652848E-2</v>
       </c>
       <c r="O143" s="6">
-        <f t="shared" si="286"/>
+        <f t="shared" si="300"/>
         <v>0.11607124577745931</v>
       </c>
       <c r="P143" s="6">
-        <f t="shared" ref="P143:U143" si="287">-P140/P5</f>
+        <f t="shared" ref="P143:U143" si="301">-P140/P5</f>
         <v>0.09</v>
       </c>
       <c r="Q143" s="6">
-        <f t="shared" si="287"/>
+        <f t="shared" si="301"/>
         <v>0.09</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="287"/>
+        <f t="shared" si="301"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="S143" s="6">
-        <f t="shared" si="287"/>
+        <f t="shared" si="301"/>
         <v>0.09</v>
       </c>
       <c r="T143" s="6">
-        <f t="shared" si="287"/>
+        <f t="shared" si="301"/>
         <v>0.09</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="287"/>
+        <f t="shared" si="301"/>
         <v>0.09</v>
       </c>
       <c r="V143" s="6">
-        <f t="shared" ref="V143:Y143" si="288">-V140/V5</f>
+        <f t="shared" ref="V143:Y143" si="302">-V140/V5</f>
         <v>0.09</v>
       </c>
       <c r="W143" s="6">
-        <f t="shared" si="288"/>
+        <f t="shared" si="302"/>
         <v>0.09</v>
       </c>
       <c r="X143" s="6">
-        <f t="shared" si="288"/>
+        <f t="shared" si="302"/>
         <v>0.09</v>
       </c>
       <c r="Y143" s="6">
-        <f t="shared" si="288"/>
-        <v>0.09</v>
+        <f t="shared" si="302"/>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="144" spans="1:130" x14ac:dyDescent="0.2">
@@ -10478,52 +10478,52 @@
         <v>0.18074685129262724</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" ref="N144:O144" si="289">N134/N5</f>
+        <f t="shared" ref="N144:O144" si="303">N134/N5</f>
         <v>0.13698035609105846</v>
       </c>
       <c r="O144" s="6">
-        <f t="shared" si="289"/>
+        <f t="shared" si="303"/>
         <v>0.15275872658409254</v>
       </c>
       <c r="P144" s="6">
-        <f t="shared" ref="P144:U144" si="290">P134/P5</f>
+        <f t="shared" ref="P144:U144" si="304">P134/P5</f>
         <v>0.1438727732323562</v>
       </c>
       <c r="Q144" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>0.1583011925353251</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="290"/>
+        <f t="shared" si="304"/>
         <v>0.17531382974003312</v>
       </c>
       <c r="S144" s="6">
-        <f t="shared" si="290"/>
-        <v>0.19397220622476072</v>
+        <f t="shared" si="304"/>
+        <v>0.19403151292443477</v>
       </c>
       <c r="T144" s="6">
-        <f t="shared" si="290"/>
-        <v>0.2143575343992451</v>
+        <f t="shared" si="304"/>
+        <v>0.21350235874601883</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="290"/>
-        <v>0.23509279317155379</v>
+        <f t="shared" si="304"/>
+        <v>0.23278463617846093</v>
       </c>
       <c r="V144" s="6">
-        <f t="shared" ref="V144:Y144" si="291">V134/V5</f>
-        <v>0.23537124563703299</v>
+        <f t="shared" ref="V144:Y144" si="305">V134/V5</f>
+        <v>0.2325007521042288</v>
       </c>
       <c r="W144" s="6">
-        <f t="shared" si="291"/>
-        <v>0.23523604469568568</v>
+        <f t="shared" si="305"/>
+        <v>0.23194150800038327</v>
       </c>
       <c r="X144" s="6">
-        <f t="shared" si="291"/>
-        <v>0.23492933493694051</v>
+        <f t="shared" si="305"/>
+        <v>0.23138691550540311</v>
       </c>
       <c r="Y144" s="6">
-        <f t="shared" si="291"/>
-        <v>0.23474315182565883</v>
+        <f t="shared" si="305"/>
+        <v>0.2311485374803913</v>
       </c>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
@@ -10535,52 +10535,52 @@
         <v>9.2877660749797447E-2</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" ref="N145:O145" si="292">N141/N5</f>
+        <f t="shared" ref="N145:O145" si="306">N141/N5</f>
         <v>4.5033222076405609E-2</v>
       </c>
       <c r="O145" s="6">
-        <f t="shared" si="292"/>
+        <f t="shared" si="306"/>
         <v>3.6687480806633227E-2</v>
       </c>
       <c r="P145" s="6">
-        <f t="shared" ref="P145:U145" si="293">P141/P5</f>
+        <f t="shared" ref="P145:U145" si="307">P141/P5</f>
         <v>5.3872773232356203E-2</v>
       </c>
       <c r="Q145" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="307"/>
         <v>6.8301192535325086E-2</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="307"/>
         <v>8.5313829740033112E-2</v>
       </c>
       <c r="S145" s="6">
-        <f t="shared" si="293"/>
-        <v>0.10397220622476071</v>
+        <f t="shared" si="307"/>
+        <v>0.10403151292443479</v>
       </c>
       <c r="T145" s="6">
-        <f t="shared" si="293"/>
-        <v>0.1243575343992451</v>
+        <f t="shared" si="307"/>
+        <v>0.12350235874601884</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="293"/>
-        <v>0.1450927931715538</v>
+        <f t="shared" si="307"/>
+        <v>0.14278463617846093</v>
       </c>
       <c r="V145" s="6">
-        <f t="shared" ref="V145:Y145" si="294">V141/V5</f>
-        <v>0.14537124563703296</v>
+        <f t="shared" ref="V145:Y145" si="308">V141/V5</f>
+        <v>0.1425007521042288</v>
       </c>
       <c r="W145" s="6">
-        <f t="shared" si="294"/>
-        <v>0.14523604469568568</v>
+        <f t="shared" si="308"/>
+        <v>0.14194150800038327</v>
       </c>
       <c r="X145" s="6">
-        <f t="shared" si="294"/>
-        <v>0.14492933493694055</v>
+        <f t="shared" si="308"/>
+        <v>0.14138691550540311</v>
       </c>
       <c r="Y145" s="6">
-        <f t="shared" si="294"/>
-        <v>0.14474315182565883</v>
+        <f t="shared" si="308"/>
+        <v>0.1411485374803913</v>
       </c>
     </row>
   </sheetData>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38614CE2-48B6-4050-9CD8-C2423DFC00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73264A5-4659-4B55-9EE4-EC44F3EF80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="225" windowWidth="21945" windowHeight="14445" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Price</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>Other TSLA Ventures MC</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Is TSLA still competitive against competitors (mainly china BYD, NIO, etc.) in hardware excluding the autonomous driving?</t>
+  </si>
+  <si>
+    <t>Are there regulatory issues with autonomous driving cars?</t>
+  </si>
+  <si>
+    <t>Is there near-term robotics applications or is it longer term?</t>
   </si>
 </sst>
 </file>
@@ -454,13 +466,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -491,6 +509,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,21 +537,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9599DFAE-09FB-4C1C-9676-BB65CCFD3CC8}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,9 +1095,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F10" s="2"/>
+      <c r="L10" s="13" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" s="2"/>
+      <c r="L11" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L12" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L13" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EE7A2-9B92-42CF-8ECF-ED82CD9F983C}">
   <dimension ref="A1:FP145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="V118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73264A5-4659-4B55-9EE4-EC44F3EF80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8EE56-CD5C-4F08-B682-4B17CB287880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9599DFAE-09FB-4C1C-9676-BB65CCFD3CC8}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1018,8 +1018,8 @@
       <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
-        <v>295</v>
+      <c r="O2" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O4" s="2">
         <f>O3*O2</f>
-        <v>950182.02</v>
+        <v>972728.71200000006</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1084,13 +1084,13 @@
       </c>
       <c r="O7" s="2">
         <f>O4+O6-O5</f>
-        <v>933126.02</v>
+        <v>955672.71200000006</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O8" s="11">
         <f>O2/Model!P19</f>
-        <v>66.332079998959557</v>
+        <v>67.906061558256908</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1125,11 +1125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EE7A2-9B92-42CF-8ECF-ED82CD9F983C}">
   <dimension ref="A1:FP145"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB129" sqref="AB129"/>
+      <selection pane="bottomRight" activeCell="AA127" sqref="AA127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6207,7 +6207,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4">
         <f>AB78</f>
-        <v>109673.42386645672</v>
+        <v>22224.20738185216</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -7058,24 +7058,24 @@
         <v>400000</v>
       </c>
       <c r="U70" s="2">
-        <f>T70*2</f>
-        <v>800000</v>
+        <f>T70*1.5</f>
+        <v>600000</v>
       </c>
       <c r="V70" s="2">
-        <f t="shared" ref="V70:Y70" si="177">U70*2</f>
-        <v>1600000</v>
+        <f>U70*1.5</f>
+        <v>900000</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" si="177"/>
-        <v>3200000</v>
+        <f t="shared" ref="V70:Y70" si="177">V70*1.2</f>
+        <v>1080000</v>
       </c>
       <c r="X70" s="2">
         <f t="shared" si="177"/>
-        <v>6400000</v>
+        <v>1296000</v>
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="177"/>
-        <v>12800000</v>
+        <v>1555200</v>
       </c>
       <c r="AA70" s="2" t="s">
         <v>16</v>
@@ -7202,503 +7202,503 @@
       </c>
       <c r="U73" s="2">
         <f t="shared" si="184"/>
-        <v>8768.6336255999995</v>
+        <v>6576.4752191999996</v>
       </c>
       <c r="V73" s="2">
         <f t="shared" ref="V73:Y73" si="185">(V71-V72)*V70/1000000</f>
-        <v>17826.521906176</v>
+        <v>10027.418572223998</v>
       </c>
       <c r="W73" s="2">
         <f t="shared" si="185"/>
-        <v>36219.982936104956</v>
+        <v>12224.244240935423</v>
       </c>
       <c r="X73" s="2">
         <f t="shared" si="185"/>
-        <v>73551.166554765718</v>
+        <v>14894.111227340058</v>
       </c>
       <c r="Y73" s="2">
         <f t="shared" si="185"/>
-        <v>149280.28644734083</v>
+        <v>18137.554803351908</v>
       </c>
       <c r="Z73" s="2">
         <f t="shared" ref="Z73:BE73" si="186">Y73*(1+$AB$76)</f>
-        <v>150773.08931181423</v>
+        <v>18318.930351385428</v>
       </c>
       <c r="AA73" s="2">
         <f t="shared" si="186"/>
-        <v>152280.82020493236</v>
+        <v>18502.119654899281</v>
       </c>
       <c r="AB73" s="2">
         <f t="shared" si="186"/>
-        <v>153803.62840698168</v>
+        <v>18687.140851448275</v>
       </c>
       <c r="AC73" s="2">
         <f t="shared" si="186"/>
-        <v>155341.6646910515</v>
+        <v>18874.012259962758</v>
       </c>
       <c r="AD73" s="2">
         <f t="shared" si="186"/>
-        <v>156895.08133796201</v>
+        <v>19062.752382562387</v>
       </c>
       <c r="AE73" s="2">
         <f t="shared" si="186"/>
-        <v>158464.03215134164</v>
+        <v>19253.379906388011</v>
       </c>
       <c r="AF73" s="2">
         <f t="shared" si="186"/>
-        <v>160048.67247285505</v>
+        <v>19445.913705451891</v>
       </c>
       <c r="AG73" s="2">
         <f t="shared" si="186"/>
-        <v>161649.15919758359</v>
+        <v>19640.372842506411</v>
       </c>
       <c r="AH73" s="2">
         <f t="shared" si="186"/>
-        <v>163265.65078955944</v>
+        <v>19836.776570931474</v>
       </c>
       <c r="AI73" s="2">
         <f t="shared" si="186"/>
-        <v>164898.30729745503</v>
+        <v>20035.144336640788</v>
       </c>
       <c r="AJ73" s="2">
         <f t="shared" si="186"/>
-        <v>166547.29037042957</v>
+        <v>20235.495780007197</v>
       </c>
       <c r="AK73" s="2">
         <f t="shared" si="186"/>
-        <v>168212.76327413387</v>
+        <v>20437.850737807268</v>
       </c>
       <c r="AL73" s="2">
         <f t="shared" si="186"/>
-        <v>169894.89090687523</v>
+        <v>20642.229245185343</v>
       </c>
       <c r="AM73" s="2">
         <f t="shared" si="186"/>
-        <v>171593.83981594397</v>
+        <v>20848.651537637197</v>
       </c>
       <c r="AN73" s="2">
         <f t="shared" si="186"/>
-        <v>173309.7782141034</v>
+        <v>21057.138053013568</v>
       </c>
       <c r="AO73" s="2">
         <f t="shared" si="186"/>
-        <v>175042.87599624443</v>
+        <v>21267.709433543703</v>
       </c>
       <c r="AP73" s="2">
         <f t="shared" si="186"/>
-        <v>176793.30475620687</v>
+        <v>21480.386527879142</v>
       </c>
       <c r="AQ73" s="2">
         <f t="shared" si="186"/>
-        <v>178561.23780376895</v>
+        <v>21695.190393157933</v>
       </c>
       <c r="AR73" s="2">
         <f t="shared" si="186"/>
-        <v>180346.85018180663</v>
+        <v>21912.142297089511</v>
       </c>
       <c r="AS73" s="2">
         <f t="shared" si="186"/>
-        <v>182150.3186836247</v>
+        <v>22131.263720060408</v>
       </c>
       <c r="AT73" s="2">
         <f t="shared" si="186"/>
-        <v>183971.82187046096</v>
+        <v>22352.576357261012</v>
       </c>
       <c r="AU73" s="2">
         <f t="shared" si="186"/>
-        <v>185811.54008916556</v>
+        <v>22576.102120833624</v>
       </c>
       <c r="AV73" s="2">
         <f t="shared" si="186"/>
-        <v>187669.65549005722</v>
+        <v>22801.863142041962</v>
       </c>
       <c r="AW73" s="2">
         <f t="shared" si="186"/>
-        <v>189546.35204495781</v>
+        <v>23029.881773462381</v>
       </c>
       <c r="AX73" s="2">
         <f t="shared" si="186"/>
-        <v>191441.81556540739</v>
+        <v>23260.180591197004</v>
       </c>
       <c r="AY73" s="2">
         <f t="shared" si="186"/>
-        <v>193356.23372106146</v>
+        <v>23492.782397108975</v>
       </c>
       <c r="AZ73" s="2">
         <f t="shared" si="186"/>
-        <v>195289.79605827207</v>
+        <v>23727.710221080066</v>
       </c>
       <c r="BA73" s="2">
         <f t="shared" si="186"/>
-        <v>197242.69401885479</v>
+        <v>23964.987323290865</v>
       </c>
       <c r="BB73" s="2">
         <f t="shared" si="186"/>
-        <v>199215.12095904333</v>
+        <v>24204.637196523774</v>
       </c>
       <c r="BC73" s="2">
         <f t="shared" si="186"/>
-        <v>201207.27216863376</v>
+        <v>24446.68356848901</v>
       </c>
       <c r="BD73" s="2">
         <f t="shared" si="186"/>
-        <v>203219.34489032009</v>
+        <v>24691.150404173899</v>
       </c>
       <c r="BE73" s="2">
         <f t="shared" si="186"/>
-        <v>205251.53833922331</v>
+        <v>24938.061908215637</v>
       </c>
       <c r="BF73" s="2">
         <f t="shared" ref="BF73:CK73" si="187">BE73*(1+$AB$76)</f>
-        <v>207304.05372261553</v>
+        <v>25187.442527297793</v>
       </c>
       <c r="BG73" s="2">
         <f t="shared" si="187"/>
-        <v>209377.09425984169</v>
+        <v>25439.316952570771</v>
       </c>
       <c r="BH73" s="2">
         <f t="shared" si="187"/>
-        <v>211470.86520244009</v>
+        <v>25693.71012209648</v>
       </c>
       <c r="BI73" s="2">
         <f t="shared" si="187"/>
-        <v>213585.57385446448</v>
+        <v>25950.647223317446</v>
       </c>
       <c r="BJ73" s="2">
         <f t="shared" si="187"/>
-        <v>215721.42959300912</v>
+        <v>26210.15369555062</v>
       </c>
       <c r="BK73" s="2">
         <f t="shared" si="187"/>
-        <v>217878.6438889392</v>
+        <v>26472.255232506126</v>
       </c>
       <c r="BL73" s="2">
         <f t="shared" si="187"/>
-        <v>220057.4303278286</v>
+        <v>26736.977784831186</v>
       </c>
       <c r="BM73" s="2">
         <f t="shared" si="187"/>
-        <v>222258.00463110689</v>
+        <v>27004.347562679497</v>
       </c>
       <c r="BN73" s="2">
         <f t="shared" si="187"/>
-        <v>224480.58467741797</v>
+        <v>27274.391038306294</v>
       </c>
       <c r="BO73" s="2">
         <f t="shared" si="187"/>
-        <v>226725.39052419216</v>
+        <v>27547.134948689356</v>
       </c>
       <c r="BP73" s="2">
         <f t="shared" si="187"/>
-        <v>228992.64442943409</v>
+        <v>27822.606298176248</v>
       </c>
       <c r="BQ73" s="2">
         <f t="shared" si="187"/>
-        <v>231282.57087372843</v>
+        <v>28100.832361158009</v>
       </c>
       <c r="BR73" s="2">
         <f t="shared" si="187"/>
-        <v>233595.39658246571</v>
+        <v>28381.840684769588</v>
       </c>
       <c r="BS73" s="2">
         <f t="shared" si="187"/>
-        <v>235931.35054829036</v>
+        <v>28665.659091617283</v>
       </c>
       <c r="BT73" s="2">
         <f t="shared" si="187"/>
-        <v>238290.66405377327</v>
+        <v>28952.315682533455</v>
       </c>
       <c r="BU73" s="2">
         <f t="shared" si="187"/>
-        <v>240673.570694311</v>
+        <v>29241.838839358792</v>
       </c>
       <c r="BV73" s="2">
         <f t="shared" si="187"/>
-        <v>243080.30640125411</v>
+        <v>29534.25722775238</v>
       </c>
       <c r="BW73" s="2">
         <f t="shared" si="187"/>
-        <v>245511.10946526667</v>
+        <v>29829.599800029904</v>
       </c>
       <c r="BX73" s="2">
         <f t="shared" si="187"/>
-        <v>247966.22055991934</v>
+        <v>30127.895798030204</v>
       </c>
       <c r="BY73" s="2">
         <f t="shared" si="187"/>
-        <v>250445.88276551853</v>
+        <v>30429.174756010507</v>
       </c>
       <c r="BZ73" s="2">
         <f t="shared" si="187"/>
-        <v>252950.34159317371</v>
+        <v>30733.466503570613</v>
       </c>
       <c r="CA73" s="2">
         <f t="shared" si="187"/>
-        <v>255479.84500910545</v>
+        <v>31040.801168606318</v>
       </c>
       <c r="CB73" s="2">
         <f t="shared" si="187"/>
-        <v>258034.64345919652</v>
+        <v>31351.209180292382</v>
       </c>
       <c r="CC73" s="2">
         <f t="shared" si="187"/>
-        <v>260614.9898937885</v>
+        <v>31664.721272095307</v>
       </c>
       <c r="CD73" s="2">
         <f t="shared" si="187"/>
-        <v>263221.13979272638</v>
+        <v>31981.368484816259</v>
       </c>
       <c r="CE73" s="2">
         <f t="shared" si="187"/>
-        <v>265853.35119065363</v>
+        <v>32301.182169664422</v>
       </c>
       <c r="CF73" s="2">
         <f t="shared" si="187"/>
-        <v>268511.88470256014</v>
+        <v>32624.193991361066</v>
       </c>
       <c r="CG73" s="2">
         <f t="shared" si="187"/>
-        <v>271197.00354958576</v>
+        <v>32950.435931274675</v>
       </c>
       <c r="CH73" s="2">
         <f t="shared" si="187"/>
-        <v>273908.97358508164</v>
+        <v>33279.940290587423</v>
       </c>
       <c r="CI73" s="2">
         <f t="shared" si="187"/>
-        <v>276648.06332093244</v>
+        <v>33612.739693493299</v>
       </c>
       <c r="CJ73" s="2">
         <f t="shared" si="187"/>
-        <v>279414.54395414179</v>
+        <v>33948.867090428233</v>
       </c>
       <c r="CK73" s="2">
         <f t="shared" si="187"/>
-        <v>282208.68939368322</v>
+        <v>34288.355761332517</v>
       </c>
       <c r="CL73" s="2">
         <f t="shared" ref="CL73:DQ73" si="188">CK73*(1+$AB$76)</f>
-        <v>285030.77628762007</v>
+        <v>34631.239318945845</v>
       </c>
       <c r="CM73" s="2">
         <f t="shared" si="188"/>
-        <v>287881.08405049628</v>
+        <v>34977.551712135304</v>
       </c>
       <c r="CN73" s="2">
         <f t="shared" si="188"/>
-        <v>290759.89489100123</v>
+        <v>35327.327229256654</v>
       </c>
       <c r="CO73" s="2">
         <f t="shared" si="188"/>
-        <v>293667.49383991124</v>
+        <v>35680.600501549219</v>
       </c>
       <c r="CP73" s="2">
         <f t="shared" si="188"/>
-        <v>296604.16877831036</v>
+        <v>36037.406506564708</v>
       </c>
       <c r="CQ73" s="2">
         <f t="shared" si="188"/>
-        <v>299570.21046609344</v>
+        <v>36397.780571630356</v>
       </c>
       <c r="CR73" s="2">
         <f t="shared" si="188"/>
-        <v>302565.91257075436</v>
+        <v>36761.758377346661</v>
       </c>
       <c r="CS73" s="2">
         <f t="shared" si="188"/>
-        <v>305591.57169646188</v>
+        <v>37129.375961120131</v>
       </c>
       <c r="CT73" s="2">
         <f t="shared" si="188"/>
-        <v>308647.48741342651</v>
+        <v>37500.669720731334</v>
       </c>
       <c r="CU73" s="2">
         <f t="shared" si="188"/>
-        <v>311733.9622875608</v>
+        <v>37875.676417938645</v>
       </c>
       <c r="CV73" s="2">
         <f t="shared" si="188"/>
-        <v>314851.30191043642</v>
+        <v>38254.433182118031</v>
       </c>
       <c r="CW73" s="2">
         <f t="shared" si="188"/>
-        <v>317999.81492954079</v>
+        <v>38636.977513939215</v>
       </c>
       <c r="CX73" s="2">
         <f t="shared" si="188"/>
-        <v>321179.81307883619</v>
+        <v>39023.347289078607</v>
       </c>
       <c r="CY73" s="2">
         <f t="shared" si="188"/>
-        <v>324391.61120962456</v>
+        <v>39413.580761969395</v>
       </c>
       <c r="CZ73" s="2">
         <f t="shared" si="188"/>
-        <v>327635.52732172079</v>
+        <v>39807.716569589087</v>
       </c>
       <c r="DA73" s="2">
         <f t="shared" si="188"/>
-        <v>330911.88259493798</v>
+        <v>40205.793735284977</v>
       </c>
       <c r="DB73" s="2">
         <f t="shared" si="188"/>
-        <v>334221.00142088736</v>
+        <v>40607.851672637829</v>
       </c>
       <c r="DC73" s="2">
         <f t="shared" si="188"/>
-        <v>337563.21143509622</v>
+        <v>41013.930189364211</v>
       </c>
       <c r="DD73" s="2">
         <f t="shared" si="188"/>
-        <v>340938.84354944719</v>
+        <v>41424.069491257855</v>
       </c>
       <c r="DE73" s="2">
         <f t="shared" si="188"/>
-        <v>344348.2319849417</v>
+        <v>41838.310186170434</v>
       </c>
       <c r="DF73" s="2">
         <f t="shared" si="188"/>
-        <v>347791.71430479112</v>
+        <v>42256.69328803214</v>
       </c>
       <c r="DG73" s="2">
         <f t="shared" si="188"/>
-        <v>351269.63144783903</v>
+        <v>42679.26022091246</v>
       </c>
       <c r="DH73" s="2">
         <f t="shared" si="188"/>
-        <v>354782.32776231744</v>
+        <v>43106.052823121587</v>
       </c>
       <c r="DI73" s="2">
         <f t="shared" si="188"/>
-        <v>358330.1510399406</v>
+        <v>43537.113351352804</v>
       </c>
       <c r="DJ73" s="2">
         <f t="shared" si="188"/>
-        <v>361913.45255033998</v>
+        <v>43972.484484866334</v>
       </c>
       <c r="DK73" s="2">
         <f t="shared" si="188"/>
-        <v>365532.58707584336</v>
+        <v>44412.209329714999</v>
       </c>
       <c r="DL73" s="2">
         <f t="shared" si="188"/>
-        <v>369187.91294660181</v>
+        <v>44856.331423012147</v>
       </c>
       <c r="DM73" s="2">
         <f t="shared" si="188"/>
-        <v>372879.79207606782</v>
+        <v>45304.89473724227</v>
       </c>
       <c r="DN73" s="2">
         <f t="shared" si="188"/>
-        <v>376608.58999682852</v>
+        <v>45757.943684614693</v>
       </c>
       <c r="DO73" s="2">
         <f t="shared" si="188"/>
-        <v>380374.67589679681</v>
+        <v>46215.523121460843</v>
       </c>
       <c r="DP73" s="2">
         <f t="shared" si="188"/>
-        <v>384178.42265576479</v>
+        <v>46677.678352675452</v>
       </c>
       <c r="DQ73" s="2">
         <f t="shared" si="188"/>
-        <v>388020.20688232244</v>
+        <v>47144.455136202203</v>
       </c>
       <c r="DR73" s="2">
         <f t="shared" ref="DR73:EO73" si="189">DQ73*(1+$AB$76)</f>
-        <v>391900.40895114566</v>
+        <v>47615.899687564226</v>
       </c>
       <c r="DS73" s="2">
         <f t="shared" si="189"/>
-        <v>395819.41304065712</v>
+        <v>48092.058684439871</v>
       </c>
       <c r="DT73" s="2">
         <f t="shared" si="189"/>
-        <v>399777.60717106372</v>
+        <v>48572.979271284268</v>
       </c>
       <c r="DU73" s="2">
         <f t="shared" si="189"/>
-        <v>403775.38324277435</v>
+        <v>49058.709063997114</v>
       </c>
       <c r="DV73" s="2">
         <f t="shared" si="189"/>
-        <v>407813.13707520207</v>
+        <v>49549.296154637086</v>
       </c>
       <c r="DW73" s="2">
         <f t="shared" si="189"/>
-        <v>411891.26844595408</v>
+        <v>50044.789116183456</v>
       </c>
       <c r="DX73" s="2">
         <f t="shared" si="189"/>
-        <v>416010.18113041361</v>
+        <v>50545.237007345291</v>
       </c>
       <c r="DY73" s="2">
         <f t="shared" si="189"/>
-        <v>420170.28294171777</v>
+        <v>51050.689377418741</v>
       </c>
       <c r="DZ73" s="2">
         <f t="shared" si="189"/>
-        <v>424371.98577113496</v>
+        <v>51561.19627119293</v>
       </c>
       <c r="EA73" s="2">
         <f t="shared" si="189"/>
-        <v>428615.70562884631</v>
+        <v>52076.808233904863</v>
       </c>
       <c r="EB73" s="2">
         <f t="shared" si="189"/>
-        <v>432901.86268513475</v>
+        <v>52597.576316243911</v>
       </c>
       <c r="EC73" s="2">
         <f t="shared" si="189"/>
-        <v>437230.88131198613</v>
+        <v>53123.552079406349</v>
       </c>
       <c r="ED73" s="2">
         <f t="shared" si="189"/>
-        <v>441603.19012510602</v>
+        <v>53654.787600200412</v>
       </c>
       <c r="EE73" s="2">
         <f t="shared" si="189"/>
-        <v>446019.22202635708</v>
+        <v>54191.335476202417</v>
       </c>
       <c r="EF73" s="2">
         <f t="shared" si="189"/>
-        <v>450479.41424662067</v>
+        <v>54733.24883096444</v>
       </c>
       <c r="EG73" s="2">
         <f t="shared" si="189"/>
-        <v>454984.20838908688</v>
+        <v>55280.581319274082</v>
       </c>
       <c r="EH73" s="2">
         <f t="shared" si="189"/>
-        <v>459534.05047297775</v>
+        <v>55833.387132466822</v>
       </c>
       <c r="EI73" s="2">
         <f t="shared" si="189"/>
-        <v>464129.39097770752</v>
+        <v>56391.721003791492</v>
       </c>
       <c r="EJ73" s="2">
         <f t="shared" si="189"/>
-        <v>468770.68488748459</v>
+        <v>56955.638213829407</v>
       </c>
       <c r="EK73" s="2">
         <f t="shared" si="189"/>
-        <v>473458.39173635945</v>
+        <v>57525.194595967703</v>
       </c>
       <c r="EL73" s="2">
         <f t="shared" si="189"/>
-        <v>478192.97565372306</v>
+        <v>58100.446541927384</v>
       </c>
       <c r="EM73" s="2">
         <f t="shared" si="189"/>
-        <v>482974.90541026031</v>
+        <v>58681.451007346659</v>
       </c>
       <c r="EN73" s="2">
         <f t="shared" si="189"/>
-        <v>487804.65446436295</v>
+        <v>59268.265517420128</v>
       </c>
       <c r="EO73" s="2">
         <f t="shared" si="189"/>
-        <v>492682.70100900659</v>
+        <v>59860.948172594333</v>
       </c>
     </row>
     <row r="75" spans="2:145" x14ac:dyDescent="0.2">
@@ -7768,23 +7768,23 @@
       </c>
       <c r="U76" s="6">
         <f t="shared" ref="U76" si="192">U70/T70-1</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V76" s="6">
         <f t="shared" ref="V76" si="193">V70/U70-1</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W76" s="6">
         <f t="shared" ref="W76" si="194">W70/V70-1</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="X76" s="6">
         <f t="shared" ref="X76" si="195">X70/W70-1</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Y76" s="6">
         <f t="shared" ref="Y76" si="196">Y70/X70-1</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AA76" s="2" t="s">
         <v>15</v>
@@ -7827,30 +7827,30 @@
       </c>
       <c r="U78" s="2">
         <f t="shared" ref="U78" si="198">T78+U70</f>
-        <v>1555000</v>
+        <v>1355000</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" ref="V78" si="199">U78+V70</f>
-        <v>3155000</v>
+        <v>2255000</v>
       </c>
       <c r="W78" s="2">
         <f t="shared" ref="W78" si="200">V78+W70</f>
-        <v>6355000</v>
+        <v>3335000</v>
       </c>
       <c r="X78" s="2">
         <f t="shared" ref="X78" si="201">W78+X70</f>
-        <v>12755000</v>
+        <v>4631000</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" ref="Y78" si="202">X78+Y70</f>
-        <v>25555000</v>
+        <v>6186200</v>
       </c>
       <c r="AA78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AB78" s="4">
         <f>NPV(AB77,P73:EO73)</f>
-        <v>109673.42386645672</v>
+        <v>22224.20738185216</v>
       </c>
     </row>
     <row r="79" spans="2:145" x14ac:dyDescent="0.2">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="AB129" s="4">
         <f>AB78+AB49+AB71</f>
-        <v>538450.64250298333</v>
+        <v>451001.42601837881</v>
       </c>
     </row>
     <row r="130" spans="1:130" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="AB134" s="4">
         <f>NPV(AB133,P141:DZ141)+Main!O5-Main!O6+AB129</f>
-        <v>1305304.5658156378</v>
+        <v>1217855.3493310334</v>
       </c>
     </row>
     <row r="135" spans="1:130" x14ac:dyDescent="0.2">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="AB135" s="2">
         <f>AB134/Main!O3</f>
-        <v>405.25377118334984</v>
+        <v>378.10369012524023</v>
       </c>
     </row>
     <row r="136" spans="1:130" x14ac:dyDescent="0.2">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="AB136" s="6">
         <f>AB135/Main!O2-1</f>
-        <v>0.37374159723169442</v>
+        <v>0.25199897392463644</v>
       </c>
     </row>
     <row r="137" spans="1:130" x14ac:dyDescent="0.2">

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8EE56-CD5C-4F08-B682-4B17CB287880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378140E-5E6C-411C-9473-5EAB28E0997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="134">
   <si>
     <t>Price</t>
   </si>
@@ -159,24 +159,9 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>"millions of tesla semi"</t>
-  </si>
-  <si>
-    <t>"double output next 2 years"</t>
-  </si>
-  <si>
-    <t>"3mil 2025 cars"</t>
-  </si>
-  <si>
-    <t>"robotaxi, FSD, robotics"</t>
-  </si>
-  <si>
     <t>Optimus</t>
   </si>
   <si>
-    <t>"5k optimus 2025, 50k 2026"</t>
-  </si>
-  <si>
     <t>Optimus Sell Price</t>
   </si>
   <si>
@@ -445,9 +430,6 @@
   </si>
   <si>
     <t>Other TSLA Ventures MC</t>
-  </si>
-  <si>
-    <t>Questions</t>
   </si>
   <si>
     <t>Is TSLA still competitive against competitors (mainly china BYD, NIO, etc.) in hardware excluding the autonomous driving?</t>
@@ -996,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9599DFAE-09FB-4C1C-9676-BB65CCFD3CC8}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1012,9 +994,6 @@
       <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1023,9 +1002,6 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1037,9 +1013,6 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1049,9 +1022,6 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1064,9 +1034,6 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="N6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1095,24 +1062,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F10" s="2"/>
-      <c r="L10" s="13" t="s">
-        <v>136</v>
-      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" s="2"/>
       <c r="L11" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L12" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L13" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1125,11 +1090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EE7A2-9B92-42CF-8ECF-ED82CD9F983C}">
   <dimension ref="A1:FP145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U121" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA127" sqref="AA127"/>
+      <selection pane="bottomRight" activeCell="Z145" sqref="Z145:AB145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1177,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L1" s="3">
         <v>2021</v>
@@ -2030,7 +1995,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C11:C12)</f>
@@ -2123,7 +2088,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
         <f>C10-C13</f>
@@ -3626,7 +3591,7 @@
     </row>
     <row r="27" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6">
         <f>C14/C5</f>
@@ -3719,7 +3684,7 @@
     </row>
     <row r="28" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" s="6">
         <f>C13/C5</f>
@@ -3828,7 +3793,7 @@
     </row>
     <row r="30" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3907,7 +3872,7 @@
     </row>
     <row r="31" spans="2:172" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7">
@@ -4039,7 +4004,7 @@
     </row>
     <row r="34" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G34" s="6">
         <f>G2/C2-1</f>
@@ -4112,7 +4077,7 @@
     </row>
     <row r="35" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G35" s="6">
         <f>G3/C3-1</f>
@@ -4186,7 +4151,7 @@
     </row>
     <row r="36" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G36" s="6">
         <f>G4/C4-1</f>
@@ -4276,7 +4241,7 @@
     </row>
     <row r="38" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -4908,7 +4873,7 @@
     </row>
     <row r="39" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -5008,7 +4973,7 @@
     </row>
     <row r="43" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P43" s="2">
         <v>150000</v>
@@ -5052,7 +5017,7 @@
     </row>
     <row r="44" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -5100,7 +5065,7 @@
     </row>
     <row r="45" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="2">
         <v>50000</v>
@@ -5208,7 +5173,7 @@
     </row>
     <row r="47" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P47" s="2">
         <f>O52*1.02</f>
@@ -5259,7 +5224,7 @@
     </row>
     <row r="48" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P48" s="2">
         <v>65000</v>
@@ -5309,7 +5274,7 @@
     </row>
     <row r="49" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P49" s="2">
         <v>30000</v>
@@ -5360,7 +5325,7 @@
     </row>
     <row r="50" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P50" s="2">
         <v>165000</v>
@@ -5404,7 +5369,7 @@
     </row>
     <row r="51" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2">
         <f>F2*1000000/F46</f>
@@ -5453,7 +5418,7 @@
     </row>
     <row r="52" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L52" s="2">
         <f>L2*1000000/L46</f>
@@ -5559,7 +5524,7 @@
     </row>
     <row r="55" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" ref="P55:U55" si="151">P43*(P48/1000000)</f>
@@ -5604,7 +5569,7 @@
     </row>
     <row r="56" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" ref="P56:U56" si="153">P44*(P49/1000000)</f>
@@ -6145,7 +6110,7 @@
     </row>
     <row r="57" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" ref="P57:U57" si="159">P45*(P50/1000000)</f>
@@ -6190,7 +6155,7 @@
     </row>
     <row r="59" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -6220,7 +6185,7 @@
     </row>
     <row r="60" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -6250,7 +6215,7 @@
     </row>
     <row r="61" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" ref="P61:U61" si="161">(8000*SUM(P42:P45)*P66)/1000000</f>
@@ -6295,7 +6260,7 @@
     </row>
     <row r="62" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P62" s="2">
         <f>((99*P51)/(1000000))*P67</f>
@@ -6340,7 +6305,7 @@
     </row>
     <row r="63" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P63" s="2">
         <f>SUM(P61:P62)</f>
@@ -6385,7 +6350,7 @@
     </row>
     <row r="64" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P64" s="2">
         <f>P63*P68</f>
@@ -6906,7 +6871,7 @@
     </row>
     <row r="66" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P66" s="6">
         <v>0.24</v>
@@ -6950,7 +6915,7 @@
     </row>
     <row r="67" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P67" s="6">
         <v>0.2</v>
@@ -6994,7 +6959,7 @@
     </row>
     <row r="68" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P68" s="6">
         <v>0.8</v>
@@ -7037,7 +7002,7 @@
     </row>
     <row r="70" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P70" s="2">
         <v>5000</v>
@@ -7066,7 +7031,7 @@
         <v>900000</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" ref="V70:Y70" si="177">V70*1.2</f>
+        <f t="shared" ref="W70:Y70" si="177">V70*1.2</f>
         <v>1080000</v>
       </c>
       <c r="X70" s="2">
@@ -7086,7 +7051,7 @@
     </row>
     <row r="71" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P71" s="2">
         <v>30000</v>
@@ -7134,7 +7099,7 @@
     </row>
     <row r="72" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P72" s="2">
         <v>10000</v>
@@ -7178,7 +7143,7 @@
     </row>
     <row r="73" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P73" s="2">
         <f>(P71-P72)*P70/1000000</f>
@@ -7703,7 +7668,7 @@
     </row>
     <row r="75" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P75" s="6">
         <f>P71/P72-1</f>
@@ -7748,7 +7713,7 @@
     </row>
     <row r="76" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q76" s="6">
         <f>Q70/P70-1</f>
@@ -7803,7 +7768,7 @@
     </row>
     <row r="78" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P78" s="2">
         <f>P70+O70</f>
@@ -7858,7 +7823,7 @@
     </row>
     <row r="80" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O80" s="2">
         <f>100000+550000+250000+125000</f>
@@ -7907,7 +7872,7 @@
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O81" s="2">
         <v>375000</v>
@@ -7955,7 +7920,7 @@
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O82" s="2">
         <v>950000</v>
@@ -8052,7 +8017,7 @@
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O85" s="6">
         <f t="shared" ref="O85:U85" si="227">O83/O46</f>
@@ -8282,7 +8247,7 @@
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2">
         <v>20424</v>
@@ -8299,7 +8264,7 @@
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2">
         <v>4418</v>
@@ -8316,7 +8281,7 @@
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2">
         <v>12017</v>
@@ -8333,7 +8298,7 @@
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2">
         <v>5362</v>
@@ -8350,7 +8315,7 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2">
         <v>5581</v>
@@ -8367,7 +8332,7 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2">
         <v>4924</v>
@@ -8384,7 +8349,7 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2">
         <v>35836</v>
@@ -8401,7 +8366,7 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2">
         <v>5160</v>
@@ -8418,7 +8383,7 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2">
         <v>1076</v>
@@ -8435,7 +8400,7 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2">
         <v>140</v>
@@ -8452,7 +8417,7 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2">
         <v>244</v>
@@ -8469,7 +8434,7 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2">
         <v>6524</v>
@@ -8486,7 +8451,7 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2">
         <v>4215</v>
@@ -8503,7 +8468,7 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" ref="C106" si="236">SUM(C92:C105)</f>
@@ -8544,7 +8509,7 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2">
         <v>12474</v>
@@ -8561,7 +8526,7 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2">
         <v>10723</v>
@@ -8578,7 +8543,7 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2">
         <v>3168</v>
@@ -8595,7 +8560,7 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2">
         <v>2456</v>
@@ -8612,7 +8577,7 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2">
         <v>5757</v>
@@ -8629,7 +8594,7 @@
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2">
         <v>3317</v>
@@ -8646,7 +8611,7 @@
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C114" s="2">
         <v>10495</v>
@@ -8663,7 +8628,7 @@
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" ref="C115" si="241">SUM(C108:C114)</f>
@@ -8704,7 +8669,7 @@
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" ref="C116" si="246">C106-C115</f>
@@ -8745,7 +8710,7 @@
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" ref="C117" si="251">C116+C115</f>
@@ -8786,7 +8751,7 @@
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2">
         <f>C18</f>
@@ -8879,7 +8844,7 @@
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2">
         <v>1405</v>
@@ -8899,7 +8864,7 @@
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2">
         <v>1246</v>
@@ -8919,7 +8884,7 @@
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2">
         <v>524</v>
@@ -8979,7 +8944,7 @@
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2">
         <v>68</v>
@@ -9039,7 +9004,7 @@
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2">
         <v>-63</v>
@@ -9099,7 +9064,7 @@
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2">
         <v>63</v>
@@ -9159,7 +9124,7 @@
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2">
         <v>-5</v>
@@ -9219,7 +9184,7 @@
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2">
         <v>-335</v>
@@ -9269,7 +9234,7 @@
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2">
         <v>-422</v>
@@ -9327,12 +9292,12 @@
         <v>-8310.8703873660124</v>
       </c>
       <c r="AA128" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C129" s="2">
         <v>-2697</v>
@@ -9399,7 +9364,7 @@
     </row>
     <row r="130" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2">
         <v>-12</v>
@@ -9459,7 +9424,7 @@
     </row>
     <row r="131" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2">
         <v>-972</v>
@@ -9517,7 +9482,7 @@
         <v>-25116.785575114467</v>
       </c>
       <c r="AA131" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB131" s="6">
         <v>0.02</v>
@@ -9525,7 +9490,7 @@
     </row>
     <row r="132" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2">
         <v>1247</v>
@@ -9591,7 +9556,7 @@
     </row>
     <row r="133" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2">
         <v>195</v>
@@ -9658,7 +9623,7 @@
     <row r="134" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C134" s="4">
         <f>SUM(C120:C133)</f>
@@ -9758,7 +9723,7 @@
     </row>
     <row r="135" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C135" s="2">
         <v>-2777</v>
@@ -9785,7 +9750,7 @@
     </row>
     <row r="136" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M136" s="2">
         <v>936</v>
@@ -9800,7 +9765,7 @@
     </row>
     <row r="137" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2">
         <v>-6622</v>
@@ -9820,7 +9785,7 @@
     </row>
     <row r="138" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C138" s="2">
         <v>4315</v>
@@ -9842,7 +9807,7 @@
     </row>
     <row r="139" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M139" s="2">
         <v>76</v>
@@ -9851,7 +9816,7 @@
     <row r="140" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C140" s="4">
         <f>C135</f>
@@ -9945,7 +9910,7 @@
     <row r="141" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C141" s="4">
         <f t="shared" ref="C141:J141" si="290">C134+C140</f>
@@ -10458,7 +10423,7 @@
     </row>
     <row r="143" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M143" s="6">
         <f>-M140/M5</f>
@@ -10515,7 +10480,7 @@
     </row>
     <row r="144" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M144" s="6">
         <f>M134/M5</f>
@@ -10572,7 +10537,7 @@
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M145" s="6">
         <f>M141/M5</f>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7E905-AAF9-4BDC-A5D5-5906A5F00632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9531179F-B1FC-474C-B34D-BB8114DFD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EDEC7EF9-F492-4362-832B-DCA6EE24C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1069,10 +1069,10 @@
   <dimension ref="A1:FP131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="AB125" sqref="AB125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1876,43 +1876,43 @@
         <v>4540</v>
       </c>
       <c r="P12" s="1">
-        <f>O12*(1+P30)</f>
+        <f t="shared" ref="P12:Y12" si="40">O12*(1+P30)</f>
         <v>5812.1977274652409</v>
       </c>
       <c r="Q12" s="1">
-        <f>P12*(1+Q30)</f>
+        <f t="shared" si="40"/>
         <v>7812.5543707117795</v>
       </c>
       <c r="R12" s="1">
-        <f>Q12*(1+R30)</f>
+        <f t="shared" si="40"/>
         <v>9849.0936739968492</v>
       </c>
       <c r="S12" s="1">
-        <f>R12*(1+S30)</f>
+        <f t="shared" si="40"/>
         <v>11598.345384881088</v>
       </c>
       <c r="T12" s="1">
-        <f>S12*(1+T30)</f>
+        <f t="shared" si="40"/>
         <v>13336.063481327777</v>
       </c>
       <c r="U12" s="1">
-        <f>T12*(1+U30)</f>
+        <f t="shared" si="40"/>
         <v>15469.429518563364</v>
       </c>
       <c r="V12" s="1">
-        <f>U12*(1+V30)</f>
+        <f t="shared" si="40"/>
         <v>18118.330117140787</v>
       </c>
       <c r="W12" s="1">
-        <f>V12*(1+W30)</f>
+        <f t="shared" si="40"/>
         <v>21444.607720301457</v>
       </c>
       <c r="X12" s="1">
-        <f>W12*(1+X30)</f>
+        <f t="shared" si="40"/>
         <v>25667.917761351135</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12*(1+Y30)</f>
+        <f t="shared" si="40"/>
         <v>31087.878778736187</v>
       </c>
     </row>
@@ -1939,43 +1939,43 @@
         <v>5150</v>
       </c>
       <c r="P13" s="1">
-        <f>O13*(1+P30)</f>
+        <f t="shared" ref="P13:Y13" si="41">O13*(1+P30)</f>
         <v>6593.1317833581479</v>
       </c>
       <c r="Q13" s="1">
-        <f>P13*(1+Q30)</f>
+        <f t="shared" si="41"/>
         <v>8862.2588125915554</v>
       </c>
       <c r="R13" s="1">
-        <f>Q13*(1+R30)</f>
+        <f t="shared" si="41"/>
         <v>11172.430048696866</v>
       </c>
       <c r="S13" s="1">
-        <f>R13*(1+S30)</f>
+        <f t="shared" si="41"/>
         <v>13156.71337712282</v>
       </c>
       <c r="T13" s="1">
-        <f>S13*(1+T30)</f>
+        <f t="shared" si="41"/>
         <v>15127.913420448911</v>
       </c>
       <c r="U13" s="1">
-        <f>T13*(1+U30)</f>
+        <f t="shared" si="41"/>
         <v>17547.921149912185</v>
       </c>
       <c r="V13" s="1">
-        <f>U13*(1+V30)</f>
+        <f t="shared" si="41"/>
         <v>20552.731300280848</v>
       </c>
       <c r="W13" s="1">
-        <f>V13*(1+W30)</f>
+        <f t="shared" si="41"/>
         <v>24325.93166509967</v>
       </c>
       <c r="X13" s="1">
-        <f>W13*(1+X30)</f>
+        <f t="shared" si="41"/>
         <v>29116.690852633994</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13*(1+Y30)</f>
+        <f t="shared" si="41"/>
         <v>35264.884517729377</v>
       </c>
     </row>
@@ -1988,31 +1988,31 @@
         <v>2525</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:G14" si="40">SUM(D12:D13)</f>
+        <f t="shared" ref="D14:G14" si="42">SUM(D12:D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2660</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="41">SUM(H12:H13)</f>
+        <f t="shared" ref="H14" si="43">SUM(H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14" si="42">SUM(I12:I13)</f>
+        <f t="shared" ref="I14" si="44">SUM(I12:I13)</f>
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14" si="43">SUM(J12:J13)</f>
+        <f t="shared" ref="J14" si="45">SUM(J12:J13)</f>
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -2024,51 +2024,51 @@
         <v>7021</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" ref="N14:P14" si="44">SUM(N12:N13)</f>
+        <f t="shared" ref="N14:P14" si="46">SUM(N12:N13)</f>
         <v>8769</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9690</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>12405.329510823389</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" ref="Q14" si="45">SUM(Q12:Q13)</f>
+        <f t="shared" ref="Q14" si="47">SUM(Q12:Q13)</f>
         <v>16674.813183303333</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ref="R14" si="46">SUM(R12:R13)</f>
+        <f t="shared" ref="R14" si="48">SUM(R12:R13)</f>
         <v>21021.523722693717</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14" si="47">SUM(S12:S13)</f>
+        <f t="shared" ref="S14" si="49">SUM(S12:S13)</f>
         <v>24755.058762003908</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" ref="T14:U14" si="48">SUM(T12:T13)</f>
+        <f t="shared" ref="T14:U14" si="50">SUM(T12:T13)</f>
         <v>28463.976901776688</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33017.350668475548</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14:Y14" si="49">SUM(V12:V13)</f>
+        <f t="shared" ref="V14:Y14" si="51">SUM(V12:V13)</f>
         <v>38671.061417421632</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>45770.539385401127</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>54784.608613985125</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>66352.763296465564</v>
       </c>
     </row>
@@ -2081,31 +2081,31 @@
         <v>1171</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:G15" si="50">D11-D14</f>
+        <f t="shared" ref="D15:G15" si="52">D11-D14</f>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>19798</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>493</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15" si="51">H11-H14</f>
+        <f t="shared" ref="H15" si="53">H11-H14</f>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15" si="52">I11-I14</f>
+        <f t="shared" ref="I15" si="54">I11-I14</f>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15" si="53">J11-J14</f>
+        <f t="shared" ref="J15" si="55">J11-J14</f>
         <v>0</v>
       </c>
       <c r="L15" s="1">
@@ -2117,51 +2117,51 @@
         <v>13832</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:T15" si="54">N11-N14</f>
+        <f t="shared" ref="N15:T15" si="56">N11-N14</f>
         <v>8891</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>7760</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>17792.553818625573</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27254.653952636385</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38867.000473866399</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>51145.089643589097</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>65009.502348659349</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" ref="U15:Y15" si="55">U11-U14</f>
+        <f t="shared" ref="U15:Y15" si="57">U11-U14</f>
         <v>82815.760001677147</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>96062.941927621767</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>112565.86205822683</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>133447.31312707672</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>160286.59834644687</v>
       </c>
     </row>
@@ -2200,43 +2200,43 @@
         <v>1219</v>
       </c>
       <c r="P16" s="1">
-        <f>O86*$AB$123</f>
+        <f t="shared" ref="P16:Y16" si="58">O86*$AB$123</f>
         <v>503.64</v>
       </c>
       <c r="Q16" s="1">
-        <f>P86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>800.03833986173424</v>
       </c>
       <c r="R16" s="1">
-        <f>Q86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>1254.5243550002037</v>
       </c>
       <c r="S16" s="1">
-        <f>R86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>1904.4930572278429</v>
       </c>
       <c r="T16" s="1">
-        <f>S86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>2763.8962969810773</v>
       </c>
       <c r="U16" s="1">
-        <f>T86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>3861.825355040452</v>
       </c>
       <c r="V16" s="1">
-        <f>U86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>5266.0022378192771</v>
       </c>
       <c r="W16" s="1">
-        <f>V86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>6907.5311332994224</v>
       </c>
       <c r="X16" s="1">
-        <f>W86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>8843.0001030021485</v>
       </c>
       <c r="Y16" s="1">
-        <f>X86*$AB$123</f>
+        <f t="shared" si="58"/>
         <v>11148.103177329425</v>
       </c>
     </row>
@@ -2249,31 +2249,31 @@
         <v>1445</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:G17" si="56">D15+D16</f>
+        <f t="shared" ref="D17:G17" si="59">D15+D16</f>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>19798</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>802</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17" si="57">H15+H16</f>
+        <f t="shared" ref="H17" si="60">H15+H16</f>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I17" si="58">I15+I16</f>
+        <f t="shared" ref="I17" si="61">I15+I16</f>
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ref="J17" si="59">J15+J16</f>
+        <f t="shared" ref="J17" si="62">J15+J16</f>
         <v>0</v>
       </c>
       <c r="L17" s="1">
@@ -2285,51 +2285,51 @@
         <v>13937</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" ref="N17:T17" si="60">N15+N16</f>
+        <f t="shared" ref="N17:T17" si="63">N15+N16</f>
         <v>9801</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>8979</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>18296.193818625572</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>28054.692292498119</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>40121.524828866604</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>53049.582700816944</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>67773.398645640424</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17:Y17" si="61">U15+U16</f>
+        <f t="shared" ref="U17:Y17" si="64">U15+U16</f>
         <v>86677.585356717595</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>101328.94416544105</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>119473.39319152625</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>142290.31323007887</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>171434.70152377631</v>
       </c>
     </row>
@@ -2360,39 +2360,39 @@
         <v>3476.2768255388587</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" ref="Q18:Y18" si="62">Q17*0.19</f>
+        <f t="shared" ref="Q18:Y18" si="65">Q17*0.19</f>
         <v>5330.3915355746431</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>7623.089717484655</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>10079.420713155219</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>12876.94574267168</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>16468.741217776344</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>19252.499391433801</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>22699.94470638999</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>27035.159513714985</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>32572.593289517499</v>
       </c>
     </row>
@@ -2405,31 +2405,31 @@
         <v>962</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:G19" si="63">D17-D18</f>
+        <f t="shared" ref="D19:G19" si="66">D17-D18</f>
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>19798</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>633</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ref="H19" si="64">H17-H18</f>
+        <f t="shared" ref="H19" si="67">H17-H18</f>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19" si="65">I17-I18</f>
+        <f t="shared" ref="I19" si="68">I17-I18</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="66">J17-J18</f>
+        <f t="shared" ref="J19" si="69">J17-J18</f>
         <v>0</v>
       </c>
       <c r="K19" s="3"/>
@@ -2442,639 +2442,639 @@
         <v>12805</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" ref="N19:O19" si="67">N17-N18</f>
+        <f t="shared" ref="N19:O19" si="70">N17-N18</f>
         <v>14802</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>7142</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19" si="68">P17-P18</f>
+        <f t="shared" ref="P19" si="71">P17-P18</f>
         <v>14819.916993086714</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="69">Q17-Q18</f>
+        <f t="shared" ref="Q19" si="72">Q17-Q18</f>
         <v>22724.300756923476</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ref="R19" si="70">R17-R18</f>
+        <f t="shared" ref="R19" si="73">R17-R18</f>
         <v>32498.43511138195</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" ref="S19" si="71">S17-S18</f>
+        <f t="shared" ref="S19" si="74">S17-S18</f>
         <v>42970.161987661726</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19:U19" si="72">T17-T18</f>
+        <f t="shared" ref="T19:U19" si="75">T17-T18</f>
         <v>54896.45290296874</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>70208.844138941247</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ref="V19:Y19" si="73">V17-V18</f>
+        <f t="shared" ref="V19:Y19" si="76">V17-V18</f>
         <v>82076.44477400725</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>96773.448485136265</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>115255.15371636389</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>138862.10823425881</v>
       </c>
       <c r="Z19" s="3">
-        <f>Y19*(1+$AB$124)</f>
+        <f t="shared" ref="Z19:BE19" si="77">Y19*(1+$AB$124)</f>
         <v>140250.72931660138</v>
       </c>
       <c r="AA19" s="3">
-        <f>Z19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>141653.23660976739</v>
       </c>
       <c r="AB19" s="3">
-        <f>AA19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>143069.76897586507</v>
       </c>
       <c r="AC19" s="3">
-        <f>AB19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>144500.46666562371</v>
       </c>
       <c r="AD19" s="3">
-        <f>AC19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>145945.47133227994</v>
       </c>
       <c r="AE19" s="3">
-        <f>AD19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>147404.92604560274</v>
       </c>
       <c r="AF19" s="3">
-        <f>AE19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>148878.97530605877</v>
       </c>
       <c r="AG19" s="3">
-        <f>AF19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>150367.76505911935</v>
       </c>
       <c r="AH19" s="3">
-        <f>AG19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>151871.44270971054</v>
       </c>
       <c r="AI19" s="3">
-        <f>AH19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>153390.15713680765</v>
       </c>
       <c r="AJ19" s="3">
-        <f>AI19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>154924.05870817573</v>
       </c>
       <c r="AK19" s="3">
-        <f>AJ19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>156473.29929525749</v>
       </c>
       <c r="AL19" s="3">
-        <f>AK19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>158038.03228821006</v>
       </c>
       <c r="AM19" s="3">
-        <f>AL19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>159618.41261109215</v>
       </c>
       <c r="AN19" s="3">
-        <f>AM19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>161214.59673720307</v>
       </c>
       <c r="AO19" s="3">
-        <f>AN19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>162826.7427045751</v>
       </c>
       <c r="AP19" s="3">
-        <f>AO19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>164455.01013162086</v>
       </c>
       <c r="AQ19" s="3">
-        <f>AP19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>166099.56023293707</v>
       </c>
       <c r="AR19" s="3">
-        <f>AQ19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>167760.55583526645</v>
       </c>
       <c r="AS19" s="3">
-        <f>AR19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>169438.16139361911</v>
       </c>
       <c r="AT19" s="3">
-        <f>AS19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>171132.5430075553</v>
       </c>
       <c r="AU19" s="3">
-        <f>AT19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>172843.86843763085</v>
       </c>
       <c r="AV19" s="3">
-        <f>AU19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>174572.30712200716</v>
       </c>
       <c r="AW19" s="3">
-        <f>AV19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>176318.03019322723</v>
       </c>
       <c r="AX19" s="3">
-        <f>AW19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>178081.2104951595</v>
       </c>
       <c r="AY19" s="3">
-        <f>AX19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>179862.02260011109</v>
       </c>
       <c r="AZ19" s="3">
-        <f>AY19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>181660.64282611219</v>
       </c>
       <c r="BA19" s="3">
-        <f>AZ19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>183477.24925437331</v>
       </c>
       <c r="BB19" s="3">
-        <f>BA19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>185312.02174691705</v>
       </c>
       <c r="BC19" s="3">
-        <f>BB19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>187165.14196438622</v>
       </c>
       <c r="BD19" s="3">
-        <f>BC19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>189036.79338403008</v>
       </c>
       <c r="BE19" s="3">
-        <f>BD19*(1+$AB$124)</f>
+        <f t="shared" si="77"/>
         <v>190927.1613178704</v>
       </c>
       <c r="BF19" s="3">
-        <f>BE19*(1+$AB$124)</f>
+        <f t="shared" ref="BF19:CK19" si="78">BE19*(1+$AB$124)</f>
         <v>192836.43293104912</v>
       </c>
       <c r="BG19" s="3">
-        <f>BF19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>194764.7972603596</v>
       </c>
       <c r="BH19" s="3">
-        <f>BG19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>196712.44523296319</v>
       </c>
       <c r="BI19" s="3">
-        <f>BH19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>198679.56968529284</v>
       </c>
       <c r="BJ19" s="3">
-        <f>BI19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>200666.36538214577</v>
       </c>
       <c r="BK19" s="3">
-        <f>BJ19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>202673.02903596722</v>
       </c>
       <c r="BL19" s="3">
-        <f>BK19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>204699.75932632689</v>
       </c>
       <c r="BM19" s="3">
-        <f>BL19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>206746.75691959017</v>
       </c>
       <c r="BN19" s="3">
-        <f>BM19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>208814.22448878607</v>
       </c>
       <c r="BO19" s="3">
-        <f>BN19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>210902.36673367393</v>
       </c>
       <c r="BP19" s="3">
-        <f>BO19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>213011.39040101066</v>
       </c>
       <c r="BQ19" s="3">
-        <f>BP19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>215141.50430502076</v>
       </c>
       <c r="BR19" s="3">
-        <f>BQ19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>217292.91934807098</v>
       </c>
       <c r="BS19" s="3">
-        <f>BR19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>219465.84854155171</v>
       </c>
       <c r="BT19" s="3">
-        <f>BS19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>221660.50702696721</v>
       </c>
       <c r="BU19" s="3">
-        <f>BT19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>223877.11209723688</v>
       </c>
       <c r="BV19" s="3">
-        <f>BU19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>226115.88321820926</v>
       </c>
       <c r="BW19" s="3">
-        <f>BV19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>228377.04205039135</v>
       </c>
       <c r="BX19" s="3">
-        <f>BW19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>230660.81247089527</v>
       </c>
       <c r="BY19" s="3">
-        <f>BX19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>232967.42059560423</v>
       </c>
       <c r="BZ19" s="3">
-        <f>BY19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>235297.09480156028</v>
       </c>
       <c r="CA19" s="3">
-        <f>BZ19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>237650.06574957588</v>
       </c>
       <c r="CB19" s="3">
-        <f>CA19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>240026.56640707163</v>
       </c>
       <c r="CC19" s="3">
-        <f>CB19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>242426.83207114236</v>
       </c>
       <c r="CD19" s="3">
-        <f>CC19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>244851.10039185378</v>
       </c>
       <c r="CE19" s="3">
-        <f>CD19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>247299.61139577231</v>
       </c>
       <c r="CF19" s="3">
-        <f>CE19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>249772.60750973003</v>
       </c>
       <c r="CG19" s="3">
-        <f>CF19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>252270.33358482734</v>
       </c>
       <c r="CH19" s="3">
-        <f>CG19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>254793.03692067563</v>
       </c>
       <c r="CI19" s="3">
-        <f>CH19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>257340.96728988239</v>
       </c>
       <c r="CJ19" s="3">
-        <f>CI19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>259914.37696278121</v>
       </c>
       <c r="CK19" s="3">
-        <f>CJ19*(1+$AB$124)</f>
+        <f t="shared" si="78"/>
         <v>262513.52073240903</v>
       </c>
       <c r="CL19" s="3">
-        <f>CK19*(1+$AB$124)</f>
+        <f t="shared" ref="CL19:DQ19" si="79">CK19*(1+$AB$124)</f>
         <v>265138.65593973314</v>
       </c>
       <c r="CM19" s="3">
-        <f>CL19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>267790.04249913048</v>
       </c>
       <c r="CN19" s="3">
-        <f>CM19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>270467.9429241218</v>
       </c>
       <c r="CO19" s="3">
-        <f>CN19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>273172.62235336303</v>
       </c>
       <c r="CP19" s="3">
-        <f>CO19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>275904.34857689665</v>
       </c>
       <c r="CQ19" s="3">
-        <f>CP19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>278663.3920626656</v>
       </c>
       <c r="CR19" s="3">
-        <f>CQ19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>281450.02598329226</v>
       </c>
       <c r="CS19" s="3">
-        <f>CR19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>284264.5262431252</v>
       </c>
       <c r="CT19" s="3">
-        <f>CS19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>287107.17150555644</v>
       </c>
       <c r="CU19" s="3">
-        <f>CT19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>289978.243220612</v>
       </c>
       <c r="CV19" s="3">
-        <f>CU19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>292878.02565281815</v>
       </c>
       <c r="CW19" s="3">
-        <f>CV19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>295806.80590934632</v>
       </c>
       <c r="CX19" s="3">
-        <f>CW19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>298764.87396843982</v>
       </c>
       <c r="CY19" s="3">
-        <f>CX19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>301752.52270812419</v>
       </c>
       <c r="CZ19" s="3">
-        <f>CY19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>304770.04793520545</v>
       </c>
       <c r="DA19" s="3">
-        <f>CZ19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>307817.74841455749</v>
       </c>
       <c r="DB19" s="3">
-        <f>DA19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>310895.92589870305</v>
       </c>
       <c r="DC19" s="3">
-        <f>DB19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>314004.88515769009</v>
       </c>
       <c r="DD19" s="3">
-        <f>DC19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>317144.93400926702</v>
       </c>
       <c r="DE19" s="3">
-        <f>DD19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>320316.38334935968</v>
       </c>
       <c r="DF19" s="3">
-        <f>DE19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>323519.54718285328</v>
       </c>
       <c r="DG19" s="3">
-        <f>DF19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>326754.74265468179</v>
       </c>
       <c r="DH19" s="3">
-        <f>DG19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>330022.2900812286</v>
       </c>
       <c r="DI19" s="3">
-        <f>DH19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>333322.51298204088</v>
       </c>
       <c r="DJ19" s="3">
-        <f>DI19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>336655.73811186128</v>
       </c>
       <c r="DK19" s="3">
-        <f>DJ19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>340022.29549297987</v>
       </c>
       <c r="DL19" s="3">
-        <f>DK19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>343422.51844790968</v>
       </c>
       <c r="DM19" s="3">
-        <f>DL19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>346856.74363238877</v>
       </c>
       <c r="DN19" s="3">
-        <f>DM19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>350325.31106871268</v>
       </c>
       <c r="DO19" s="3">
-        <f>DN19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>353828.56417939981</v>
       </c>
       <c r="DP19" s="3">
-        <f>DO19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>357366.84982119378</v>
       </c>
       <c r="DQ19" s="3">
-        <f>DP19*(1+$AB$124)</f>
+        <f t="shared" si="79"/>
         <v>360940.51831940573</v>
       </c>
       <c r="DR19" s="3">
-        <f>DQ19*(1+$AB$124)</f>
+        <f t="shared" ref="DR19:EW19" si="80">DQ19*(1+$AB$124)</f>
         <v>364549.92350259982</v>
       </c>
       <c r="DS19" s="3">
-        <f>DR19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>368195.42273762583</v>
       </c>
       <c r="DT19" s="3">
-        <f>DS19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>371877.3769650021</v>
       </c>
       <c r="DU19" s="3">
-        <f>DT19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>375596.15073465212</v>
       </c>
       <c r="DV19" s="3">
-        <f>DU19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>379352.11224199866</v>
       </c>
       <c r="DW19" s="3">
-        <f>DV19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>383145.63336441864</v>
       </c>
       <c r="DX19" s="3">
-        <f>DW19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>386977.0896980628</v>
       </c>
       <c r="DY19" s="3">
-        <f>DX19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>390846.86059504346</v>
       </c>
       <c r="DZ19" s="3">
-        <f>DY19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>394755.32920099387</v>
       </c>
       <c r="EA19" s="3">
-        <f>DZ19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>398702.8824930038</v>
       </c>
       <c r="EB19" s="3">
-        <f>EA19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>402689.91131793382</v>
       </c>
       <c r="EC19" s="3">
-        <f>EB19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>406716.81043111318</v>
       </c>
       <c r="ED19" s="3">
-        <f>EC19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>410783.97853542434</v>
       </c>
       <c r="EE19" s="3">
-        <f>ED19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>414891.81832077861</v>
       </c>
       <c r="EF19" s="3">
-        <f>EE19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>419040.73650398641</v>
       </c>
       <c r="EG19" s="3">
-        <f>EF19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>423231.14386902627</v>
       </c>
       <c r="EH19" s="3">
-        <f>EG19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>427463.45530771656</v>
       </c>
       <c r="EI19" s="3">
-        <f>EH19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>431738.08986079373</v>
       </c>
       <c r="EJ19" s="3">
-        <f>EI19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>436055.47075940168</v>
       </c>
       <c r="EK19" s="3">
-        <f>EJ19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>440416.02546699572</v>
       </c>
       <c r="EL19" s="3">
-        <f>EK19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>444820.18572166568</v>
       </c>
       <c r="EM19" s="3">
-        <f>EL19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>449268.38757888234</v>
       </c>
       <c r="EN19" s="3">
-        <f>EM19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>453761.07145467115</v>
       </c>
       <c r="EO19" s="3">
-        <f>EN19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>458298.68216921785</v>
       </c>
       <c r="EP19" s="3">
-        <f>EO19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>462881.66899091005</v>
       </c>
       <c r="EQ19" s="3">
-        <f>EP19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>467510.48568081914</v>
       </c>
       <c r="ER19" s="3">
-        <f>EQ19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>472185.59053762734</v>
       </c>
       <c r="ES19" s="3">
-        <f>ER19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>476907.4464430036</v>
       </c>
       <c r="ET19" s="3">
-        <f>ES19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>481676.52090743365</v>
       </c>
       <c r="EU19" s="3">
-        <f>ET19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>486493.28611650801</v>
       </c>
       <c r="EV19" s="3">
-        <f>EU19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>491358.2189776731</v>
       </c>
       <c r="EW19" s="3">
-        <f>EV19*(1+$AB$124)</f>
+        <f t="shared" si="80"/>
         <v>496271.80116744986</v>
       </c>
       <c r="EX19" s="3">
-        <f>EW19*(1+$AB$124)</f>
+        <f t="shared" ref="EX19:FP19" si="81">EW19*(1+$AB$124)</f>
         <v>501234.51917912439</v>
       </c>
       <c r="EY19" s="3">
-        <f>EX19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>506246.86437091563</v>
       </c>
       <c r="EZ19" s="3">
-        <f>EY19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>511309.33301462478</v>
       </c>
       <c r="FA19" s="3">
-        <f>EZ19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>516422.42634477105</v>
       </c>
       <c r="FB19" s="3">
-        <f>FA19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>521586.65060821874</v>
       </c>
       <c r="FC19" s="3">
-        <f>FB19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>526802.51711430098</v>
       </c>
       <c r="FD19" s="3">
-        <f>FC19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>532070.54228544398</v>
       </c>
       <c r="FE19" s="3">
-        <f>FD19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>537391.24770829838</v>
       </c>
       <c r="FF19" s="3">
-        <f>FE19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>542765.16018538142</v>
       </c>
       <c r="FG19" s="3">
-        <f>FF19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>548192.8117872352</v>
       </c>
       <c r="FH19" s="3">
-        <f>FG19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>553674.73990510753</v>
       </c>
       <c r="FI19" s="3">
-        <f>FH19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>559211.48730415863</v>
       </c>
       <c r="FJ19" s="3">
-        <f>FI19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>564803.60217720026</v>
       </c>
       <c r="FK19" s="3">
-        <f>FJ19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>570451.63819897221</v>
       </c>
       <c r="FL19" s="3">
-        <f>FK19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>576156.15458096191</v>
       </c>
       <c r="FM19" s="3">
-        <f>FL19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>581917.71612677153</v>
       </c>
       <c r="FN19" s="3">
-        <f>FM19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>587736.89328803925</v>
       </c>
       <c r="FO19" s="3">
-        <f>FN19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>593614.2622209196</v>
       </c>
       <c r="FP19" s="3">
-        <f>FO19*(1+$AB$124)</f>
+        <f t="shared" si="81"/>
         <v>599550.40484312875</v>
       </c>
     </row>
@@ -3087,31 +3087,31 @@
         <v>0.30194601381042058</v>
       </c>
       <c r="D20" s="4" t="e">
-        <f t="shared" ref="D20:J20" si="74">D19/D21</f>
+        <f t="shared" ref="D20:J20" si="82">D19/D21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="4" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="4" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0.19670602858918582</v>
       </c>
       <c r="H20" s="4" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="4" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="4" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="4">
@@ -3221,47 +3221,47 @@
         <v>0.22674008188620642</v>
       </c>
       <c r="D23" s="5" t="e">
-        <f t="shared" ref="D23:J23" si="75">D3/D7-1</f>
+        <f t="shared" ref="D23:J23" si="83">D3/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="5" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="5" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.19376068376068378</v>
       </c>
       <c r="H23" s="5" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="5" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="5" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:O25" si="76">L3/L7-1</f>
+        <f t="shared" ref="L23:O25" si="84">L3/L7-1</f>
         <v>0.41442817356931094</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.39825467637160528</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.24145566283571074</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.22580439934471075</v>
       </c>
       <c r="P23" s="5">
@@ -3269,23 +3269,23 @@
         <v>0.24838483927918184</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" ref="Q23:U23" si="77">P23*1.1</f>
+        <f t="shared" ref="Q23:U23" si="85">P23*1.1</f>
         <v>0.27322332320710002</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.30054565552781004</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.33060022108059106</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.3636602431886502</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.40002626750751524</v>
       </c>
       <c r="V23" s="5">
@@ -3293,15 +3293,15 @@
         <v>0.40402653018259038</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" ref="W23:Y23" si="78">V23*1.01</f>
+        <f t="shared" ref="W23:Y23" si="86">V23*1.01</f>
         <v>0.40806679548441627</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.41214746343926045</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.41626893807365306</v>
       </c>
     </row>
@@ -3314,47 +3314,47 @@
         <v>0.32711038961038952</v>
       </c>
       <c r="D24" s="5" t="e">
-        <f t="shared" ref="D24:J24" si="79">D4/D8-1</f>
+        <f t="shared" ref="D24:J24" si="87">D4/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0.40359897172236514</v>
       </c>
       <c r="H24" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="5" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-4.4208361891706627E-2</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>7.9536039768019817E-2</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.2331426236207601</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.35455278001611612</v>
       </c>
       <c r="P24" s="5">
@@ -3362,23 +3362,23 @@
         <v>0.36164383561643842</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" ref="Q24:U24" si="80">P24*1.02</f>
+        <f t="shared" ref="Q24:U24" si="88">P24*1.02</f>
         <v>0.36887671232876718</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.37625424657534251</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.38377933150684934</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.39145491813698635</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.39928401649972611</v>
       </c>
       <c r="V24" s="5">
@@ -3386,15 +3386,15 @@
         <v>0.4032768566647234</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" ref="W24:Y24" si="81">V24*1.01</f>
+        <f t="shared" ref="W24:Y24" si="89">V24*1.01</f>
         <v>0.40730962523137065</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.41138272148368438</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.41549654869852121</v>
       </c>
     </row>
@@ -3407,47 +3407,47 @@
         <v>3.6701404621658273E-2</v>
       </c>
       <c r="D25" s="5" t="e">
-        <f t="shared" ref="D25:J25" si="82">D5/D9-1</f>
+        <f t="shared" ref="D25:J25" si="90">D5/D9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="5" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="5" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.9810800157666471E-2</v>
       </c>
       <c r="H25" s="5" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="5" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="5" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-2.6625704045058929E-2</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>3.5884353741496566E-2</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>6.2452107279693525E-2</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>6.178812619695595E-2</v>
       </c>
       <c r="P25" s="5">
@@ -3492,87 +3492,87 @@
         <v>0.20994035785288268</v>
       </c>
       <c r="D27" s="6" t="e">
-        <f t="shared" ref="D27:J27" si="83">D6/D10-1</f>
+        <f t="shared" ref="D27:J27" si="91">D6/D10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="6" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="6" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.19484612532443446</v>
       </c>
       <c r="H27" s="6" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="6" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="6" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:U27" si="84">L6/L10-1</f>
+        <f t="shared" ref="L27:U27" si="92">L6/L10-1</f>
         <v>0.33831464306139192</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.34405781319605988</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.22322500726808481</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.21747258225324018</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.31831882154137325</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.3537617403674802</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.39389838635857033</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.43704000046168412</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.48309982637468996</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0.53371390838621835</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:Y27" si="85">V6/V10-1</f>
+        <f t="shared" ref="V27:Y27" si="93">V6/V10-1</f>
         <v>0.52810073837278271</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0.52238903905576484</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0.51700617248433356</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>0.51241345339897504</v>
       </c>
     </row>
@@ -3585,87 +3585,87 @@
         <v>5.4973944885216654E-2</v>
       </c>
       <c r="D28" s="5" t="e">
-        <f t="shared" ref="D28:J28" si="86">D15/D6</f>
+        <f t="shared" ref="D28:J28" si="94">D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="5" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>2.5497801913628135E-2</v>
       </c>
       <c r="H28" s="5" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="5" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="5" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28:U28" si="87">L15/L6</f>
+        <f t="shared" ref="L28:U28" si="95">L15/L6</f>
         <v>0.12069189751593185</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.16979696054602145</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>9.1874799789197395E-2</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>7.9434947282219268E-2</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.1422668288374247</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.16212625939578343</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.18339627098820496</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.20493382687729839</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.22654523431328324</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>0.24879659760670994</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" ref="V28:Y28" si="88">V15/V6</f>
+        <f t="shared" ref="V28:Y28" si="96">V15/V6</f>
         <v>0.24640156265888064</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0.24394635798238259</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0.24161558154774879</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>0.2396138215661891</v>
       </c>
     </row>
@@ -3712,55 +3712,55 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="6">
-        <f>M6/L6-1</f>
+        <f t="shared" ref="M30:Y30" si="97">M6/L6-1</f>
         <v>0.51351652639206291</v>
       </c>
       <c r="N30" s="6">
-        <f>N6/M6-1</f>
+        <f t="shared" si="97"/>
         <v>0.18795266504627928</v>
       </c>
       <c r="O30" s="6">
-        <f>O6/N6-1</f>
+        <f t="shared" si="97"/>
         <v>9.4757835346634955E-3</v>
       </c>
       <c r="P30" s="6">
-        <f>P6/O6-1</f>
+        <f t="shared" si="97"/>
         <v>0.2802197637588637</v>
       </c>
       <c r="Q30" s="6">
-        <f>Q6/P6-1</f>
+        <f t="shared" si="97"/>
         <v>0.34416527741201164</v>
       </c>
       <c r="R30" s="6">
-        <f>R6/Q6-1</f>
+        <f t="shared" si="97"/>
         <v>0.26067521666406357</v>
       </c>
       <c r="S30" s="6">
-        <f>S6/R6-1</f>
+        <f t="shared" si="97"/>
         <v>0.17760534814513318</v>
       </c>
       <c r="T30" s="6">
-        <f>T6/S6-1</f>
+        <f t="shared" si="97"/>
         <v>0.14982465505052778</v>
       </c>
       <c r="U30" s="6">
-        <f>U6/T6-1</f>
+        <f t="shared" si="97"/>
         <v>0.15996969722156584</v>
       </c>
       <c r="V30" s="6">
-        <f>V6/U6-1</f>
+        <f t="shared" si="97"/>
         <v>0.17123453682624401</v>
       </c>
       <c r="W30" s="6">
-        <f>W6/V6-1</f>
+        <f t="shared" si="97"/>
         <v>0.18358632289262999</v>
       </c>
       <c r="X30" s="6">
-        <f>X6/W6-1</f>
+        <f t="shared" si="97"/>
         <v>0.19694041952800556</v>
       </c>
       <c r="Y30" s="6">
-        <f>Y6/X6-1</f>
+        <f t="shared" si="97"/>
         <v>0.21115701973870404</v>
       </c>
     </row>
@@ -3770,31 +3770,31 @@
         <v>98</v>
       </c>
       <c r="D31" s="15">
-        <f>D6/C6-1</f>
+        <f t="shared" ref="D31:J31" si="98">D6/C6-1</f>
         <v>-1</v>
       </c>
       <c r="E31" s="15" t="e">
-        <f>E6/D6-1</f>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="15" t="e">
-        <f>F6/E6-1</f>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="15">
-        <f>G6/F6-1</f>
+        <f t="shared" si="98"/>
         <v>-2.3386200626325904E-2</v>
       </c>
       <c r="H31" s="15">
-        <f>H6/G6-1</f>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="I31" s="15" t="e">
-        <f>I6/H6-1</f>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="15" t="e">
-        <f>J6/I6-1</f>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="15"/>
@@ -3816,71 +3816,71 @@
         <v>99</v>
       </c>
       <c r="G33" s="5">
-        <f>G3/C3-1</f>
+        <f t="shared" ref="G33:J35" si="99">G3/C3-1</f>
         <v>-0.19628265623201746</v>
       </c>
       <c r="H33" s="5" t="e">
-        <f>H3/D3-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="5" t="e">
-        <f>I3/E3-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="5">
-        <f>J3/F3-1</f>
+        <f t="shared" si="99"/>
         <v>-1</v>
       </c>
       <c r="M33" s="5">
-        <f>M3/L3-1</f>
+        <f t="shared" ref="M33:Y33" si="100">M3/L3-1</f>
         <v>0.51299966124661256</v>
       </c>
       <c r="N33" s="5">
-        <f>N3/M3-1</f>
+        <f t="shared" si="100"/>
         <v>0.15332624331812705</v>
       </c>
       <c r="O33" s="5">
-        <f>O3/N3-1</f>
+        <f t="shared" si="100"/>
         <v>-6.4900083718560042E-2</v>
       </c>
       <c r="P33" s="5">
-        <f>P3/O3-1</f>
+        <f t="shared" si="100"/>
         <v>0.24875397329185667</v>
       </c>
       <c r="Q33" s="5">
-        <f>Q3/P3-1</f>
+        <f t="shared" si="100"/>
         <v>0.36682416502946968</v>
       </c>
       <c r="R33" s="5">
-        <f>R3/Q3-1</f>
+        <f t="shared" si="100"/>
         <v>0.2583017988007994</v>
       </c>
       <c r="S33" s="5">
-        <f>S3/R3-1</f>
+        <f t="shared" si="100"/>
         <v>0.15172352802166844</v>
       </c>
       <c r="T33" s="5">
-        <f>T3/S3-1</f>
+        <f t="shared" si="100"/>
         <v>0.11247973813282286</v>
       </c>
       <c r="U33" s="5">
-        <f>U3/T3-1</f>
+        <f t="shared" si="100"/>
         <v>0.1206477509876529</v>
       </c>
       <c r="V33" s="5">
-        <f>V3/U3-1</f>
+        <f t="shared" si="100"/>
         <v>0.13085419169179002</v>
       </c>
       <c r="W33" s="5">
-        <f>W3/V3-1</f>
+        <f t="shared" si="100"/>
         <v>0.14341227834381609</v>
       </c>
       <c r="X33" s="5">
-        <f>X3/W3-1</f>
+        <f t="shared" si="100"/>
         <v>0.15856785252078143</v>
       </c>
       <c r="Y33" s="5">
-        <f>Y3/X3-1</f>
+        <f t="shared" si="100"/>
         <v>0.17643203542787278</v>
       </c>
     </row>
@@ -3889,71 +3889,71 @@
         <v>100</v>
       </c>
       <c r="G34" s="5">
-        <f>G4/C4-1</f>
+        <f t="shared" si="99"/>
         <v>0.66972477064220182</v>
       </c>
       <c r="H34" s="5" t="e">
-        <f>H4/D4-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="5" t="e">
-        <f>I4/E4-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="5" t="e">
-        <f>J4/F4-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="5">
-        <f>M4/L4-1</f>
+        <f t="shared" ref="M34:Y34" si="101">M4/L4-1</f>
         <v>0.40157762638938688</v>
       </c>
       <c r="N34" s="5">
-        <f>N4/M4-1</f>
+        <f t="shared" si="101"/>
         <v>0.54387311332821686</v>
       </c>
       <c r="O34" s="5">
-        <f>O4/N4-1</f>
+        <f t="shared" si="101"/>
         <v>0.67125103562551791</v>
       </c>
       <c r="P34" s="5">
-        <f>P4/O4-1</f>
+        <f t="shared" si="101"/>
         <v>0.5</v>
       </c>
       <c r="Q34" s="5">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="R34" s="5">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="S34" s="5">
-        <f>S4/R4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="T34" s="5">
-        <f>T4/S4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="U34" s="5">
-        <f>U4/T4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="V34" s="5">
-        <f>V4/U4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="W34" s="5">
-        <f>W4/V4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24000000000000021</v>
       </c>
       <c r="X34" s="5">
-        <f>X4/W4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="Y34" s="5">
-        <f>Y4/X4-1</f>
+        <f t="shared" si="101"/>
         <v>0.24</v>
       </c>
       <c r="AC34" s="5"/>
@@ -3963,71 +3963,71 @@
         <v>101</v>
       </c>
       <c r="G35" s="5">
-        <f>G5/C5-1</f>
+        <f t="shared" si="99"/>
         <v>0.15297202797202791</v>
       </c>
       <c r="H35" s="5" t="e">
-        <f>H5/D5-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="5" t="e">
-        <f>I5/E5-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="5" t="e">
-        <f>J5/F5-1</f>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="5">
-        <f>M5/L5-1</f>
+        <f t="shared" ref="M35:Y35" si="102">M5/L5-1</f>
         <v>0.60205155181483438</v>
       </c>
       <c r="N35" s="5">
-        <f>N5/M5-1</f>
+        <f t="shared" si="102"/>
         <v>0.36578558528977179</v>
       </c>
       <c r="O35" s="5">
-        <f>O5/N5-1</f>
+        <f t="shared" si="102"/>
         <v>0.26625796369755972</v>
       </c>
       <c r="P35" s="5">
-        <f>P5/O5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Q35" s="5">
-        <f>Q5/P5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R35" s="5">
-        <f>R5/Q5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="S35" s="5">
-        <f>S5/R5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="T35" s="5">
-        <f>T5/S5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="U35" s="5">
-        <f>U5/T5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="V35" s="5">
-        <f>V5/U5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="W35" s="5">
-        <f>W5/V5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="X35" s="5">
-        <f>X5/W5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Y35" s="5">
-        <f>Y5/X5-1</f>
+        <f t="shared" si="102"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AC35" s="5"/>
@@ -4059,627 +4059,627 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="1">
-        <f>P19*0.73</f>
+        <f t="shared" ref="P37:Y37" si="103">P19*0.73</f>
         <v>10818.539404953301</v>
       </c>
       <c r="Q37" s="1">
-        <f>Q19*0.73</f>
+        <f t="shared" si="103"/>
         <v>16588.739552554136</v>
       </c>
       <c r="R37" s="1">
-        <f>R19*0.73</f>
+        <f t="shared" si="103"/>
         <v>23723.857631308823</v>
       </c>
       <c r="S37" s="1">
-        <f>S19*0.73</f>
+        <f t="shared" si="103"/>
         <v>31368.218250993061</v>
       </c>
       <c r="T37" s="1">
-        <f>T19*0.73</f>
+        <f t="shared" si="103"/>
         <v>40074.410619167182</v>
       </c>
       <c r="U37" s="1">
-        <f>U19*0.73</f>
+        <f t="shared" si="103"/>
         <v>51252.456221427106</v>
       </c>
       <c r="V37" s="1">
-        <f>V19*0.73</f>
+        <f t="shared" si="103"/>
         <v>59915.804685025294</v>
       </c>
       <c r="W37" s="1">
-        <f>W19*0.73</f>
+        <f t="shared" si="103"/>
         <v>70644.617394149478</v>
       </c>
       <c r="X37" s="1">
-        <f>X19*0.73</f>
+        <f t="shared" si="103"/>
         <v>84136.262212945629</v>
       </c>
       <c r="Y37" s="1">
-        <f>Y19*0.73</f>
+        <f t="shared" si="103"/>
         <v>101369.33901100892</v>
       </c>
       <c r="Z37" s="1">
-        <f>Y37*(1+$AB$124)</f>
+        <f t="shared" ref="Z37:BE37" si="104">Y37*(1+$AB$124)</f>
         <v>102383.03240111901</v>
       </c>
       <c r="AA37" s="1">
-        <f>Z37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>103406.8627251302</v>
       </c>
       <c r="AB37" s="1">
-        <f>AA37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>104440.93135238149</v>
       </c>
       <c r="AC37" s="1">
-        <f>AB37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>105485.34066590531</v>
       </c>
       <c r="AD37" s="1">
-        <f>AC37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>106540.19407256437</v>
       </c>
       <c r="AE37" s="1">
-        <f>AD37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>107605.59601329001</v>
       </c>
       <c r="AF37" s="1">
-        <f>AE37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>108681.65197342291</v>
       </c>
       <c r="AG37" s="1">
-        <f>AF37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>109768.46849315714</v>
       </c>
       <c r="AH37" s="1">
-        <f>AG37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>110866.15317808872</v>
       </c>
       <c r="AI37" s="1">
-        <f>AH37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>111974.81470986961</v>
       </c>
       <c r="AJ37" s="1">
-        <f>AI37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>113094.5628569683</v>
       </c>
       <c r="AK37" s="1">
-        <f>AJ37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>114225.50848553798</v>
       </c>
       <c r="AL37" s="1">
-        <f>AK37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>115367.76357039336</v>
       </c>
       <c r="AM37" s="1">
-        <f>AL37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>116521.4412060973</v>
       </c>
       <c r="AN37" s="1">
-        <f>AM37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>117686.65561815827</v>
       </c>
       <c r="AO37" s="1">
-        <f>AN37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>118863.52217433986</v>
       </c>
       <c r="AP37" s="1">
-        <f>AO37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>120052.15739608326</v>
       </c>
       <c r="AQ37" s="1">
-        <f>AP37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>121252.6789700441</v>
       </c>
       <c r="AR37" s="1">
-        <f>AQ37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>122465.20575974454</v>
       </c>
       <c r="AS37" s="1">
-        <f>AR37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>123689.85781734198</v>
       </c>
       <c r="AT37" s="1">
-        <f>AS37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>124926.7563955154</v>
       </c>
       <c r="AU37" s="1">
-        <f>AT37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>126176.02395947056</v>
       </c>
       <c r="AV37" s="1">
-        <f>AU37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>127437.78419906527</v>
       </c>
       <c r="AW37" s="1">
-        <f>AV37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>128712.16204105593</v>
       </c>
       <c r="AX37" s="1">
-        <f>AW37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>129999.28366146648</v>
       </c>
       <c r="AY37" s="1">
-        <f>AX37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>131299.27649808116</v>
       </c>
       <c r="AZ37" s="1">
-        <f>AY37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>132612.26926306199</v>
       </c>
       <c r="BA37" s="1">
-        <f>AZ37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>133938.39195569261</v>
       </c>
       <c r="BB37" s="1">
-        <f>BA37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>135277.77587524953</v>
       </c>
       <c r="BC37" s="1">
-        <f>BB37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>136630.55363400202</v>
       </c>
       <c r="BD37" s="1">
-        <f>BC37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>137996.85917034204</v>
       </c>
       <c r="BE37" s="1">
-        <f>BD37*(1+$AB$124)</f>
+        <f t="shared" si="104"/>
         <v>139376.82776204546</v>
       </c>
       <c r="BF37" s="1">
-        <f>BE37*(1+$AB$124)</f>
+        <f t="shared" ref="BF37:CK37" si="105">BE37*(1+$AB$124)</f>
         <v>140770.59603966592</v>
       </c>
       <c r="BG37" s="1">
-        <f>BF37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>142178.30200006257</v>
       </c>
       <c r="BH37" s="1">
-        <f>BG37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>143600.08502006318</v>
       </c>
       <c r="BI37" s="1">
-        <f>BH37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>145036.08587026381</v>
       </c>
       <c r="BJ37" s="1">
-        <f>BI37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>146486.44672896646</v>
       </c>
       <c r="BK37" s="1">
-        <f>BJ37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>147951.31119625614</v>
       </c>
       <c r="BL37" s="1">
-        <f>BK37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>149430.8243082187</v>
       </c>
       <c r="BM37" s="1">
-        <f>BL37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>150925.13255130089</v>
       </c>
       <c r="BN37" s="1">
-        <f>BM37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>152434.3838768139</v>
       </c>
       <c r="BO37" s="1">
-        <f>BN37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>153958.72771558203</v>
       </c>
       <c r="BP37" s="1">
-        <f>BO37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>155498.31499273787</v>
       </c>
       <c r="BQ37" s="1">
-        <f>BP37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>157053.29814266524</v>
       </c>
       <c r="BR37" s="1">
-        <f>BQ37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>158623.8311240919</v>
       </c>
       <c r="BS37" s="1">
-        <f>BR37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>160210.06943533281</v>
       </c>
       <c r="BT37" s="1">
-        <f>BS37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>161812.17012968616</v>
       </c>
       <c r="BU37" s="1">
-        <f>BT37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>163430.29183098301</v>
       </c>
       <c r="BV37" s="1">
-        <f>BU37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>165064.59474929285</v>
       </c>
       <c r="BW37" s="1">
-        <f>BV37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>166715.2406967858</v>
       </c>
       <c r="BX37" s="1">
-        <f>BW37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>168382.39310375365</v>
       </c>
       <c r="BY37" s="1">
-        <f>BX37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>170066.21703479119</v>
       </c>
       <c r="BZ37" s="1">
-        <f>BY37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>171766.87920513909</v>
       </c>
       <c r="CA37" s="1">
-        <f>BZ37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>173484.54799719047</v>
       </c>
       <c r="CB37" s="1">
-        <f>CA37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>175219.39347716238</v>
       </c>
       <c r="CC37" s="1">
-        <f>CB37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>176971.58741193402</v>
       </c>
       <c r="CD37" s="1">
-        <f>CC37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>178741.30328605336</v>
       </c>
       <c r="CE37" s="1">
-        <f>CD37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>180528.71631891388</v>
       </c>
       <c r="CF37" s="1">
-        <f>CE37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>182334.00348210303</v>
       </c>
       <c r="CG37" s="1">
-        <f>CF37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>184157.34351692407</v>
       </c>
       <c r="CH37" s="1">
-        <f>CG37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>185998.91695209331</v>
       </c>
       <c r="CI37" s="1">
-        <f>CH37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>187858.90612161424</v>
       </c>
       <c r="CJ37" s="1">
-        <f>CI37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>189737.49518283037</v>
       </c>
       <c r="CK37" s="1">
-        <f>CJ37*(1+$AB$124)</f>
+        <f t="shared" si="105"/>
         <v>191634.87013465867</v>
       </c>
       <c r="CL37" s="1">
-        <f>CK37*(1+$AB$124)</f>
+        <f t="shared" ref="CL37:DQ37" si="106">CK37*(1+$AB$124)</f>
         <v>193551.21883600525</v>
       </c>
       <c r="CM37" s="1">
-        <f>CL37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>195486.73102436532</v>
       </c>
       <c r="CN37" s="1">
-        <f>CM37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>197441.59833460898</v>
       </c>
       <c r="CO37" s="1">
-        <f>CN37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>199416.01431795507</v>
       </c>
       <c r="CP37" s="1">
-        <f>CO37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>201410.17446113462</v>
       </c>
       <c r="CQ37" s="1">
-        <f>CP37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>203424.27620574596</v>
       </c>
       <c r="CR37" s="1">
-        <f>CQ37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>205458.51896780342</v>
       </c>
       <c r="CS37" s="1">
-        <f>CR37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>207513.10415748146</v>
       </c>
       <c r="CT37" s="1">
-        <f>CS37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>209588.23519905627</v>
       </c>
       <c r="CU37" s="1">
-        <f>CT37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>211684.11755104683</v>
       </c>
       <c r="CV37" s="1">
-        <f>CU37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>213800.95872655729</v>
       </c>
       <c r="CW37" s="1">
-        <f>CV37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>215938.96831382287</v>
       </c>
       <c r="CX37" s="1">
-        <f>CW37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>218098.3579969611</v>
       </c>
       <c r="CY37" s="1">
-        <f>CX37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>220279.34157693072</v>
       </c>
       <c r="CZ37" s="1">
-        <f>CY37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>222482.13499270004</v>
       </c>
       <c r="DA37" s="1">
-        <f>CZ37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>224706.95634262703</v>
       </c>
       <c r="DB37" s="1">
-        <f>DA37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>226954.02590605331</v>
       </c>
       <c r="DC37" s="1">
-        <f>DB37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>229223.56616511385</v>
       </c>
       <c r="DD37" s="1">
-        <f>DC37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>231515.801826765</v>
       </c>
       <c r="DE37" s="1">
-        <f>DD37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>233830.95984503266</v>
       </c>
       <c r="DF37" s="1">
-        <f>DE37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>236169.26944348298</v>
       </c>
       <c r="DG37" s="1">
-        <f>DF37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>238530.96213791781</v>
       </c>
       <c r="DH37" s="1">
-        <f>DG37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>240916.271759297</v>
       </c>
       <c r="DI37" s="1">
-        <f>DH37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>243325.43447688996</v>
       </c>
       <c r="DJ37" s="1">
-        <f>DI37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>245758.68882165887</v>
       </c>
       <c r="DK37" s="1">
-        <f>DJ37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>248216.27570987545</v>
       </c>
       <c r="DL37" s="1">
-        <f>DK37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>250698.43846697421</v>
       </c>
       <c r="DM37" s="1">
-        <f>DL37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>253205.42285164396</v>
       </c>
       <c r="DN37" s="1">
-        <f>DM37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>255737.4770801604</v>
       </c>
       <c r="DO37" s="1">
-        <f>DN37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>258294.851850962</v>
       </c>
       <c r="DP37" s="1">
-        <f>DO37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>260877.80036947163</v>
       </c>
       <c r="DQ37" s="1">
-        <f>DP37*(1+$AB$124)</f>
+        <f t="shared" si="106"/>
         <v>263486.57837316633</v>
       </c>
       <c r="DR37" s="1">
-        <f>DQ37*(1+$AB$124)</f>
+        <f t="shared" ref="DR37:EW37" si="107">DQ37*(1+$AB$124)</f>
         <v>266121.44415689801</v>
       </c>
       <c r="DS37" s="1">
-        <f>DR37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>268782.65859846701</v>
       </c>
       <c r="DT37" s="1">
-        <f>DS37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>271470.48518445168</v>
       </c>
       <c r="DU37" s="1">
-        <f>DT37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>274185.1900362962</v>
       </c>
       <c r="DV37" s="1">
-        <f>DU37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>276927.0419366592</v>
       </c>
       <c r="DW37" s="1">
-        <f>DV37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>279696.3123560258</v>
       </c>
       <c r="DX37" s="1">
-        <f>DW37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>282493.27547958604</v>
       </c>
       <c r="DY37" s="1">
-        <f>DX37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>285318.20823438192</v>
       </c>
       <c r="DZ37" s="1">
-        <f>DY37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>288171.39031672577</v>
       </c>
       <c r="EA37" s="1">
-        <f>DZ37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>291053.10421989305</v>
       </c>
       <c r="EB37" s="1">
-        <f>EA37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>293963.63526209199</v>
       </c>
       <c r="EC37" s="1">
-        <f>EB37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>296903.2716147129</v>
       </c>
       <c r="ED37" s="1">
-        <f>EC37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>299872.30433086003</v>
       </c>
       <c r="EE37" s="1">
-        <f>ED37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>302871.02737416863</v>
       </c>
       <c r="EF37" s="1">
-        <f>EE37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>305899.73764791031</v>
       </c>
       <c r="EG37" s="1">
-        <f>EF37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>308958.7350243894</v>
       </c>
       <c r="EH37" s="1">
-        <f>EG37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>312048.32237463328</v>
       </c>
       <c r="EI37" s="1">
-        <f>EH37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>315168.80559837964</v>
       </c>
       <c r="EJ37" s="1">
-        <f>EI37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>318320.49365436344</v>
       </c>
       <c r="EK37" s="1">
-        <f>EJ37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>321503.69859090709</v>
       </c>
       <c r="EL37" s="1">
-        <f>EK37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>324718.73557681619</v>
       </c>
       <c r="EM37" s="1">
-        <f>EL37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>327965.92293258436</v>
       </c>
       <c r="EN37" s="1">
-        <f>EM37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>331245.58216191019</v>
       </c>
       <c r="EO37" s="1">
-        <f>EN37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>334558.03798352927</v>
       </c>
       <c r="EP37" s="1">
-        <f>EO37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>337903.61836336454</v>
       </c>
       <c r="EQ37" s="1">
-        <f>EP37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>341282.65454699821</v>
       </c>
       <c r="ER37" s="1">
-        <f>EQ37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>344695.4810924682</v>
       </c>
       <c r="ES37" s="1">
-        <f>ER37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>348142.43590339291</v>
       </c>
       <c r="ET37" s="1">
-        <f>ES37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>351623.86026242684</v>
       </c>
       <c r="EU37" s="1">
-        <f>ET37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>355140.09886505111</v>
       </c>
       <c r="EV37" s="1">
-        <f>EU37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>358691.49985370162</v>
       </c>
       <c r="EW37" s="1">
-        <f>EV37*(1+$AB$124)</f>
+        <f t="shared" si="107"/>
         <v>362278.41485223867</v>
       </c>
       <c r="EX37" s="1">
-        <f>EW37*(1+$AB$124)</f>
+        <f t="shared" ref="EX37:FO37" si="108">EW37*(1+$AB$124)</f>
         <v>365901.19900076103</v>
       </c>
       <c r="EY37" s="1">
-        <f>EX37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>369560.21099076862</v>
       </c>
       <c r="EZ37" s="1">
-        <f>EY37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>373255.81310067629</v>
       </c>
       <c r="FA37" s="1">
-        <f>EZ37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>376988.37123168306</v>
       </c>
       <c r="FB37" s="1">
-        <f>FA37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>380758.25494399987</v>
       </c>
       <c r="FC37" s="1">
-        <f>FB37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>384565.83749343985</v>
       </c>
       <c r="FD37" s="1">
-        <f>FC37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>388411.49586837424</v>
       </c>
       <c r="FE37" s="1">
-        <f>FD37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>392295.61082705797</v>
       </c>
       <c r="FF37" s="1">
-        <f>FE37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>396218.56693532853</v>
       </c>
       <c r="FG37" s="1">
-        <f>FF37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>400180.75260468182</v>
       </c>
       <c r="FH37" s="1">
-        <f>FG37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>404182.56013072864</v>
       </c>
       <c r="FI37" s="1">
-        <f>FH37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>408224.38573203591</v>
       </c>
       <c r="FJ37" s="1">
-        <f>FI37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>412306.62958935625</v>
       </c>
       <c r="FK37" s="1">
-        <f>FJ37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>416429.69588524982</v>
       </c>
       <c r="FL37" s="1">
-        <f>FK37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>420593.99284410232</v>
       </c>
       <c r="FM37" s="1">
-        <f>FL37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>424799.93277254334</v>
       </c>
       <c r="FN37" s="1">
-        <f>FM37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>429047.93210026878</v>
       </c>
       <c r="FO37" s="1">
-        <f>FN37*(1+$AB$124)</f>
+        <f t="shared" si="108"/>
         <v>433338.41142127145</v>
       </c>
     </row>
@@ -4770,19 +4770,19 @@
         <v>3473510.040000001</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ref="V41:Y41" si="89">U41*1.05</f>
+        <f t="shared" ref="V41:Y41" si="109">U41*1.05</f>
         <v>3647185.5420000013</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="109"/>
         <v>3829544.8191000014</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="109"/>
         <v>4021022.0600550016</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="109"/>
         <v>4222073.163057752</v>
       </c>
     </row>
@@ -4814,19 +4814,19 @@
         <v>241576.50000000012</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ref="V42:Y42" si="90">U42*1.1</f>
+        <f t="shared" ref="V42:Y42" si="110">U42*1.1</f>
         <v>265734.15000000014</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="110"/>
         <v>292307.56500000018</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="110"/>
         <v>321538.32150000019</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="110"/>
         <v>353692.15365000023</v>
       </c>
     </row>
@@ -4854,27 +4854,27 @@
         <v>280000</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" ref="T43:Y43" si="91">S43*1.4</f>
+        <f t="shared" ref="T43:Y43" si="111">S43*1.4</f>
         <v>392000</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>548800</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>768320</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>1075648</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>1505907.2</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>2108270.0799999996</v>
       </c>
     </row>
@@ -4890,31 +4890,31 @@
         <v>55000.000000000007</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ref="S44:U44" si="92">R44*1.1</f>
+        <f t="shared" ref="S44:U44" si="112">R44*1.1</f>
         <v>60500.000000000015</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="112"/>
         <v>66550.000000000015</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="112"/>
         <v>73205.000000000029</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" ref="V44" si="93">U44*1.1</f>
+        <f t="shared" ref="V44" si="113">U44*1.1</f>
         <v>80525.500000000044</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" ref="W44" si="94">V44*1.1</f>
+        <f t="shared" ref="W44" si="114">V44*1.1</f>
         <v>88578.050000000061</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" ref="X44" si="95">W44*1.1</f>
+        <f t="shared" ref="X44" si="115">W44*1.1</f>
         <v>97435.855000000069</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" ref="Y44" si="96">X44*1.1</f>
+        <f t="shared" ref="Y44" si="116">X44*1.1</f>
         <v>107179.44050000008</v>
       </c>
     </row>
@@ -4930,59 +4930,59 @@
         <v>459000</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" ref="L45:U45" si="97">SUM(L41:L44)</f>
+        <f t="shared" ref="L45:U45" si="117">SUM(L41:L44)</f>
         <v>906032</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>1298434</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>1775159</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>1679338</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>2036000</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>2701800</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>3300660</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>3690726.0000000005</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>3986269.8000000007</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>4337091.540000001</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" ref="V45:Y45" si="98">SUM(V41:V44)</f>
+        <f t="shared" ref="V45:Y45" si="118">SUM(V41:V44)</f>
         <v>4761765.1920000017</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>5286078.4341000011</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>5945903.4365550028</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>6791214.8372077532</v>
       </c>
     </row>
@@ -4999,35 +4999,35 @@
         <v>47279.055199132039</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" ref="R46:U46" si="99">Q46*1.01</f>
+        <f t="shared" ref="R46:U46" si="119">Q46*1.01</f>
         <v>47751.845751123357</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>48229.364208634594</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>48711.657850720941</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>49198.77442922815</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" ref="V46:V49" si="100">U46*1.01</f>
+        <f t="shared" ref="V46:V49" si="120">U46*1.01</f>
         <v>49690.76217352043</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" ref="W46:W49" si="101">V46*1.01</f>
+        <f t="shared" ref="W46:W49" si="121">V46*1.01</f>
         <v>50187.669795255635</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" ref="X46:X49" si="102">W46*1.01</f>
+        <f t="shared" ref="X46:X49" si="122">W46*1.01</f>
         <v>50689.546493208189</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" ref="Y46:Y49" si="103">X46*1.01</f>
+        <f t="shared" ref="Y46:Y49" si="123">X46*1.01</f>
         <v>51196.441958140269</v>
       </c>
       <c r="AA46" s="1" t="s">
@@ -5049,35 +5049,35 @@
         <v>65650</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:U47" si="104">Q47*1.01</f>
+        <f t="shared" ref="R47:U47" si="124">Q47*1.01</f>
         <v>66306.5</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>66969.565000000002</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>67639.260649999997</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>68315.653256499994</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>68998.809789064995</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>69688.797886955639</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>70385.685865825202</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>71089.542724483457</v>
       </c>
       <c r="AA47" s="1" t="s">
@@ -5099,35 +5099,35 @@
         <v>30300</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ref="R48:U48" si="105">Q48*1.01</f>
+        <f t="shared" ref="R48:U48" si="125">Q48*1.01</f>
         <v>30603</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>30909.03</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>31218.120299999999</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>31530.301502999999</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>31845.604518029999</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>32164.0605632103</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>32485.701168842403</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>32810.558180530825</v>
       </c>
       <c r="AA48" s="3" t="s">
@@ -5150,35 +5150,35 @@
         <v>166650</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49:U49" si="106">Q49*1.01</f>
+        <f t="shared" ref="R49:U49" si="126">Q49*1.01</f>
         <v>168316.5</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>169999.66500000001</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>171699.66165000002</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>173416.65826650002</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="120"/>
         <v>175150.82484916502</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="121"/>
         <v>176902.33309765666</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="122"/>
         <v>178671.35642863324</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>180458.06999291957</v>
       </c>
     </row>
@@ -5191,43 +5191,43 @@
         <v>43132.897603485842</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" ref="P50:U50" si="107">P44+P42+P41</f>
+        <f t="shared" ref="P50:U50" si="127">P44+P42+P41</f>
         <v>1986000</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>2601800</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>3100660</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>3410726.0000000005</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>3594269.8000000007</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>3788291.540000001</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" ref="V50:Y50" si="108">V44+V42+V41</f>
+        <f t="shared" ref="V50:Y50" si="128">V44+V42+V41</f>
         <v>3993445.1920000017</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>4210430.4341000021</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>4439996.2365550017</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>4682944.7572077522</v>
       </c>
     </row>
@@ -5256,39 +5256,39 @@
         <v>47269.876582319936</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" ref="Q51:U51" si="109">P51*1.03</f>
+        <f t="shared" ref="Q51:U51" si="129">P51*1.03</f>
         <v>48687.972879789537</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>50148.612066183225</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>51653.070428168721</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>53202.662541013786</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>54798.742417244204</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" ref="V51" si="110">U51*1.03</f>
+        <f t="shared" ref="V51" si="130">U51*1.03</f>
         <v>56442.704689761529</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" ref="W51" si="111">V51*1.03</f>
+        <f t="shared" ref="W51" si="131">V51*1.03</f>
         <v>58135.985830454374</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" ref="X51" si="112">W51*1.03</f>
+        <f t="shared" ref="X51" si="132">W51*1.03</f>
         <v>59880.065405368005</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" ref="Y51" si="113">X51*1.03</f>
+        <f t="shared" ref="Y51" si="133">X51*1.03</f>
         <v>61676.467367529047</v>
       </c>
     </row>
@@ -5297,43 +5297,43 @@
         <v>12</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" ref="P53:U53" si="114">P41*(P46/1000000)</f>
+        <f t="shared" ref="P53:U53" si="134">P41*(P46/1000000)</f>
         <v>85944.896381788538</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>112845.64894928834</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>136768.92652653749</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>151950.27737098315</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>161143.26915192767</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>170892.43693561928</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ref="V53:Y53" si="115">V41*(V46/1000000)</f>
+        <f t="shared" ref="V53:Y53" si="135">V41*(V46/1000000)</f>
         <v>181231.42937022427</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>192195.93084712286</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>203823.78466337378</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>216155.12363550789</v>
       </c>
     </row>
@@ -5342,43 +5342,43 @@
         <v>45</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" ref="P54:U54" si="116">P42*(P47/1000000)</f>
+        <f t="shared" ref="P54:U54" si="136">P42*(P47/1000000)</f>
         <v>9750</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>10832.25</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>12034.629750000002</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>13370.473652250006</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>14854.596227649754</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>16503.456408918879</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" ref="V54:Y54" si="117">V42*(V47/1000000)</f>
+        <f t="shared" ref="V54:Y54" si="137">V42*(V47/1000000)</f>
         <v>18335.340070308877</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>20370.562818113161</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>22631.695290923726</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>25143.813468216256</v>
       </c>
     </row>
@@ -5387,539 +5387,539 @@
         <v>46</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" ref="P55:U55" si="118">P43*(P48/1000000)</f>
+        <f t="shared" ref="P55:U55" si="138">P43*(P48/1000000)</f>
         <v>1500</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>3030</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>6120.6</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>8654.5284000000011</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>12237.5031576</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>17303.8294648464</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" ref="V55:Y55" si="119">V43*(V48/1000000)</f>
+        <f t="shared" ref="V55:Y55" si="139">V43*(V48/1000000)</f>
         <v>24467.614863292809</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>34597.20741669603</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>48920.45128720819</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>69173.518120112363</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" ref="Z55:BE55" si="120">Y55*(1+$AB$46)</f>
+        <f t="shared" ref="Z55:BE55" si="140">Y55*(1+$AB$46)</f>
         <v>69865.253301313482</v>
       </c>
       <c r="AA55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>70563.905834326622</v>
       </c>
       <c r="AB55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>71269.544892669888</v>
       </c>
       <c r="AC55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>71982.240341596582</v>
       </c>
       <c r="AD55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>72702.062745012547</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>73429.083372462672</v>
       </c>
       <c r="AF55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>74163.374206187305</v>
       </c>
       <c r="AG55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>74905.007948249186</v>
       </c>
       <c r="AH55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>75654.058027731677</v>
       </c>
       <c r="AI55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>76410.598608008993</v>
       </c>
       <c r="AJ55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>77174.704594089082</v>
       </c>
       <c r="AK55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>77946.451640029976</v>
       </c>
       <c r="AL55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>78725.916156430278</v>
       </c>
       <c r="AM55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>79513.175317994581</v>
       </c>
       <c r="AN55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>80308.307071174524</v>
       </c>
       <c r="AO55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>81111.390141886266</v>
       </c>
       <c r="AP55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>81922.504043305133</v>
       </c>
       <c r="AQ55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>82741.729083738188</v>
       </c>
       <c r="AR55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>83569.146374575575</v>
       </c>
       <c r="AS55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>84404.837838321328</v>
       </c>
       <c r="AT55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>85248.886216704544</v>
       </c>
       <c r="AU55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>86101.375078871584</v>
       </c>
       <c r="AV55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>86962.388829660296</v>
       </c>
       <c r="AW55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>87832.012717956895</v>
       </c>
       <c r="AX55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>88710.332845136465</v>
       </c>
       <c r="AY55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>89597.436173587834</v>
       </c>
       <c r="AZ55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>90493.41053532371</v>
       </c>
       <c r="BA55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>91398.344640676951</v>
       </c>
       <c r="BB55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>92312.328087083719</v>
       </c>
       <c r="BC55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>93235.451367954563</v>
       </c>
       <c r="BD55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>94167.805881634107</v>
       </c>
       <c r="BE55" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>95109.483940450446</v>
       </c>
       <c r="BF55" s="1">
-        <f t="shared" ref="BF55:CK55" si="121">BE55*(1+$AB$46)</f>
+        <f t="shared" ref="BF55:CK55" si="141">BE55*(1+$AB$46)</f>
         <v>96060.578779854957</v>
       </c>
       <c r="BG55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>97021.184567653501</v>
       </c>
       <c r="BH55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>97991.396413330032</v>
       </c>
       <c r="BI55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>98971.310377463335</v>
       </c>
       <c r="BJ55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>99961.023481237964</v>
       </c>
       <c r="BK55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>100960.63371605035</v>
       </c>
       <c r="BL55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>101970.24005321084</v>
       </c>
       <c r="BM55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>102989.94245374296</v>
       </c>
       <c r="BN55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>104019.84187828039</v>
       </c>
       <c r="BO55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>105060.0402970632</v>
       </c>
       <c r="BP55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>106110.64070003384</v>
       </c>
       <c r="BQ55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>107171.74710703417</v>
       </c>
       <c r="BR55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>108243.46457810451</v>
       </c>
       <c r="BS55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>109325.89922388556</v>
       </c>
       <c r="BT55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>110419.15821612442</v>
       </c>
       <c r="BU55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>111523.34979828566</v>
       </c>
       <c r="BV55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>112638.58329626852</v>
       </c>
       <c r="BW55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>113764.96912923121</v>
       </c>
       <c r="BX55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>114902.61882052352</v>
       </c>
       <c r="BY55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>116051.64500872875</v>
       </c>
       <c r="BZ55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>117212.16145881604</v>
       </c>
       <c r="CA55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>118384.28307340421</v>
       </c>
       <c r="CB55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>119568.12590413824</v>
       </c>
       <c r="CC55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>120763.80716317963</v>
       </c>
       <c r="CD55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>121971.44523481143</v>
       </c>
       <c r="CE55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>123191.15968715954</v>
       </c>
       <c r="CF55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>124423.07128403113</v>
       </c>
       <c r="CG55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>125667.30199687145</v>
       </c>
       <c r="CH55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>126923.97501684017</v>
       </c>
       <c r="CI55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>128193.21476700857</v>
       </c>
       <c r="CJ55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>129475.14691467865</v>
       </c>
       <c r="CK55" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>130769.89838382544</v>
       </c>
       <c r="CL55" s="1">
-        <f t="shared" ref="CL55:DQ55" si="122">CK55*(1+$AB$46)</f>
+        <f t="shared" ref="CL55:DQ55" si="142">CK55*(1+$AB$46)</f>
         <v>132077.59736766369</v>
       </c>
       <c r="CM55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>133398.37334134034</v>
       </c>
       <c r="CN55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>134732.35707475373</v>
       </c>
       <c r="CO55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>136079.68064550127</v>
       </c>
       <c r="CP55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>137440.47745195628</v>
       </c>
       <c r="CQ55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>138814.88222647583</v>
       </c>
       <c r="CR55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>140203.03104874058</v>
       </c>
       <c r="CS55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>141605.06135922798</v>
       </c>
       <c r="CT55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>143021.11197282028</v>
       </c>
       <c r="CU55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>144451.32309254847</v>
       </c>
       <c r="CV55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>145895.83632347395</v>
       </c>
       <c r="CW55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>147354.79468670869</v>
       </c>
       <c r="CX55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>148828.34263357578</v>
       </c>
       <c r="CY55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>150316.62605991153</v>
       </c>
       <c r="CZ55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>151819.79232051066</v>
       </c>
       <c r="DA55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>153337.99024371576</v>
       </c>
       <c r="DB55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>154871.37014615291</v>
       </c>
       <c r="DC55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>156420.08384761444</v>
       </c>
       <c r="DD55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>157984.2846860906</v>
       </c>
       <c r="DE55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>159564.1275329515</v>
       </c>
       <c r="DF55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>161159.76880828102</v>
       </c>
       <c r="DG55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>162771.36649636383</v>
       </c>
       <c r="DH55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>164399.08016132747</v>
       </c>
       <c r="DI55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>166043.07096294075</v>
       </c>
       <c r="DJ55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>167703.50167257016</v>
       </c>
       <c r="DK55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>169380.53668929587</v>
       </c>
       <c r="DL55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>171074.34205618882</v>
       </c>
       <c r="DM55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>172785.08547675071</v>
       </c>
       <c r="DN55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>174512.93633151823</v>
       </c>
       <c r="DO55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>176258.06569483341</v>
       </c>
       <c r="DP55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>178020.64635178173</v>
       </c>
       <c r="DQ55" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>179800.85281529956</v>
       </c>
       <c r="DR55" s="1">
-        <f t="shared" ref="DR55:ES55" si="123">DQ55*(1+$AB$46)</f>
+        <f t="shared" ref="DR55:ES55" si="143">DQ55*(1+$AB$46)</f>
         <v>181598.86134345256</v>
       </c>
       <c r="DS55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>183414.84995688708</v>
       </c>
       <c r="DT55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>185248.99845645594</v>
       </c>
       <c r="DU55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>187101.48844102051</v>
       </c>
       <c r="DV55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>188972.50332543071</v>
       </c>
       <c r="DW55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>190862.22835868501</v>
       </c>
       <c r="DX55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>192770.85064227186</v>
       </c>
       <c r="DY55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>194698.55914869459</v>
       </c>
       <c r="DZ55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>196645.54474018153</v>
       </c>
       <c r="EA55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>198612.00018758336</v>
       </c>
       <c r="EB55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>200598.12018945918</v>
       </c>
       <c r="EC55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>202604.10139135376</v>
       </c>
       <c r="ED55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>204630.14240526731</v>
       </c>
       <c r="EE55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>206676.44382931999</v>
       </c>
       <c r="EF55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>208743.2082676132</v>
       </c>
       <c r="EG55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>210830.64035028932</v>
       </c>
       <c r="EH55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>212938.94675379223</v>
       </c>
       <c r="EI55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>215068.33622133016</v>
       </c>
       <c r="EJ55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>217219.01958354347</v>
       </c>
       <c r="EK55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>219391.2097793789</v>
       </c>
       <c r="EL55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>221585.1218771727</v>
       </c>
       <c r="EM55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>223800.97309594444</v>
       </c>
       <c r="EN55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>226038.9828269039</v>
       </c>
       <c r="EO55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>228299.37265517295</v>
       </c>
       <c r="EP55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>230582.36638172469</v>
       </c>
       <c r="EQ55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>232888.19004554194</v>
       </c>
       <c r="ER55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>235217.07194599736</v>
       </c>
       <c r="ES55" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>237569.24266545734</v>
       </c>
     </row>
@@ -5928,43 +5928,43 @@
         <v>47</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" ref="P56:U56" si="124">P44*(P49/1000000)</f>
+        <f t="shared" ref="P56:U56" si="144">P44*(P49/1000000)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>8332.5</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>9257.4075000000012</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>10284.979732500004</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>11426.612482807504</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>12694.96646839914</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" ref="V56:Y56" si="125">V44*(V49/1000000)</f>
+        <f t="shared" ref="V56:Y56" si="145">V44*(V49/1000000)</f>
         <v>14104.107746391446</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>15669.663706240897</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>17408.996377633637</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>19341.394975550975</v>
       </c>
     </row>
@@ -6033,43 +6033,43 @@
         <v>55</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" ref="P60:U60" si="126">(8000*SUM(P41:P44)*P65)/1000000</f>
+        <f t="shared" ref="P60:U60" si="146">(8000*SUM(P41:P44)*P65)/1000000</f>
         <v>3909.12</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>6224.9471999999996</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>9125.6647679999987</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>12244.943093760001</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>15870.5837899776</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>18994.046052630529</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ref="V60:Y60" si="127">(8000*SUM(V41:V44)*V65)/1000000</f>
+        <f t="shared" ref="V60:Y60" si="147">(8000*SUM(V41:V44)*V65)/1000000</f>
         <v>21896.574199606152</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="147"/>
         <v>25522.963478806698</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="147"/>
         <v>30144.261395133766</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="147"/>
         <v>36151.270416528561</v>
       </c>
     </row>
@@ -6082,39 +6082,39 @@
         <v>39.322800000000001</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" ref="Q61:U61" si="128">((99*Q50)/(1000000))*Q66</f>
+        <f t="shared" ref="Q61:U61" si="148">((99*Q50)/(1000000))*Q66</f>
         <v>61.818767999999992</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="148"/>
         <v>88.406017919999996</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="148"/>
         <v>116.69594365440001</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="148"/>
         <v>147.570941574144</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="148"/>
         <v>171.09064112735234</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61:Y61" si="129">((99*V50)/(1000000))*V66</f>
+        <f t="shared" ref="V61:Y61" si="149">((99*V50)/(1000000))*V66</f>
         <v>189.37379701155047</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="149"/>
         <v>209.64666297501881</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="149"/>
         <v>232.13111572405921</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="149"/>
         <v>257.0745536979619</v>
       </c>
     </row>
@@ -6127,39 +6127,39 @@
         <v>3948.4427999999998</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" ref="Q62:T62" si="130">SUM(Q60:Q61)</f>
+        <f t="shared" ref="Q62:T62" si="150">SUM(Q60:Q61)</f>
         <v>6286.7659679999997</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="150"/>
         <v>9214.0707859199993</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="150"/>
         <v>12361.639037414401</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="150"/>
         <v>16018.154731551744</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ref="U62:Y62" si="131">SUM(U60:U61)</f>
+        <f t="shared" ref="U62:Y62" si="151">SUM(U60:U61)</f>
         <v>19165.136693757882</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="151"/>
         <v>22085.947996617702</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="151"/>
         <v>25732.610141781715</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="151"/>
         <v>30376.392510857826</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="151"/>
         <v>36408.344970226521</v>
       </c>
     </row>
@@ -6172,515 +6172,515 @@
         <v>3158.7542400000002</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" ref="Q63:U63" si="132">Q62*Q67</f>
+        <f t="shared" ref="Q63:U63" si="152">Q62*Q67</f>
         <v>5029.4127743999998</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="152"/>
         <v>7371.2566287359996</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="152"/>
         <v>9889.3112299315217</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="152"/>
         <v>12814.523785241396</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="152"/>
         <v>15332.109355006307</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ref="V63:Y63" si="133">V62*V67</f>
+        <f t="shared" ref="V63:Y63" si="153">V62*V67</f>
         <v>17668.758397294161</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="153"/>
         <v>20586.088113425372</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="153"/>
         <v>24301.114008686262</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="153"/>
         <v>29126.675976181217</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" ref="Z63:BE63" si="134">Y63*(1+$AB$68)</f>
+        <f t="shared" ref="Z63:BE63" si="154">Y63*(1+$AB$68)</f>
         <v>29417.94273594303</v>
       </c>
       <c r="AA63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>29712.122163302462</v>
       </c>
       <c r="AB63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>30009.243384935486</v>
       </c>
       <c r="AC63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>30309.335818784843</v>
       </c>
       <c r="AD63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>30612.429176972691</v>
       </c>
       <c r="AE63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>30918.553468742419</v>
       </c>
       <c r="AF63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>31227.739003429844</v>
       </c>
       <c r="AG63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>31540.016393464142</v>
       </c>
       <c r="AH63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>31855.416557398785</v>
       </c>
       <c r="AI63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>32173.970722972772</v>
       </c>
       <c r="AJ63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>32495.7104302025</v>
       </c>
       <c r="AK63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>32820.667534504522</v>
       </c>
       <c r="AL63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>33148.874209849571</v>
       </c>
       <c r="AM63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>33480.362951948067</v>
       </c>
       <c r="AN63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>33815.166581467551</v>
       </c>
       <c r="AO63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>34153.31824728223</v>
       </c>
       <c r="AP63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>34494.85142975505</v>
       </c>
       <c r="AQ63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>34839.799944052604</v>
       </c>
       <c r="AR63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>35188.197943493127</v>
       </c>
       <c r="AS63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>35540.07992292806</v>
       </c>
       <c r="AT63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>35895.480722157343</v>
       </c>
       <c r="AU63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>36254.435529378919</v>
       </c>
       <c r="AV63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>36616.979884672706</v>
       </c>
       <c r="AW63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>36983.149683519434</v>
       </c>
       <c r="AX63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>37352.981180354625</v>
       </c>
       <c r="AY63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>37726.510992158175</v>
       </c>
       <c r="AZ63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>38103.776102079755</v>
       </c>
       <c r="BA63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>38484.813863100549</v>
       </c>
       <c r="BB63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>38869.662001731558</v>
       </c>
       <c r="BC63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>39258.358621748877</v>
       </c>
       <c r="BD63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>39650.942207966364</v>
       </c>
       <c r="BE63" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="154"/>
         <v>40047.451630046031</v>
       </c>
       <c r="BF63" s="1">
-        <f t="shared" ref="BF63:CK63" si="135">BE63*(1+$AB$68)</f>
+        <f t="shared" ref="BF63:CK63" si="155">BE63*(1+$AB$68)</f>
         <v>40447.926146346494</v>
       </c>
       <c r="BG63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>40852.405407809958</v>
       </c>
       <c r="BH63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>41260.929461888059</v>
       </c>
       <c r="BI63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>41673.53875650694</v>
       </c>
       <c r="BJ63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>42090.274144072013</v>
       </c>
       <c r="BK63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>42511.17688551273</v>
       </c>
       <c r="BL63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>42936.288654367861</v>
       </c>
       <c r="BM63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>43365.651540911538</v>
       </c>
       <c r="BN63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>43799.308056320653</v>
       </c>
       <c r="BO63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>44237.301136883863</v>
       </c>
       <c r="BP63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>44679.6741482527</v>
       </c>
       <c r="BQ63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>45126.470889735225</v>
       </c>
       <c r="BR63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>45577.735598632578</v>
       </c>
       <c r="BS63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>46033.512954618905</v>
       </c>
       <c r="BT63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>46493.848084165096</v>
       </c>
       <c r="BU63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>46958.786565006747</v>
       </c>
       <c r="BV63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>47428.374430656811</v>
       </c>
       <c r="BW63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>47902.658174963377</v>
       </c>
       <c r="BX63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>48381.68475671301</v>
       </c>
       <c r="BY63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>48865.501604280144</v>
       </c>
       <c r="BZ63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>49354.156620322945</v>
       </c>
       <c r="CA63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>49847.698186526177</v>
       </c>
       <c r="CB63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>50346.175168391441</v>
       </c>
       <c r="CC63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>50849.636920075354</v>
       </c>
       <c r="CD63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>51358.133289276106</v>
       </c>
       <c r="CE63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>51871.714622168867</v>
       </c>
       <c r="CF63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>52390.431768390554</v>
       </c>
       <c r="CG63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>52914.336086074458</v>
       </c>
       <c r="CH63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>53443.479446935205</v>
       </c>
       <c r="CI63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>53977.914241404556</v>
       </c>
       <c r="CJ63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>54517.693383818601</v>
       </c>
       <c r="CK63" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>55062.870317656787</v>
       </c>
       <c r="CL63" s="1">
-        <f t="shared" ref="CL63:DQ63" si="136">CK63*(1+$AB$68)</f>
+        <f t="shared" ref="CL63:DQ63" si="156">CK63*(1+$AB$68)</f>
         <v>55613.499020833355</v>
       </c>
       <c r="CM63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>56169.634011041686</v>
       </c>
       <c r="CN63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>56731.330351152101</v>
       </c>
       <c r="CO63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>57298.643654663625</v>
       </c>
       <c r="CP63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>57871.63009121026</v>
       </c>
       <c r="CQ63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>58450.346392122359</v>
       </c>
       <c r="CR63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>59034.849856043584</v>
       </c>
       <c r="CS63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>59625.198354604021</v>
       </c>
       <c r="CT63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>60221.450338150062</v>
       </c>
       <c r="CU63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>60823.664841531565</v>
       </c>
       <c r="CV63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>61431.901489946882</v>
       </c>
       <c r="CW63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>62046.220504846351</v>
       </c>
       <c r="CX63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>62666.682709894812</v>
       </c>
       <c r="CY63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>63293.349536993759</v>
       </c>
       <c r="CZ63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>63926.283032363695</v>
       </c>
       <c r="DA63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>64565.54586268733</v>
       </c>
       <c r="DB63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>65211.201321314205</v>
       </c>
       <c r="DC63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>65863.313334527353</v>
       </c>
       <c r="DD63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>66521.946467872622</v>
       </c>
       <c r="DE63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>67187.165932551346</v>
       </c>
       <c r="DF63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>67859.037591876855</v>
       </c>
       <c r="DG63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>68537.627967795619</v>
       </c>
       <c r="DH63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>69223.004247473582</v>
       </c>
       <c r="DI63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>69915.234289948319</v>
       </c>
       <c r="DJ63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>70614.386632847803</v>
       </c>
       <c r="DK63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>71320.530499176282</v>
       </c>
       <c r="DL63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>72033.735804168042</v>
       </c>
       <c r="DM63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>72754.073162209723</v>
       </c>
       <c r="DN63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>73481.613893831818</v>
       </c>
       <c r="DO63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>74216.430032770135</v>
       </c>
       <c r="DP63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>74958.594333097833</v>
       </c>
       <c r="DQ63" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>75708.180276428815</v>
       </c>
       <c r="DR63" s="1">
-        <f t="shared" ref="DR63:EN63" si="137">DQ63*(1+$AB$68)</f>
+        <f t="shared" ref="DR63:EN63" si="157">DQ63*(1+$AB$68)</f>
         <v>76465.262079193097</v>
       </c>
       <c r="DS63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>77229.914699985035</v>
       </c>
       <c r="DT63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>78002.213846984887</v>
       </c>
       <c r="DU63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>78782.235985454739</v>
       </c>
       <c r="DV63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>79570.058345309284</v>
       </c>
       <c r="DW63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>80365.75892876237</v>
       </c>
       <c r="DX63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>81169.416518049999</v>
       </c>
       <c r="DY63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>81981.110683230494</v>
       </c>
       <c r="DZ63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>82800.921790062799</v>
       </c>
       <c r="EA63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>83628.931007963431</v>
       </c>
       <c r="EB63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>84465.220318043066</v>
       </c>
       <c r="EC63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>85309.8725212235</v>
       </c>
       <c r="ED63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>86162.971246435729</v>
       </c>
       <c r="EE63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>87024.60095890009</v>
       </c>
       <c r="EF63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>87894.846968489088</v>
       </c>
       <c r="EG63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>88773.795438173984</v>
       </c>
       <c r="EH63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>89661.533392555721</v>
       </c>
       <c r="EI63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>90558.148726481275</v>
       </c>
       <c r="EJ63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>91463.730213746094</v>
       </c>
       <c r="EK63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>92378.367515883554</v>
       </c>
       <c r="EL63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>93302.151191042387</v>
       </c>
       <c r="EM63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>94235.172702952812</v>
       </c>
       <c r="EN63" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>95177.524429982339</v>
       </c>
     </row>
@@ -6700,11 +6700,11 @@
         <v>0.34559999999999996</v>
       </c>
       <c r="S65" s="5">
-        <f t="shared" ref="S65:T65" si="138">R65*1.2</f>
+        <f t="shared" ref="S65:T65" si="158">R65*1.2</f>
         <v>0.41471999999999992</v>
       </c>
       <c r="T65" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.49766399999999988</v>
       </c>
       <c r="U65" s="5">
@@ -6716,15 +6716,15 @@
         <v>0.57480191999999986</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" ref="W65:Y65" si="139">V65*1.05</f>
+        <f t="shared" ref="W65:Y65" si="159">V65*1.05</f>
         <v>0.6035420159999999</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="159"/>
         <v>0.63371911679999993</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="159"/>
         <v>0.66540507263999993</v>
       </c>
     </row>
@@ -6744,11 +6744,11 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" ref="S66:T66" si="140">R66*1.2</f>
+        <f t="shared" ref="S66:T66" si="160">R66*1.2</f>
         <v>0.34559999999999996</v>
       </c>
       <c r="T66" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="160"/>
         <v>0.41471999999999992</v>
       </c>
       <c r="U66" s="5">
@@ -6760,15 +6760,15 @@
         <v>0.47900159999999997</v>
       </c>
       <c r="W66" s="5">
-        <f t="shared" ref="W66:Y66" si="141">V66*1.05</f>
+        <f t="shared" ref="W66:Y66" si="161">V66*1.05</f>
         <v>0.50295168000000001</v>
       </c>
       <c r="X66" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.52809926400000007</v>
       </c>
       <c r="Y66" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.55450422720000014</v>
       </c>
     </row>
@@ -6846,15 +6846,15 @@
         <v>900000</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" ref="W69:Y69" si="142">V69*1.2</f>
+        <f t="shared" ref="W69:Y69" si="162">V69*1.2</f>
         <v>1080000</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="162"/>
         <v>1296000</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="162"/>
         <v>1555200</v>
       </c>
       <c r="AA69" s="1" t="s">
@@ -6878,30 +6878,30 @@
         <v>25000</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ref="S70:Y70" si="143">R70*1</f>
+        <f t="shared" ref="S70:Y70" si="163">R70*1</f>
         <v>25000</v>
       </c>
       <c r="T70" s="1">
         <v>20000</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="163"/>
         <v>20000</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="163"/>
         <v>20000</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="163"/>
         <v>20000</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="163"/>
         <v>20000</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="163"/>
         <v>20000</v>
       </c>
       <c r="AA70" s="3" t="s">
@@ -6924,35 +6924,35 @@
         <v>9800</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71:U71" si="144">Q71*0.98</f>
+        <f t="shared" ref="R71:U71" si="164">Q71*0.98</f>
         <v>9604</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="164"/>
         <v>9411.92</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="164"/>
         <v>9223.6815999999999</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="164"/>
         <v>9039.2079680000006</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71" si="145">U71*0.98</f>
+        <f t="shared" ref="V71" si="165">U71*0.98</f>
         <v>8858.4238086400001</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" ref="W71" si="146">V71*0.98</f>
+        <f t="shared" ref="W71" si="166">V71*0.98</f>
         <v>8681.2553324672008</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" ref="X71" si="147">W71*0.98</f>
+        <f t="shared" ref="X71" si="167">W71*0.98</f>
         <v>8507.6302258178566</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" ref="Y71" si="148">X71*0.98</f>
+        <f t="shared" ref="Y71" si="168">X71*0.98</f>
         <v>8337.4776213014993</v>
       </c>
     </row>
@@ -6965,519 +6965,519 @@
         <v>100</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" ref="Q72:U72" si="149">(Q70-Q71)*Q69/1000000</f>
+        <f t="shared" ref="Q72:U72" si="169">(Q70-Q71)*Q69/1000000</f>
         <v>1010</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="169"/>
         <v>1539.6</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="169"/>
         <v>3117.616</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="169"/>
         <v>4310.52736</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="169"/>
         <v>6576.4752191999996</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ref="V72:Y72" si="150">(V70-V71)*V69/1000000</f>
+        <f t="shared" ref="V72:Y72" si="170">(V70-V71)*V69/1000000</f>
         <v>10027.418572223998</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="170"/>
         <v>12224.244240935423</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="170"/>
         <v>14894.111227340058</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="170"/>
         <v>18137.554803351908</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" ref="Z72:BE72" si="151">Y72*(1+$AB$75)</f>
+        <f t="shared" ref="Z72:BE72" si="171">Y72*(1+$AB$75)</f>
         <v>18318.930351385428</v>
       </c>
       <c r="AA72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>18502.119654899281</v>
       </c>
       <c r="AB72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>18687.140851448275</v>
       </c>
       <c r="AC72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>18874.012259962758</v>
       </c>
       <c r="AD72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>19062.752382562387</v>
       </c>
       <c r="AE72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>19253.379906388011</v>
       </c>
       <c r="AF72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>19445.913705451891</v>
       </c>
       <c r="AG72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>19640.372842506411</v>
       </c>
       <c r="AH72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>19836.776570931474</v>
       </c>
       <c r="AI72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>20035.144336640788</v>
       </c>
       <c r="AJ72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>20235.495780007197</v>
       </c>
       <c r="AK72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>20437.850737807268</v>
       </c>
       <c r="AL72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>20642.229245185343</v>
       </c>
       <c r="AM72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>20848.651537637197</v>
       </c>
       <c r="AN72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>21057.138053013568</v>
       </c>
       <c r="AO72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>21267.709433543703</v>
       </c>
       <c r="AP72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>21480.386527879142</v>
       </c>
       <c r="AQ72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>21695.190393157933</v>
       </c>
       <c r="AR72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>21912.142297089511</v>
       </c>
       <c r="AS72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>22131.263720060408</v>
       </c>
       <c r="AT72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>22352.576357261012</v>
       </c>
       <c r="AU72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>22576.102120833624</v>
       </c>
       <c r="AV72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>22801.863142041962</v>
       </c>
       <c r="AW72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>23029.881773462381</v>
       </c>
       <c r="AX72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>23260.180591197004</v>
       </c>
       <c r="AY72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>23492.782397108975</v>
       </c>
       <c r="AZ72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>23727.710221080066</v>
       </c>
       <c r="BA72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>23964.987323290865</v>
       </c>
       <c r="BB72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>24204.637196523774</v>
       </c>
       <c r="BC72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>24446.68356848901</v>
       </c>
       <c r="BD72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>24691.150404173899</v>
       </c>
       <c r="BE72" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>24938.061908215637</v>
       </c>
       <c r="BF72" s="1">
-        <f t="shared" ref="BF72:CK72" si="152">BE72*(1+$AB$75)</f>
+        <f t="shared" ref="BF72:CK72" si="172">BE72*(1+$AB$75)</f>
         <v>25187.442527297793</v>
       </c>
       <c r="BG72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>25439.316952570771</v>
       </c>
       <c r="BH72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>25693.71012209648</v>
       </c>
       <c r="BI72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>25950.647223317446</v>
       </c>
       <c r="BJ72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>26210.15369555062</v>
       </c>
       <c r="BK72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>26472.255232506126</v>
       </c>
       <c r="BL72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>26736.977784831186</v>
       </c>
       <c r="BM72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>27004.347562679497</v>
       </c>
       <c r="BN72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>27274.391038306294</v>
       </c>
       <c r="BO72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>27547.134948689356</v>
       </c>
       <c r="BP72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>27822.606298176248</v>
       </c>
       <c r="BQ72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>28100.832361158009</v>
       </c>
       <c r="BR72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>28381.840684769588</v>
       </c>
       <c r="BS72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>28665.659091617283</v>
       </c>
       <c r="BT72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>28952.315682533455</v>
       </c>
       <c r="BU72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>29241.838839358792</v>
       </c>
       <c r="BV72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>29534.25722775238</v>
       </c>
       <c r="BW72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>29829.599800029904</v>
       </c>
       <c r="BX72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>30127.895798030204</v>
       </c>
       <c r="BY72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>30429.174756010507</v>
       </c>
       <c r="BZ72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>30733.466503570613</v>
       </c>
       <c r="CA72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>31040.801168606318</v>
       </c>
       <c r="CB72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>31351.209180292382</v>
       </c>
       <c r="CC72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>31664.721272095307</v>
       </c>
       <c r="CD72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>31981.368484816259</v>
       </c>
       <c r="CE72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>32301.182169664422</v>
       </c>
       <c r="CF72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>32624.193991361066</v>
       </c>
       <c r="CG72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>32950.435931274675</v>
       </c>
       <c r="CH72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>33279.940290587423</v>
       </c>
       <c r="CI72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>33612.739693493299</v>
       </c>
       <c r="CJ72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>33948.867090428233</v>
       </c>
       <c r="CK72" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="172"/>
         <v>34288.355761332517</v>
       </c>
       <c r="CL72" s="1">
-        <f t="shared" ref="CL72:DQ72" si="153">CK72*(1+$AB$75)</f>
+        <f t="shared" ref="CL72:DQ72" si="173">CK72*(1+$AB$75)</f>
         <v>34631.239318945845</v>
       </c>
       <c r="CM72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>34977.551712135304</v>
       </c>
       <c r="CN72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>35327.327229256654</v>
       </c>
       <c r="CO72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>35680.600501549219</v>
       </c>
       <c r="CP72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>36037.406506564708</v>
       </c>
       <c r="CQ72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>36397.780571630356</v>
       </c>
       <c r="CR72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>36761.758377346661</v>
       </c>
       <c r="CS72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>37129.375961120131</v>
       </c>
       <c r="CT72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>37500.669720731334</v>
       </c>
       <c r="CU72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>37875.676417938645</v>
       </c>
       <c r="CV72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>38254.433182118031</v>
       </c>
       <c r="CW72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>38636.977513939215</v>
       </c>
       <c r="CX72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>39023.347289078607</v>
       </c>
       <c r="CY72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>39413.580761969395</v>
       </c>
       <c r="CZ72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>39807.716569589087</v>
       </c>
       <c r="DA72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>40205.793735284977</v>
       </c>
       <c r="DB72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>40607.851672637829</v>
       </c>
       <c r="DC72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>41013.930189364211</v>
       </c>
       <c r="DD72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>41424.069491257855</v>
       </c>
       <c r="DE72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>41838.310186170434</v>
       </c>
       <c r="DF72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>42256.69328803214</v>
       </c>
       <c r="DG72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>42679.26022091246</v>
       </c>
       <c r="DH72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>43106.052823121587</v>
       </c>
       <c r="DI72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>43537.113351352804</v>
       </c>
       <c r="DJ72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>43972.484484866334</v>
       </c>
       <c r="DK72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>44412.209329714999</v>
       </c>
       <c r="DL72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>44856.331423012147</v>
       </c>
       <c r="DM72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>45304.89473724227</v>
       </c>
       <c r="DN72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>45757.943684614693</v>
       </c>
       <c r="DO72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>46215.523121460843</v>
       </c>
       <c r="DP72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>46677.678352675452</v>
       </c>
       <c r="DQ72" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="173"/>
         <v>47144.455136202203</v>
       </c>
       <c r="DR72" s="1">
-        <f t="shared" ref="DR72:EO72" si="154">DQ72*(1+$AB$75)</f>
+        <f t="shared" ref="DR72:EO72" si="174">DQ72*(1+$AB$75)</f>
         <v>47615.899687564226</v>
       </c>
       <c r="DS72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>48092.058684439871</v>
       </c>
       <c r="DT72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>48572.979271284268</v>
       </c>
       <c r="DU72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>49058.709063997114</v>
       </c>
       <c r="DV72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>49549.296154637086</v>
       </c>
       <c r="DW72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>50044.789116183456</v>
       </c>
       <c r="DX72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>50545.237007345291</v>
       </c>
       <c r="DY72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>51050.689377418741</v>
       </c>
       <c r="DZ72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>51561.19627119293</v>
       </c>
       <c r="EA72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>52076.808233904863</v>
       </c>
       <c r="EB72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>52597.576316243911</v>
       </c>
       <c r="EC72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>53123.552079406349</v>
       </c>
       <c r="ED72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>53654.787600200412</v>
       </c>
       <c r="EE72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>54191.335476202417</v>
       </c>
       <c r="EF72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>54733.24883096444</v>
       </c>
       <c r="EG72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>55280.581319274082</v>
       </c>
       <c r="EH72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>55833.387132466822</v>
       </c>
       <c r="EI72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>56391.721003791492</v>
       </c>
       <c r="EJ72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>56955.638213829407</v>
       </c>
       <c r="EK72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>57525.194595967703</v>
       </c>
       <c r="EL72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>58100.446541927384</v>
       </c>
       <c r="EM72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>58681.451007346659</v>
       </c>
       <c r="EN72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>59268.265517420128</v>
       </c>
       <c r="EO72" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="174"/>
         <v>59860.948172594333</v>
       </c>
     </row>
@@ -7506,23 +7506,23 @@
         <v>1.1683315694678793</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" ref="U74:Y74" si="155">U70/U71-1</f>
+        <f t="shared" ref="U74:Y74" si="175">U70/U71-1</f>
         <v>1.2125832341508973</v>
       </c>
       <c r="V74" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="175"/>
         <v>1.2577379940315279</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="175"/>
         <v>1.3038142796240075</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="175"/>
         <v>1.3508308975755181</v>
       </c>
       <c r="Y74" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="175"/>
         <v>1.3988070383423654</v>
       </c>
     </row>
@@ -7535,35 +7535,35 @@
         <v>9</v>
       </c>
       <c r="R75" s="5">
-        <f t="shared" ref="R75:T75" si="156">R69/Q69-1</f>
+        <f t="shared" ref="R75:T75" si="176">R69/Q69-1</f>
         <v>1</v>
       </c>
       <c r="S75" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="176"/>
         <v>1</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="176"/>
         <v>1</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" ref="U75" si="157">U69/T69-1</f>
+        <f t="shared" ref="U75" si="177">U69/T69-1</f>
         <v>0.5</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" ref="V75" si="158">V69/U69-1</f>
+        <f t="shared" ref="V75" si="178">V69/U69-1</f>
         <v>0.5</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75" si="159">W69/V69-1</f>
+        <f t="shared" ref="W75" si="179">W69/V69-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" ref="X75" si="160">X69/W69-1</f>
+        <f t="shared" ref="X75" si="180">X69/W69-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y75" s="5">
-        <f t="shared" ref="Y75" si="161">Y69/X69-1</f>
+        <f t="shared" ref="Y75" si="181">Y69/X69-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AA75" s="1" t="s">
@@ -7594,35 +7594,35 @@
         <v>55000</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ref="R77:T77" si="162">Q77+R69</f>
+        <f t="shared" ref="R77:T77" si="182">Q77+R69</f>
         <v>155000</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="182"/>
         <v>355000</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="182"/>
         <v>755000</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" ref="U77" si="163">T77+U69</f>
+        <f t="shared" ref="U77" si="183">T77+U69</f>
         <v>1355000</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" ref="V77" si="164">U77+V69</f>
+        <f t="shared" ref="V77" si="184">U77+V69</f>
         <v>2255000</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" ref="W77" si="165">V77+W69</f>
+        <f t="shared" ref="W77" si="185">V77+W69</f>
         <v>3335000</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" ref="X77" si="166">W77+X69</f>
+        <f t="shared" ref="X77" si="186">W77+X69</f>
         <v>4631000</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" ref="Y77" si="167">X77+Y69</f>
+        <f t="shared" ref="Y77" si="187">X77+Y69</f>
         <v>6186200</v>
       </c>
       <c r="AA77" s="3" t="s">
@@ -7657,31 +7657,31 @@
         <v>2460000</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" ref="S79:T81" si="168">R79*1.1</f>
+        <f t="shared" ref="S79:T81" si="188">R79*1.1</f>
         <v>2706000</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="188"/>
         <v>2976600.0000000005</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" ref="U79:U81" si="169">T79*1.1</f>
+        <f t="shared" ref="U79:U81" si="189">T79*1.1</f>
         <v>3274260.0000000009</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" ref="V79" si="170">U79*1.1</f>
+        <f t="shared" ref="V79" si="190">U79*1.1</f>
         <v>3601686.0000000014</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" ref="W79" si="171">V79*1.1</f>
+        <f t="shared" ref="W79" si="191">V79*1.1</f>
         <v>3961854.600000002</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" ref="X79" si="172">W79*1.1</f>
+        <f t="shared" ref="X79" si="192">W79*1.1</f>
         <v>4358040.0600000024</v>
       </c>
       <c r="Y79" s="1">
-        <f t="shared" ref="Y79" si="173">X79*1.1</f>
+        <f t="shared" ref="Y79" si="193">X79*1.1</f>
         <v>4793844.0660000034</v>
       </c>
     </row>
@@ -7697,39 +7697,39 @@
         <v>450000</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80:R80" si="174">P80*1.2</f>
+        <f t="shared" ref="Q80:R80" si="194">P80*1.2</f>
         <v>540000</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="194"/>
         <v>648000</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" ref="S80" si="175">R80*1.2</f>
+        <f t="shared" ref="S80" si="195">R80*1.2</f>
         <v>777600</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" ref="T80" si="176">S80*1.2</f>
+        <f t="shared" ref="T80" si="196">S80*1.2</f>
         <v>933120</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" ref="U80" si="177">T80*1.2</f>
+        <f t="shared" ref="U80" si="197">T80*1.2</f>
         <v>1119744</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" ref="V80" si="178">U80*1.2</f>
+        <f t="shared" ref="V80" si="198">U80*1.2</f>
         <v>1343692.8</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" ref="W80" si="179">V80*1.2</f>
+        <f t="shared" ref="W80" si="199">V80*1.2</f>
         <v>1612431.3600000001</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" ref="X80" si="180">W80*1.2</f>
+        <f t="shared" ref="X80" si="200">W80*1.2</f>
         <v>1934917.632</v>
       </c>
       <c r="Y80" s="1">
-        <f t="shared" ref="Y80" si="181">X80*1.2</f>
+        <f t="shared" ref="Y80" si="201">X80*1.2</f>
         <v>2321901.1584000001</v>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
         <v>1045000.0000000001</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="182">P81*1.1</f>
+        <f t="shared" ref="Q81" si="202">P81*1.1</f>
         <v>1149500.0000000002</v>
       </c>
       <c r="R81" s="1">
@@ -7753,31 +7753,31 @@
         <v>1264450.0000000005</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="188"/>
         <v>1390895.0000000007</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="188"/>
         <v>1529984.5000000009</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="189"/>
         <v>1682982.9500000011</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" ref="V81" si="183">U81*1.1</f>
+        <f t="shared" ref="V81" si="203">U81*1.1</f>
         <v>1851281.2450000013</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" ref="W81" si="184">V81*1.1</f>
+        <f t="shared" ref="W81" si="204">V81*1.1</f>
         <v>2036409.3695000017</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" ref="X81" si="185">W81*1.1</f>
+        <f t="shared" ref="X81" si="205">W81*1.1</f>
         <v>2240050.3064500019</v>
       </c>
       <c r="Y81" s="1">
-        <f t="shared" ref="Y81" si="186">X81*1.1</f>
+        <f t="shared" ref="Y81" si="206">X81*1.1</f>
         <v>2464055.3370950022</v>
       </c>
     </row>
@@ -7790,43 +7790,43 @@
         <v>2350000</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" ref="P82:Q82" si="187">SUM(P79:P81)</f>
+        <f t="shared" ref="P82:Q82" si="207">SUM(P79:P81)</f>
         <v>3032500</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="207"/>
         <v>3739500</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ref="R82" si="188">SUM(R79:R81)</f>
+        <f t="shared" ref="R82" si="208">SUM(R79:R81)</f>
         <v>4372450</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" ref="S82" si="189">SUM(S79:S81)</f>
+        <f t="shared" ref="S82" si="209">SUM(S79:S81)</f>
         <v>4874495.0000000009</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" ref="T82" si="190">SUM(T79:T81)</f>
+        <f t="shared" ref="T82" si="210">SUM(T79:T81)</f>
         <v>5439704.5000000019</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" ref="U82:Y82" si="191">SUM(U79:U81)</f>
+        <f t="shared" ref="U82:Y82" si="211">SUM(U79:U81)</f>
         <v>6076986.950000002</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="211"/>
         <v>6796660.0450000027</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="211"/>
         <v>7610695.3295000037</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="211"/>
         <v>8533007.9984500036</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="211"/>
         <v>9579800.5614950061</v>
       </c>
     </row>
@@ -7835,47 +7835,47 @@
         <v>68</v>
       </c>
       <c r="O84" s="5">
-        <f t="shared" ref="O84:U84" si="192">O82/O45</f>
+        <f t="shared" ref="O84:U84" si="212">O82/O45</f>
         <v>1.3993609386555892</v>
       </c>
       <c r="P84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.4894400785854618</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.3840772818121252</v>
       </c>
       <c r="R84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.3247199045039477</v>
       </c>
       <c r="S84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.3207415018075035</v>
       </c>
       <c r="T84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.3646102178031203</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="212"/>
         <v>1.4011664024043173</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" ref="V84:Y84" si="193">V82/V45</f>
+        <f t="shared" ref="V84:Y84" si="213">V82/V45</f>
         <v>1.4273404443416748</v>
       </c>
       <c r="W84" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="213"/>
         <v>1.4397620891139478</v>
       </c>
       <c r="X84" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="213"/>
         <v>1.435107059759777</v>
       </c>
       <c r="Y84" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="213"/>
         <v>1.4106166262049509</v>
       </c>
     </row>
@@ -7912,43 +7912,43 @@
         <v>25182</v>
       </c>
       <c r="P86" s="1">
-        <f>+O86+P19</f>
+        <f t="shared" ref="P86:Y86" si="214">+O86+P19</f>
         <v>40001.916993086714</v>
       </c>
       <c r="Q86" s="1">
-        <f>+P86+Q19</f>
+        <f t="shared" si="214"/>
         <v>62726.21775001019</v>
       </c>
       <c r="R86" s="1">
-        <f>+Q86+R19</f>
+        <f t="shared" si="214"/>
         <v>95224.65286139214</v>
       </c>
       <c r="S86" s="1">
-        <f>+R86+S19</f>
+        <f t="shared" si="214"/>
         <v>138194.81484905386</v>
       </c>
       <c r="T86" s="1">
-        <f>+S86+T19</f>
+        <f t="shared" si="214"/>
         <v>193091.2677520226</v>
       </c>
       <c r="U86" s="1">
-        <f>+T86+U19</f>
+        <f t="shared" si="214"/>
         <v>263300.11189096386</v>
       </c>
       <c r="V86" s="1">
-        <f>+U86+V19</f>
+        <f t="shared" si="214"/>
         <v>345376.55666497111</v>
       </c>
       <c r="W86" s="1">
-        <f>+V86+W19</f>
+        <f t="shared" si="214"/>
         <v>442150.00515010738</v>
       </c>
       <c r="X86" s="1">
-        <f>+W86+X19</f>
+        <f t="shared" si="214"/>
         <v>557405.15886647126</v>
       </c>
       <c r="Y86" s="1">
-        <f>+X86+Y19</f>
+        <f t="shared" si="214"/>
         <v>696267.2671007301</v>
       </c>
     </row>
@@ -8411,39 +8411,39 @@
         <v>88</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" ref="C110" si="194">C109+C108</f>
+        <f t="shared" ref="C110" si="215">C109+C108</f>
         <v>122060</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" ref="D110:L110" si="195">D109+D108</f>
+        <f t="shared" ref="D110:L110" si="216">D109+D108</f>
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>125111</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" ref="M110" si="196">M109+M108</f>
+        <f t="shared" ref="M110" si="217">M109+M108</f>
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ref="N110" si="197">N109+N108</f>
+        <f t="shared" ref="N110" si="218">N109+N108</f>
         <v>106618</v>
       </c>
       <c r="O110" s="1">
-        <f t="shared" ref="O110" si="198">O109+O108</f>
+        <f t="shared" ref="O110" si="219">O109+O108</f>
         <v>122070</v>
       </c>
     </row>
@@ -8452,91 +8452,91 @@
         <v>90</v>
       </c>
       <c r="C112" s="1">
-        <f>C19</f>
+        <f t="shared" ref="C112:J112" si="220">C19</f>
         <v>962</v>
       </c>
       <c r="D112" s="1">
-        <f>D19</f>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <f>E19</f>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <f>F19</f>
+        <f t="shared" si="220"/>
         <v>19798</v>
       </c>
       <c r="G112" s="1">
-        <f>G19</f>
+        <f t="shared" si="220"/>
         <v>633</v>
       </c>
       <c r="H112" s="1">
-        <f>H19</f>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="I112" s="1">
-        <f>I19</f>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <f>J19</f>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <f>L19</f>
+        <f t="shared" ref="L112:Y112" si="221">L19</f>
         <v>5853</v>
       </c>
       <c r="M112" s="1">
-        <f>M19</f>
+        <f t="shared" si="221"/>
         <v>12805</v>
       </c>
       <c r="N112" s="1">
-        <f>N19</f>
+        <f t="shared" si="221"/>
         <v>14802</v>
       </c>
       <c r="O112" s="1">
-        <f>O19</f>
+        <f t="shared" si="221"/>
         <v>7142</v>
       </c>
       <c r="P112" s="1">
-        <f>P19</f>
+        <f t="shared" si="221"/>
         <v>14819.916993086714</v>
       </c>
       <c r="Q112" s="1">
-        <f>Q19</f>
+        <f t="shared" si="221"/>
         <v>22724.300756923476</v>
       </c>
       <c r="R112" s="1">
-        <f>R19</f>
+        <f t="shared" si="221"/>
         <v>32498.43511138195</v>
       </c>
       <c r="S112" s="1">
-        <f>S19</f>
+        <f t="shared" si="221"/>
         <v>42970.161987661726</v>
       </c>
       <c r="T112" s="1">
-        <f>T19</f>
+        <f t="shared" si="221"/>
         <v>54896.45290296874</v>
       </c>
       <c r="U112" s="1">
-        <f>U19</f>
+        <f t="shared" si="221"/>
         <v>70208.844138941247</v>
       </c>
       <c r="V112" s="1">
-        <f>V19</f>
+        <f t="shared" si="221"/>
         <v>82076.44477400725</v>
       </c>
       <c r="W112" s="1">
-        <f>W19</f>
+        <f t="shared" si="221"/>
         <v>96773.448485136265</v>
       </c>
       <c r="X112" s="1">
-        <f>X19</f>
+        <f t="shared" si="221"/>
         <v>115255.15371636389</v>
       </c>
       <c r="Y112" s="1">
-        <f>Y19</f>
+        <f t="shared" si="221"/>
         <v>138862.10823425881</v>
       </c>
     </row>
@@ -8604,19 +8604,19 @@
         <v>2398.7999999999997</v>
       </c>
       <c r="Q115" s="1">
-        <f t="shared" ref="Q115:T115" si="199">P115*1.2</f>
+        <f t="shared" ref="Q115:T115" si="222">P115*1.2</f>
         <v>2878.5599999999995</v>
       </c>
       <c r="R115" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="222"/>
         <v>3454.2719999999995</v>
       </c>
       <c r="S115" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="222"/>
         <v>4145.1263999999992</v>
       </c>
       <c r="T115" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="222"/>
         <v>4974.151679999999</v>
       </c>
       <c r="U115" s="1">
@@ -8624,19 +8624,19 @@
         <v>5720.2744319999983</v>
       </c>
       <c r="V115" s="1">
-        <f t="shared" ref="V115:Y115" si="200">U115*1.15</f>
+        <f t="shared" ref="V115:Y115" si="223">U115*1.15</f>
         <v>6578.3155967999974</v>
       </c>
       <c r="W115" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="223"/>
         <v>7565.062936319996</v>
       </c>
       <c r="X115" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="223"/>
         <v>8699.8223767679956</v>
       </c>
       <c r="Y115" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="223"/>
         <v>10004.795733283194</v>
       </c>
     </row>
@@ -8660,43 +8660,43 @@
         <v>335</v>
       </c>
       <c r="P116" s="1">
-        <f>O116*(1+P30)</f>
+        <f t="shared" ref="P116:Y116" si="224">O116*(1+P30)</f>
         <v>428.87362085921933</v>
       </c>
       <c r="Q116" s="1">
-        <f>P116*(1+Q30)</f>
+        <f t="shared" si="224"/>
         <v>576.47702955692648</v>
       </c>
       <c r="R116" s="1">
-        <f>Q116*(1+R30)</f>
+        <f t="shared" si="224"/>
         <v>726.75030413853403</v>
       </c>
       <c r="S116" s="1">
-        <f>R116*(1+S30)</f>
+        <f t="shared" si="224"/>
         <v>855.82504491963982</v>
       </c>
       <c r="T116" s="1">
-        <f>S116*(1+T30)</f>
+        <f t="shared" si="224"/>
         <v>984.04873705832733</v>
       </c>
       <c r="U116" s="1">
-        <f>T116*(1+U30)</f>
+        <f t="shared" si="224"/>
         <v>1141.4667155768122</v>
       </c>
       <c r="V116" s="1">
-        <f>U116*(1+V30)</f>
+        <f t="shared" si="224"/>
         <v>1336.9252399211816</v>
       </c>
       <c r="W116" s="1">
-        <f>V116*(1+W30)</f>
+        <f t="shared" si="224"/>
         <v>1582.3664287006584</v>
       </c>
       <c r="X116" s="1">
-        <f>W116*(1+X30)</f>
+        <f t="shared" si="224"/>
         <v>1893.998337015998</v>
       </c>
       <c r="Y116" s="1">
-        <f>X116*(1+Y30)</f>
+        <f t="shared" si="224"/>
         <v>2293.9293812503579</v>
       </c>
     </row>
@@ -8720,43 +8720,43 @@
         <v>-73</v>
       </c>
       <c r="P117" s="1">
-        <f>O117*(1+P30)</f>
+        <f t="shared" ref="P117:Y117" si="225">O117*(1+P30)</f>
         <v>-93.456042754397046</v>
       </c>
       <c r="Q117" s="1">
-        <f>P117*(1+Q30)</f>
+        <f t="shared" si="225"/>
         <v>-125.62036763479293</v>
       </c>
       <c r="R117" s="1">
-        <f>Q117*(1+R30)</f>
+        <f t="shared" si="225"/>
         <v>-158.36648418541191</v>
       </c>
       <c r="S117" s="1">
-        <f>R117*(1+S30)</f>
+        <f t="shared" si="225"/>
         <v>-186.49321874368272</v>
       </c>
       <c r="T117" s="1">
-        <f>S117*(1+T30)</f>
+        <f t="shared" si="225"/>
         <v>-214.43450091121761</v>
       </c>
       <c r="U117" s="1">
-        <f>T117*(1+U30)</f>
+        <f t="shared" si="225"/>
         <v>-248.73752309584268</v>
       </c>
       <c r="V117" s="1">
-        <f>U117*(1+V30)</f>
+        <f t="shared" si="225"/>
         <v>-291.32997765446646</v>
       </c>
       <c r="W117" s="1">
-        <f>V117*(1+W30)</f>
+        <f t="shared" si="225"/>
         <v>-344.81417700044204</v>
       </c>
       <c r="X117" s="1">
-        <f>W117*(1+X30)</f>
+        <f t="shared" si="225"/>
         <v>-412.72202567811308</v>
       </c>
       <c r="Y117" s="1">
-        <f>X117*(1+Y30)</f>
+        <f t="shared" si="225"/>
         <v>-499.87117860082435</v>
       </c>
     </row>
@@ -8780,43 +8780,43 @@
         <v>477</v>
       </c>
       <c r="P118" s="1">
-        <f>O118*(1+P30)</f>
+        <f t="shared" ref="P118:Y118" si="226">O118*(1+P30)</f>
         <v>610.66482731297799</v>
       </c>
       <c r="Q118" s="1">
-        <f>P118*(1+Q30)</f>
+        <f t="shared" si="226"/>
         <v>820.83445701090727</v>
       </c>
       <c r="R118" s="1">
-        <f>Q118*(1+R30)</f>
+        <f t="shared" si="226"/>
         <v>1034.8056569375544</v>
       </c>
       <c r="S118" s="1">
-        <f>R118*(1+S30)</f>
+        <f t="shared" si="226"/>
         <v>1218.5926759005019</v>
       </c>
       <c r="T118" s="1">
-        <f>S118*(1+T30)</f>
+        <f t="shared" si="226"/>
         <v>1401.1679032143943</v>
       </c>
       <c r="U118" s="1">
-        <f>T118*(1+U30)</f>
+        <f t="shared" si="226"/>
         <v>1625.3123084481772</v>
       </c>
       <c r="V118" s="1">
-        <f>U118*(1+V30)</f>
+        <f t="shared" si="226"/>
         <v>1903.6219087832942</v>
       </c>
       <c r="W118" s="1">
-        <f>V118*(1+W30)</f>
+        <f t="shared" si="226"/>
         <v>2253.1008551946688</v>
       </c>
       <c r="X118" s="1">
-        <f>W118*(1+X30)</f>
+        <f t="shared" si="226"/>
         <v>2696.827482855615</v>
       </c>
       <c r="Y118" s="1">
-        <f>X118*(1+Y30)</f>
+        <f t="shared" si="226"/>
         <v>3266.2815368848378</v>
       </c>
     </row>
@@ -8840,43 +8840,43 @@
         <v>172</v>
       </c>
       <c r="P119" s="1">
-        <f>O119*(1+P30)</f>
+        <f t="shared" ref="P119:Y119" si="227">O119*(1+P30)</f>
         <v>220.19779936652455</v>
       </c>
       <c r="Q119" s="1">
-        <f>P119*(1+Q30)</f>
+        <f t="shared" si="227"/>
         <v>295.98223607101897</v>
       </c>
       <c r="R119" s="1">
-        <f>Q119*(1+R30)</f>
+        <f t="shared" si="227"/>
         <v>373.13746958754587</v>
       </c>
       <c r="S119" s="1">
-        <f>R119*(1+S30)</f>
+        <f t="shared" si="227"/>
         <v>439.40867977963597</v>
       </c>
       <c r="T119" s="1">
-        <f>S119*(1+T30)</f>
+        <f t="shared" si="227"/>
         <v>505.24293365382778</v>
       </c>
       <c r="U119" s="1">
-        <f>T119*(1+U30)</f>
+        <f t="shared" si="227"/>
         <v>586.0664927737663</v>
       </c>
       <c r="V119" s="1">
-        <f>U119*(1+V30)</f>
+        <f t="shared" si="227"/>
         <v>686.42131721326348</v>
       </c>
       <c r="W119" s="1">
-        <f>V119*(1+W30)</f>
+        <f t="shared" si="227"/>
         <v>812.43888279556211</v>
       </c>
       <c r="X119" s="1">
-        <f>W119*(1+X30)</f>
+        <f t="shared" si="227"/>
         <v>972.44093721418426</v>
       </c>
       <c r="Y119" s="1">
-        <f>X119*(1+Y30)</f>
+        <f t="shared" si="227"/>
         <v>1177.7786673882435</v>
       </c>
     </row>
@@ -8953,43 +8953,43 @@
         <v>-1083</v>
       </c>
       <c r="P121" s="1">
-        <f>O121*(1+P30)</f>
+        <f t="shared" ref="P121:Y121" si="228">O121*(1+P30)</f>
         <v>-1386.4780041508493</v>
       </c>
       <c r="Q121" s="1">
-        <f>P121*(1+Q30)</f>
+        <f t="shared" si="228"/>
         <v>-1863.6555910750785</v>
       </c>
       <c r="R121" s="1">
-        <f>Q121*(1+R30)</f>
+        <f t="shared" si="228"/>
         <v>-2349.4644160657681</v>
       </c>
       <c r="S121" s="1">
-        <f>R121*(1+S30)</f>
+        <f t="shared" si="228"/>
         <v>-2766.7418616357309</v>
       </c>
       <c r="T121" s="1">
-        <f>S121*(1+T30)</f>
+        <f t="shared" si="228"/>
         <v>-3181.2680066691591</v>
       </c>
       <c r="U121" s="1">
-        <f>T121*(1+U30)</f>
+        <f t="shared" si="228"/>
         <v>-3690.1744864766788</v>
       </c>
       <c r="V121" s="1">
-        <f>U121*(1+V30)</f>
+        <f t="shared" si="228"/>
         <v>-4322.059805476536</v>
       </c>
       <c r="W121" s="1">
-        <f>V121*(1+W30)</f>
+        <f t="shared" si="228"/>
         <v>-5115.5308724860088</v>
       </c>
       <c r="X121" s="1">
-        <f>W121*(1+X30)</f>
+        <f t="shared" si="228"/>
         <v>-6122.9856686218673</v>
       </c>
       <c r="Y121" s="1">
-        <f>X121*(1+Y30)</f>
+        <f t="shared" si="228"/>
         <v>-7415.8970743108566</v>
       </c>
       <c r="AA121" s="3" t="s">
@@ -9020,43 +9020,43 @@
         <v>937</v>
       </c>
       <c r="P122" s="1">
-        <f>O122*(1+P30)</f>
+        <f t="shared" ref="P122:Y122" si="229">O122*(1+P30)</f>
         <v>1199.5659186420553</v>
       </c>
       <c r="Q122" s="1">
-        <f>P122*(1+Q30)</f>
+        <f t="shared" si="229"/>
         <v>1612.4148558054928</v>
       </c>
       <c r="R122" s="1">
-        <f>Q122*(1+R30)</f>
+        <f t="shared" si="229"/>
         <v>2032.7314476949446</v>
       </c>
       <c r="S122" s="1">
-        <f>R122*(1+S30)</f>
+        <f t="shared" si="229"/>
         <v>2393.7554241483658</v>
       </c>
       <c r="T122" s="1">
-        <f>S122*(1+T30)</f>
+        <f t="shared" si="229"/>
         <v>2752.3990048467244</v>
       </c>
       <c r="U122" s="1">
-        <f>T122*(1+U30)</f>
+        <f t="shared" si="229"/>
         <v>3192.6994402849941</v>
       </c>
       <c r="V122" s="1">
-        <f>U122*(1+V30)</f>
+        <f t="shared" si="229"/>
         <v>3739.3998501676037</v>
       </c>
       <c r="W122" s="1">
-        <f>V122*(1+W30)</f>
+        <f t="shared" si="229"/>
         <v>4425.9025184851253</v>
       </c>
       <c r="X122" s="1">
-        <f>W122*(1+X30)</f>
+        <f t="shared" si="229"/>
         <v>5297.5416172656423</v>
       </c>
       <c r="Y122" s="1">
-        <f>X122*(1+Y30)</f>
+        <f t="shared" si="229"/>
         <v>6416.1547171092097</v>
       </c>
     </row>
@@ -9080,43 +9080,43 @@
         <v>-590</v>
       </c>
       <c r="P123" s="1">
-        <f>O123*(1+P30)</f>
+        <f t="shared" ref="P123:Y123" si="230">O123*(1+P30)</f>
         <v>-755.32966061772959</v>
       </c>
       <c r="Q123" s="1">
-        <f>P123*(1+Q30)</f>
+        <f t="shared" si="230"/>
         <v>-1015.2879028017511</v>
       </c>
       <c r="R123" s="1">
-        <f>Q123*(1+R30)</f>
+        <f t="shared" si="230"/>
         <v>-1279.9482968410002</v>
       </c>
       <c r="S123" s="1">
-        <f>R123*(1+S30)</f>
+        <f t="shared" si="230"/>
         <v>-1507.2739597092163</v>
       </c>
       <c r="T123" s="1">
-        <f>S123*(1+T30)</f>
+        <f t="shared" si="230"/>
         <v>-1733.1007607892927</v>
       </c>
       <c r="U123" s="1">
-        <f>T123*(1+U30)</f>
+        <f t="shared" si="230"/>
         <v>-2010.3443647472213</v>
       </c>
       <c r="V123" s="1">
-        <f>U123*(1+V30)</f>
+        <f t="shared" si="230"/>
         <v>-2354.5847509059613</v>
       </c>
       <c r="W123" s="1">
-        <f>V123*(1+W30)</f>
+        <f t="shared" si="230"/>
         <v>-2786.8543072638458</v>
       </c>
       <c r="X123" s="1">
-        <f>W123*(1+X30)</f>
+        <f t="shared" si="230"/>
         <v>-3335.698563699817</v>
       </c>
       <c r="Y123" s="1">
-        <f>X123*(1+Y30)</f>
+        <f t="shared" si="230"/>
         <v>-4040.0547311573459</v>
       </c>
       <c r="AA123" s="1" t="s">
@@ -9146,43 +9146,43 @@
         <v>-3273</v>
       </c>
       <c r="P124" s="1">
-        <f>O124*(1+P30)</f>
+        <f t="shared" ref="P124:Y124" si="231">O124*(1+P30)</f>
         <v>-4190.1592867827612</v>
       </c>
       <c r="Q124" s="1">
-        <f>P124*(1+Q30)</f>
+        <f t="shared" si="231"/>
         <v>-5632.2666201188667</v>
       </c>
       <c r="R124" s="1">
-        <f>Q124*(1+R30)</f>
+        <f t="shared" si="231"/>
         <v>-7100.4589416281251</v>
       </c>
       <c r="S124" s="1">
-        <f>R124*(1+S30)</f>
+        <f t="shared" si="231"/>
         <v>-8361.5384239462128</v>
       </c>
       <c r="T124" s="1">
-        <f>S124*(1+T30)</f>
+        <f t="shared" si="231"/>
         <v>-9614.3030340056885</v>
       </c>
       <c r="U124" s="1">
-        <f>T124*(1+U30)</f>
+        <f t="shared" si="231"/>
         <v>-11152.30017935196</v>
       </c>
       <c r="V124" s="1">
-        <f>U124*(1+V30)</f>
+        <f t="shared" si="231"/>
         <v>-13061.95913511053</v>
       </c>
       <c r="W124" s="1">
-        <f>V124*(1+W30)</f>
+        <f t="shared" si="231"/>
         <v>-15459.956182499271</v>
       </c>
       <c r="X124" s="1">
-        <f>W124*(1+X30)</f>
+        <f t="shared" si="231"/>
         <v>-18504.646438965261</v>
       </c>
       <c r="Y124" s="1">
-        <f>X124*(1+Y30)</f>
+        <f t="shared" si="231"/>
         <v>-22412.032432335589</v>
       </c>
       <c r="AA124" s="1" t="s">
@@ -9212,43 +9212,43 @@
         <v>3588</v>
       </c>
       <c r="P125" s="1">
-        <f>O125*(1+P30)</f>
+        <f t="shared" ref="P125:Y125" si="232">O125*(1+P30)</f>
         <v>4593.4285123668033</v>
       </c>
       <c r="Q125" s="1">
-        <f>P125*(1+Q30)</f>
+        <f t="shared" si="232"/>
         <v>6174.3271105977683</v>
       </c>
       <c r="R125" s="1">
-        <f>Q125*(1+R30)</f>
+        <f t="shared" si="232"/>
         <v>7783.821167907643</v>
       </c>
       <c r="S125" s="1">
-        <f>R125*(1+S30)</f>
+        <f t="shared" si="232"/>
         <v>9166.2694363333376</v>
       </c>
       <c r="T125" s="1">
-        <f>S125*(1+T30)</f>
+        <f t="shared" si="232"/>
         <v>10539.602592732175</v>
       </c>
       <c r="U125" s="1">
-        <f>T125*(1+U30)</f>
+        <f t="shared" si="232"/>
         <v>12225.619628327171</v>
       </c>
       <c r="V125" s="1">
-        <f>U125*(1+V30)</f>
+        <f t="shared" si="232"/>
         <v>14319.067942797612</v>
       </c>
       <c r="W125" s="1">
-        <f>V125*(1+W30)</f>
+        <f t="shared" si="232"/>
         <v>16947.852973665562</v>
       </c>
       <c r="X125" s="1">
-        <f>W125*(1+X30)</f>
+        <f t="shared" si="232"/>
         <v>20285.570248398213</v>
       </c>
       <c r="Y125" s="1">
-        <f>X125*(1+Y30)</f>
+        <f t="shared" si="232"/>
         <v>24569.010805750102</v>
       </c>
       <c r="AA125" s="1" t="s">
@@ -9278,43 +9278,43 @@
         <v>502</v>
       </c>
       <c r="P126" s="1">
-        <f>O126*(1+P30)</f>
+        <f t="shared" ref="P126:Y126" si="233">O126*(1+P30)</f>
         <v>642.6703214069496</v>
       </c>
       <c r="Q126" s="1">
-        <f>P126*(1+Q30)</f>
+        <f t="shared" si="233"/>
         <v>863.85513085843911</v>
       </c>
       <c r="R126" s="1">
-        <f>Q126*(1+R30)</f>
+        <f t="shared" si="233"/>
         <v>1089.0407542613257</v>
       </c>
       <c r="S126" s="1">
-        <f>R126*(1+S30)</f>
+        <f t="shared" si="233"/>
         <v>1282.4602165661468</v>
       </c>
       <c r="T126" s="1">
-        <f>S126*(1+T30)</f>
+        <f t="shared" si="233"/>
         <v>1474.6043761291949</v>
       </c>
       <c r="U126" s="1">
-        <f>T126*(1+U30)</f>
+        <f t="shared" si="233"/>
         <v>1710.4963917001783</v>
       </c>
       <c r="V126" s="1">
-        <f>U126*(1+V30)</f>
+        <f t="shared" si="233"/>
         <v>2003.39244907592</v>
       </c>
       <c r="W126" s="1">
-        <f>V126*(1+W30)</f>
+        <f t="shared" si="233"/>
         <v>2371.1879021126288</v>
       </c>
       <c r="X126" s="1">
-        <f>W126*(1+X30)</f>
+        <f t="shared" si="233"/>
         <v>2838.1706423344212</v>
       </c>
       <c r="Y126" s="1">
-        <f>X126*(1+Y30)</f>
+        <f t="shared" si="233"/>
         <v>3437.4702966796408</v>
       </c>
       <c r="AA126" s="3" t="s">
@@ -9335,87 +9335,87 @@
         <v>242</v>
       </c>
       <c r="D127" s="3">
-        <f t="shared" ref="D127:L127" si="201">SUM(D113:D126)</f>
+        <f t="shared" ref="D127:L127" si="234">SUM(D113:D126)</f>
         <v>0</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>2156</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="L127" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="M127" s="3">
-        <f t="shared" ref="M127" si="202">SUM(M113:M126)</f>
+        <f t="shared" ref="M127" si="235">SUM(M113:M126)</f>
         <v>14724</v>
       </c>
       <c r="N127" s="3">
-        <f t="shared" ref="N127" si="203">SUM(N113:N126)</f>
+        <f t="shared" ref="N127" si="236">SUM(N113:N126)</f>
         <v>13256</v>
       </c>
       <c r="O127" s="3">
-        <f t="shared" ref="O127" si="204">SUM(O113:O126)</f>
+        <f t="shared" ref="O127" si="237">SUM(O113:O126)</f>
         <v>14923</v>
       </c>
       <c r="P127" s="3">
-        <f t="shared" ref="P127:U127" si="205">SUM(P114:P126,P112)</f>
+        <f t="shared" ref="P127:U127" si="238">SUM(P114:P126,P112)</f>
         <v>18488.694998735507</v>
       </c>
       <c r="Q127" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="238"/>
         <v>27309.921095193538</v>
       </c>
       <c r="R127" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="238"/>
         <v>38104.755773189194</v>
       </c>
       <c r="S127" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="238"/>
         <v>49649.552401274515</v>
       </c>
       <c r="T127" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="238"/>
         <v>62784.563828228027</v>
       </c>
       <c r="U127" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="238"/>
         <v>79309.222994380645</v>
       </c>
       <c r="V127" s="3">
-        <f t="shared" ref="V127:Y127" si="206">SUM(V114:V126,V112)</f>
+        <f t="shared" ref="V127:Y127" si="239">SUM(V114:V126,V112)</f>
         <v>92613.65540961863</v>
       </c>
       <c r="W127" s="3">
-        <f t="shared" si="206"/>
+        <f t="shared" si="239"/>
         <v>109024.2054431609</v>
       </c>
       <c r="X127" s="3">
-        <f t="shared" si="206"/>
+        <f t="shared" si="239"/>
         <v>129563.4726612509</v>
       </c>
       <c r="Y127" s="3">
-        <f t="shared" si="206"/>
+        <f t="shared" si="239"/>
         <v>155659.67395619978</v>
       </c>
       <c r="AA127" s="12" t="s">
@@ -9481,35 +9481,35 @@
         <v>112</v>
       </c>
       <c r="C130" s="14">
-        <f>C128</f>
+        <f t="shared" ref="C130:J130" si="240">C128</f>
         <v>-2777</v>
       </c>
       <c r="D130" s="14">
-        <f>D128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="E130" s="14">
-        <f>E128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="F130" s="14">
-        <f>F128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="G130" s="14">
-        <f>G128</f>
+        <f t="shared" si="240"/>
         <v>-1492</v>
       </c>
       <c r="H130" s="14">
-        <f>H128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="I130" s="14">
-        <f>I128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="J130" s="14">
-        <f>J128</f>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
       <c r="K130" s="14"/>
@@ -9530,43 +9530,43 @@
         <v>-11339</v>
       </c>
       <c r="P130" s="14">
-        <f>P6*-0.09</f>
+        <f t="shared" ref="P130:Y130" si="241">P6*-0.09</f>
         <v>-11255.820184944305</v>
       </c>
       <c r="Q130" s="14">
-        <f>Q6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-15129.682661395382</v>
       </c>
       <c r="R130" s="14">
-        <f>R6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-19073.615967213151</v>
       </c>
       <c r="S130" s="14">
-        <f>S6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-22461.192171456609</v>
       </c>
       <c r="T130" s="14">
-        <f>T6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-25826.432540568709</v>
       </c>
       <c r="U130" s="14">
-        <f>U6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-29957.87913439668</v>
       </c>
       <c r="V130" s="14">
-        <f>V6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-35087.702692271698</v>
       </c>
       <c r="W130" s="14">
-        <f>W6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-41529.325008295695</v>
       </c>
       <c r="X130" s="14">
-        <f>X6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-49708.127698144344</v>
       </c>
       <c r="Y130" s="14">
-        <f>Y6*-0.09</f>
+        <f t="shared" si="241"/>
         <v>-60204.34779967543</v>
       </c>
     </row>
@@ -9576,511 +9576,511 @@
         <v>52</v>
       </c>
       <c r="C131" s="3">
-        <f>C127+C130</f>
+        <f t="shared" ref="C131:J131" si="242">C127+C130</f>
         <v>-2535</v>
       </c>
       <c r="D131" s="3">
-        <f>D127+D130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="E131" s="3">
-        <f>E127+E130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f>F127+F130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="G131" s="3">
-        <f>G127+G130</f>
+        <f t="shared" si="242"/>
         <v>664</v>
       </c>
       <c r="H131" s="3">
-        <f>H127+H130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="I131" s="3">
-        <f>I127+I130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="J131" s="3">
-        <f>J127+J130</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="L131" s="3">
-        <f>L127+L130</f>
+        <f t="shared" ref="L131:Y131" si="243">L127+L130</f>
         <v>0</v>
       </c>
       <c r="M131" s="3">
-        <f>M127+M130</f>
+        <f t="shared" si="243"/>
         <v>7566</v>
       </c>
       <c r="N131" s="3">
-        <f>N127+N130</f>
+        <f t="shared" si="243"/>
         <v>4358</v>
       </c>
       <c r="O131" s="3">
-        <f>O127+O130</f>
+        <f t="shared" si="243"/>
         <v>3584</v>
       </c>
       <c r="P131" s="3">
-        <f>P127+P130</f>
+        <f t="shared" si="243"/>
         <v>7232.8748137912025</v>
       </c>
       <c r="Q131" s="3">
-        <f>Q127+Q130</f>
+        <f t="shared" si="243"/>
         <v>12180.238433798157</v>
       </c>
       <c r="R131" s="3">
-        <f>R127+R130</f>
+        <f t="shared" si="243"/>
         <v>19031.139805976043</v>
       </c>
       <c r="S131" s="3">
-        <f>S127+S130</f>
+        <f t="shared" si="243"/>
         <v>27188.360229817907</v>
       </c>
       <c r="T131" s="3">
-        <f>T127+T130</f>
+        <f t="shared" si="243"/>
         <v>36958.131287659315</v>
       </c>
       <c r="U131" s="3">
-        <f>U127+U130</f>
+        <f t="shared" si="243"/>
         <v>49351.343859983965</v>
       </c>
       <c r="V131" s="3">
-        <f>V127+V130</f>
+        <f t="shared" si="243"/>
         <v>57525.952717346932</v>
       </c>
       <c r="W131" s="3">
-        <f>W127+W130</f>
+        <f t="shared" si="243"/>
         <v>67494.880434865205</v>
       </c>
       <c r="X131" s="3">
-        <f>X127+X130</f>
+        <f t="shared" si="243"/>
         <v>79855.34496310656</v>
       </c>
       <c r="Y131" s="3">
-        <f>Y127+Y130</f>
+        <f t="shared" si="243"/>
         <v>95455.326156524359</v>
       </c>
       <c r="Z131" s="3">
-        <f>Y131*(1+$AB$124)</f>
+        <f t="shared" ref="Z131:BE131" si="244">Y131*(1+$AB$124)</f>
         <v>96409.879418089607</v>
       </c>
       <c r="AA131" s="3">
-        <f>Z131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>97373.978212270507</v>
       </c>
       <c r="AB131" s="3">
-        <f>AA131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>98347.717994393213</v>
       </c>
       <c r="AC131" s="3">
-        <f>AB131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>99331.195174337146</v>
       </c>
       <c r="AD131" s="3">
-        <f>AC131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>100324.50712608051</v>
       </c>
       <c r="AE131" s="3">
-        <f>AD131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>101327.75219734132</v>
       </c>
       <c r="AF131" s="3">
-        <f>AE131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>102341.02971931474</v>
       </c>
       <c r="AG131" s="3">
-        <f>AF131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>103364.44001650788</v>
       </c>
       <c r="AH131" s="3">
-        <f>AG131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>104398.08441667297</v>
       </c>
       <c r="AI131" s="3">
-        <f>AH131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>105442.06526083969</v>
       </c>
       <c r="AJ131" s="3">
-        <f>AI131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>106496.48591344809</v>
       </c>
       <c r="AK131" s="3">
-        <f>AJ131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>107561.45077258258</v>
       </c>
       <c r="AL131" s="3">
-        <f>AK131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>108637.06528030841</v>
       </c>
       <c r="AM131" s="3">
-        <f>AL131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>109723.4359331115</v>
       </c>
       <c r="AN131" s="3">
-        <f>AM131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>110820.67029244261</v>
       </c>
       <c r="AO131" s="3">
-        <f>AN131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>111928.87699536703</v>
       </c>
       <c r="AP131" s="3">
-        <f>AO131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>113048.16576532069</v>
       </c>
       <c r="AQ131" s="3">
-        <f>AP131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>114178.6474229739</v>
       </c>
       <c r="AR131" s="3">
-        <f>AQ131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>115320.43389720363</v>
       </c>
       <c r="AS131" s="3">
-        <f>AR131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>116473.63823617567</v>
       </c>
       <c r="AT131" s="3">
-        <f>AS131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>117638.37461853743</v>
       </c>
       <c r="AU131" s="3">
-        <f>AT131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>118814.7583647228</v>
       </c>
       <c r="AV131" s="3">
-        <f>AU131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>120002.90594837003</v>
       </c>
       <c r="AW131" s="3">
-        <f>AV131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>121202.93500785372</v>
       </c>
       <c r="AX131" s="3">
-        <f>AW131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>122414.96435793226</v>
       </c>
       <c r="AY131" s="3">
-        <f>AX131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>123639.11400151158</v>
       </c>
       <c r="AZ131" s="3">
-        <f>AY131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>124875.50514152669</v>
       </c>
       <c r="BA131" s="3">
-        <f>AZ131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>126124.26019294196</v>
       </c>
       <c r="BB131" s="3">
-        <f>BA131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>127385.50279487138</v>
       </c>
       <c r="BC131" s="3">
-        <f>BB131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>128659.35782282009</v>
       </c>
       <c r="BD131" s="3">
-        <f>BC131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>129945.9514010483</v>
       </c>
       <c r="BE131" s="3">
-        <f>BD131*(1+$AB$124)</f>
+        <f t="shared" si="244"/>
         <v>131245.41091505878</v>
       </c>
       <c r="BF131" s="3">
-        <f>BE131*(1+$AB$124)</f>
+        <f t="shared" ref="BF131:CK131" si="245">BE131*(1+$AB$124)</f>
         <v>132557.86502420937</v>
       </c>
       <c r="BG131" s="3">
-        <f>BF131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>133883.44367445147</v>
       </c>
       <c r="BH131" s="3">
-        <f>BG131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>135222.27811119598</v>
       </c>
       <c r="BI131" s="3">
-        <f>BH131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>136574.50089230793</v>
       </c>
       <c r="BJ131" s="3">
-        <f>BI131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>137940.24590123101</v>
       </c>
       <c r="BK131" s="3">
-        <f>BJ131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>139319.64836024333</v>
       </c>
       <c r="BL131" s="3">
-        <f>BK131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>140712.84484384576</v>
       </c>
       <c r="BM131" s="3">
-        <f>BL131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>142119.97329228421</v>
       </c>
       <c r="BN131" s="3">
-        <f>BM131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>143541.17302520704</v>
       </c>
       <c r="BO131" s="3">
-        <f>BN131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>144976.5847554591</v>
       </c>
       <c r="BP131" s="3">
-        <f>BO131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>146426.35060301371</v>
       </c>
       <c r="BQ131" s="3">
-        <f>BP131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>147890.61410904385</v>
       </c>
       <c r="BR131" s="3">
-        <f>BQ131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>149369.52025013429</v>
       </c>
       <c r="BS131" s="3">
-        <f>BR131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>150863.21545263563</v>
       </c>
       <c r="BT131" s="3">
-        <f>BS131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>152371.847607162</v>
       </c>
       <c r="BU131" s="3">
-        <f>BT131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>153895.56608323363</v>
       </c>
       <c r="BV131" s="3">
-        <f>BU131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>155434.52174406598</v>
       </c>
       <c r="BW131" s="3">
-        <f>BV131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>156988.86696150663</v>
       </c>
       <c r="BX131" s="3">
-        <f>BW131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>158558.75563112169</v>
       </c>
       <c r="BY131" s="3">
-        <f>BX131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>160144.34318743291</v>
       </c>
       <c r="BZ131" s="3">
-        <f>BY131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>161745.78661930724</v>
       </c>
       <c r="CA131" s="3">
-        <f>BZ131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>163363.24448550033</v>
       </c>
       <c r="CB131" s="3">
-        <f>CA131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>164996.87693035533</v>
       </c>
       <c r="CC131" s="3">
-        <f>CB131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>166646.84569965888</v>
       </c>
       <c r="CD131" s="3">
-        <f>CC131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>168313.31415665548</v>
       </c>
       <c r="CE131" s="3">
-        <f>CD131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>169996.44729822205</v>
       </c>
       <c r="CF131" s="3">
-        <f>CE131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>171696.41177120426</v>
       </c>
       <c r="CG131" s="3">
-        <f>CF131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>173413.37588891631</v>
       </c>
       <c r="CH131" s="3">
-        <f>CG131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>175147.50964780548</v>
       </c>
       <c r="CI131" s="3">
-        <f>CH131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>176898.98474428355</v>
       </c>
       <c r="CJ131" s="3">
-        <f>CI131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>178667.97459172638</v>
       </c>
       <c r="CK131" s="3">
-        <f>CJ131*(1+$AB$124)</f>
+        <f t="shared" si="245"/>
         <v>180454.65433764365</v>
       </c>
       <c r="CL131" s="3">
-        <f>CK131*(1+$AB$124)</f>
+        <f t="shared" ref="CL131:DQ131" si="246">CK131*(1+$AB$124)</f>
         <v>182259.20088102008</v>
       </c>
       <c r="CM131" s="3">
-        <f>CL131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>184081.79288983028</v>
       </c>
       <c r="CN131" s="3">
-        <f>CM131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>185922.61081872857</v>
       </c>
       <c r="CO131" s="3">
-        <f>CN131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>187781.83692691586</v>
       </c>
       <c r="CP131" s="3">
-        <f>CO131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>189659.65529618502</v>
       </c>
       <c r="CQ131" s="3">
-        <f>CP131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>191556.25184914688</v>
       </c>
       <c r="CR131" s="3">
-        <f>CQ131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>193471.81436763835</v>
       </c>
       <c r="CS131" s="3">
-        <f>CR131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>195406.53251131473</v>
       </c>
       <c r="CT131" s="3">
-        <f>CS131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>197360.59783642789</v>
       </c>
       <c r="CU131" s="3">
-        <f>CT131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>199334.20381479216</v>
       </c>
       <c r="CV131" s="3">
-        <f>CU131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>201327.54585294009</v>
       </c>
       <c r="CW131" s="3">
-        <f>CV131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>203340.82131146951</v>
       </c>
       <c r="CX131" s="3">
-        <f>CW131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>205374.2295245842</v>
       </c>
       <c r="CY131" s="3">
-        <f>CX131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>207427.97181983004</v>
       </c>
       <c r="CZ131" s="3">
-        <f>CY131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>209502.25153802833</v>
       </c>
       <c r="DA131" s="3">
-        <f>CZ131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>211597.27405340862</v>
       </c>
       <c r="DB131" s="3">
-        <f>DA131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>213713.2467939427</v>
       </c>
       <c r="DC131" s="3">
-        <f>DB131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>215850.37926188213</v>
       </c>
       <c r="DD131" s="3">
-        <f>DC131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>218008.88305450094</v>
       </c>
       <c r="DE131" s="3">
-        <f>DD131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>220188.97188504596</v>
       </c>
       <c r="DF131" s="3">
-        <f>DE131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>222390.86160389642</v>
       </c>
       <c r="DG131" s="3">
-        <f>DF131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>224614.7702199354</v>
       </c>
       <c r="DH131" s="3">
-        <f>DG131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>226860.91792213474</v>
       </c>
       <c r="DI131" s="3">
-        <f>DH131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>229129.5271013561</v>
       </c>
       <c r="DJ131" s="3">
-        <f>DI131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>231420.82237236967</v>
       </c>
       <c r="DK131" s="3">
-        <f>DJ131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>233735.03059609336</v>
       </c>
       <c r="DL131" s="3">
-        <f>DK131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>236072.38090205431</v>
       </c>
       <c r="DM131" s="3">
-        <f>DL131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>238433.10471107485</v>
       </c>
       <c r="DN131" s="3">
-        <f>DM131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>240817.4357581856</v>
       </c>
       <c r="DO131" s="3">
-        <f>DN131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>243225.61011576746</v>
       </c>
       <c r="DP131" s="3">
-        <f>DO131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>245657.86621692515</v>
       </c>
       <c r="DQ131" s="3">
-        <f>DP131*(1+$AB$124)</f>
+        <f t="shared" si="246"/>
         <v>248114.4448790944</v>
       </c>
       <c r="DR131" s="3">
-        <f>DQ131*(1+$AB$124)</f>
+        <f t="shared" ref="DR131:DZ131" si="247">DQ131*(1+$AB$124)</f>
         <v>250595.58932788533</v>
       </c>
       <c r="DS131" s="3">
-        <f>DR131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>253101.54522116418</v>
       </c>
       <c r="DT131" s="3">
-        <f>DS131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>255632.56067337582</v>
       </c>
       <c r="DU131" s="3">
-        <f>DT131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>258188.88628010958</v>
       </c>
       <c r="DV131" s="3">
-        <f>DU131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>260770.77514291069</v>
       </c>
       <c r="DW131" s="3">
-        <f>DV131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>263378.48289433977</v>
       </c>
       <c r="DX131" s="3">
-        <f>DW131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>266012.26772328315</v>
       </c>
       <c r="DY131" s="3">
-        <f>DX131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>268672.39040051599</v>
       </c>
       <c r="DZ131" s="3">
-        <f>DY131*(1+$AB$124)</f>
+        <f t="shared" si="247"/>
         <v>271359.11430452112</v>
       </c>
     </row>
